--- a/improvement/quick_notes.xlsx
+++ b/improvement/quick_notes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="interview preparation" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,339 +18,323 @@
     <sheet name="Sheet8" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="163">
-  <si>
-    <t xml:space="preserve">Sr No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub Task</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recall all inteview questions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Embedded C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collect interview questions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prepare interview questions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salve c quiz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C++</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salve C++ quiz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Communication protocol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List protocols</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">i2c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modbus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z-wave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linux os concepts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multi-threading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Signal handling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Socket programming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scheduling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shell programming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linux OS programming </t>
-  </si>
-  <si>
-    <t xml:space="preserve">init service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">upstart service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cron job</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linux tools </t>
-  </si>
-  <si>
-    <t xml:space="preserve">List dev tools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gdb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">valgind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linux porting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linux rootfs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List rootfs tools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buildroot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linaro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Concept</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Question</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">macro and inline functions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Advantage &amp; disadvantages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macros and Inline functions are efficient than calling a normal function. The times spend in calling the function is saved in case of macros and inline functions as these are included directly into the code. Macros and inline functions increased the size of executable code.
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="164">
+  <si>
+    <t>Sr No</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Sub Task</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>Recall all inteview questions</t>
+  </si>
+  <si>
+    <t>Embedded C</t>
+  </si>
+  <si>
+    <t>Collect interview questions</t>
+  </si>
+  <si>
+    <t>Prepare interview questions</t>
+  </si>
+  <si>
+    <t>Salve c quiz</t>
+  </si>
+  <si>
+    <t>C++</t>
+  </si>
+  <si>
+    <t>Salve C++ quiz</t>
+  </si>
+  <si>
+    <t>Communication protocol</t>
+  </si>
+  <si>
+    <t>List protocols</t>
+  </si>
+  <si>
+    <t>spi</t>
+  </si>
+  <si>
+    <t>i2c</t>
+  </si>
+  <si>
+    <t>modbus</t>
+  </si>
+  <si>
+    <t>Z-wave</t>
+  </si>
+  <si>
+    <t>Linux os concepts</t>
+  </si>
+  <si>
+    <t>Multi-threading</t>
+  </si>
+  <si>
+    <t>Signal handling</t>
+  </si>
+  <si>
+    <t>Socket programming</t>
+  </si>
+  <si>
+    <t>scheduling</t>
+  </si>
+  <si>
+    <t>Shell programming</t>
+  </si>
+  <si>
+    <t>Linux OS programming </t>
+  </si>
+  <si>
+    <t>init service</t>
+  </si>
+  <si>
+    <t>upstart service</t>
+  </si>
+  <si>
+    <t>cron job</t>
+  </si>
+  <si>
+    <t>Linux tools </t>
+  </si>
+  <si>
+    <t>List dev tools</t>
+  </si>
+  <si>
+    <t>gdb</t>
+  </si>
+  <si>
+    <t>valgind</t>
+  </si>
+  <si>
+    <t>Linux porting</t>
+  </si>
+  <si>
+    <t>Linux rootfs</t>
+  </si>
+  <si>
+    <t>List rootfs tools</t>
+  </si>
+  <si>
+    <t>Buildroot</t>
+  </si>
+  <si>
+    <t>Linaro</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>macro and inline functions</t>
+  </si>
+  <si>
+    <t>Advantage &amp; disadvantages</t>
+  </si>
+  <si>
+    <t>Macros and Inline functions are efficient than calling a normal function. The times spend in calling the function is saved in case of macros and inline functions as these are included directly into the code. Macros and inline functions increased the size of executable code.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">difference between macros and inline function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The macro are just symbolic representations and cannot contain data type differentiations within the parameters that we give. The in line functions can have the data types too defined as a part of them. The disadvantage in using both is that the inclusion of condition checks may lead to increase in code space if the function is called many times.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">properties</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No return &amp; argument, avoid sleep.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">how to reduce interrupt latency??</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interrupt latency is the time required to return from the interrupt service routine after tackling a particular interrupt. We can reduce it by writing smaller ISR routines.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">malloc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">used to dynamic memory allocation, return pointer of void, should be cleaned by free (). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">volatile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">const volatile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Const and volatile keywords should not be used together because both are opposite in nature.
+    <t>difference between macros and inline function</t>
+  </si>
+  <si>
+    <t>The macro are just symbolic representations and cannot contain data type differentiations within the parameters that we give. The in line functions can have the data types too defined as a part of them. The disadvantage in using both is that the inclusion of condition checks may lead to increase in code space if the function is called many times.</t>
+  </si>
+  <si>
+    <t>ISR</t>
+  </si>
+  <si>
+    <t>properties</t>
+  </si>
+  <si>
+    <t>No return &amp; argument, avoid sleep.</t>
+  </si>
+  <si>
+    <t>how to reduce interrupt latency??</t>
+  </si>
+  <si>
+    <t>Interrupt latency is the time required to return from the interrupt service routine after tackling a particular interrupt. We can reduce it by writing smaller ISR routines.</t>
+  </si>
+  <si>
+    <t>malloc</t>
+  </si>
+  <si>
+    <t>used to dynamic memory allocation, return pointer of void, should be cleaned by free (). </t>
+  </si>
+  <si>
+    <t>volatile</t>
+  </si>
+  <si>
+    <t>const volatile</t>
+  </si>
+  <si>
+    <t>Const and volatile keywords should not be used together because both are opposite in nature.
 A variable is declared as “const” means it’s value is not able to be changed but if it is declared as “Volatile” then it is not under control. </t>
   </si>
   <si>
-    <t xml:space="preserve">A variable should be declared volatile whenever its value could change unexpectedly. In practice, only three types of variables could change:
+    <t>A variable should be declared volatile whenever its value could change unexpectedly. In practice, only three types of variables could change:
 ? Memory-mapped peripheral registers
 ? Global variables modified by an interrupt service routine
 ? Global variables within a multi-threaded application</t>
   </si>
   <si>
-    <t xml:space="preserve">The volatile keyword is used to represent variables that point to memory in other mapped devices. In such a case the value of the variable can be changed outside of a program. The compiler does not do additional optimizations to the code if there is volatile keyword.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recursive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recursive declared as inline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inline functions property says whenever it will called, it will copy the complete definition of that function. Recursive function declared as inline creates the burden on the compilers execution.
+    <t>The volatile keyword is used to represent variables that point to memory in other mapped devices. In such a case the value of the variable can be changed outside of a program. The compiler does not do additional optimizations to the code if there is volatile keyword.</t>
+  </si>
+  <si>
+    <t>recursive</t>
+  </si>
+  <si>
+    <t>recursive declared as inline</t>
+  </si>
+  <si>
+    <t>Inline functions property says whenever it will called, it will copy the complete definition of that function. Recursive function declared as inline creates the burden on the compilers execution.
 The size of the stack may/may not be overflow if the function size is big.</t>
   </si>
   <si>
-    <t xml:space="preserve">memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">storage classes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">auto, register, static, extern or global</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sr No.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Topic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">sample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lvalues and Rvalues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lvalue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expressions that refer to a memory location is called "lvalue"
+    <t>memory</t>
+  </si>
+  <si>
+    <t>storage classes</t>
+  </si>
+  <si>
+    <t>auto, register, static, extern or global</t>
+  </si>
+  <si>
+    <t>padding</t>
+  </si>
+  <si>
+    <t>Sr No.</t>
+  </si>
+  <si>
+    <t>Topic </t>
+  </si>
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>Lvalues and Rvalues</t>
+  </si>
+  <si>
+    <t>lvalue</t>
+  </si>
+  <si>
+    <t>Expressions that refer to a memory location is called "lvalue"
 expression. An lvalue may appear as either the left-hand or right-hand side of an assignment.</t>
   </si>
   <si>
-    <t xml:space="preserve">int a = 20;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rvalue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The term rvalue refers to a data value that is stored at some address in memory. An rvalue is an expression that cannot have a value assigned to it which means an rvalue may appear on the right- but not left-hand side of an assignment.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 = 30; // invalid expression give compile time error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">auto </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The auto storage class is the default storage class for all local variables.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">int a = 20; auto int b = 30;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">static</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The static storage class instructs the compiler to keep a local variable in
+    <t>int a = 20;</t>
+  </si>
+  <si>
+    <t>rvalue</t>
+  </si>
+  <si>
+    <t>The term rvalue refers to a data value that is stored at some address in memory. An rvalue is an expression that cannot have a value assigned to it which means an rvalue may appear on the right- but not left-hand side of an assignment.</t>
+  </si>
+  <si>
+    <t>20 = 30; // invalid expression give compile time error</t>
+  </si>
+  <si>
+    <t>auto </t>
+  </si>
+  <si>
+    <t>The auto storage class is the default storage class for all local variables.</t>
+  </si>
+  <si>
+    <t>int a = 20; auto int b = 30;</t>
+  </si>
+  <si>
+    <t>static</t>
+  </si>
+  <si>
+    <t>The static storage class instructs the compiler to keep a local variable in
 existence during the life-time of the program instead of creating and destroying
 it each time it comes into and goes out of scope</t>
   </si>
   <si>
-    <t xml:space="preserve">static int a;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">extern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The extern storage class is used to give a reference of a global variable that is
+    <t>static int a;</t>
+  </si>
+  <si>
+    <t>extern</t>
+  </si>
+  <si>
+    <t>The extern storage class is used to give a reference of a global variable that is
 visible to ALL the program files.</t>
   </si>
   <si>
-    <t xml:space="preserve">extern int v;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">register</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">* The register storage class is used to define local variables that should be stored in a register instead of RAM.                                                                                              * This means that the variable has a maximum size </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">equal to the register size (usually one word) and can't have the unary '&amp;' operator applied to it (as it does not have a memory location).</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">register int c;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The mutable specifier applies only to class objects, It allows a member of an object to override const member function. That is, a mutable member can be modified by a const member function.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">References vs Pointers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* You cannot have NULL references. You must always be able to assume
+    <t>extern int v;</t>
+  </si>
+  <si>
+    <t>register</t>
+  </si>
+  <si>
+    <t>* The register storage class is used to define local variables that should be stored in a register instead of RAM.                                                         
+* This means that the variable has a maximum size equal to the register size (usually one word) and can't have the unary '&amp;' operator applied to it (as it does not have 
+a memory location).</t>
+  </si>
+  <si>
+    <t>register int c;</t>
+  </si>
+  <si>
+    <t>mutable</t>
+  </si>
+  <si>
+    <t>The mutable specifier applies only to class objects, It allows a member of an object to override const member function. That is, a mutable member can be modified by a const member function.</t>
+  </si>
+  <si>
+    <t>References vs Pointers</t>
+  </si>
+  <si>
+    <t>* You cannot have NULL references. You must always be able to assume
 That a reference is connected to a legitimate piece of storage.
 * Once a reference is initialized to an object, it cannot be changed to refer
-to another object. Pointers can be pointed to another object at any time.                 * A reference must be initialized when it is created. Pointers can be
-initialized at any time.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Int i =20; int&amp; r = i;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A class is used to specify the form of an object and it combines data representation and methods for manipulating that data.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class member functions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A member function of a class is a function that has its definition or its prototype within the class definition like any other variable.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">class Box {
+to another object. Pointers can be pointed to another object at any time.
+* A reference must be initialized when it is created. Pointers can be initialized at any time.</t>
+  </si>
+  <si>
+    <t>Int i =20; int&amp; r = i;</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>A class is used to specify the form of an object and it combines data representation and methods for manipulating that data.</t>
+  </si>
+  <si>
+    <t>Class member functions</t>
+  </si>
+  <si>
+    <t>A member function of a class is a function that has its definition or its prototype within the class definition like any other variable.</t>
+  </si>
+  <si>
+    <t>class Box {
     public:
     double length; // member of class
     double breadth; // member of class
@@ -360,95 +344,95 @@
     // func body }</t>
   </si>
   <si>
-    <t xml:space="preserve">Class access modifiers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A class member can be defined as public, private or protected. By default members would be assumed as private.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Constructor &amp; destructor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A class constructor is a special function in a class that is called when a new object of the class is created. A destructor is also a special function which is called when created object is deleted.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">copy constructor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The copy constructor is a constructor which creates an object by initializing it with an object of the same class, which has been created previously.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">friend functions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A friend function is permitted full access to private and protected members of a class.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inline functions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">With an inline function, the compiler tries to expand the code in the body of the function in place of a call to the function.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">this pointer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Every object has a special pointer this which points to the object itself.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Static members of a class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Both data members and function members of a class can be declared as static.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class Access Modifiers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">public Members</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A public member is accessible from anywhere outside the class but within a program. You can set and get the value of public variables without any member Function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">private Members</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A private member variable or function cannot be accessed, or even viewed from
+    <t>Class access modifiers</t>
+  </si>
+  <si>
+    <t>A class member can be defined as public, private or protected. By default members would be assumed as private.</t>
+  </si>
+  <si>
+    <t>Constructor &amp; destructor</t>
+  </si>
+  <si>
+    <t>A class constructor is a special function in a class that is called when a new object of the class is created. A destructor is also a special function which is called when created object is deleted.</t>
+  </si>
+  <si>
+    <t>copy constructor</t>
+  </si>
+  <si>
+    <t>The copy constructor is a constructor which creates an object by initializing it with an object of the same class, which has been created previously.</t>
+  </si>
+  <si>
+    <t>friend functions</t>
+  </si>
+  <si>
+    <t>A friend function is permitted full access to private and protected members of a class.</t>
+  </si>
+  <si>
+    <t>inline functions</t>
+  </si>
+  <si>
+    <t>With an inline function, the compiler tries to expand the code in the body of the function in place of a call to the function.</t>
+  </si>
+  <si>
+    <t>this pointer</t>
+  </si>
+  <si>
+    <t>Every object has a special pointer this which points to the object itself.</t>
+  </si>
+  <si>
+    <t>Static members of a class</t>
+  </si>
+  <si>
+    <t>Both data members and function members of a class can be declared as static.</t>
+  </si>
+  <si>
+    <t>Class Access Modifiers</t>
+  </si>
+  <si>
+    <t>public Members</t>
+  </si>
+  <si>
+    <t>A public member is accessible from anywhere outside the class but within a program. You can set and get the value of public variables without any member Function</t>
+  </si>
+  <si>
+    <t>private Members</t>
+  </si>
+  <si>
+    <t>A private member variable or function cannot be accessed, or even viewed from
 outside the class. Only the class and friend functions can access private Members.</t>
   </si>
   <si>
-    <t xml:space="preserve">protected Members</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A protected member variable or function is very similar to a private member
+    <t>protected Members</t>
+  </si>
+  <si>
+    <t>A protected member variable or function is very similar to a private member
 but it provided one additional benefit that they can be accessed in child classes
 which are called derived classes.</t>
   </si>
   <si>
-    <t xml:space="preserve">Constructor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constructor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* A class constructor is a special member function of a class that is executed
+    <t>Constructor</t>
+  </si>
+  <si>
+    <t>constructor</t>
+  </si>
+  <si>
+    <t>* A class constructor is a special member function of a class that is executed
 whenever we create new objects of that class.
 * A constructor will have exact same name as the class and it does not have any
 return type at all, not even void.</t>
   </si>
   <si>
-    <t xml:space="preserve">class Box {
+    <t>class Box {
     public:
     Box();    };
 Box::Box(void) {
     // func body }</t>
   </si>
   <si>
-    <t xml:space="preserve">parametrized Constructor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">class Line {
+    <t>parametrized Constructor</t>
+  </si>
+  <si>
+    <t>class Line {
     public:
     Line(int len);
     private:
@@ -457,10 +441,10 @@
     // func body }</t>
   </si>
   <si>
-    <t xml:space="preserve">Initialization Lists to Initialize Fields</t>
-  </si>
-  <si>
-    <t xml:space="preserve">class Line {
+    <t>Initialization Lists to Initialize Fields</t>
+  </si>
+  <si>
+    <t>class Line {
     public:
     Line(int len);
     private:
@@ -469,24 +453,24 @@
     // func body }</t>
   </si>
   <si>
-    <t xml:space="preserve">classname (const classname &amp;obj) {
+    <t>classname (const classname &amp;obj) {
 // body of constructor }</t>
   </si>
   <si>
-    <t xml:space="preserve">Destructor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A destructor is a special member function of a class that is executed whenever an object of it's class goes out of scope or whenever the delete expression is applied to a pointer to the object of that class.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">~ classname () {
+    <t>Destructor</t>
+  </si>
+  <si>
+    <t>A destructor is a special member function of a class that is executed whenever an object of it's class goes out of scope or whenever the delete expression is applied to a pointer to the object of that class.</t>
+  </si>
+  <si>
+    <t>~ classname () {
 // body of destructor }</t>
   </si>
   <si>
-    <t xml:space="preserve">Friend Functions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">class Line {
+    <t>Friend Functions</t>
+  </si>
+  <si>
+    <t>class Line {
     public:
     friend void printLine(Line line);
     private:
@@ -496,107 +480,107 @@
     // func body }</t>
   </si>
   <si>
-    <t xml:space="preserve">Inheritance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base &amp; Derived Classes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A class can be derived from more than one classes, which means it can inherit data and functions from multiple base classes. If the access-specifier is not used,
+    <t>Inheritance</t>
+  </si>
+  <si>
+    <t>Base &amp; Derived Classes</t>
+  </si>
+  <si>
+    <t>A class can be derived from more than one classes, which means it can inherit data and functions from multiple base classes. If the access-specifier is not used,
 then it is private by default.</t>
   </si>
   <si>
-    <t xml:space="preserve">class derived-class: access-specifier base-class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access                 public  protected   private
+    <t>class derived-class: access-specifier base-class</t>
+  </si>
+  <si>
+    <t>Access                 public  protected   private
 Same class         yes       yes              yes
 Derived classes yes       yes              no
 Outside classes yes       no                no</t>
   </si>
   <si>
-    <t xml:space="preserve">A derived class inherits all base class methods with the following exceptions:
+    <t>A derived class inherits all base class methods with the following exceptions:
  Constructors, destructors and copy constructors of the base class.
  Overloaded operators of the base class.
  The friend functions of the base class.</t>
   </si>
   <si>
-    <t xml:space="preserve">Multiple Inheritance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">class derived-class: access baseA, access baseB....</t>
-  </si>
-  <si>
-    <t xml:space="preserve">overloading </t>
-  </si>
-  <si>
-    <t xml:space="preserve">function overloading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">operator overloading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Box operator+(const Box&amp;, const Box&amp;);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polymorphism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The word polymorphism means having many forms. Typically, polymorphism
+    <t>Multiple Inheritance</t>
+  </si>
+  <si>
+    <t>class derived-class: access baseA, access baseB....</t>
+  </si>
+  <si>
+    <t>overloading </t>
+  </si>
+  <si>
+    <t>function overloading</t>
+  </si>
+  <si>
+    <t>operator overloading</t>
+  </si>
+  <si>
+    <t>Box operator+(const Box&amp;, const Box&amp;);</t>
+  </si>
+  <si>
+    <t>Polymorphism</t>
+  </si>
+  <si>
+    <t>The word polymorphism means having many forms. Typically, polymorphism
 occurs when there is a hierarchy of classes and they are related by inheritance.</t>
   </si>
   <si>
-    <t xml:space="preserve">C++ polymorphism means that a call to a member function will cause a different function to be executed depending on the type of object that invokes the Function.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Virtual Function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A virtual function is a function in a base class that is declared using the keyword virtual. Defining in a base class a virtual function, with another version in a derived class, signals to the compiler that we don't want static linkage for this function.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">virtual int area();</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pure virtual function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The = 0 tells the compiler that the function has no body and above virtual function will be called pure virtual function.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">virtual int area() = 0;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exception handling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C++ exception handling is built upon three keywords: try, catch, and throw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">try {  
+    <t>C++ polymorphism means that a call to a member function will cause a different function to be executed depending on the type of object that invokes the Function.</t>
+  </si>
+  <si>
+    <t>Virtual Function</t>
+  </si>
+  <si>
+    <t>A virtual function is a function in a base class that is declared using the keyword virtual. Defining in a base class a virtual function, with another version in a derived class, signals to the compiler that we don't want static linkage for this function.</t>
+  </si>
+  <si>
+    <t>virtual int area();</t>
+  </si>
+  <si>
+    <t>pure virtual function</t>
+  </si>
+  <si>
+    <t>The = 0 tells the compiler that the function has no body and above virtual function will be called pure virtual function.</t>
+  </si>
+  <si>
+    <t>virtual int area() = 0;</t>
+  </si>
+  <si>
+    <t>Exception handling</t>
+  </si>
+  <si>
+    <t>C++ exception handling is built upon three keywords: try, catch, and throw</t>
+  </si>
+  <si>
+    <t>try {  
     // protected code
     throw ExceptionName;
     }catch( ExceptionName e1 )</t>
   </si>
   <si>
-    <t xml:space="preserve">namespace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discontiguous Namespaces</t>
-  </si>
-  <si>
-    <t xml:space="preserve">namespace namespace_name {
+    <t>namespace</t>
+  </si>
+  <si>
+    <t>Discontiguous Namespaces</t>
+  </si>
+  <si>
+    <t>namespace namespace_name {
 // code declarations
 }</t>
   </si>
   <si>
-    <t xml:space="preserve">Nested Namespaces</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name::code; // code could be variable or function.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Template</t>
+    <t>Nested Namespaces</t>
+  </si>
+  <si>
+    <t>name::code; // code could be variable or function.</t>
+  </si>
+  <si>
+    <t>Template</t>
   </si>
 </sst>
 </file>
@@ -604,9 +588,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -702,11 +686,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -775,7 +754,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -812,24 +791,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -917,10 +892,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1395,16 +1378,16 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="9" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="52.1071428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="12" width="113.260204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="13" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="9" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="52.1071428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="11" width="113.260204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="12" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1422,214 +1405,216 @@
       <c r="E2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18" t="s">
+    <row r="4" customFormat="false" ht="48.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="16"/>
+      <c r="B4" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="20"/>
+      <c r="E4" s="19"/>
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="19" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="20"/>
+      <c r="E5" s="19"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="21"/>
-      <c r="B6" s="22" t="s">
+      <c r="A6" s="20"/>
+      <c r="B6" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="24"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="23" t="s">
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="24"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="20"/>
+      <c r="E8" s="19"/>
     </row>
     <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="21"/>
-      <c r="B9" s="22" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="24"/>
-    </row>
-    <row r="10" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23" t="s">
+      <c r="E9" s="23"/>
+    </row>
+    <row r="10" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="24"/>
-    </row>
-    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="25" t="s">
+      <c r="E10" s="23"/>
+    </row>
+    <row r="11" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="24"/>
+      <c r="E11" s="23"/>
     </row>
     <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18" t="s">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="20"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="26"/>
-      <c r="B13" s="27" t="s">
+      <c r="E12" s="19"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="25"/>
+      <c r="B13" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="29"/>
+      <c r="E13" s="28"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="30"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="31"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="33"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="30"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="34"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="33"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="30"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="34"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="33"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="30"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="34"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="33"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="30"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="34"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="33"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="30"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="34"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="33"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="30"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="34"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="33"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="30"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="34"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="33"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="30"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="34"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="33"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="30"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="34"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="33"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="30"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="34"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="33"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1647,421 +1632,504 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:F44"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="35" width="7.03571428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="36" width="19.3112244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="36" width="23.1989795918367"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="36" width="74.4081632653061"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="36" width="55.265306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="36" width="31.3367346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="36" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="34" width="7.03571428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="35" width="19.3112244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="35" width="23.1989795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="35" width="74.4081632653061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="35" width="55.265306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="35" width="31.3367346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="35" width="11.5204081632653"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0"/>
+      <c r="B1" s="0"/>
+      <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
+      <c r="E1" s="0"/>
+      <c r="F1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0"/>
+      <c r="B2" s="0"/>
+      <c r="C2" s="0"/>
+      <c r="D2" s="0"/>
+      <c r="E2" s="0"/>
+      <c r="F2" s="0"/>
+    </row>
     <row r="3" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="35" t="s">
+      <c r="A3" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="B3" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" s="35" t="s">
+      <c r="E3" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="36" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0"/>
+      <c r="B4" s="0"/>
+      <c r="C4" s="0"/>
+      <c r="D4" s="0"/>
+      <c r="E4" s="0"/>
+    </row>
     <row r="5" customFormat="false" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="35" t="n">
+      <c r="A5" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="36" t="s">
+      <c r="B5" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="C5" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="D5" s="37" t="s">
         <v>72</v>
       </c>
+      <c r="E5" s="37" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="36" t="s">
+      <c r="A6" s="0"/>
+      <c r="B6" s="0"/>
+      <c r="C6" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="D6" s="37" t="s">
         <v>75</v>
       </c>
+      <c r="E6" s="37" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="36" t="s">
+      <c r="A7" s="0"/>
+      <c r="B7" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="36" t="s">
+      <c r="C7" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="D7" s="37" t="s">
         <v>78</v>
       </c>
+      <c r="E7" s="37" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="36" t="s">
+      <c r="A8" s="0"/>
+      <c r="B8" s="0"/>
+      <c r="C8" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="D8" s="37" t="s">
         <v>81</v>
       </c>
+      <c r="E8" s="37" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="36" t="s">
+      <c r="A9" s="0"/>
+      <c r="B9" s="0"/>
+      <c r="C9" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="D9" s="37" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="36" t="s">
+      <c r="E9" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="36" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0"/>
+      <c r="B10" s="0"/>
+      <c r="C10" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="D10" s="37" t="s">
         <v>87</v>
       </c>
+      <c r="E10" s="37" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="36" t="s">
+      <c r="A11" s="0"/>
+      <c r="B11" s="0"/>
+      <c r="C11" s="37" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="71.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="35" t="n">
-        <v>2</v>
-      </c>
-      <c r="B12" s="36" t="s">
+      <c r="D11" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="E11" s="0"/>
+    </row>
+    <row r="12" customFormat="false" ht="71.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="36"/>
+      <c r="B12" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="C12" s="0"/>
+      <c r="D12" s="37" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="35" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" s="36" t="s">
+      <c r="E12" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="36" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="36"/>
+      <c r="B13" s="37" t="s">
         <v>94</v>
       </c>
+      <c r="C13" s="0"/>
+      <c r="D13" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="94.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" s="36" t="s">
+      <c r="B14" s="0"/>
+      <c r="C14" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="D14" s="37" t="s">
         <v>97</v>
       </c>
+      <c r="E14" s="37" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="D15" s="36" t="s">
+      <c r="B15" s="0"/>
+      <c r="C15" s="37" t="s">
         <v>99</v>
       </c>
+      <c r="D15" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="D16" s="36" t="s">
+      <c r="B16" s="0"/>
+      <c r="C16" s="37" t="s">
         <v>101</v>
       </c>
+      <c r="D16" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" s="36" t="s">
+      <c r="B17" s="0"/>
+      <c r="C17" s="37" t="s">
         <v>103</v>
       </c>
+      <c r="D17" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="36" t="s">
+      <c r="B18" s="0"/>
+      <c r="C18" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0"/>
+      <c r="C19" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0"/>
+      <c r="C20" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" s="0"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0"/>
+      <c r="C21" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0"/>
+      <c r="C23" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0"/>
+      <c r="C24" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="E24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="E25" s="37" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="83.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0"/>
+      <c r="C26" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="0"/>
+      <c r="E26" s="37" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="83.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0"/>
+      <c r="C27" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" s="0"/>
+      <c r="E27" s="37" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0"/>
+      <c r="C28" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="D18" s="36" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="D19" s="36" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="D21" s="36" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="D22" s="36" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="D23" s="36" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="D24" s="36" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="C25" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="E25" s="36" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="83.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="E26" s="36" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="83.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="E27" s="36" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="D28" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="E28" s="36" t="s">
-        <v>127</v>
+      <c r="E28" s="37" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="D29" s="36" t="s">
+      <c r="B29" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="E29" s="36" t="s">
+      <c r="C29" s="0"/>
+      <c r="D29" s="37" t="s">
         <v>130</v>
       </c>
+      <c r="E29" s="37" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="94.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="E30" s="36" t="s">
+      <c r="B30" s="37" t="s">
         <v>132</v>
       </c>
+      <c r="C30" s="0"/>
+      <c r="D30" s="0"/>
+      <c r="E30" s="37" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="C31" s="36" t="s">
+      <c r="B31" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="D31" s="36" t="s">
+      <c r="C31" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="E31" s="36" t="s">
+      <c r="D31" s="37" t="s">
         <v>136</v>
       </c>
+      <c r="E31" s="37" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="48.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D32" s="36" t="s">
-        <v>137</v>
-      </c>
+      <c r="B32" s="0"/>
+      <c r="C32" s="0"/>
+      <c r="D32" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="E32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="48.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D33" s="36" t="s">
-        <v>138</v>
-      </c>
+      <c r="B33" s="0"/>
+      <c r="C33" s="0"/>
+      <c r="D33" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="E33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="E34" s="36" t="s">
+      <c r="B34" s="0"/>
+      <c r="C34" s="37" t="s">
         <v>140</v>
       </c>
+      <c r="D34" s="0"/>
+      <c r="E34" s="37" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="C35" s="36" t="s">
+      <c r="B35" s="37" t="s">
         <v>142</v>
       </c>
+      <c r="C35" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="D35" s="0"/>
+      <c r="E35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="E36" s="36" t="s">
+      <c r="B36" s="0"/>
+      <c r="C36" s="37" t="s">
         <v>144</v>
       </c>
+      <c r="D36" s="0"/>
+      <c r="E36" s="37" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="D37" s="36" t="s">
+      <c r="B37" s="37" t="s">
         <v>146</v>
       </c>
+      <c r="C37" s="0"/>
+      <c r="D37" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="E37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D38" s="36" t="s">
-        <v>147</v>
-      </c>
+      <c r="B38" s="0"/>
+      <c r="C38" s="0"/>
+      <c r="D38" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="E38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="D39" s="36" t="s">
+      <c r="B39" s="0"/>
+      <c r="C39" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="E39" s="36" t="s">
+      <c r="D39" s="37" t="s">
         <v>150</v>
       </c>
+      <c r="E39" s="37" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="34.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C40" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="D40" s="36" t="s">
+      <c r="B40" s="0"/>
+      <c r="C40" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="E40" s="36" t="s">
+      <c r="D40" s="37" t="s">
         <v>153</v>
       </c>
+      <c r="E40" s="37" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="D41" s="36" t="s">
+      <c r="B41" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="E41" s="36" t="s">
+      <c r="C41" s="0"/>
+      <c r="D41" s="37" t="s">
         <v>156</v>
       </c>
+      <c r="E41" s="37" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="C42" s="36" t="s">
+      <c r="B42" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="E42" s="36" t="s">
+      <c r="C42" s="37" t="s">
         <v>159</v>
       </c>
+      <c r="E42" s="37" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="E43" s="36" t="s">
+      <c r="B43" s="0"/>
+      <c r="C43" s="37" t="s">
         <v>161</v>
       </c>
+      <c r="E43" s="37" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="36" t="s">
-        <v>162</v>
+      <c r="B44" s="37" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/improvement/quick_notes.xlsx
+++ b/improvement/quick_notes.xlsx
@@ -5,13 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="interview preparation" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Embedded C concepts" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="C++ concepts" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Linux Os concepts" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Sheet5" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="Sheet6" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="Sheet7" sheetId="7" state="visible" r:id="rId8"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="164">
   <si>
     <t>Sr No</t>
   </si>
@@ -754,7 +754,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -904,6 +904,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -987,7 +991,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1634,8 +1638,8 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2148,17 +2152,44 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A3:F3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="38" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="38" width="23.1530612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="38" width="34.1173469387755"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="38" width="79.969387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="38" width="45.8520408163265"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="38" width="22.8418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="38" width="11.5204081632653"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="3" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/improvement/quick_notes.xlsx
+++ b/improvement/quick_notes.xlsx
@@ -5,14 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="interview preparation" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Embedded C concepts" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="C++ concepts" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Linux Os concepts" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Sheet5" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="shell concepts" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="Sheet6" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="Sheet7" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="Sheet8" sheetId="8" state="visible" r:id="rId9"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="259">
   <si>
     <t>Sr No</t>
   </si>
@@ -166,7 +166,7 @@
     <t>difference between macros and inline function</t>
   </si>
   <si>
-    <t>The macro are just symbolic representations and cannot contain data type differentiations within the parameters that we give. The in line functions can have the data types too defined as a part of them. The disadvantage in using both is that the inclusion of condition checks may lead to increase in code space if the function is called many times.</t>
+    <t>The macro are just symbolic representations and cannot contain data type differentiations within the parameters that we give. The inline functions can have the data types too defined as a part of them. The disadvantage in using both is that the inclusion of condition checks may lead to increase in code space if the function is called many times.</t>
   </si>
   <si>
     <t>ISR</t>
@@ -229,6 +229,19 @@
   </si>
   <si>
     <t>padding</t>
+  </si>
+  <si>
+    <t>why padding is done?</t>
+  </si>
+  <si>
+    <t>Architecture of a computer processor is such a way that it can read 1 word from memory at a time.
+This concept is very useful to increase the processor speed.</t>
+  </si>
+  <si>
+    <t>How to avoid structure padding in C?</t>
+  </si>
+  <si>
+    <t>#pragma pack ( 1 ) directive can be used for arranging memory for  structure members very next to the end of other structure members.</t>
   </si>
   <si>
     <t>Sr No.</t>
@@ -582,6 +595,404 @@
   <si>
     <t>Template</t>
   </si>
+  <si>
+    <t>virtual terminals</t>
+  </si>
+  <si>
+    <t>- virtual terminals or consoles(tty1 ­ tty12).
+- switching between virtual terminals cntl+alt+F1 &lt;-&gt; ..cntl+alt+F7.
+- tty7 is dedicated for the GUI – X­Window Application.
+- tty10 is dedicated for the kernel messages
+  (messages are generated in the kernel­space using printk() ­ core of the OS and modules)</t>
+  </si>
+  <si>
+    <t>Shell prompt</t>
+  </si>
+  <si>
+    <t>- exit or ctrl­D – to exit the current interactive shell
+- CLI – command­line interface to the OS
+- differnet shells, $ cat /etc/shells
+- you can also change your default shell permanently using :
+       $chsh ­-s /bin/tcsh;logout and login again 
+       you will see the new default shell is effective.</t>
+  </si>
+  <si>
+    <t>standard streams</t>
+  </si>
+  <si>
+    <t>standard input</t>
+  </si>
+  <si>
+    <t>by default, associated with the virtual­terminal or pseudo­terminal – 0.</t>
+  </si>
+  <si>
+    <t>standard output</t>
+  </si>
+  <si>
+    <t>by default, associated with the virtual­terminal or pseudo­terminal – 1.</t>
+  </si>
+  <si>
+    <t>standard error</t>
+  </si>
+  <si>
+    <t>by default, associated with the virtual­terminal or pseudo­terminal – 2.</t>
+  </si>
+  <si>
+    <t>any interactive process, by default, has the above settings true</t>
+  </si>
+  <si>
+    <t>Redirecting standard streams</t>
+  </si>
+  <si>
+    <t>typically, filters like, cat, wc, grep, sed,etc,.</t>
+  </si>
+  <si>
+    <t>Key directories</t>
+  </si>
+  <si>
+    <t>/sbin – most essential system administration binaries(fsck,fdisk,init,...)</t>
+  </si>
+  <si>
+    <t>/etc – most essential configuration files like inittab.fstab,...</t>
+  </si>
+  <si>
+    <t>/lib – most essential libraries and kernel modules are located here(/lib/modules/&lt;kernel­version&gt;/)</t>
+  </si>
+  <si>
+    <t>/boot – contains boot­loader files and kernel images</t>
+  </si>
+  <si>
+    <t>/root – recommended default system administrator's home directory</t>
+  </si>
+  <si>
+    <t>/home – contains home directories of individual users(/home/corporate)</t>
+  </si>
+  <si>
+    <t>/tmp – contains temporary files that may be deleted at every system boot</t>
+  </si>
+  <si>
+    <t>/opt – third­part software packages may be installed here</t>
+  </si>
+  <si>
+    <t>/usr/bin – not so important utilities</t>
+  </si>
+  <si>
+    <t>/usr/sbin – not so important system administration utilities</t>
+  </si>
+  <si>
+    <t>/usr/lib – libraries that support add­on software packages</t>
+  </si>
+  <si>
+    <t>/usr/share – shareable directory with documentation and other executables that may be shared with others hosts over NFS</t>
+  </si>
+  <si>
+    <t>/usr/local/bin – locally provided utilities and binaries</t>
+  </si>
+  <si>
+    <t>/usr/local/sbin – locally provided administration utilities</t>
+  </si>
+  <si>
+    <t>/usr/local/doc – locally provided documentation </t>
+  </si>
+  <si>
+    <t>/usr/src – may contain source­code of utilities/kernel</t>
+  </si>
+  <si>
+    <t>shell variables</t>
+  </si>
+  <si>
+    <t>user defined</t>
+  </si>
+  <si>
+    <t>unset – delete a variable</t>
+  </si>
+  <si>
+    <t>unset var1 var2
+echo $var1
+echo $var2</t>
+  </si>
+  <si>
+    <t>only the specific shell is affected – other shells are unaffected </t>
+  </si>
+  <si>
+    <t>predefined</t>
+  </si>
+  <si>
+    <t>- environment variables
+- their usage is predefined by the shell normally exported PATH,PS1,PS2,PWD,HOME,SHELL,USER,TERM..</t>
+  </si>
+  <si>
+    <t>special variables</t>
+  </si>
+  <si>
+    <t>- also known as special parameters 
+- their usage is predefined by the shell and the values are set during run­time to reflect the current state of the shell
+- ?, $, @, #, 0, 1, 2, 3, 4.........
+</t>
+  </si>
+  <si>
+    <t>$ echo $$
+$ echo $? // exit status of the previous command or return value of a function execution </t>
+  </si>
+  <si>
+    <t>arithmetic substitution</t>
+  </si>
+  <si>
+    <t>➢ Var1=10 ; var2=20;
+➢ echo $(( var1+var2 ))
+➢ echo $(( var1+1 ))
+➢ echo $(( var1*2 + var2*2  )) 
+➢ echo (( var1*2 + var2*2  )) 
+➢ echo $(( var++ )) 
+➢ echo $(( ++var ))</t>
+  </si>
+  <si>
+    <t>aliases</t>
+  </si>
+  <si>
+    <t>alias</t>
+  </si>
+  <si>
+    <t>create an alias for a standard command with frequently used options</t>
+  </si>
+  <si>
+    <t>alias ll='ls ­l'  // use single­quotes</t>
+  </si>
+  <si>
+    <t>aliases are not exported</t>
+  </si>
+  <si>
+    <t>unalias</t>
+  </si>
+  <si>
+    <t>unalias ll  // to remove the alias</t>
+  </si>
+  <si>
+    <t>functions</t>
+  </si>
+  <si>
+    <t>- aliases take precedence over functions</t>
+  </si>
+  <si>
+    <t>function f2(){ return $(($1+$2)); }; f2 3 5; echo 
+$?</t>
+  </si>
+  <si>
+    <t>- export ­f f1 //export a function</t>
+  </si>
+  <si>
+    <t>- unset ­f f1   //delete a function setting in a shell</t>
+  </si>
+  <si>
+    <t>redirection</t>
+  </si>
+  <si>
+    <t>➢ ls ­lR / ( use ctrl­C to terminate it)
+➢ ls ­lR / 1&gt;file1 2&gt;file2
+➢ ls ­lR / 1&gt;file1 2&gt;&amp;1
+➢ ls ­lR / 2&gt;&amp;1 1&gt;file1 (wrong)
+➢ cat &lt; /etc/passwd // standard input is redirected to active file of /etc/passwd</t>
+  </si>
+  <si>
+    <t>flow­control structures</t>
+  </si>
+  <si>
+    <t>for control structure</t>
+  </si>
+  <si>
+    <t>for variable in list
+    do
+        command1; command2; ...... ;
+        commandn;
+    Done</t>
+  </si>
+  <si>
+    <t>for FILE in /etc/*.conf
+    do
+         echo “backing up $FILE...”
+         cp $FILE backup/
+    Done</t>
+  </si>
+  <si>
+    <t>for (( a=1; a&lt;=32; a++ )) 
+    do
+        echo $a
+    Done</t>
+  </si>
+  <si>
+    <t>if control structure</t>
+  </si>
+  <si>
+    <t>if control­command
+then
+     command1; command2; ...;
+     commandn;
+Fi
+-------------
+if control­command
+then
+    commands
+elif control­command
+then 
+    commands
+else
+    commands
+Fi</t>
+  </si>
+  <si>
+    <t>if test $A ­gt 50      // test command evaluates
+then
+    echo “too high”     
+fi
+OR
+if [ $A ­gt 50 ]      // [ ]  command evaluates
+then
+    echo “too high”     
+Fi</t>
+  </si>
+  <si>
+    <t>control command can be test or [ ]</t>
+  </si>
+  <si>
+    <t>what can be used with test or [ ] commands ?</t>
+  </si>
+  <si>
+    <t>➢ -­f file  (file exists and is regular)
+➢ -­d file  (file exists and is directory)
+➢ -­r file   (file exists and readable)
+➢ -­x file  ( file exists and executable)
+➢ -­w file  ( file exists and writable)
+</t>
+  </si>
+  <si>
+    <t>➢ string1 == string2 ( string comparison )
+➢ string1 != string2  
+➢ value1 ­eq value2(numeric comparison)
+➢ value1 ­gt value2
+➢ value1 ­lt value2
+➢ expression1 ­a expression2   // and operator 
+➢ expression1 ­o expression2  // or operator</t>
+  </si>
+  <si>
+    <t>while control structure</t>
+  </si>
+  <si>
+    <t>while control­command1
+    Do 
+        command1;command2;....;commandn;
+    Done</t>
+  </si>
+  <si>
+    <t>scripting</t>
+  </si>
+  <si>
+    <t>need an interpreter at the top of the script
+   #!/bin/bash or #!/bin/tcsh</t>
+  </si>
+  <si>
+    <t>if no interpreter is mentioned at the top of the script then, the kernel uses the default depending on the system
+➢ in Linux, it is /bin/bash</t>
+  </si>
+  <si>
+    <t>sourcing is popular in start­up scripts and also, can be used to include scripts from other scripts</t>
+  </si>
+  <si>
+    <t>source ./script1.sh  or . ./script1.sh </t>
+  </si>
+  <si>
+    <t>vi </t>
+  </si>
+  <si>
+    <t>➢ edit mode
+➢ i ­ insert before cursor
+➢ I ­ insert at the start of the line
+➢ a ­ append after the cursor
+➢ A­ append at the end of the line
+➢ o ­ open a line after current line and insert
+➢ O­ open a line before the current line and insert
+➢ ex(or :) mode – extended command mode
+➢ entered by just pressing :
+➢ :0  ­ beginning of the file
+➢ :$  ­ to the end of the file
+➢ :n  ­ any specific line
+➢ :w ­ save
+➢ :wq – save and quit 
+➢ :w! ­ force write(even if the file read­only)
+➢ :x – save and exit (also, ZZ)
+➢ :q  ­ quit vi
+➢ :q!  ­ quit without saving
+➢ :set nu – line numbering 
+➢ :set nonu – disable line numbering
+➢ :w filename – save as
+➢ :e filename – edit a new file
+➢ :spl  – split vi into 2 windows 
+➢ :clo – close current window
+➢ ctrl­w ctrl­w to move between windows
+➢ /pattern/ to search – regular expression search
+➢ use n to keep moving from one find to the other
+➢ :s/reg­exp/replacement­string/
+➢ :s/reg­exp/replacement­string/g
+➢ :1,$/reg­exp/replacement­string/[g] 
+➢ :%s/reg­exp/replacement­string/[g] – global in a file
+[g] is an option – global in a line, not in a file 
+➢ in command mode, try the following 
+➢ dd – delete current line
+➢ 2dd(ndd) – delete 2 lines from current line
+➢ yy – copy(yank) current line
+➢ 2yy(nyy) – copy 2 lines from current line
+➢ p – copy below current line
+➢ P – copy above current line</t>
+  </si>
+  <si>
+    <t>basic filters</t>
+  </si>
+  <si>
+    <t>➢ less</t>
+  </si>
+  <si>
+    <t>➢ grep</t>
+  </si>
+  <si>
+    <t>➢ sort</t>
+  </si>
+  <si>
+    <t>➢ cut</t>
+  </si>
+  <si>
+    <t>➢ sed</t>
+  </si>
+  <si>
+    <t>➢ wc</t>
+  </si>
+  <si>
+    <t>➢ bc</t>
+  </si>
+  <si>
+    <t>grep ­ options</t>
+  </si>
+  <si>
+    <t>➢ grep -­c    //  count no. lines that contain a match 
+➢ grep -­i   //   case insensitive matching
+➢ grep -­l   //   print list of files that contain a match 
+➢ grep -­n  //   show line no. before the line 
+➢ grep -­s  //    silent mode
+➢ grep -­v  //    inverse output – non­matching lines
+➢ grep -­w  //   match entirely, as a word
+➢ grep -­x  //    match entirely, as line only
+➢ grep -­f  filename
+➢ grep -­r or grep -R // test files recursively in a directory </t>
+  </si>
+  <si>
+    <t>sed – stream editor </t>
+  </si>
+  <si>
+    <t>➢ can do what grep can do and much more
+➢ can delete lines on the fly
+➢ can search and replace</t>
+  </si>
+  <si>
+    <t>awk </t>
+  </si>
 </sst>
 </file>
 
@@ -590,7 +1001,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -686,6 +1097,11 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -754,7 +1170,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -884,11 +1300,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -908,6 +1324,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1382,7 +1802,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1541,84 +1961,92 @@
       </c>
       <c r="E13" s="28"/>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="29"/>
       <c r="B14" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="32"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="29"/>
       <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="33"/>
+      <c r="C15" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="32"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="29"/>
       <c r="B16" s="30"/>
       <c r="C16" s="31"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="33"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="32"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="29"/>
       <c r="B17" s="30"/>
       <c r="C17" s="31"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="33"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="32"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="29"/>
       <c r="B18" s="30"/>
       <c r="C18" s="31"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="33"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="32"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="29"/>
       <c r="B19" s="30"/>
       <c r="C19" s="31"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="33"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="32"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="29"/>
       <c r="B20" s="30"/>
       <c r="C20" s="31"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="33"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="32"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="29"/>
       <c r="B21" s="30"/>
       <c r="C21" s="31"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="33"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="32"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="29"/>
       <c r="B22" s="30"/>
       <c r="C22" s="31"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="33"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="32"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="29"/>
       <c r="B23" s="30"/>
       <c r="C23" s="31"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="33"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="32"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="29"/>
       <c r="B24" s="30"/>
       <c r="C24" s="31"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="33"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="32"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1639,7 +2067,7 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1671,10 +2099,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="36" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C3" s="36" t="s">
         <v>39</v>
@@ -1683,7 +2111,7 @@
         <v>41</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F3" s="36" t="s">
         <v>6</v>
@@ -1701,29 +2129,29 @@
         <v>1</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0"/>
       <c r="B6" s="0"/>
       <c r="C6" s="37" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1732,290 +2160,290 @@
         <v>64</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0"/>
       <c r="B8" s="0"/>
       <c r="C8" s="37" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0"/>
       <c r="B9" s="0"/>
       <c r="C9" s="37" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0"/>
       <c r="B10" s="0"/>
       <c r="C10" s="37" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0"/>
       <c r="B11" s="0"/>
       <c r="C11" s="37" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="71.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="36"/>
       <c r="B12" s="37" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C12" s="0"/>
       <c r="D12" s="37" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="36"/>
       <c r="B13" s="37" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C13" s="0"/>
       <c r="D13" s="37" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="94.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0"/>
       <c r="C14" s="37" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0"/>
       <c r="C15" s="37" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0"/>
       <c r="C16" s="37" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0"/>
       <c r="C17" s="37" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0"/>
       <c r="C18" s="37" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0"/>
       <c r="C19" s="37" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D19" s="37" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0"/>
       <c r="C20" s="37" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D20" s="37" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0"/>
       <c r="C21" s="37" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="37" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D22" s="37" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0"/>
       <c r="C23" s="37" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0"/>
       <c r="C24" s="37" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D24" s="37" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="37" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E25" s="37" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="83.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0"/>
       <c r="C26" s="37" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D26" s="0"/>
       <c r="E26" s="37" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="83.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0"/>
       <c r="C27" s="37" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D27" s="0"/>
       <c r="E27" s="37" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0"/>
       <c r="C28" s="37" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E28" s="37" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="37" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C29" s="0"/>
       <c r="D29" s="37" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E29" s="37" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="94.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="37" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C30" s="0"/>
       <c r="D30" s="0"/>
       <c r="E30" s="37" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="37" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C31" s="37" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D31" s="37" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E31" s="37" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="48.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
       <c r="D32" s="37" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E32" s="0"/>
     </row>
@@ -2023,26 +2451,26 @@
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
       <c r="D33" s="37" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0"/>
       <c r="C34" s="37" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D34" s="0"/>
       <c r="E34" s="37" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="37" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C35" s="37" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D35" s="0"/>
       <c r="E35" s="0"/>
@@ -2050,20 +2478,20 @@
     <row r="36" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0"/>
       <c r="C36" s="37" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D36" s="0"/>
       <c r="E36" s="37" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="37" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C37" s="0"/>
       <c r="D37" s="37" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E37" s="0"/>
     </row>
@@ -2071,69 +2499,69 @@
       <c r="B38" s="0"/>
       <c r="C38" s="0"/>
       <c r="D38" s="37" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0"/>
       <c r="C39" s="37" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D39" s="37" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E39" s="37" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="34.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="0"/>
       <c r="C40" s="37" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D40" s="37" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E40" s="37" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="37" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C41" s="0"/>
       <c r="D41" s="37" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E41" s="37" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="37" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C42" s="37" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E42" s="37" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0"/>
       <c r="C43" s="37" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E43" s="37" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="37" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2152,29 +2580,45 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:F3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="38" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="38" width="23.1530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="38" width="34.1173469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="38" width="79.969387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="38" width="45.8520408163265"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="38" width="22.8418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="38" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="35" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="35" width="23.1530612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="35" width="34.1173469387755"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="35" width="79.969387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="35" width="45.8520408163265"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="35" width="22.8418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="35" width="11.5204081632653"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0"/>
+      <c r="B1" s="0"/>
+      <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
+      <c r="E1" s="0"/>
+      <c r="F1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0"/>
+      <c r="B2" s="0"/>
+      <c r="C2" s="0"/>
+      <c r="D2" s="0"/>
+      <c r="E2" s="0"/>
+      <c r="F2" s="0"/>
+    </row>
     <row r="3" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="36" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C3" s="36" t="s">
         <v>39</v>
@@ -2183,7 +2627,7 @@
         <v>41</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F3" s="36" t="s">
         <v>6</v>
@@ -2205,17 +2649,424 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A2:F56"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="38" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="38" width="23.1530612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="38" width="34.7295918367347"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="38" width="74.7244897959184"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="38" width="42.6020408163265"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="38" width="34.8928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="38" width="11.5204081632653"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="2" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="71.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="71.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="38" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="38" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="38" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="38" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="38" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="38" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="38" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19" s="38" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D20" s="38" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="38" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="38" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D23" s="38" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D24" s="38" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="38" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D26" s="38" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="D27" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="E27" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="F27" s="38" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="D29" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="E29" s="38" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="82.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="E30" s="38" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="C31" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="D31" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="E31" s="38" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D32" s="38" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="E33" s="38" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="D34" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="E34" s="38" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D35" s="38" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D36" s="38" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="71.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="E37" s="38" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="C38" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="D38" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E38" s="38" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="48.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E39" s="39" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="175.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C40" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="D40" s="38" t="s">
+        <v>231</v>
+      </c>
+      <c r="E40" s="38" t="s">
+        <v>232</v>
+      </c>
+      <c r="F40" s="38" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="82.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C41" s="38" t="s">
+        <v>234</v>
+      </c>
+      <c r="D41" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="E41" s="38" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="48.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C42" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="D42" s="38" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="D43" s="38" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D44" s="38" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D45" s="38" t="s">
+        <v>242</v>
+      </c>
+      <c r="E45" s="38" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="490" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="D46" s="38" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="D47" s="38" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="0"/>
+      <c r="D48" s="38" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D49" s="38" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D50" s="38" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D51" s="38" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D52" s="38" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D53" s="38" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="117.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="D54" s="38" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="D55" s="38" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="38" t="s">
+        <v>258</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/improvement/quick_notes.xlsx
+++ b/improvement/quick_notes.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="258">
   <si>
     <t>Sr No</t>
   </si>
@@ -707,7 +707,7 @@
     <t>unset – delete a variable</t>
   </si>
   <si>
-    <t>unset var1 var2
+    <t>export var1=”data1”;unset var1 var2
 echo $var1
 echo $var2</t>
   </si>
@@ -778,19 +778,19 @@
 $?</t>
   </si>
   <si>
-    <t>- export ­f f1 //export a function</t>
-  </si>
-  <si>
-    <t>- unset ­f f1   //delete a function setting in a shell</t>
+    <t>- export ­-f f1 //export a function</t>
+  </si>
+  <si>
+    <t>- unset ­-f f1   //delete a function setting in a shell</t>
   </si>
   <si>
     <t>redirection</t>
   </si>
   <si>
-    <t>➢ ls ­lR / ( use ctrl­C to terminate it)
-➢ ls ­lR / 1&gt;file1 2&gt;file2
-➢ ls ­lR / 1&gt;file1 2&gt;&amp;1
-➢ ls ­lR / 2&gt;&amp;1 1&gt;file1 (wrong)
+    <t>➢ ls ­-lR / ( use ctrl­C to terminate it)
+➢ ls ­-lR / 1&gt;file1 2&gt;file2
+➢ ls ­-lR / 1&gt;file1 2&gt;&amp;1
+➢ ls ­-lR / 2&gt;&amp;1 1&gt;file1 (wrong)
 ➢ cat &lt; /etc/passwd // standard input is redirected to active file of /etc/passwd</t>
   </si>
   <si>
@@ -807,14 +807,13 @@
     Done</t>
   </si>
   <si>
-    <t>for FILE in /etc/*.conf
+    <t>"for FILE in /etc/*.conf
     do
          echo “backing up $FILE...”
          cp $FILE backup/
-    Done</t>
-  </si>
-  <si>
-    <t>for (( a=1; a&lt;=32; a++ )) 
+    Done"
+--------------
+for (( a=1; a&lt;=32; a++ )) 
     do
         echo $a
     Done</t>
@@ -840,12 +839,12 @@
 Fi</t>
   </si>
   <si>
-    <t>if test $A ­gt 50      // test command evaluates
+    <t>if test $A -­gt 50      // test command evaluates
 then
     echo “too high”     
 fi
 OR
-if [ $A ­gt 50 ]      // [ ]  command evaluates
+if [ $A -­gt 50 ]      // [ ]  command evaluates
 then
     echo “too high”     
 Fi</t>
@@ -867,9 +866,9 @@
   <si>
     <t>➢ string1 == string2 ( string comparison )
 ➢ string1 != string2  
-➢ value1 ­eq value2(numeric comparison)
-➢ value1 ­gt value2
-➢ value1 ­lt value2
+➢ value1 ­-eq value2(numeric comparison)
+➢ value1 ­-gt value2
+➢ value1 ­-lt value2
 ➢ expression1 ­a expression2   // and operator 
 ➢ expression1 ­o expression2  // or operator</t>
   </si>
@@ -1001,7 +1000,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1097,11 +1096,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1170,7 +1164,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1324,10 +1318,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2649,10 +2639,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:F56"/>
+  <dimension ref="A2:F55"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A45" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D51" activeCellId="0" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2825,7 +2815,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="38" t="s">
         <v>199</v>
       </c>
@@ -2925,7 +2915,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="117.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="38" t="s">
         <v>225</v>
       </c>
@@ -2939,83 +2929,83 @@
         <v>228</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="48.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E39" s="39" t="s">
+    <row r="39" customFormat="false" ht="175.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C39" s="38" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="175.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D39" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="E39" s="38" t="s">
+        <v>231</v>
+      </c>
+      <c r="F39" s="38" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="82.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="38" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D40" s="38" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E40" s="38" t="s">
-        <v>232</v>
-      </c>
-      <c r="F40" s="38" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="82.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="48.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="38" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D41" s="38" t="s">
-        <v>235</v>
-      </c>
-      <c r="E41" s="38" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="48.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="38" t="s">
         <v>237</v>
       </c>
+    </row>
+    <row r="42" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="38" t="s">
+        <v>238</v>
+      </c>
       <c r="D42" s="38" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="38" t="s">
         <v>239</v>
       </c>
+    </row>
+    <row r="43" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D43" s="38" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D44" s="38" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E44" s="38" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="490" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="38" t="s">
+        <v>243</v>
+      </c>
       <c r="D45" s="38" t="s">
-        <v>242</v>
-      </c>
-      <c r="E45" s="38" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="490" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="38" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D46" s="38" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="38" t="s">
         <v>246</v>
       </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="0"/>
       <c r="D47" s="38" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="0"/>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D48" s="38" t="s">
         <v>248</v>
       </c>
@@ -3040,30 +3030,25 @@
         <v>252</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="117.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="38" t="s">
+        <v>253</v>
+      </c>
       <c r="D53" s="38" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="117.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="38" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D54" s="38" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="38" t="s">
-        <v>256</v>
-      </c>
-      <c r="D55" s="38" t="s">
         <v>257</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="38" t="s">
-        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/improvement/quick_notes.xlsx
+++ b/improvement/quick_notes.xlsx
@@ -987,7 +987,7 @@
   <si>
     <t>➢ can do what grep can do and much more
 ➢ can delete lines on the fly
-➢ can search and replace</t>
+➢ can search and replace </t>
   </si>
   <si>
     <t>awk </t>
@@ -2641,8 +2641,8 @@
   </sheetPr>
   <dimension ref="A2:F55"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A45" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D51" activeCellId="0" sqref="D51"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D55" activeCellId="0" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/improvement/quick_notes.xlsx
+++ b/improvement/quick_notes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="interview preparation" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,341 +13,346 @@
     <sheet name="C++ concepts" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Linux Os concepts" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="shell concepts" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Sheet6" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="embedded_linux" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="Sheet7" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="Sheet8" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="258">
-  <si>
-    <t>Sr No</t>
-  </si>
-  <si>
-    <t>Task</t>
-  </si>
-  <si>
-    <t>Sub Task</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>Actual</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Remark</t>
-  </si>
-  <si>
-    <t>Recall all inteview questions</t>
-  </si>
-  <si>
-    <t>Embedded C</t>
-  </si>
-  <si>
-    <t>Collect interview questions</t>
-  </si>
-  <si>
-    <t>Prepare interview questions</t>
-  </si>
-  <si>
-    <t>Salve c quiz</t>
-  </si>
-  <si>
-    <t>C++</t>
-  </si>
-  <si>
-    <t>Salve C++ quiz</t>
-  </si>
-  <si>
-    <t>Communication protocol</t>
-  </si>
-  <si>
-    <t>List protocols</t>
-  </si>
-  <si>
-    <t>spi</t>
-  </si>
-  <si>
-    <t>i2c</t>
-  </si>
-  <si>
-    <t>modbus</t>
-  </si>
-  <si>
-    <t>Z-wave</t>
-  </si>
-  <si>
-    <t>Linux os concepts</t>
-  </si>
-  <si>
-    <t>Multi-threading</t>
-  </si>
-  <si>
-    <t>Signal handling</t>
-  </si>
-  <si>
-    <t>Socket programming</t>
-  </si>
-  <si>
-    <t>scheduling</t>
-  </si>
-  <si>
-    <t>Shell programming</t>
-  </si>
-  <si>
-    <t>Linux OS programming </t>
-  </si>
-  <si>
-    <t>init service</t>
-  </si>
-  <si>
-    <t>upstart service</t>
-  </si>
-  <si>
-    <t>cron job</t>
-  </si>
-  <si>
-    <t>Linux tools </t>
-  </si>
-  <si>
-    <t>List dev tools</t>
-  </si>
-  <si>
-    <t>gdb</t>
-  </si>
-  <si>
-    <t>valgind</t>
-  </si>
-  <si>
-    <t>Linux porting</t>
-  </si>
-  <si>
-    <t>Linux rootfs</t>
-  </si>
-  <si>
-    <t>List rootfs tools</t>
-  </si>
-  <si>
-    <t>Buildroot</t>
-  </si>
-  <si>
-    <t>Linaro</t>
-  </si>
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Reference</t>
-  </si>
-  <si>
-    <t>macro and inline functions</t>
-  </si>
-  <si>
-    <t>Advantage &amp; disadvantages</t>
-  </si>
-  <si>
-    <t>Macros and Inline functions are efficient than calling a normal function. The times spend in calling the function is saved in case of macros and inline functions as these are included directly into the code. Macros and inline functions increased the size of executable code.
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="277">
+  <si>
+    <t xml:space="preserve">Sr No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub Task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recall all inteview questions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Embedded C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collect interview questions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prepare interview questions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salve c quiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C++</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salve C++ quiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Communication protocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List protocols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i2c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modbus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z-wave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linux os concepts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi-threading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signal handling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Socket programming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scheduling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shell programming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linux OS programming </t>
+  </si>
+  <si>
+    <t xml:space="preserve">init service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">upstart service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cron job</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linux tools </t>
+  </si>
+  <si>
+    <t xml:space="preserve">List dev tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gdb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valgind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linux porting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linux rootfs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List rootfs tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buildroot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linaro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">macro and inline functions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advantage &amp; disadvantages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macros and Inline functions are efficient than calling a normal function. The times spend in calling the function is saved in case of macros and inline functions as these are included directly into the code. Macros and inline functions increased the size of executable code.
 </t>
   </si>
   <si>
-    <t>difference between macros and inline function</t>
-  </si>
-  <si>
-    <t>The macro are just symbolic representations and cannot contain data type differentiations within the parameters that we give. The inline functions can have the data types too defined as a part of them. The disadvantage in using both is that the inclusion of condition checks may lead to increase in code space if the function is called many times.</t>
-  </si>
-  <si>
-    <t>ISR</t>
-  </si>
-  <si>
-    <t>properties</t>
-  </si>
-  <si>
-    <t>No return &amp; argument, avoid sleep.</t>
-  </si>
-  <si>
-    <t>how to reduce interrupt latency??</t>
-  </si>
-  <si>
-    <t>Interrupt latency is the time required to return from the interrupt service routine after tackling a particular interrupt. We can reduce it by writing smaller ISR routines.</t>
-  </si>
-  <si>
-    <t>malloc</t>
-  </si>
-  <si>
-    <t>used to dynamic memory allocation, return pointer of void, should be cleaned by free (). </t>
-  </si>
-  <si>
-    <t>volatile</t>
-  </si>
-  <si>
-    <t>const volatile</t>
-  </si>
-  <si>
-    <t>Const and volatile keywords should not be used together because both are opposite in nature.
+    <t xml:space="preserve">difference between macros and inline function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The macro are just symbolic representations and cannot contain data type differentiations within the parameters that we give. The inline functions can have the data types too defined as a part of them. The disadvantage in using both is that the inclusion of condition checks may lead to increase in code space if the function is called many times.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No return &amp; argument, avoid sleep.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how to reduce interrupt latency??</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interrupt latency is the time required to return from the interrupt service routine after tackling a particular interrupt. We can reduce it by writing smaller ISR routines.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">malloc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">used to dynamic memory allocation, return pointer of void, should be cleaned by free (). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">volatile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">const volatile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Const and volatile keywords should not be used together because both are opposite in nature.
 A variable is declared as “const” means it’s value is not able to be changed but if it is declared as “Volatile” then it is not under control. </t>
   </si>
   <si>
-    <t>A variable should be declared volatile whenever its value could change unexpectedly. In practice, only three types of variables could change:
+    <t xml:space="preserve">A variable should be declared volatile whenever its value could change unexpectedly. In practice, only three types of variables could change:
 ? Memory-mapped peripheral registers
 ? Global variables modified by an interrupt service routine
 ? Global variables within a multi-threaded application</t>
   </si>
   <si>
-    <t>The volatile keyword is used to represent variables that point to memory in other mapped devices. In such a case the value of the variable can be changed outside of a program. The compiler does not do additional optimizations to the code if there is volatile keyword.</t>
-  </si>
-  <si>
-    <t>recursive</t>
-  </si>
-  <si>
-    <t>recursive declared as inline</t>
-  </si>
-  <si>
-    <t>Inline functions property says whenever it will called, it will copy the complete definition of that function. Recursive function declared as inline creates the burden on the compilers execution.
+    <t xml:space="preserve">The volatile keyword is used to represent variables that point to memory in other mapped devices. In such a case the value of the variable can be changed outside of a program. The compiler does not do additional optimizations to the code if there is volatile keyword.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recursive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recursive declared as inline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inline functions property says whenever it will called, it will copy the complete definition of that function. Recursive function declared as inline creates the burden on the compilers execution.
 The size of the stack may/may not be overflow if the function size is big.</t>
   </si>
   <si>
-    <t>memory</t>
-  </si>
-  <si>
-    <t>storage classes</t>
-  </si>
-  <si>
-    <t>auto, register, static, extern or global</t>
-  </si>
-  <si>
-    <t>padding</t>
-  </si>
-  <si>
-    <t>why padding is done?</t>
-  </si>
-  <si>
-    <t>Architecture of a computer processor is such a way that it can read 1 word from memory at a time.
+    <t xml:space="preserve">memory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">storage classes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auto, register, static, extern or global</t>
+  </si>
+  <si>
+    <t xml:space="preserve">padding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">why padding is done?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Architecture of a computer processor is such a way that it can read 1 word from memory at a time.
 This concept is very useful to increase the processor speed.</t>
   </si>
   <si>
-    <t>How to avoid structure padding in C?</t>
-  </si>
-  <si>
-    <t>#pragma pack ( 1 ) directive can be used for arranging memory for  structure members very next to the end of other structure members.</t>
-  </si>
-  <si>
-    <t>Sr No.</t>
-  </si>
-  <si>
-    <t>Topic </t>
-  </si>
-  <si>
-    <t>sample</t>
-  </si>
-  <si>
-    <t>Lvalues and Rvalues</t>
-  </si>
-  <si>
-    <t>lvalue</t>
-  </si>
-  <si>
-    <t>Expressions that refer to a memory location is called "lvalue"
+    <t xml:space="preserve">How to avoid structure padding in C?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#pragma pack ( 1 ) directive can be used for arranging memory for  structure members very next to the end of other structure members.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sr No.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lvalues and Rvalues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lvalue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expressions that refer to a memory location is called "lvalue"
 expression. An lvalue may appear as either the left-hand or right-hand side of an assignment.</t>
   </si>
   <si>
-    <t>int a = 20;</t>
-  </si>
-  <si>
-    <t>rvalue</t>
-  </si>
-  <si>
-    <t>The term rvalue refers to a data value that is stored at some address in memory. An rvalue is an expression that cannot have a value assigned to it which means an rvalue may appear on the right- but not left-hand side of an assignment.</t>
-  </si>
-  <si>
-    <t>20 = 30; // invalid expression give compile time error</t>
-  </si>
-  <si>
-    <t>auto </t>
-  </si>
-  <si>
-    <t>The auto storage class is the default storage class for all local variables.</t>
-  </si>
-  <si>
-    <t>int a = 20; auto int b = 30;</t>
-  </si>
-  <si>
-    <t>static</t>
-  </si>
-  <si>
-    <t>The static storage class instructs the compiler to keep a local variable in
+    <t xml:space="preserve">int a = 20;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rvalue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The term rvalue refers to a data value that is stored at some address in memory. An rvalue is an expression that cannot have a value assigned to it which means an rvalue may appear on the right- but not left-hand side of an assignment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 = 30; // invalid expression give compile time error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The auto storage class is the default storage class for all local variables.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int a = 20; auto int b = 30;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">static</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The static storage class instructs the compiler to keep a local variable in
 existence during the life-time of the program instead of creating and destroying
 it each time it comes into and goes out of scope</t>
   </si>
   <si>
-    <t>static int a;</t>
-  </si>
-  <si>
-    <t>extern</t>
-  </si>
-  <si>
-    <t>The extern storage class is used to give a reference of a global variable that is
+    <t xml:space="preserve">static int a;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The extern storage class is used to give a reference of a global variable that is
 visible to ALL the program files.</t>
   </si>
   <si>
-    <t>extern int v;</t>
-  </si>
-  <si>
-    <t>register</t>
-  </si>
-  <si>
-    <t>* The register storage class is used to define local variables that should be stored in a register instead of RAM.                                                         
+    <t xml:space="preserve">extern int v;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">register</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* The register storage class is used to define local variables that should be stored in a register instead of RAM.                                                         
 * This means that the variable has a maximum size equal to the register size (usually one word) and can't have the unary '&amp;' operator applied to it (as it does not have 
 a memory location).</t>
   </si>
   <si>
-    <t>register int c;</t>
-  </si>
-  <si>
-    <t>mutable</t>
-  </si>
-  <si>
-    <t>The mutable specifier applies only to class objects, It allows a member of an object to override const member function. That is, a mutable member can be modified by a const member function.</t>
-  </si>
-  <si>
-    <t>References vs Pointers</t>
-  </si>
-  <si>
-    <t>* You cannot have NULL references. You must always be able to assume
+    <t xml:space="preserve">register int c;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mutable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The mutable specifier applies only to class objects, It allows a member of an object to override const member function. That is, a mutable member can be modified by a const member function.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">References vs Pointers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* You cannot have NULL references. You must always be able to assume
 That a reference is connected to a legitimate piece of storage.
 * Once a reference is initialized to an object, it cannot be changed to refer
 to another object. Pointers can be pointed to another object at any time.
 * A reference must be initialized when it is created. Pointers can be initialized at any time.</t>
   </si>
   <si>
-    <t>Int i =20; int&amp; r = i;</t>
-  </si>
-  <si>
-    <t>Class</t>
-  </si>
-  <si>
-    <t>A class is used to specify the form of an object and it combines data representation and methods for manipulating that data.</t>
-  </si>
-  <si>
-    <t>Class member functions</t>
-  </si>
-  <si>
-    <t>A member function of a class is a function that has its definition or its prototype within the class definition like any other variable.</t>
-  </si>
-  <si>
-    <t>class Box {
+    <t xml:space="preserve">Int i =20; int&amp; r = i;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A class is used to specify the form of an object and it combines data representation and methods for manipulating that data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class member functions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A member function of a class is a function that has its definition or its prototype within the class definition like any other variable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class Box {
     public:
     double length; // member of class
     double breadth; // member of class
@@ -357,95 +362,95 @@
     // func body }</t>
   </si>
   <si>
-    <t>Class access modifiers</t>
-  </si>
-  <si>
-    <t>A class member can be defined as public, private or protected. By default members would be assumed as private.</t>
-  </si>
-  <si>
-    <t>Constructor &amp; destructor</t>
-  </si>
-  <si>
-    <t>A class constructor is a special function in a class that is called when a new object of the class is created. A destructor is also a special function which is called when created object is deleted.</t>
-  </si>
-  <si>
-    <t>copy constructor</t>
-  </si>
-  <si>
-    <t>The copy constructor is a constructor which creates an object by initializing it with an object of the same class, which has been created previously.</t>
-  </si>
-  <si>
-    <t>friend functions</t>
-  </si>
-  <si>
-    <t>A friend function is permitted full access to private and protected members of a class.</t>
-  </si>
-  <si>
-    <t>inline functions</t>
-  </si>
-  <si>
-    <t>With an inline function, the compiler tries to expand the code in the body of the function in place of a call to the function.</t>
-  </si>
-  <si>
-    <t>this pointer</t>
-  </si>
-  <si>
-    <t>Every object has a special pointer this which points to the object itself.</t>
-  </si>
-  <si>
-    <t>Static members of a class</t>
-  </si>
-  <si>
-    <t>Both data members and function members of a class can be declared as static.</t>
-  </si>
-  <si>
-    <t>Class Access Modifiers</t>
-  </si>
-  <si>
-    <t>public Members</t>
-  </si>
-  <si>
-    <t>A public member is accessible from anywhere outside the class but within a program. You can set and get the value of public variables without any member Function</t>
-  </si>
-  <si>
-    <t>private Members</t>
-  </si>
-  <si>
-    <t>A private member variable or function cannot be accessed, or even viewed from
+    <t xml:space="preserve">Class access modifiers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A class member can be defined as public, private or protected. By default members would be assumed as private.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constructor &amp; destructor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A class constructor is a special function in a class that is called when a new object of the class is created. A destructor is also a special function which is called when created object is deleted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">copy constructor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The copy constructor is a constructor which creates an object by initializing it with an object of the same class, which has been created previously.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">friend functions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A friend function is permitted full access to private and protected members of a class.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inline functions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With an inline function, the compiler tries to expand the code in the body of the function in place of a call to the function.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this pointer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Every object has a special pointer this which points to the object itself.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Static members of a class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Both data members and function members of a class can be declared as static.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class Access Modifiers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">public Members</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A public member is accessible from anywhere outside the class but within a program. You can set and get the value of public variables without any member Function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">private Members</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A private member variable or function cannot be accessed, or even viewed from
 outside the class. Only the class and friend functions can access private Members.</t>
   </si>
   <si>
-    <t>protected Members</t>
-  </si>
-  <si>
-    <t>A protected member variable or function is very similar to a private member
+    <t xml:space="preserve">protected Members</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A protected member variable or function is very similar to a private member
 but it provided one additional benefit that they can be accessed in child classes
 which are called derived classes.</t>
   </si>
   <si>
-    <t>Constructor</t>
-  </si>
-  <si>
-    <t>constructor</t>
-  </si>
-  <si>
-    <t>* A class constructor is a special member function of a class that is executed
+    <t xml:space="preserve">Constructor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">constructor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* A class constructor is a special member function of a class that is executed
 whenever we create new objects of that class.
 * A constructor will have exact same name as the class and it does not have any
 return type at all, not even void.</t>
   </si>
   <si>
-    <t>class Box {
+    <t xml:space="preserve">class Box {
     public:
     Box();    };
 Box::Box(void) {
     // func body }</t>
   </si>
   <si>
-    <t>parametrized Constructor</t>
-  </si>
-  <si>
-    <t>class Line {
+    <t xml:space="preserve">parametrized Constructor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class Line {
     public:
     Line(int len);
     private:
@@ -454,10 +459,10 @@
     // func body }</t>
   </si>
   <si>
-    <t>Initialization Lists to Initialize Fields</t>
-  </si>
-  <si>
-    <t>class Line {
+    <t xml:space="preserve">Initialization Lists to Initialize Fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class Line {
     public:
     Line(int len);
     private:
@@ -466,24 +471,24 @@
     // func body }</t>
   </si>
   <si>
-    <t>classname (const classname &amp;obj) {
+    <t xml:space="preserve">classname (const classname &amp;obj) {
 // body of constructor }</t>
   </si>
   <si>
-    <t>Destructor</t>
-  </si>
-  <si>
-    <t>A destructor is a special member function of a class that is executed whenever an object of it's class goes out of scope or whenever the delete expression is applied to a pointer to the object of that class.</t>
-  </si>
-  <si>
-    <t>~ classname () {
+    <t xml:space="preserve">Destructor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A destructor is a special member function of a class that is executed whenever an object of it's class goes out of scope or whenever the delete expression is applied to a pointer to the object of that class.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~ classname () {
 // body of destructor }</t>
   </si>
   <si>
-    <t>Friend Functions</t>
-  </si>
-  <si>
-    <t>class Line {
+    <t xml:space="preserve">Friend Functions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class Line {
     public:
     friend void printLine(Line line);
     private:
@@ -493,123 +498,123 @@
     // func body }</t>
   </si>
   <si>
-    <t>Inheritance</t>
-  </si>
-  <si>
-    <t>Base &amp; Derived Classes</t>
-  </si>
-  <si>
-    <t>A class can be derived from more than one classes, which means it can inherit data and functions from multiple base classes. If the access-specifier is not used,
+    <t xml:space="preserve">Inheritance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base &amp; Derived Classes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A class can be derived from more than one classes, which means it can inherit data and functions from multiple base classes. If the access-specifier is not used,
 then it is private by default.</t>
   </si>
   <si>
-    <t>class derived-class: access-specifier base-class</t>
-  </si>
-  <si>
-    <t>Access                 public  protected   private
+    <t xml:space="preserve">class derived-class: access-specifier base-class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access                 public  protected   private
 Same class         yes       yes              yes
 Derived classes yes       yes              no
 Outside classes yes       no                no</t>
   </si>
   <si>
-    <t>A derived class inherits all base class methods with the following exceptions:
+    <t xml:space="preserve">A derived class inherits all base class methods with the following exceptions:
  Constructors, destructors and copy constructors of the base class.
  Overloaded operators of the base class.
  The friend functions of the base class.</t>
   </si>
   <si>
-    <t>Multiple Inheritance</t>
-  </si>
-  <si>
-    <t>class derived-class: access baseA, access baseB....</t>
-  </si>
-  <si>
-    <t>overloading </t>
-  </si>
-  <si>
-    <t>function overloading</t>
-  </si>
-  <si>
-    <t>operator overloading</t>
-  </si>
-  <si>
-    <t>Box operator+(const Box&amp;, const Box&amp;);</t>
-  </si>
-  <si>
-    <t>Polymorphism</t>
-  </si>
-  <si>
-    <t>The word polymorphism means having many forms. Typically, polymorphism
+    <t xml:space="preserve">Multiple Inheritance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class derived-class: access baseA, access baseB....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">overloading </t>
+  </si>
+  <si>
+    <t xml:space="preserve">function overloading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">operator overloading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Box operator+(const Box&amp;, const Box&amp;);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polymorphism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The word polymorphism means having many forms. Typically, polymorphism
 occurs when there is a hierarchy of classes and they are related by inheritance.</t>
   </si>
   <si>
-    <t>C++ polymorphism means that a call to a member function will cause a different function to be executed depending on the type of object that invokes the Function.</t>
-  </si>
-  <si>
-    <t>Virtual Function</t>
-  </si>
-  <si>
-    <t>A virtual function is a function in a base class that is declared using the keyword virtual. Defining in a base class a virtual function, with another version in a derived class, signals to the compiler that we don't want static linkage for this function.</t>
-  </si>
-  <si>
-    <t>virtual int area();</t>
-  </si>
-  <si>
-    <t>pure virtual function</t>
-  </si>
-  <si>
-    <t>The = 0 tells the compiler that the function has no body and above virtual function will be called pure virtual function.</t>
-  </si>
-  <si>
-    <t>virtual int area() = 0;</t>
-  </si>
-  <si>
-    <t>Exception handling</t>
-  </si>
-  <si>
-    <t>C++ exception handling is built upon three keywords: try, catch, and throw</t>
-  </si>
-  <si>
-    <t>try {  
+    <t xml:space="preserve">C++ polymorphism means that a call to a member function will cause a different function to be executed depending on the type of object that invokes the Function.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virtual Function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A virtual function is a function in a base class that is declared using the keyword virtual. Defining in a base class a virtual function, with another version in a derived class, signals to the compiler that we don't want static linkage for this function.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">virtual int area();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pure virtual function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The = 0 tells the compiler that the function has no body and above virtual function will be called pure virtual function.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">virtual int area() = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exception handling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C++ exception handling is built upon three keywords: try, catch, and throw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">try {  
     // protected code
     throw ExceptionName;
     }catch( ExceptionName e1 )</t>
   </si>
   <si>
-    <t>namespace</t>
-  </si>
-  <si>
-    <t>Discontiguous Namespaces</t>
-  </si>
-  <si>
-    <t>namespace namespace_name {
+    <t xml:space="preserve">namespace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discontiguous Namespaces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">namespace namespace_name {
 // code declarations
 }</t>
   </si>
   <si>
-    <t>Nested Namespaces</t>
-  </si>
-  <si>
-    <t>name::code; // code could be variable or function.</t>
-  </si>
-  <si>
-    <t>Template</t>
-  </si>
-  <si>
-    <t>virtual terminals</t>
-  </si>
-  <si>
-    <t>- virtual terminals or consoles(tty1 ­ tty12).
+    <t xml:space="preserve">Nested Namespaces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name::code; // code could be variable or function.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Template</t>
+  </si>
+  <si>
+    <t xml:space="preserve">virtual terminals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- virtual terminals or consoles(tty1 ­ tty12).
 - switching between virtual terminals cntl+alt+F1 &lt;-&gt; ..cntl+alt+F7.
 - tty7 is dedicated for the GUI – X­Window Application.
 - tty10 is dedicated for the kernel messages
   (messages are generated in the kernel­space using printk() ­ core of the OS and modules)</t>
   </si>
   <si>
-    <t>Shell prompt</t>
-  </si>
-  <si>
-    <t>- exit or ctrl­D – to exit the current interactive shell
+    <t xml:space="preserve">Shell prompt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- exit or ctrl­D – to exit the current interactive shell
 - CLI – command­line interface to the OS
 - differnet shells, $ cat /etc/shells
 - you can also change your default shell permanently using :
@@ -617,128 +622,128 @@
        you will see the new default shell is effective.</t>
   </si>
   <si>
-    <t>standard streams</t>
-  </si>
-  <si>
-    <t>standard input</t>
-  </si>
-  <si>
-    <t>by default, associated with the virtual­terminal or pseudo­terminal – 0.</t>
-  </si>
-  <si>
-    <t>standard output</t>
-  </si>
-  <si>
-    <t>by default, associated with the virtual­terminal or pseudo­terminal – 1.</t>
-  </si>
-  <si>
-    <t>standard error</t>
-  </si>
-  <si>
-    <t>by default, associated with the virtual­terminal or pseudo­terminal – 2.</t>
-  </si>
-  <si>
-    <t>any interactive process, by default, has the above settings true</t>
-  </si>
-  <si>
-    <t>Redirecting standard streams</t>
-  </si>
-  <si>
-    <t>typically, filters like, cat, wc, grep, sed,etc,.</t>
-  </si>
-  <si>
-    <t>Key directories</t>
-  </si>
-  <si>
-    <t>/sbin – most essential system administration binaries(fsck,fdisk,init,...)</t>
-  </si>
-  <si>
-    <t>/etc – most essential configuration files like inittab.fstab,...</t>
-  </si>
-  <si>
-    <t>/lib – most essential libraries and kernel modules are located here(/lib/modules/&lt;kernel­version&gt;/)</t>
-  </si>
-  <si>
-    <t>/boot – contains boot­loader files and kernel images</t>
-  </si>
-  <si>
-    <t>/root – recommended default system administrator's home directory</t>
-  </si>
-  <si>
-    <t>/home – contains home directories of individual users(/home/corporate)</t>
-  </si>
-  <si>
-    <t>/tmp – contains temporary files that may be deleted at every system boot</t>
-  </si>
-  <si>
-    <t>/opt – third­part software packages may be installed here</t>
-  </si>
-  <si>
-    <t>/usr/bin – not so important utilities</t>
-  </si>
-  <si>
-    <t>/usr/sbin – not so important system administration utilities</t>
-  </si>
-  <si>
-    <t>/usr/lib – libraries that support add­on software packages</t>
-  </si>
-  <si>
-    <t>/usr/share – shareable directory with documentation and other executables that may be shared with others hosts over NFS</t>
-  </si>
-  <si>
-    <t>/usr/local/bin – locally provided utilities and binaries</t>
-  </si>
-  <si>
-    <t>/usr/local/sbin – locally provided administration utilities</t>
-  </si>
-  <si>
-    <t>/usr/local/doc – locally provided documentation </t>
-  </si>
-  <si>
-    <t>/usr/src – may contain source­code of utilities/kernel</t>
-  </si>
-  <si>
-    <t>shell variables</t>
-  </si>
-  <si>
-    <t>user defined</t>
-  </si>
-  <si>
-    <t>unset – delete a variable</t>
-  </si>
-  <si>
-    <t>export var1=”data1”;unset var1 var2
+    <t xml:space="preserve">standard streams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">standard input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">by default, associated with the virtual­terminal or pseudo­terminal – 0.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">standard output</t>
+  </si>
+  <si>
+    <t xml:space="preserve">by default, associated with the virtual­terminal or pseudo­terminal – 1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">standard error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">by default, associated with the virtual­terminal or pseudo­terminal – 2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">any interactive process, by default, has the above settings true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redirecting standard streams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">typically, filters like, cat, wc, grep, sed,etc,.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key directories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/sbin – most essential system administration binaries(fsck,fdisk,init,...)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/etc – most essential configuration files like inittab.fstab,...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/lib – most essential libraries and kernel modules are located here(/lib/modules/&lt;kernel­version&gt;/)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/boot – contains boot­loader files and kernel images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/root – recommended default system administrator's home directory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/home – contains home directories of individual users(/home/corporate)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/tmp – contains temporary files that may be deleted at every system boot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/opt – third­part software packages may be installed here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/usr/bin – not so important utilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/usr/sbin – not so important system administration utilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/usr/lib – libraries that support add­on software packages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/usr/share – shareable directory with documentation and other executables that may be shared with others hosts over NFS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/usr/local/bin – locally provided utilities and binaries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/usr/local/sbin – locally provided administration utilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/usr/local/doc – locally provided documentation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/usr/src – may contain source­code of utilities/kernel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shell variables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user defined</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unset – delete a variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">export var1=”data1”;unset var1 var2
 echo $var1
 echo $var2</t>
   </si>
   <si>
-    <t>only the specific shell is affected – other shells are unaffected </t>
-  </si>
-  <si>
-    <t>predefined</t>
-  </si>
-  <si>
-    <t>- environment variables
+    <t xml:space="preserve">only the specific shell is affected – other shells are unaffected </t>
+  </si>
+  <si>
+    <t xml:space="preserve">predefined</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- environment variables
 - their usage is predefined by the shell normally exported PATH,PS1,PS2,PWD,HOME,SHELL,USER,TERM..</t>
   </si>
   <si>
-    <t>special variables</t>
-  </si>
-  <si>
-    <t>- also known as special parameters 
+    <t xml:space="preserve">special variables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- also known as special parameters 
 - their usage is predefined by the shell and the values are set during run­time to reflect the current state of the shell
 - ?, $, @, #, 0, 1, 2, 3, 4.........
 </t>
   </si>
   <si>
-    <t>$ echo $$
+    <t xml:space="preserve">$ echo $$
 $ echo $? // exit status of the previous command or return value of a function execution </t>
   </si>
   <si>
-    <t>arithmetic substitution</t>
-  </si>
-  <si>
-    <t>➢ Var1=10 ; var2=20;
+    <t xml:space="preserve">arithmetic substitution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">➢ Var1=10 ; var2=20;
 ➢ echo $(( var1+var2 ))
 ➢ echo $(( var1+1 ))
 ➢ echo $(( var1*2 + var2*2  )) 
@@ -747,67 +752,67 @@
 ➢ echo $(( ++var ))</t>
   </si>
   <si>
-    <t>aliases</t>
-  </si>
-  <si>
-    <t>alias</t>
-  </si>
-  <si>
-    <t>create an alias for a standard command with frequently used options</t>
-  </si>
-  <si>
-    <t>alias ll='ls ­l'  // use single­quotes</t>
-  </si>
-  <si>
-    <t>aliases are not exported</t>
-  </si>
-  <si>
-    <t>unalias</t>
-  </si>
-  <si>
-    <t>unalias ll  // to remove the alias</t>
-  </si>
-  <si>
-    <t>functions</t>
-  </si>
-  <si>
-    <t>- aliases take precedence over functions</t>
-  </si>
-  <si>
-    <t>function f2(){ return $(($1+$2)); }; f2 3 5; echo 
+    <t xml:space="preserve">aliases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create an alias for a standard command with frequently used options</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alias ll='ls ­l'  // use single­quotes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliases are not exported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unalias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unalias ll  // to remove the alias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">functions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- aliases take precedence over functions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">function f2(){ return $(($1+$2)); }; f2 3 5; echo 
 $?</t>
   </si>
   <si>
-    <t>- export ­-f f1 //export a function</t>
-  </si>
-  <si>
-    <t>- unset ­-f f1   //delete a function setting in a shell</t>
-  </si>
-  <si>
-    <t>redirection</t>
-  </si>
-  <si>
-    <t>➢ ls ­-lR / ( use ctrl­C to terminate it)
+    <t xml:space="preserve">- export ­-f f1 //export a function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- unset ­-f f1   //delete a function setting in a shell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redirection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">➢ ls ­-lR / ( use ctrl­C to terminate it)
 ➢ ls ­-lR / 1&gt;file1 2&gt;file2
 ➢ ls ­-lR / 1&gt;file1 2&gt;&amp;1
 ➢ ls ­-lR / 2&gt;&amp;1 1&gt;file1 (wrong)
 ➢ cat &lt; /etc/passwd // standard input is redirected to active file of /etc/passwd</t>
   </si>
   <si>
-    <t>flow­control structures</t>
-  </si>
-  <si>
-    <t>for control structure</t>
-  </si>
-  <si>
-    <t>for variable in list
+    <t xml:space="preserve">flow­control structures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for control structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for variable in list
     do
         command1; command2; ...... ;
         commandn;
     Done</t>
   </si>
   <si>
-    <t>"for FILE in /etc/*.conf
+    <t xml:space="preserve">"for FILE in /etc/*.conf
     do
          echo “backing up $FILE...”
          cp $FILE backup/
@@ -819,10 +824,10 @@
     Done</t>
   </si>
   <si>
-    <t>if control structure</t>
-  </si>
-  <si>
-    <t>if control­command
+    <t xml:space="preserve">if control structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if control­command
 then
      command1; command2; ...;
      commandn;
@@ -839,7 +844,7 @@
 Fi</t>
   </si>
   <si>
-    <t>if test $A -­gt 50      // test command evaluates
+    <t xml:space="preserve">if test $A -­gt 50      // test command evaluates
 then
     echo “too high”     
 fi
@@ -850,13 +855,13 @@
 Fi</t>
   </si>
   <si>
-    <t>control command can be test or [ ]</t>
-  </si>
-  <si>
-    <t>what can be used with test or [ ] commands ?</t>
-  </si>
-  <si>
-    <t>➢ -­f file  (file exists and is regular)
+    <t xml:space="preserve">control command can be test or [ ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what can be used with test or [ ] commands ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">➢ -­f file  (file exists and is regular)
 ➢ -­d file  (file exists and is directory)
 ➢ -­r file   (file exists and readable)
 ➢ -­x file  ( file exists and executable)
@@ -864,7 +869,7 @@
 </t>
   </si>
   <si>
-    <t>➢ string1 == string2 ( string comparison )
+    <t xml:space="preserve">➢ string1 == string2 ( string comparison )
 ➢ string1 != string2  
 ➢ value1 ­-eq value2(numeric comparison)
 ➢ value1 ­-gt value2
@@ -873,36 +878,36 @@
 ➢ expression1 ­o expression2  // or operator</t>
   </si>
   <si>
-    <t>while control structure</t>
-  </si>
-  <si>
-    <t>while control­command1
+    <t xml:space="preserve">while control structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">while control­command1
     Do 
         command1;command2;....;commandn;
     Done</t>
   </si>
   <si>
-    <t>scripting</t>
-  </si>
-  <si>
-    <t>need an interpreter at the top of the script
+    <t xml:space="preserve">scripting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">need an interpreter at the top of the script
    #!/bin/bash or #!/bin/tcsh</t>
   </si>
   <si>
-    <t>if no interpreter is mentioned at the top of the script then, the kernel uses the default depending on the system
+    <t xml:space="preserve">if no interpreter is mentioned at the top of the script then, the kernel uses the default depending on the system
 ➢ in Linux, it is /bin/bash</t>
   </si>
   <si>
-    <t>sourcing is popular in start­up scripts and also, can be used to include scripts from other scripts</t>
-  </si>
-  <si>
-    <t>source ./script1.sh  or . ./script1.sh </t>
-  </si>
-  <si>
-    <t>vi </t>
-  </si>
-  <si>
-    <t>➢ edit mode
+    <t xml:space="preserve">sourcing is popular in start­up scripts and also, can be used to include scripts from other scripts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source ./script1.sh  or . ./script1.sh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">➢ edit mode
 ➢ i ­ insert before cursor
 ➢ I ­ insert at the start of the line
 ➢ a ­ append after the cursor
@@ -943,34 +948,34 @@
 ➢ P – copy above current line</t>
   </si>
   <si>
-    <t>basic filters</t>
-  </si>
-  <si>
-    <t>➢ less</t>
-  </si>
-  <si>
-    <t>➢ grep</t>
-  </si>
-  <si>
-    <t>➢ sort</t>
-  </si>
-  <si>
-    <t>➢ cut</t>
-  </si>
-  <si>
-    <t>➢ sed</t>
-  </si>
-  <si>
-    <t>➢ wc</t>
-  </si>
-  <si>
-    <t>➢ bc</t>
-  </si>
-  <si>
-    <t>grep ­ options</t>
-  </si>
-  <si>
-    <t>➢ grep -­c    //  count no. lines that contain a match 
+    <t xml:space="preserve">basic filters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">➢ less</t>
+  </si>
+  <si>
+    <t xml:space="preserve">➢ grep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">➢ sort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">➢ cut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">➢ sed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">➢ wc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">➢ bc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grep ­ options</t>
+  </si>
+  <si>
+    <t xml:space="preserve">➢ grep -­c    //  count no. lines that contain a match 
 ➢ grep -­i   //   case insensitive matching
 ➢ grep -­l   //   print list of files that contain a match 
 ➢ grep -­n  //   show line no. before the line 
@@ -982,15 +987,93 @@
 ➢ grep -­r or grep -R // test files recursively in a directory </t>
   </si>
   <si>
-    <t>sed – stream editor </t>
-  </si>
-  <si>
-    <t>➢ can do what grep can do and much more
+    <t xml:space="preserve">sed – stream editor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">➢ can do what grep can do and much more
 ➢ can delete lines on the fly
 ➢ can search and replace </t>
   </si>
   <si>
-    <t>awk </t>
+    <t xml:space="preserve">awk </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cross compiler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why ??</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- For embedded system development, it is usually impossible or not interesting to use a native toolchain
+- The target is too restricted in terms of storage and/or memory
+- The target is very slow compared to your workstation
+- You may not want to install all development tools on your target.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Three machines must be distinguished when discussing toolchain creation
+- The build machine, where the toolchain is built.
+- The host machine, where the toolchain will be executed.
+- The target machine, where the binaries created by the toolchain are executed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binutils</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binutils is a set of tools to generate and manipulate binaries for a given CPU architecture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">objdump, readelf, size, nm, strings, to inspect binaries. Very useful analysis tools!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strip, to strip parts of binaries that are just needed for debugging (reducing their size).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C library</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-Several C libraries are available: glibc, uClibc, musl, dietlibc, newlib, etc.
+-  The choice of the C library must be made at the time of the cross-compiling toolchain generation, as the GCC compiler is compiled against a specific C library.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bootloader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Basic hardware initialization
+- Loading of an application binary, usually an operating system kernel, from flash storage, from the network, or from another type of non-volatile storage.
+- Possibly decompression of the application binary 
+- Execution of the application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Booting on embedded CPUs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- When powered, the CPU starts executing code at a fixed address
+- There is no other booting mechanism provided by the CPU
+- The hardware design must ensure that a NOR flash chip is wired so that it is accessible at the address at which the CPU starts executing instructions
+- The first stage bootloader must be programmed at this address in the NOR 
+- NOR is mandatory, because it allows random access, which NAND doesn't allow
+- Not very common anymore (unpractical, andrequires NOR flash)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Booting on ARM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atmel AT91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- RomBoot: tries to find a valid bootstrap image from various storage sources, and load it into SRAM (DRAM not initialized yet). Size limited to 4 KB. No user interaction possible in standard boot mode.
+- AT91Bootstrap: runs from SRAM. Initializes the DRAM, the NAND or SPI controller, and loads the secondary bootloader into RAM and starts it. No user interaction possible.
+- U-Boot: runs from RAM. Initializes some other hardware devices (network, USB, etc.). Loads the kernel image from storage or network to RAM and starts it. Shell with commands provided.
+-  Linux Kernel: runs from RAM. Takes over the system completely (bootloaders no longer exists).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TI OMAP3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">▶ ROM Code: tries to find a valid bootstrap image from various storage sources, and load it into SRAM or RAM (RAM can be initialized by ROM code through a configuration header). Size limited to &lt;64 KB. No user interaction possible.
+▶ X-Loader or U-Boot: runs from SRAM. Initializes the DRAM, the NAND or MMC controller, and loads the secondary bootloader into RAM and starts it. No user interaction possible. File called MLO.
+▶ U-Boot: runs from RAM. Initializes some other hardware devices (network, USB, etc.). Loads the kernel image from storage or network to RAM and starts it. Shell with commands provided. File called u-boot.bin or u-boot.img.
+▶ Linux Kernel: runs from RAM. Takes over the system completely (bootloaders no longer exists).</t>
   </si>
 </sst>
 </file>
@@ -998,7 +1081,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -1406,14 +1489,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="24.1632653061224"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="33.6122448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="17.6836734693878"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="20.3826530612245"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="2" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="23.7602040816327"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="33.2091836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="17.4132653061224"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="22.0051020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="2" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1797,11 +1880,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="9" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="52.1071428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="11" width="113.260204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="12" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="9" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="51.5663265306123"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="11" width="112.040816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="12" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2062,13 +2145,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="34" width="7.03571428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="35" width="19.3112244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="35" width="23.1989795918367"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="35" width="74.4081632653061"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="35" width="55.265306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="35" width="31.3367346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="35" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="34" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="35" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="35" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="35" width="73.5714285714286"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="35" width="54.6734693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="35" width="30.9132653061224"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="35" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2578,13 +2661,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="35" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="35" width="23.1530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="35" width="34.1173469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="35" width="79.969387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="35" width="45.8520408163265"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="35" width="22.8418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="35" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="35" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="35" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="35" width="33.75"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="35" width="79.1071428571429"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="35" width="45.3571428571429"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="35" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="35" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2639,23 +2722,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:F55"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D55" activeCellId="0" sqref="D55"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="38" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="38" width="23.1530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="38" width="34.7295918367347"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="38" width="74.7244897959184"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="38" width="42.6020408163265"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="38" width="34.8928571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="38" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="38" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="38" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="38" width="34.2857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="38" width="73.8418367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="38" width="42.1173469387755"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="38" width="34.4234693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="38" width="11.3418367346939"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0"/>
+      <c r="B1" s="0"/>
+      <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
+      <c r="E1" s="0"/>
+      <c r="F1" s="0"/>
+    </row>
     <row r="2" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="36" t="s">
         <v>71</v>
@@ -2676,21 +2767,34 @@
         <v>6</v>
       </c>
     </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0"/>
+      <c r="C3" s="0"/>
+      <c r="D3" s="0"/>
+      <c r="E3" s="0"/>
+      <c r="F3" s="0"/>
+    </row>
     <row r="4" customFormat="false" ht="71.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="38" t="s">
         <v>168</v>
       </c>
+      <c r="C4" s="0"/>
       <c r="D4" s="38" t="s">
         <v>169</v>
       </c>
+      <c r="E4" s="0"/>
+      <c r="F4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="71.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="38" t="s">
         <v>170</v>
       </c>
+      <c r="C5" s="0"/>
       <c r="D5" s="38" t="s">
         <v>171</v>
       </c>
+      <c r="E5" s="0"/>
+      <c r="F5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="38" t="s">
@@ -2702,118 +2806,196 @@
       <c r="D6" s="38" t="s">
         <v>174</v>
       </c>
+      <c r="E6" s="0"/>
+      <c r="F6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0"/>
       <c r="C7" s="38" t="s">
         <v>175</v>
       </c>
       <c r="D7" s="38" t="s">
         <v>176</v>
       </c>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0"/>
       <c r="C8" s="38" t="s">
         <v>177</v>
       </c>
       <c r="D8" s="38" t="s">
         <v>178</v>
       </c>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0"/>
+      <c r="C9" s="0"/>
       <c r="D9" s="38" t="s">
         <v>179</v>
       </c>
+      <c r="E9" s="0"/>
+      <c r="F9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0"/>
       <c r="C10" s="38" t="s">
         <v>180</v>
       </c>
       <c r="D10" s="38" t="s">
         <v>181</v>
       </c>
+      <c r="E10" s="0"/>
+      <c r="F10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="38" t="s">
         <v>182</v>
       </c>
+      <c r="C11" s="0"/>
       <c r="D11" s="38" t="s">
         <v>183</v>
       </c>
+      <c r="E11" s="0"/>
+      <c r="F11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0"/>
+      <c r="C12" s="0"/>
       <c r="D12" s="38" t="s">
         <v>184</v>
       </c>
+      <c r="E12" s="0"/>
+      <c r="F12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0"/>
+      <c r="C13" s="0"/>
       <c r="D13" s="38" t="s">
         <v>185</v>
       </c>
+      <c r="E13" s="0"/>
+      <c r="F13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0"/>
+      <c r="C14" s="0"/>
       <c r="D14" s="38" t="s">
         <v>186</v>
       </c>
+      <c r="E14" s="0"/>
+      <c r="F14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
       <c r="D15" s="38" t="s">
         <v>187</v>
       </c>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0"/>
+      <c r="C16" s="0"/>
       <c r="D16" s="38" t="s">
         <v>188</v>
       </c>
+      <c r="E16" s="0"/>
+      <c r="F16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0"/>
+      <c r="C17" s="0"/>
       <c r="D17" s="38" t="s">
         <v>189</v>
       </c>
+      <c r="E17" s="0"/>
+      <c r="F17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0"/>
+      <c r="C18" s="0"/>
       <c r="D18" s="38" t="s">
         <v>190</v>
       </c>
+      <c r="E18" s="0"/>
+      <c r="F18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0"/>
+      <c r="C19" s="0"/>
       <c r="D19" s="38" t="s">
         <v>191</v>
       </c>
+      <c r="E19" s="0"/>
+      <c r="F19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0"/>
+      <c r="C20" s="0"/>
       <c r="D20" s="38" t="s">
         <v>192</v>
       </c>
+      <c r="E20" s="0"/>
+      <c r="F20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0"/>
+      <c r="C21" s="0"/>
       <c r="D21" s="38" t="s">
         <v>193</v>
       </c>
+      <c r="E21" s="0"/>
+      <c r="F21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0"/>
+      <c r="C22" s="0"/>
       <c r="D22" s="38" t="s">
         <v>194</v>
       </c>
+      <c r="E22" s="0"/>
+      <c r="F22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0"/>
+      <c r="C23" s="0"/>
       <c r="D23" s="38" t="s">
         <v>195</v>
       </c>
+      <c r="E23" s="0"/>
+      <c r="F23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0"/>
+      <c r="C24" s="0"/>
       <c r="D24" s="38" t="s">
         <v>196</v>
       </c>
+      <c r="E24" s="0"/>
+      <c r="F24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0"/>
+      <c r="C25" s="0"/>
       <c r="D25" s="38" t="s">
         <v>197</v>
       </c>
+      <c r="E25" s="0"/>
+      <c r="F25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0"/>
+      <c r="C26" s="0"/>
       <c r="D26" s="38" t="s">
         <v>198</v>
       </c>
+      <c r="E26" s="0"/>
+      <c r="F26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="38" t="s">
@@ -2833,14 +3015,18 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0"/>
       <c r="C28" s="38" t="s">
         <v>204</v>
       </c>
       <c r="D28" s="38" t="s">
         <v>205</v>
       </c>
+      <c r="E28" s="0"/>
+      <c r="F28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0"/>
       <c r="C29" s="38" t="s">
         <v>206</v>
       </c>
@@ -2850,14 +3036,18 @@
       <c r="E29" s="38" t="s">
         <v>208</v>
       </c>
+      <c r="F29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="82.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="38" t="s">
         <v>209</v>
       </c>
+      <c r="C30" s="0"/>
+      <c r="D30" s="0"/>
       <c r="E30" s="38" t="s">
         <v>210</v>
       </c>
+      <c r="F30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="38" t="s">
@@ -2872,48 +3062,69 @@
       <c r="E31" s="38" t="s">
         <v>214</v>
       </c>
+      <c r="F31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0"/>
+      <c r="C32" s="0"/>
       <c r="D32" s="38" t="s">
         <v>215</v>
       </c>
+      <c r="E32" s="0"/>
+      <c r="F32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0"/>
       <c r="C33" s="38" t="s">
         <v>216</v>
       </c>
+      <c r="D33" s="0"/>
       <c r="E33" s="38" t="s">
         <v>217</v>
       </c>
+      <c r="F33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="38" t="s">
         <v>218</v>
       </c>
+      <c r="C34" s="0"/>
       <c r="D34" s="38" t="s">
         <v>219</v>
       </c>
       <c r="E34" s="38" t="s">
         <v>220</v>
       </c>
+      <c r="F34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0"/>
+      <c r="C35" s="0"/>
       <c r="D35" s="38" t="s">
         <v>221</v>
       </c>
+      <c r="E35" s="0"/>
+      <c r="F35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0"/>
+      <c r="C36" s="0"/>
       <c r="D36" s="38" t="s">
         <v>222</v>
       </c>
+      <c r="E36" s="0"/>
+      <c r="F36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="71.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="38" t="s">
         <v>223</v>
       </c>
+      <c r="C37" s="0"/>
+      <c r="D37" s="0"/>
       <c r="E37" s="38" t="s">
         <v>224</v>
       </c>
+      <c r="F37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="117.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="38" t="s">
@@ -2928,8 +3139,10 @@
       <c r="E38" s="38" t="s">
         <v>228</v>
       </c>
+      <c r="F38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="175.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="0"/>
       <c r="C39" s="38" t="s">
         <v>229</v>
       </c>
@@ -2944,6 +3157,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="82.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="0"/>
       <c r="C40" s="38" t="s">
         <v>233</v>
       </c>
@@ -2955,12 +3169,14 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="48.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="0"/>
       <c r="C41" s="38" t="s">
         <v>236</v>
       </c>
       <c r="D41" s="38" t="s">
         <v>237</v>
       </c>
+      <c r="E41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="38" t="s">
@@ -2969,13 +3185,17 @@
       <c r="D42" s="38" t="s">
         <v>239</v>
       </c>
+      <c r="E42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="0"/>
       <c r="D43" s="38" t="s">
         <v>240</v>
       </c>
+      <c r="E43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="0"/>
       <c r="D44" s="38" t="s">
         <v>241</v>
       </c>
@@ -3006,26 +3226,31 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="0"/>
       <c r="D48" s="38" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="0"/>
       <c r="D49" s="38" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="0"/>
       <c r="D50" s="38" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="0"/>
       <c r="D51" s="38" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="0"/>
       <c r="D52" s="38" t="s">
         <v>252</v>
       </c>
@@ -3067,17 +3292,124 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A3:F14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="36" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="38" width="23.765306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="38" width="31.9591836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="38" width="67.6122448979592"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="38" width="41.9897959183674"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="38" width="28.7091836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="38" width="11.3418367346939"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="3" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>258</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="48.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="38" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="38" t="s">
+        <v>262</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="38" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="38" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="48.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="94.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="129.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="129.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>276</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3101,7 +3433,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3127,7 +3459,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/improvement/quick_notes.xlsx
+++ b/improvement/quick_notes.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="279">
   <si>
     <t xml:space="preserve">Sr No</t>
   </si>
@@ -1033,6 +1033,17 @@
   <si>
     <t xml:space="preserve">-Several C libraries are available: glibc, uClibc, musl, dietlibc, newlib, etc.
 -  The choice of the C library must be made at the time of the cross-compiling toolchain generation, as the GCC compiler is compiled against a specific C library.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toolchain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toolchains have a loose name convention like arch[-vendor][-os]-abi.
+    arch is for architecture: arm, mips, x86, i686...
+    vendor is tool chain supplier: apple,
+    os is for operating system: linux, none (bare metal)
+    abi is for application binary interface convention: eabi, gnueabi, gnueabihf
+For your question, arm-none-linux-gnueabi and arm-linux-gnueabi is same thing. arm-linux-gcc is actually binary for gcc which produces objects for ARM architecture to be run on Linux with default configuration (abi) provided by toolchain.</t>
   </si>
   <si>
     <t xml:space="preserve">Bootloader</t>
@@ -1484,19 +1495,19 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="topLeft" activeCell="C17" activeCellId="1" sqref="C11 C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="33.2091836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="17.4132653061224"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="21.3265306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="2" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="23.3520408163265"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="32.6683673469388"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="17.1428571428571"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="21.734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="2" width="10.8010204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1875,16 +1886,16 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="topLeft" activeCell="D15" activeCellId="1" sqref="C11 D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="9" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="51.5663265306123"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="11" width="112.040816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="12" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="9" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="50.8928571428571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="11" width="110.69387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="12" width="10.8010204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2140,18 +2151,18 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
+      <selection pane="topLeft" activeCell="D37" activeCellId="1" sqref="C11 D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="34" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="35" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="35" width="22.8112244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="35" width="73.5714285714286"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="35" width="54.6734693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="35" width="30.9132653061224"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="35" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="34" width="6.75"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="35" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="35" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="35" width="72.7602040816327"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="35" width="54.1326530612245"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="35" width="30.5102040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="35" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2656,18 +2667,18 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="C11 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="35" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="35" width="22.8112244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="35" width="33.75"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="35" width="79.1071428571429"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="35" width="45.3571428571429"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="35" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="35" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="35" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="35" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="35" width="33.3418367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="35" width="78.2959183673469"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="35" width="44.6836734693878"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="35" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="35" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2725,18 +2736,18 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C11 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="38" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="38" width="22.8112244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="38" width="34.2857142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="38" width="73.8418367346939"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="38" width="42.1173469387755"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="38" width="34.4234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="38" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="38" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="38" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="38" width="33.8826530612245"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="38" width="73.030612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="38" width="41.5765306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="38" width="34.0204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="38" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3292,23 +3303,39 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="36" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="38" width="23.765306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="38" width="31.9591836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="38" width="67.6122448979592"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="38" width="41.9897959183674"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="38" width="28.7091836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="38" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="36" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="38" width="23.3520408163265"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="38" width="31.5867346938776"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="38" width="66.8214285714286"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="38" width="41.4438775510204"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="38" width="28.3469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="38" width="11.0714285714286"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0"/>
+      <c r="B1" s="0"/>
+      <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
+      <c r="E1" s="0"/>
+      <c r="F1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0"/>
+      <c r="B2" s="0"/>
+      <c r="C2" s="0"/>
+      <c r="D2" s="0"/>
+      <c r="E2" s="0"/>
+      <c r="F2" s="0"/>
+    </row>
     <row r="3" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="36" t="s">
         <v>71</v>
@@ -3329,6 +3356,12 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0"/>
+      <c r="B4" s="0"/>
+      <c r="C4" s="0"/>
+      <c r="D4" s="0"/>
+    </row>
     <row r="5" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="36" t="n">
         <v>1</v>
@@ -3344,11 +3377,14 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="48.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0"/>
+      <c r="C6" s="0"/>
       <c r="D6" s="38" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0"/>
       <c r="C7" s="38" t="s">
         <v>262</v>
       </c>
@@ -3357,16 +3393,21 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0"/>
+      <c r="C8" s="0"/>
       <c r="D8" s="38" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0"/>
+      <c r="C9" s="0"/>
       <c r="D9" s="38" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="48.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0"/>
       <c r="C10" s="38" t="s">
         <v>266</v>
       </c>
@@ -3374,39 +3415,58 @@
         <v>267</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="38" t="s">
+    <row r="11" customFormat="false" ht="129.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0"/>
+      <c r="C11" s="38" t="s">
         <v>268</v>
       </c>
       <c r="D11" s="38" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="94.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="38" t="s">
+    <row r="12" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="38" t="s">
         <v>270</v>
       </c>
+      <c r="C12" s="0"/>
       <c r="D12" s="38" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="129.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="38" t="s">
+    <row r="13" customFormat="false" ht="94.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0"/>
+      <c r="C13" s="38" t="s">
         <v>272</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="D13" s="38" t="s">
         <v>273</v>
       </c>
-      <c r="D13" s="38" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="129.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="38" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="129.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="37" t="s">
         <v>275</v>
       </c>
       <c r="D14" s="38" t="s">
         <v>276</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="129.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -3428,13 +3488,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C11 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3454,13 +3511,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C11 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/improvement/quick_notes.xlsx
+++ b/improvement/quick_notes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="interview preparation" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,345 +14,340 @@
     <sheet name="Linux Os concepts" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="shell concepts" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="embedded_linux" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Sheet7" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="kernel_programming" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="Sheet8" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="279">
-  <si>
-    <t xml:space="preserve">Sr No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub Task</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recall all inteview questions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Embedded C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collect interview questions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prepare interview questions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salve c quiz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C++</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salve C++ quiz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Communication protocol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List protocols</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">i2c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modbus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z-wave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linux os concepts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multi-threading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Signal handling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Socket programming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scheduling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shell programming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linux OS programming </t>
-  </si>
-  <si>
-    <t xml:space="preserve">init service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">upstart service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cron job</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linux tools </t>
-  </si>
-  <si>
-    <t xml:space="preserve">List dev tools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gdb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">valgind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linux porting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linux rootfs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List rootfs tools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buildroot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linaro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Concept</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Question</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">macro and inline functions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Advantage &amp; disadvantages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macros and Inline functions are efficient than calling a normal function. The times spend in calling the function is saved in case of macros and inline functions as these are included directly into the code. Macros and inline functions increased the size of executable code.
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="348">
+  <si>
+    <t>Sr No</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Sub Task</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>Recall all inteview questions</t>
+  </si>
+  <si>
+    <t>Embedded C</t>
+  </si>
+  <si>
+    <t>Collect interview questions</t>
+  </si>
+  <si>
+    <t>Prepare interview questions</t>
+  </si>
+  <si>
+    <t>Salve c quiz</t>
+  </si>
+  <si>
+    <t>C++</t>
+  </si>
+  <si>
+    <t>Salve C++ quiz</t>
+  </si>
+  <si>
+    <t>Communication protocol</t>
+  </si>
+  <si>
+    <t>List protocols</t>
+  </si>
+  <si>
+    <t>spi</t>
+  </si>
+  <si>
+    <t>i2c</t>
+  </si>
+  <si>
+    <t>modbus</t>
+  </si>
+  <si>
+    <t>Z-wave</t>
+  </si>
+  <si>
+    <t>Linux os concepts</t>
+  </si>
+  <si>
+    <t>Multi-threading</t>
+  </si>
+  <si>
+    <t>Signal handling</t>
+  </si>
+  <si>
+    <t>Socket programming</t>
+  </si>
+  <si>
+    <t>scheduling</t>
+  </si>
+  <si>
+    <t>Shell programming</t>
+  </si>
+  <si>
+    <t>Linux OS programming </t>
+  </si>
+  <si>
+    <t>init service</t>
+  </si>
+  <si>
+    <t>upstart service</t>
+  </si>
+  <si>
+    <t>cron job</t>
+  </si>
+  <si>
+    <t>Linux tools </t>
+  </si>
+  <si>
+    <t>List dev tools</t>
+  </si>
+  <si>
+    <t>gdb</t>
+  </si>
+  <si>
+    <t>valgind</t>
+  </si>
+  <si>
+    <t>Linux porting</t>
+  </si>
+  <si>
+    <t>Linux rootfs</t>
+  </si>
+  <si>
+    <t>List rootfs tools</t>
+  </si>
+  <si>
+    <t>Buildroot</t>
+  </si>
+  <si>
+    <t>Linaro</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>macro and inline functions</t>
+  </si>
+  <si>
+    <t>Advantage &amp; disadvantages</t>
+  </si>
+  <si>
+    <t>Macros and Inline functions are efficient than calling a normal function. The times spend in calling the function is saved in case of macros and inline functions as these are included directly into the code. Macros and inline functions increased the size of executable code.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">difference between macros and inline function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The macro are just symbolic representations and cannot contain data type differentiations within the parameters that we give. The inline functions can have the data types too defined as a part of them. The disadvantage in using both is that the inclusion of condition checks may lead to increase in code space if the function is called many times.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">properties</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No return &amp; argument, avoid sleep.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">how to reduce interrupt latency??</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interrupt latency is the time required to return from the interrupt service routine after tackling a particular interrupt. We can reduce it by writing smaller ISR routines.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">malloc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">used to dynamic memory allocation, return pointer of void, should be cleaned by free (). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">volatile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">const volatile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Const and volatile keywords should not be used together because both are opposite in nature.
+    <t>difference between macros and inline function</t>
+  </si>
+  <si>
+    <t>The macro are just symbolic representations and cannot contain data type differentiations within the parameters that we give. The inline functions can have the data types too defined as a part of them. The disadvantage in using both is that the inclusion of condition checks may lead to increase in code space if the function is called many times.</t>
+  </si>
+  <si>
+    <t>ISR</t>
+  </si>
+  <si>
+    <t>properties</t>
+  </si>
+  <si>
+    <t>No return &amp; argument, avoid sleep.</t>
+  </si>
+  <si>
+    <t>how to reduce interrupt latency??</t>
+  </si>
+  <si>
+    <t>Interrupt latency is the time required to return from the interrupt service routine after tackling a particular interrupt. We can reduce it by writing smaller ISR routines.</t>
+  </si>
+  <si>
+    <t>malloc</t>
+  </si>
+  <si>
+    <t>used to dynamic memory allocation, return pointer of void, should be cleaned by free (). </t>
+  </si>
+  <si>
+    <t>volatile</t>
+  </si>
+  <si>
+    <t>const volatile</t>
+  </si>
+  <si>
+    <t>Const and volatile keywords should not be used together because both are opposite in nature.
 A variable is declared as “const” means it’s value is not able to be changed but if it is declared as “Volatile” then it is not under control. </t>
   </si>
   <si>
-    <t xml:space="preserve">A variable should be declared volatile whenever its value could change unexpectedly. In practice, only three types of variables could change:
+    <t>A variable should be declared volatile whenever its value could change unexpectedly. In practice, only three types of variables could change:
 ? Memory-mapped peripheral registers
 ? Global variables modified by an interrupt service routine
 ? Global variables within a multi-threaded application</t>
   </si>
   <si>
-    <t xml:space="preserve">The volatile keyword is used to represent variables that point to memory in other mapped devices. In such a case the value of the variable can be changed outside of a program. The compiler does not do additional optimizations to the code if there is volatile keyword.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recursive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recursive declared as inline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inline functions property says whenever it will called, it will copy the complete definition of that function. Recursive function declared as inline creates the burden on the compilers execution.
+    <t>The volatile keyword is used to represent variables that point to memory in other mapped devices. In such a case the value of the variable can be changed outside of a program. The compiler does not do additional optimizations to the code if there is volatile keyword.</t>
+  </si>
+  <si>
+    <t>recursive</t>
+  </si>
+  <si>
+    <t>recursive declared as inline</t>
+  </si>
+  <si>
+    <t>Inline functions property says whenever it will called, it will copy the complete definition of that function. Recursive function declared as inline creates the burden on the compilers execution.
 The size of the stack may/may not be overflow if the function size is big.</t>
   </si>
   <si>
-    <t xml:space="preserve">memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">storage classes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">auto, register, static, extern or global</t>
-  </si>
-  <si>
-    <t xml:space="preserve">padding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">why padding is done?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Architecture of a computer processor is such a way that it can read 1 word from memory at a time.
+    <t>memory</t>
+  </si>
+  <si>
+    <t>storage classes</t>
+  </si>
+  <si>
+    <t>auto, register, static, extern or global</t>
+  </si>
+  <si>
+    <t>padding</t>
+  </si>
+  <si>
+    <t>why padding is done?</t>
+  </si>
+  <si>
+    <t>Architecture of a computer processor is such a way that it can read 1 word from memory at a time.
 This concept is very useful to increase the processor speed.</t>
   </si>
   <si>
-    <t xml:space="preserve">How to avoid structure padding in C?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#pragma pack ( 1 ) directive can be used for arranging memory for  structure members very next to the end of other structure members.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sr No.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Topic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">sample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lvalues and Rvalues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lvalue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expressions that refer to a memory location is called "lvalue"
+    <t>How to avoid structure padding in C?</t>
+  </si>
+  <si>
+    <t>#pragma pack ( 1 ) directive can be used for arranging memory for  structure members very next to the end of other structure members.</t>
+  </si>
+  <si>
+    <t>Sr No.</t>
+  </si>
+  <si>
+    <t>Topic </t>
+  </si>
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>Lvalues and Rvalues</t>
+  </si>
+  <si>
+    <t>lvalue</t>
+  </si>
+  <si>
+    <t>Expressions that refer to a memory location is called "lvalue"
 expression. An lvalue may appear as either the left-hand or right-hand side of an assignment.</t>
   </si>
   <si>
-    <t xml:space="preserve">int a = 20;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rvalue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The term rvalue refers to a data value that is stored at some address in memory. An rvalue is an expression that cannot have a value assigned to it which means an rvalue may appear on the right- but not left-hand side of an assignment.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 = 30; // invalid expression give compile time error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">auto </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The auto storage class is the default storage class for all local variables.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">int a = 20; auto int b = 30;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">static</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The static storage class instructs the compiler to keep a local variable in
+    <t>int a = 20;</t>
+  </si>
+  <si>
+    <t>rvalue</t>
+  </si>
+  <si>
+    <t>The term rvalue refers to a data value that is stored at some address in memory. An rvalue is an expression that cannot have a value assigned to it which means an rvalue may appear on the right- but not left-hand side of an assignment.</t>
+  </si>
+  <si>
+    <t>20 = 30; // invalid expression give compile time error</t>
+  </si>
+  <si>
+    <t>auto </t>
+  </si>
+  <si>
+    <t>The auto storage class is the default storage class for all local variables.</t>
+  </si>
+  <si>
+    <t>int a = 20; auto int b = 30;</t>
+  </si>
+  <si>
+    <t>static</t>
+  </si>
+  <si>
+    <t>The static storage class instructs the compiler to keep a local variable in
 existence during the life-time of the program instead of creating and destroying
 it each time it comes into and goes out of scope</t>
   </si>
   <si>
-    <t xml:space="preserve">static int a;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">extern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The extern storage class is used to give a reference of a global variable that is
+    <t>static int a;</t>
+  </si>
+  <si>
+    <t>extern</t>
+  </si>
+  <si>
+    <t>The extern storage class is used to give a reference of a global variable that is
 visible to ALL the program files.</t>
   </si>
   <si>
-    <t xml:space="preserve">extern int v;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">register</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* The register storage class is used to define local variables that should be stored in a register instead of RAM.                                                         
+    <t>extern int v;</t>
+  </si>
+  <si>
+    <t>register</t>
+  </si>
+  <si>
+    <t>* The register storage class is used to define local variables that should be stored in a register instead of RAM.                                                         
 * This means that the variable has a maximum size equal to the register size (usually one word) and can't have the unary '&amp;' operator applied to it (as it does not have 
 a memory location).</t>
   </si>
   <si>
-    <t xml:space="preserve">register int c;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The mutable specifier applies only to class objects, It allows a member of an object to override const member function. That is, a mutable member can be modified by a const member function.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">References vs Pointers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* You cannot have NULL references. You must always be able to assume
+    <t>register int c;</t>
+  </si>
+  <si>
+    <t>mutable</t>
+  </si>
+  <si>
+    <t>The mutable specifier applies only to class objects, It allows a member of an object to override const member function. That is, a mutable member can be modified by a const member function.</t>
+  </si>
+  <si>
+    <t>References vs Pointers</t>
+  </si>
+  <si>
+    <t>* You cannot have NULL references. You must always be able to assume
 That a reference is connected to a legitimate piece of storage.
 * Once a reference is initialized to an object, it cannot be changed to refer
 to another object. Pointers can be pointed to another object at any time.
 * A reference must be initialized when it is created. Pointers can be initialized at any time.</t>
   </si>
   <si>
-    <t xml:space="preserve">Int i =20; int&amp; r = i;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A class is used to specify the form of an object and it combines data representation and methods for manipulating that data.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class member functions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A member function of a class is a function that has its definition or its prototype within the class definition like any other variable.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">class Box {
+    <t>Int i =20; int&amp; r = i;</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>A class is used to specify the form of an object and it combines data representation and methods for manipulating that data.</t>
+  </si>
+  <si>
+    <t>Class member functions</t>
+  </si>
+  <si>
+    <t>A member function of a class is a function that has its definition or its prototype within the class definition like any other variable.</t>
+  </si>
+  <si>
+    <t>class Box {
     public:
     double length; // member of class
     double breadth; // member of class
@@ -362,95 +357,95 @@
     // func body }</t>
   </si>
   <si>
-    <t xml:space="preserve">Class access modifiers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A class member can be defined as public, private or protected. By default members would be assumed as private.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Constructor &amp; destructor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A class constructor is a special function in a class that is called when a new object of the class is created. A destructor is also a special function which is called when created object is deleted.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">copy constructor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The copy constructor is a constructor which creates an object by initializing it with an object of the same class, which has been created previously.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">friend functions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A friend function is permitted full access to private and protected members of a class.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inline functions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">With an inline function, the compiler tries to expand the code in the body of the function in place of a call to the function.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">this pointer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Every object has a special pointer this which points to the object itself.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Static members of a class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Both data members and function members of a class can be declared as static.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class Access Modifiers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">public Members</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A public member is accessible from anywhere outside the class but within a program. You can set and get the value of public variables without any member Function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">private Members</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A private member variable or function cannot be accessed, or even viewed from
+    <t>Class access modifiers</t>
+  </si>
+  <si>
+    <t>A class member can be defined as public, private or protected. By default members would be assumed as private.</t>
+  </si>
+  <si>
+    <t>Constructor &amp; destructor</t>
+  </si>
+  <si>
+    <t>A class constructor is a special function in a class that is called when a new object of the class is created. A destructor is also a special function which is called when created object is deleted.</t>
+  </si>
+  <si>
+    <t>copy constructor</t>
+  </si>
+  <si>
+    <t>The copy constructor is a constructor which creates an object by initializing it with an object of the same class, which has been created previously.</t>
+  </si>
+  <si>
+    <t>friend functions</t>
+  </si>
+  <si>
+    <t>A friend function is permitted full access to private and protected members of a class.</t>
+  </si>
+  <si>
+    <t>inline functions</t>
+  </si>
+  <si>
+    <t>With an inline function, the compiler tries to expand the code in the body of the function in place of a call to the function.</t>
+  </si>
+  <si>
+    <t>this pointer</t>
+  </si>
+  <si>
+    <t>Every object has a special pointer this which points to the object itself.</t>
+  </si>
+  <si>
+    <t>Static members of a class</t>
+  </si>
+  <si>
+    <t>Both data members and function members of a class can be declared as static.</t>
+  </si>
+  <si>
+    <t>Class Access Modifiers</t>
+  </si>
+  <si>
+    <t>public Members</t>
+  </si>
+  <si>
+    <t>A public member is accessible from anywhere outside the class but within a program. You can set and get the value of public variables without any member Function</t>
+  </si>
+  <si>
+    <t>private Members</t>
+  </si>
+  <si>
+    <t>A private member variable or function cannot be accessed, or even viewed from
 outside the class. Only the class and friend functions can access private Members.</t>
   </si>
   <si>
-    <t xml:space="preserve">protected Members</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A protected member variable or function is very similar to a private member
+    <t>protected Members</t>
+  </si>
+  <si>
+    <t>A protected member variable or function is very similar to a private member
 but it provided one additional benefit that they can be accessed in child classes
 which are called derived classes.</t>
   </si>
   <si>
-    <t xml:space="preserve">Constructor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constructor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* A class constructor is a special member function of a class that is executed
+    <t>Constructor</t>
+  </si>
+  <si>
+    <t>constructor</t>
+  </si>
+  <si>
+    <t>* A class constructor is a special member function of a class that is executed
 whenever we create new objects of that class.
 * A constructor will have exact same name as the class and it does not have any
 return type at all, not even void.</t>
   </si>
   <si>
-    <t xml:space="preserve">class Box {
+    <t>class Box {
     public:
     Box();    };
 Box::Box(void) {
     // func body }</t>
   </si>
   <si>
-    <t xml:space="preserve">parametrized Constructor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">class Line {
+    <t>parametrized Constructor</t>
+  </si>
+  <si>
+    <t>class Line {
     public:
     Line(int len);
     private:
@@ -459,10 +454,10 @@
     // func body }</t>
   </si>
   <si>
-    <t xml:space="preserve">Initialization Lists to Initialize Fields</t>
-  </si>
-  <si>
-    <t xml:space="preserve">class Line {
+    <t>Initialization Lists to Initialize Fields</t>
+  </si>
+  <si>
+    <t>class Line {
     public:
     Line(int len);
     private:
@@ -471,24 +466,24 @@
     // func body }</t>
   </si>
   <si>
-    <t xml:space="preserve">classname (const classname &amp;obj) {
+    <t>classname (const classname &amp;obj) {
 // body of constructor }</t>
   </si>
   <si>
-    <t xml:space="preserve">Destructor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A destructor is a special member function of a class that is executed whenever an object of it's class goes out of scope or whenever the delete expression is applied to a pointer to the object of that class.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">~ classname () {
+    <t>Destructor</t>
+  </si>
+  <si>
+    <t>A destructor is a special member function of a class that is executed whenever an object of it's class goes out of scope or whenever the delete expression is applied to a pointer to the object of that class.</t>
+  </si>
+  <si>
+    <t>~ classname () {
 // body of destructor }</t>
   </si>
   <si>
-    <t xml:space="preserve">Friend Functions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">class Line {
+    <t>Friend Functions</t>
+  </si>
+  <si>
+    <t>class Line {
     public:
     friend void printLine(Line line);
     private:
@@ -498,123 +493,123 @@
     // func body }</t>
   </si>
   <si>
-    <t xml:space="preserve">Inheritance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base &amp; Derived Classes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A class can be derived from more than one classes, which means it can inherit data and functions from multiple base classes. If the access-specifier is not used,
+    <t>Inheritance</t>
+  </si>
+  <si>
+    <t>Base &amp; Derived Classes</t>
+  </si>
+  <si>
+    <t>A class can be derived from more than one classes, which means it can inherit data and functions from multiple base classes. If the access-specifier is not used,
 then it is private by default.</t>
   </si>
   <si>
-    <t xml:space="preserve">class derived-class: access-specifier base-class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access                 public  protected   private
+    <t>class derived-class: access-specifier base-class</t>
+  </si>
+  <si>
+    <t>Access                 public  protected   private
 Same class         yes       yes              yes
 Derived classes yes       yes              no
 Outside classes yes       no                no</t>
   </si>
   <si>
-    <t xml:space="preserve">A derived class inherits all base class methods with the following exceptions:
+    <t>A derived class inherits all base class methods with the following exceptions:
  Constructors, destructors and copy constructors of the base class.
  Overloaded operators of the base class.
  The friend functions of the base class.</t>
   </si>
   <si>
-    <t xml:space="preserve">Multiple Inheritance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">class derived-class: access baseA, access baseB....</t>
-  </si>
-  <si>
-    <t xml:space="preserve">overloading </t>
-  </si>
-  <si>
-    <t xml:space="preserve">function overloading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">operator overloading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Box operator+(const Box&amp;, const Box&amp;);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polymorphism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The word polymorphism means having many forms. Typically, polymorphism
+    <t>Multiple Inheritance</t>
+  </si>
+  <si>
+    <t>class derived-class: access baseA, access baseB....</t>
+  </si>
+  <si>
+    <t>overloading </t>
+  </si>
+  <si>
+    <t>function overloading</t>
+  </si>
+  <si>
+    <t>operator overloading</t>
+  </si>
+  <si>
+    <t>Box operator+(const Box&amp;, const Box&amp;);</t>
+  </si>
+  <si>
+    <t>Polymorphism</t>
+  </si>
+  <si>
+    <t>The word polymorphism means having many forms. Typically, polymorphism
 occurs when there is a hierarchy of classes and they are related by inheritance.</t>
   </si>
   <si>
-    <t xml:space="preserve">C++ polymorphism means that a call to a member function will cause a different function to be executed depending on the type of object that invokes the Function.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Virtual Function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A virtual function is a function in a base class that is declared using the keyword virtual. Defining in a base class a virtual function, with another version in a derived class, signals to the compiler that we don't want static linkage for this function.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">virtual int area();</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pure virtual function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The = 0 tells the compiler that the function has no body and above virtual function will be called pure virtual function.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">virtual int area() = 0;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exception handling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C++ exception handling is built upon three keywords: try, catch, and throw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">try {  
+    <t>C++ polymorphism means that a call to a member function will cause a different function to be executed depending on the type of object that invokes the Function.</t>
+  </si>
+  <si>
+    <t>Virtual Function</t>
+  </si>
+  <si>
+    <t>A virtual function is a function in a base class that is declared using the keyword virtual. Defining in a base class a virtual function, with another version in a derived class, signals to the compiler that we don't want static linkage for this function.</t>
+  </si>
+  <si>
+    <t>virtual int area();</t>
+  </si>
+  <si>
+    <t>pure virtual function</t>
+  </si>
+  <si>
+    <t>The = 0 tells the compiler that the function has no body and above virtual function will be called pure virtual function.</t>
+  </si>
+  <si>
+    <t>virtual int area() = 0;</t>
+  </si>
+  <si>
+    <t>Exception handling</t>
+  </si>
+  <si>
+    <t>C++ exception handling is built upon three keywords: try, catch, and throw</t>
+  </si>
+  <si>
+    <t>try {  
     // protected code
     throw ExceptionName;
     }catch( ExceptionName e1 )</t>
   </si>
   <si>
-    <t xml:space="preserve">namespace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discontiguous Namespaces</t>
-  </si>
-  <si>
-    <t xml:space="preserve">namespace namespace_name {
+    <t>namespace</t>
+  </si>
+  <si>
+    <t>Discontiguous Namespaces</t>
+  </si>
+  <si>
+    <t>namespace namespace_name {
 // code declarations
 }</t>
   </si>
   <si>
-    <t xml:space="preserve">Nested Namespaces</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name::code; // code could be variable or function.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Template</t>
-  </si>
-  <si>
-    <t xml:space="preserve">virtual terminals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- virtual terminals or consoles(tty1 ­ tty12).
+    <t>Nested Namespaces</t>
+  </si>
+  <si>
+    <t>name::code; // code could be variable or function.</t>
+  </si>
+  <si>
+    <t>Template</t>
+  </si>
+  <si>
+    <t>virtual terminals</t>
+  </si>
+  <si>
+    <t>- virtual terminals or consoles(tty1 ­ tty12).
 - switching between virtual terminals cntl+alt+F1 &lt;-&gt; ..cntl+alt+F7.
 - tty7 is dedicated for the GUI – X­Window Application.
 - tty10 is dedicated for the kernel messages
   (messages are generated in the kernel­space using printk() ­ core of the OS and modules)</t>
   </si>
   <si>
-    <t xml:space="preserve">Shell prompt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- exit or ctrl­D – to exit the current interactive shell
+    <t>Shell prompt</t>
+  </si>
+  <si>
+    <t>- exit or ctrl­D – to exit the current interactive shell
 - CLI – command­line interface to the OS
 - differnet shells, $ cat /etc/shells
 - you can also change your default shell permanently using :
@@ -622,128 +617,128 @@
        you will see the new default shell is effective.</t>
   </si>
   <si>
-    <t xml:space="preserve">standard streams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">standard input</t>
-  </si>
-  <si>
-    <t xml:space="preserve">by default, associated with the virtual­terminal or pseudo­terminal – 0.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">standard output</t>
-  </si>
-  <si>
-    <t xml:space="preserve">by default, associated with the virtual­terminal or pseudo­terminal – 1.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">standard error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">by default, associated with the virtual­terminal or pseudo­terminal – 2.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">any interactive process, by default, has the above settings true</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Redirecting standard streams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">typically, filters like, cat, wc, grep, sed,etc,.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Key directories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/sbin – most essential system administration binaries(fsck,fdisk,init,...)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/etc – most essential configuration files like inittab.fstab,...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/lib – most essential libraries and kernel modules are located here(/lib/modules/&lt;kernel­version&gt;/)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/boot – contains boot­loader files and kernel images</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/root – recommended default system administrator's home directory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/home – contains home directories of individual users(/home/corporate)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/tmp – contains temporary files that may be deleted at every system boot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/opt – third­part software packages may be installed here</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/usr/bin – not so important utilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/usr/sbin – not so important system administration utilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/usr/lib – libraries that support add­on software packages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/usr/share – shareable directory with documentation and other executables that may be shared with others hosts over NFS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/usr/local/bin – locally provided utilities and binaries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/usr/local/sbin – locally provided administration utilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/usr/local/doc – locally provided documentation </t>
-  </si>
-  <si>
-    <t xml:space="preserve">/usr/src – may contain source­code of utilities/kernel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shell variables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user defined</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unset – delete a variable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">export var1=”data1”;unset var1 var2
+    <t>standard streams</t>
+  </si>
+  <si>
+    <t>standard input</t>
+  </si>
+  <si>
+    <t>by default, associated with the virtual­terminal or pseudo­terminal – 0.</t>
+  </si>
+  <si>
+    <t>standard output</t>
+  </si>
+  <si>
+    <t>by default, associated with the virtual­terminal or pseudo­terminal – 1.</t>
+  </si>
+  <si>
+    <t>standard error</t>
+  </si>
+  <si>
+    <t>by default, associated with the virtual­terminal or pseudo­terminal – 2.</t>
+  </si>
+  <si>
+    <t>any interactive process, by default, has the above settings true</t>
+  </si>
+  <si>
+    <t>Redirecting standard streams</t>
+  </si>
+  <si>
+    <t>typically, filters like, cat, wc, grep, sed,etc,.</t>
+  </si>
+  <si>
+    <t>Key directories</t>
+  </si>
+  <si>
+    <t>/sbin – most essential system administration binaries(fsck,fdisk,init,...)</t>
+  </si>
+  <si>
+    <t>/etc – most essential configuration files like inittab.fstab,...</t>
+  </si>
+  <si>
+    <t>/lib – most essential libraries and kernel modules are located here(/lib/modules/&lt;kernel­version&gt;/)</t>
+  </si>
+  <si>
+    <t>/boot – contains boot­loader files and kernel images</t>
+  </si>
+  <si>
+    <t>/root – recommended default system administrator's home directory</t>
+  </si>
+  <si>
+    <t>/home – contains home directories of individual users(/home/corporate)</t>
+  </si>
+  <si>
+    <t>/tmp – contains temporary files that may be deleted at every system boot</t>
+  </si>
+  <si>
+    <t>/opt – third­part software packages may be installed here</t>
+  </si>
+  <si>
+    <t>/usr/bin – not so important utilities</t>
+  </si>
+  <si>
+    <t>/usr/sbin – not so important system administration utilities</t>
+  </si>
+  <si>
+    <t>/usr/lib – libraries that support add­on software packages</t>
+  </si>
+  <si>
+    <t>/usr/share – shareable directory with documentation and other executables that may be shared with others hosts over NFS</t>
+  </si>
+  <si>
+    <t>/usr/local/bin – locally provided utilities and binaries</t>
+  </si>
+  <si>
+    <t>/usr/local/sbin – locally provided administration utilities</t>
+  </si>
+  <si>
+    <t>/usr/local/doc – locally provided documentation </t>
+  </si>
+  <si>
+    <t>/usr/src – may contain source­code of utilities/kernel</t>
+  </si>
+  <si>
+    <t>shell variables</t>
+  </si>
+  <si>
+    <t>user defined</t>
+  </si>
+  <si>
+    <t>unset – delete a variable</t>
+  </si>
+  <si>
+    <t>export var1=”data1”;unset var1 var2
 echo $var1
 echo $var2</t>
   </si>
   <si>
-    <t xml:space="preserve">only the specific shell is affected – other shells are unaffected </t>
-  </si>
-  <si>
-    <t xml:space="preserve">predefined</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- environment variables
+    <t>only the specific shell is affected – other shells are unaffected </t>
+  </si>
+  <si>
+    <t>predefined</t>
+  </si>
+  <si>
+    <t>- environment variables
 - their usage is predefined by the shell normally exported PATH,PS1,PS2,PWD,HOME,SHELL,USER,TERM..</t>
   </si>
   <si>
-    <t xml:space="preserve">special variables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- also known as special parameters 
+    <t>special variables</t>
+  </si>
+  <si>
+    <t>- also known as special parameters 
 - their usage is predefined by the shell and the values are set during run­time to reflect the current state of the shell
 - ?, $, @, #, 0, 1, 2, 3, 4.........
 </t>
   </si>
   <si>
-    <t xml:space="preserve">$ echo $$
+    <t>$ echo $$
 $ echo $? // exit status of the previous command or return value of a function execution </t>
   </si>
   <si>
-    <t xml:space="preserve">arithmetic substitution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">➢ Var1=10 ; var2=20;
+    <t>arithmetic substitution</t>
+  </si>
+  <si>
+    <t>➢ Var1=10 ; var2=20;
 ➢ echo $(( var1+var2 ))
 ➢ echo $(( var1+1 ))
 ➢ echo $(( var1*2 + var2*2  )) 
@@ -752,67 +747,67 @@
 ➢ echo $(( ++var ))</t>
   </si>
   <si>
-    <t xml:space="preserve">aliases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">create an alias for a standard command with frequently used options</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alias ll='ls ­l'  // use single­quotes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aliases are not exported</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unalias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unalias ll  // to remove the alias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">functions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- aliases take precedence over functions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">function f2(){ return $(($1+$2)); }; f2 3 5; echo 
+    <t>aliases</t>
+  </si>
+  <si>
+    <t>alias</t>
+  </si>
+  <si>
+    <t>create an alias for a standard command with frequently used options</t>
+  </si>
+  <si>
+    <t>alias ll='ls ­l'  // use single­quotes</t>
+  </si>
+  <si>
+    <t>aliases are not exported</t>
+  </si>
+  <si>
+    <t>unalias</t>
+  </si>
+  <si>
+    <t>unalias ll  // to remove the alias</t>
+  </si>
+  <si>
+    <t>functions</t>
+  </si>
+  <si>
+    <t>- aliases take precedence over functions</t>
+  </si>
+  <si>
+    <t>function f2(){ return $(($1+$2)); }; f2 3 5; echo 
 $?</t>
   </si>
   <si>
-    <t xml:space="preserve">- export ­-f f1 //export a function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- unset ­-f f1   //delete a function setting in a shell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">redirection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">➢ ls ­-lR / ( use ctrl­C to terminate it)
+    <t>- export ­-f f1 //export a function</t>
+  </si>
+  <si>
+    <t>- unset ­-f f1   //delete a function setting in a shell</t>
+  </si>
+  <si>
+    <t>redirection</t>
+  </si>
+  <si>
+    <t>➢ ls ­-lR / ( use ctrl­C to terminate it)
 ➢ ls ­-lR / 1&gt;file1 2&gt;file2
 ➢ ls ­-lR / 1&gt;file1 2&gt;&amp;1
 ➢ ls ­-lR / 2&gt;&amp;1 1&gt;file1 (wrong)
 ➢ cat &lt; /etc/passwd // standard input is redirected to active file of /etc/passwd</t>
   </si>
   <si>
-    <t xml:space="preserve">flow­control structures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">for control structure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">for variable in list
+    <t>flow­control structures</t>
+  </si>
+  <si>
+    <t>for control structure</t>
+  </si>
+  <si>
+    <t>for variable in list
     do
         command1; command2; ...... ;
         commandn;
     Done</t>
   </si>
   <si>
-    <t xml:space="preserve">"for FILE in /etc/*.conf
+    <t>"for FILE in /etc/*.conf
     do
          echo “backing up $FILE...”
          cp $FILE backup/
@@ -824,10 +819,10 @@
     Done</t>
   </si>
   <si>
-    <t xml:space="preserve">if control structure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if control­command
+    <t>if control structure</t>
+  </si>
+  <si>
+    <t>if control­command
 then
      command1; command2; ...;
      commandn;
@@ -844,7 +839,7 @@
 Fi</t>
   </si>
   <si>
-    <t xml:space="preserve">if test $A -­gt 50      // test command evaluates
+    <t>if test $A -­gt 50      // test command evaluates
 then
     echo “too high”     
 fi
@@ -855,13 +850,13 @@
 Fi</t>
   </si>
   <si>
-    <t xml:space="preserve">control command can be test or [ ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">what can be used with test or [ ] commands ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">➢ -­f file  (file exists and is regular)
+    <t>control command can be test or [ ]</t>
+  </si>
+  <si>
+    <t>what can be used with test or [ ] commands ?</t>
+  </si>
+  <si>
+    <t>➢ -­f file  (file exists and is regular)
 ➢ -­d file  (file exists and is directory)
 ➢ -­r file   (file exists and readable)
 ➢ -­x file  ( file exists and executable)
@@ -869,7 +864,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">➢ string1 == string2 ( string comparison )
+    <t>➢ string1 == string2 ( string comparison )
 ➢ string1 != string2  
 ➢ value1 ­-eq value2(numeric comparison)
 ➢ value1 ­-gt value2
@@ -878,36 +873,36 @@
 ➢ expression1 ­o expression2  // or operator</t>
   </si>
   <si>
-    <t xml:space="preserve">while control structure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">while control­command1
+    <t>while control structure</t>
+  </si>
+  <si>
+    <t>while control­command1
     Do 
         command1;command2;....;commandn;
     Done</t>
   </si>
   <si>
-    <t xml:space="preserve">scripting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">need an interpreter at the top of the script
+    <t>scripting</t>
+  </si>
+  <si>
+    <t>need an interpreter at the top of the script
    #!/bin/bash or #!/bin/tcsh</t>
   </si>
   <si>
-    <t xml:space="preserve">if no interpreter is mentioned at the top of the script then, the kernel uses the default depending on the system
+    <t>if no interpreter is mentioned at the top of the script then, the kernel uses the default depending on the system
 ➢ in Linux, it is /bin/bash</t>
   </si>
   <si>
-    <t xml:space="preserve">sourcing is popular in start­up scripts and also, can be used to include scripts from other scripts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">source ./script1.sh  or . ./script1.sh </t>
-  </si>
-  <si>
-    <t xml:space="preserve">vi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">➢ edit mode
+    <t>sourcing is popular in start­up scripts and also, can be used to include scripts from other scripts</t>
+  </si>
+  <si>
+    <t>source ./script1.sh  or . ./script1.sh </t>
+  </si>
+  <si>
+    <t>vi </t>
+  </si>
+  <si>
+    <t>➢ edit mode
 ➢ i ­ insert before cursor
 ➢ I ­ insert at the start of the line
 ➢ a ­ append after the cursor
@@ -948,34 +943,34 @@
 ➢ P – copy above current line</t>
   </si>
   <si>
-    <t xml:space="preserve">basic filters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">➢ less</t>
-  </si>
-  <si>
-    <t xml:space="preserve">➢ grep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">➢ sort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">➢ cut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">➢ sed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">➢ wc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">➢ bc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grep ­ options</t>
-  </si>
-  <si>
-    <t xml:space="preserve">➢ grep -­c    //  count no. lines that contain a match 
+    <t>basic filters</t>
+  </si>
+  <si>
+    <t>➢ less</t>
+  </si>
+  <si>
+    <t>➢ grep</t>
+  </si>
+  <si>
+    <t>➢ sort</t>
+  </si>
+  <si>
+    <t>➢ cut</t>
+  </si>
+  <si>
+    <t>➢ sed</t>
+  </si>
+  <si>
+    <t>➢ wc</t>
+  </si>
+  <si>
+    <t>➢ bc</t>
+  </si>
+  <si>
+    <t>grep ­ options</t>
+  </si>
+  <si>
+    <t>➢ grep -­c    //  count no. lines that contain a match 
 ➢ grep -­i   //   case insensitive matching
 ➢ grep -­l   //   print list of files that contain a match 
 ➢ grep -­n  //   show line no. before the line 
@@ -987,58 +982,61 @@
 ➢ grep -­r or grep -R // test files recursively in a directory </t>
   </si>
   <si>
-    <t xml:space="preserve">sed – stream editor </t>
-  </si>
-  <si>
-    <t xml:space="preserve">➢ can do what grep can do and much more
+    <t>sed – stream editor </t>
+  </si>
+  <si>
+    <t>➢ can do what grep can do and much more
 ➢ can delete lines on the fly
 ➢ can search and replace </t>
   </si>
   <si>
-    <t xml:space="preserve">awk </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cross compiler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Why ??</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- For embedded system development, it is usually impossible or not interesting to use a native toolchain
+    <t>awk </t>
+  </si>
+  <si>
+    <t>Cross compiler</t>
+  </si>
+  <si>
+    <t>Why ??</t>
+  </si>
+  <si>
+    <t>- For embedded system development, it is usually impossible or not interesting to use a native toolchain
 - The target is too restricted in terms of storage and/or memory
 - The target is very slow compared to your workstation
 - You may not want to install all development tools on your target.</t>
   </si>
   <si>
-    <t xml:space="preserve">- Three machines must be distinguished when discussing toolchain creation
+    <t>Linux Kernel in a Nutshell</t>
+  </si>
+  <si>
+    <t>- Three machines must be distinguished when discussing toolchain creation
 - The build machine, where the toolchain is built.
 - The host machine, where the toolchain will be executed.
 - The target machine, where the binaries created by the toolchain are executed.</t>
   </si>
   <si>
-    <t xml:space="preserve">Binutils</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binutils is a set of tools to generate and manipulate binaries for a given CPU architecture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">objdump, readelf, size, nm, strings, to inspect binaries. Very useful analysis tools!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">strip, to strip parts of binaries that are just needed for debugging (reducing their size).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C library</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-Several C libraries are available: glibc, uClibc, musl, dietlibc, newlib, etc.
+    <t>Binutils</t>
+  </si>
+  <si>
+    <t>Binutils is a set of tools to generate and manipulate binaries for a given CPU architecture</t>
+  </si>
+  <si>
+    <t>objdump, readelf, size, nm, strings, to inspect binaries. Very useful analysis tools!</t>
+  </si>
+  <si>
+    <t>strip, to strip parts of binaries that are just needed for debugging (reducing their size).</t>
+  </si>
+  <si>
+    <t>C library</t>
+  </si>
+  <si>
+    <t>-Several C libraries are available: glibc, uClibc, musl, dietlibc, newlib, etc.
 -  The choice of the C library must be made at the time of the cross-compiling toolchain generation, as the GCC compiler is compiled against a specific C library.</t>
   </si>
   <si>
-    <t xml:space="preserve">toolchain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toolchains have a loose name convention like arch[-vendor][-os]-abi.
+    <t>toolchain</t>
+  </si>
+  <si>
+    <t>Toolchains have a loose name convention like arch[-vendor][-os]-abi.
     arch is for architecture: arm, mips, x86, i686...
     vendor is tool chain supplier: apple,
     os is for operating system: linux, none (bare metal)
@@ -1046,19 +1044,19 @@
 For your question, arm-none-linux-gnueabi and arm-linux-gnueabi is same thing. arm-linux-gcc is actually binary for gcc which produces objects for ARM architecture to be run on Linux with default configuration (abi) provided by toolchain.</t>
   </si>
   <si>
-    <t xml:space="preserve">Bootloader</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Basic hardware initialization
+    <t>Bootloader</t>
+  </si>
+  <si>
+    <t>- Basic hardware initialization
 - Loading of an application binary, usually an operating system kernel, from flash storage, from the network, or from another type of non-volatile storage.
 - Possibly decompression of the application binary 
 - Execution of the application</t>
   </si>
   <si>
-    <t xml:space="preserve">Booting on embedded CPUs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- When powered, the CPU starts executing code at a fixed address
+    <t>Booting on embedded CPUs</t>
+  </si>
+  <si>
+    <t>- When powered, the CPU starts executing code at a fixed address
 - There is no other booting mechanism provided by the CPU
 - The hardware design must ensure that a NOR flash chip is wired so that it is accessible at the address at which the CPU starts executing instructions
 - The first stage bootloader must be programmed at this address in the NOR 
@@ -1066,25 +1064,426 @@
 - Not very common anymore (unpractical, andrequires NOR flash)</t>
   </si>
   <si>
-    <t xml:space="preserve">Booting on ARM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atmel AT91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- RomBoot: tries to find a valid bootstrap image from various storage sources, and load it into SRAM (DRAM not initialized yet). Size limited to 4 KB. No user interaction possible in standard boot mode.
+    <t>Booting on ARM</t>
+  </si>
+  <si>
+    <t>Atmel AT91</t>
+  </si>
+  <si>
+    <t>- RomBoot: tries to find a valid bootstrap image from various storage sources, and load it into SRAM (DRAM not initialized yet). Size limited to 4 KB. No user interaction possible in standard boot mode.
 - AT91Bootstrap: runs from SRAM. Initializes the DRAM, the NAND or SPI controller, and loads the secondary bootloader into RAM and starts it. No user interaction possible.
 - U-Boot: runs from RAM. Initializes some other hardware devices (network, USB, etc.). Loads the kernel image from storage or network to RAM and starts it. Shell with commands provided.
 -  Linux Kernel: runs from RAM. Takes over the system completely (bootloaders no longer exists).</t>
   </si>
   <si>
-    <t xml:space="preserve">TI OMAP3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">▶ ROM Code: tries to find a valid bootstrap image from various storage sources, and load it into SRAM or RAM (RAM can be initialized by ROM code through a configuration header). Size limited to &lt;64 KB. No user interaction possible.
+    <t>TI OMAP3</t>
+  </si>
+  <si>
+    <t>▶ ROM Code: tries to find a valid bootstrap image from various storage sources, and load it into SRAM or RAM (RAM can be initialized by ROM code through a configuration header). Size limited to &lt;64 KB. No user interaction possible.
 ▶ X-Loader or U-Boot: runs from SRAM. Initializes the DRAM, the NAND or MMC controller, and loads the secondary bootloader into RAM and starts it. No user interaction possible. File called MLO.
 ▶ U-Boot: runs from RAM. Initializes some other hardware devices (network, USB, etc.). Loads the kernel image from storage or network to RAM and starts it. Shell with commands provided. File called u-boot.bin or u-boot.img.
 ▶ Linux Kernel: runs from RAM. Takes over the system completely (bootloaders no longer exists).</t>
+  </si>
+  <si>
+    <t>Open Multimedia Applications Platform</t>
+  </si>
+  <si>
+    <t>U-Boot</t>
+  </si>
+  <si>
+    <t>commands</t>
+  </si>
+  <si>
+    <t>▶ flinfo - flash info
+▶ nand info - nand info
+▶ version - version details
+▶ ext2load - loads a file from an ext2 filesystem to RAM, And also ext2ls to list files, ext2info for information
+▶ fatload - loads a file from a FAT filesystem to RAM, And also fatls and fatinfo
+▶ tftp - loads a file from the network to RAM
+▶ ping - test the network
+▶ boot - runs the default boot command, stored in bootcmd
+▶ bootz &lt;address&gt; - starts a kernel image loaded at the given address in RAM
+▶ loadb/loads/loady - load a file from the serial line to RAM
+▶ usb - to initialize and control the USB subsystem, mainly used for USB storage devices such as USB keys
+▶ mmc, to initialize and control the MMC subsystem, used for SD and microSD cards
+▶ nand - to erase, read and write contents to NAND flash
+▶ erase, protect, cp, - to erase, modify protection and write to NOR flash
+▶ md -  displays memory contents. Can be useful to check the contents loaded in memory, or to look at hardware registers.
+▶ mm - modifies memory contents. Can be useful to modify directly hardware registers, for testing purposes.</t>
+  </si>
+  <si>
+    <t>Envoirmental variables</t>
+  </si>
+  <si>
+    <t>▶ U-Boot can be configured through environment variables
+▶ Some specific environment variables affect the behavior of the different commands
+▶ Custom environment variables can be added, and used in scripts
+▶ Environment variables are loaded from flash to RAM at U-Boot startup, can be modified and saved back to flash for persistence
+▶ There is a dedicated location in flash (or in MMC storage) to store the U-Boot environment, defined in the board configuration file</t>
+  </si>
+  <si>
+    <t>▶ bootcmd, contains the command that U-Boot will automatically execute at boot time after a configurable delay (bootdelay), if the process is not interrupted
+▶ bootargs, contains the arguments passed to the Linux kernel, covered later 
+▶ serverip, the IP address of the server that U-Boot will contact for network related commands
+▶ ipaddr, the IP address that U-Boot will use
+▶ netmask, the network mask to contact the server
+▶ ethaddr, the MAC address, can only be set once
+▶ autostart, if yes, U-Boot starts automatically an image that has been loaded into memory
+▶ filesize, the size of the latest copy to memory (from tftp, fatload, nand read...)</t>
+  </si>
+  <si>
+    <t>Command to manipulate EV</t>
+  </si>
+  <si>
+    <t>▶ printenv:: Shows all variables
+▶ printenv &lt;variable-name&gt;:: Shows the value of a variable
+▶ setenv &lt;variable-name&gt; &lt;variable-value&gt;:: Changes the value of a variable, only in RAM
+▶ editenv &lt;variable-name&gt;:: Edits the value of a variable, only in RAM
+▶ saveenv:: Saves the current state of the environment to flash</t>
+  </si>
+  <si>
+    <t>Scripts in environment variables</t>
+  </si>
+  <si>
+    <t>▶ Environment variables can contain small scripts, to execute several commands and test the results of commands.
+▶ Useful to automate booting or upgrade processes
+▶ Several commands can be chained using the ; operator
+▶ Tests can be done using
+▶ if command ; then ... ; else ... ; fi
+▶ Scripts are executed using run &lt;variable-name&gt;
+▶ You can reference other variables using ${variable-name}</t>
+  </si>
+  <si>
+    <t>▶ Example
+$ setenv mmc-boot 'if fatload mmc 0 80000000 boot.ini; then source; else if fatload mmc 0 80000000 zImage; then run mmc-do-boot; fi; fi'</t>
+  </si>
+  <si>
+    <t>Root file system</t>
+  </si>
+  <si>
+    <t>▶ Filesystems are mounted in a specific location in this hierarchy of directories
+    ▶ When a filesystem is mounted in a directory (called mount point), the contents of this directory reflects the contents of the storage device
+    ▶ When the filesystem is unmounted, the mount point is empty again.
+▶ This allows applications to access files and directories easily, regardless of their exact storage location
+▶ As the root filesystem is the first mounted filesystem, it cannot be mounted with the normal mount command
+▶ It is mounted directly by the kernel, according to the root=kernel option
+▶ When no root filesystem is available, the kernel panics</t>
+  </si>
+  <si>
+    <t>mount / umount</t>
+  </si>
+  <si>
+    <t>▶ mount allows to mount filesystems
+    ▶ mount -t type device mountpoint
+    ▶ type is the type of filesystem
+    ▶ device is the storage device, or network location to mount
+    ▶ mountpoint is the directory where files of the storage device or network location will be accessible
+    ▶ mount with no arguments shows the currently mounted filesystems
+▶ umount allows to unmount filesystems
+    ▶ This is needed before rebooting, or before unplugging a USB key, because the Linux kernel caches writes in memory to increase performance. 
+    umount makes sure that these writes are committed to the storage.</t>
+  </si>
+  <si>
+    <t>Location of the root filesystem</t>
+  </si>
+  <si>
+    <t>▶ It can be mounted from different locations
+    ▶ From the partition of a hard disk
+    ▶ From the partition of a USB key
+    ▶ From the partition of an SD card
+    ▶ From the partition of a NAND flash chip or similar type of storage device
+    ▶ From the network, using the NFS protocol
+    ▶ From memory, using a pre-loaded filesystem (by the bootloader)
+▶ It is up to the system designer to choose the configuration for the system, and configure the kernel behaviour with root=
+</t>
+  </si>
+  <si>
+    <t>Mounting rootfs from storage devices</t>
+  </si>
+  <si>
+    <t>▶ Partitions of a hard disk or USB key
+    ▶ root=/dev/sdXY, where X is a letter indicating the device, and Y a number indicating the partition
+    ▶ /dev/sdb2 is the second partition of the second disk drive (either USB key or ATA hard drive)
+▶ Partitions of an SD card
+    ▶ root=/dev/mmcblkXpY, where X is a number indicating the device and Y a number indicating the partition
+    ▶ /dev/mmcblk0p2 is the second partition of the first device 
+▶ Partitions of flash storage
+    ▶ root=/dev/mtdblockX, where X is the partition number  
+    ▶ /dev/mtdblock3 is the fourth partition of a NAND flash chip (if only one NAND flash chip is present)
+</t>
+  </si>
+  <si>
+    <t>Mounting rootfs over the network</t>
+  </si>
+  <si>
+    <t>▶ On the target system
+▶ The kernel must be compiled with
+    ▶ CONFIG_NFS_FS=y (NFS support)
+    ▶ CONFIG_IP_PNP=y (configure IP at boot time)
+    ▶ CONFIG_ROOT_NFS=y (support for NFS as rootfs)
+▶ The kernel must be booted with the following parameters:
+    ▶ root=/dev/nfs (we want rootfs over NFS)
+    ▶ ip=192.168.1.111 (target IP address)
+    ▶ nfsroot=192.168.1.110:/home/tux/rootfs/ (NFS server details)
+</t>
+  </si>
+  <si>
+    <t>rootfs in memory: initramfs</t>
+  </si>
+  <si>
+    <t>▶ It is also possible to have the root filesystem integrated into the kernel image
+▶ It is therefore loaded into memory together with the kernel 
+▶ This mechanism is called initramfs
+    ▶ It integrates a compressed archive of the filesystem into the kernel image
+    ▶ Variant: the compressed archive can also be loaded separately by the bootloader.
+▶ It is useful for two cases
+    ▶ Fast booting of very small root filesystems. As the filesystem is completely loaded at boot time, application startup is very fast.
+    ▶ As an intermediate step before switching to a real root filesystem, located on devices for which drivers not part of the kernel image are needed (storage drivers, filesystem drivers, network drivers). This is always used on the kernel of desktop/server distributions to keep the kernel image size reasonable.
+▶ The contents of an initramfs are defined at the kernel configuration level, with the CONFIG_INITRAMFS_SOURCE option
+    ▶ Can be the path to a directory containing the root filesystem contents
+    ▶ Can be the path to a cpio archive
+    ▶ Can be a text file describing the contents of the initramfs (see documentation for details)
+▶ The kernel build process will automatically take the contents of the CONFIG_INITRAMFS_SOURCE option and integrate the root filesystem into the kernel image
+▶ Details (in kernel sources): Documentation/filesystems/ramfs-rootfs-initramfs.txt Documentation/early-userspace/README</t>
+  </si>
+  <si>
+    <t>device files</t>
+  </si>
+  <si>
+    <t>▶ One of the kernel important role is to allow applications to access hardware devices
+▶ In the Linux kernel, most devices are presented to user space applications through two different abstractions
+    ▶ Character device
+    ▶ Block device
+▶ Internally, the kernel identifies each device by a triplet of
+▶ information
+    ▶ Type (character or block)
+    ▶ Major (typically the category of device)
+    ▶ Minor (typically the identifier of the device)
+</t>
+  </si>
+  <si>
+    <t>Block device list</t>
+  </si>
+  <si>
+    <t>▶ The list of all block devices available in the system can be found in /proc/partitions &amp; And also in /sys/block/</t>
+  </si>
+  <si>
+    <t>partition tools</t>
+  </si>
+  <si>
+    <t>Numerous tools to create and modify the partitions on a block
+device: fdisk, cfdisk, sfdisk, parted, etc.</t>
+  </si>
+  <si>
+    <t>Transfering data to a block device</t>
+  </si>
+  <si>
+    <t>▶ The block devices in /dev/ allow such raw access
+▶ dd is the tool of choice for such transfers:
+▶ dd if=/dev/mmcblk0p1 of=testfile bs=1M count=16
+    Transfers 16 blocks of 1 MB from /dev/mmcblk0p1 to testfile
+▶ dd if=testfile of=/dev/sda2 bs=1M seek=4
+    Transfers the complete contents of testfile to /dev/sda2, by blocks of 1 MB, but starting at offset 4 MB in /dev/sda2</t>
+  </si>
+  <si>
+    <t>Block &amp; flash</t>
+  </si>
+  <si>
+    <t>Block devices vs flash devices</t>
+  </si>
+  <si>
+    <t>▶ Block devices:
+    ▶ Allow for random data access using fixed size blocks
+    ▶ Do not require special care when writing on the media
+    ▶ Block size is relatively small (minimum 512 bytes, can be increased for performance reasons)
+    ▶ Considered as reliable (if the storage media is not, some hardware or software parts are supposed to make it reliable)
+▶ Flash devices:
+    ▶ Allow for random data access too
+    ▶ Require special care before writing on the media (erasing the region you are about to write on)
+    ▶ Erase, write and read operation might not use the same block size
+    ▶ Reliability depends on the flash technology</t>
+  </si>
+  <si>
+    <t>cscope</t>
+  </si>
+  <si>
+    <t>$ cscope -Rk
+$ make cscope
+$ cscope -d cscope.out</t>
+  </si>
+  <si>
+    <t>process management</t>
+  </si>
+  <si>
+    <t>process descriptor</t>
+  </si>
+  <si>
+    <t>struct task_struct
+    - pid
+    - state
+    - stack
+    - cpu_no
+    - priority
+    - scheduler
+    - policy
+    - tasks list
+    - parent, child &amp; sibling process info
+    - resources information:: open files, devices
+    - singal related information
+    - etc.</t>
+  </si>
+  <si>
+    <t>process descriptor allocation</t>
+  </si>
+  <si>
+    <t>The task_struct structure is allocated via the slab allocator to provide object reuse</t>
+  </si>
+  <si>
+    <t>struct thread_info {
+struct task_struct
+struct exec_domain
+__u32
+__u32
+__u32
+int
+*task;
+*exec_domain;
+flags;
+status;
+cpu;
+preempt_count;...}</t>
+  </si>
+  <si>
+    <t>PID</t>
+  </si>
+  <si>
+    <t>- The system identifies processes by a unique process identification value or PID.
+- may increase the maximum value via /proc/sys/kernel/pid_max .</t>
+  </si>
+  <si>
+    <t>current_thread_info()-&gt;task; return pointer to current executing pd</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>Process State
+- TASK_READY:: Existing task calls fork() and creates a new process.ready but not running.
+- TASK_RUNNING:: running.
+- TASK_TERMINATE:: Task exits via do_exit.
+- TASK_INTERRUPTIBLE:: waiting.
+    </t>
+  </si>
+  <si>
+    <t>manupulating current process state</t>
+  </si>
+  <si>
+    <t>- set_task_state(task, state); or task-&gt;state = state;
+- The method set_current_state(state) is synonymous to set_task_state(current,state) . See &lt;linux/sched.h&gt; for the implementation of these and related functions.</t>
+  </si>
+  <si>
+    <t>Process Context</t>
+  </si>
+  <si>
+    <t>- Normal program execution occurs in user-space.When a program executes a system call or triggers an exception, it enters kernel-space.
+- At this point, the kernel is said to be “executing on behalf of the process” and is in process context.When in process context, the current macro is valid. 
+- Upon exiting the kernel, the process resumes execution in user-space, unless a higher-priority process has become runnable in the interim, in which case the scheduler is invoked to select the higher priority process.</t>
+  </si>
+  <si>
+    <t>process tree</t>
+  </si>
+  <si>
+    <t>- Each task_struct has a pointer to the parent’s task_struct , named parent , and a list of children, named children.
+- from the current proccess descriptor, it is possible to obtain the process descriptor of its parent.
+    struct task_struct *my_parent = current-&gt;parent;
+- it is possible to iterate over a process’s children with
+    struct task_struct *task;
+    struct list_head *list;
+    list_for_each(list, &amp;current-&gt;children) {
+        task = list_entry(list, struct task_struct, sibling);
+        /* task now points to one of current’s children */}
+- To obtain the next task in the list, given any valid task
+    list_entry(task-&gt;tasks.next, struct task_struct, tasks)
+    Obtaining the previous task works the same way:
+    list_entry(task-&gt;tasks.prev, struct task_struct, tasks)
+- To iterate over the entire task list. On each iteration, task points to the next task in the list:
+    struct task_struct *task;
+    for_each_process(task) {
+    /* this pointlessly prints the name and PID of each task */
+    printk(“%s[%d]\n”, task-&gt;comm, task-&gt;pid);
+    }</t>
+  </si>
+  <si>
+    <t>Kernel Threads</t>
+  </si>
+  <si>
+    <t>- The significant difference between kernel threads and normal processes is that kernel threads do not have an address space. (Their mm pointer, which points at their address space, is NULL .) 
+- They operate only in kernel-space and do not context switch into user-space. Kernel threads, however, are schedulable and preemptable, the same as normal processes.
+- a kernel thread can be created only by another kernel thread.
+- The interface, declared in &lt;linux/kthread.h&gt; , for spawning a new kernel thread from an existing one is kthread_create()::
+- The process is created in an unrunnable state; it will not start running until explicitly woken up via wake_up_process() .A process can be created and made runnable with a single function, kthread_run() :
+- This routine, implemented as a macro, simply calls both kthread_create() and wake_up_process() :
+- a kernel thread continues to exist until it calls do_exit() or another part of the kernel calls kthread_stop() , passing in the address of the task_struct structure returned by kthread_create() :</t>
+  </si>
+  <si>
+    <t>$ps -ef
+-------------------------------------
+    struct task_struct *kthread_create(int (*threadfn)(void *data),
+    void *data,
+    const char namefmt[],...)
+-------------------------------------
+    #define kthread_run(threadfn, data, namefmt, ...)
+    ({
+        struct task_struct *k;
+        k = kthread_create(threadfn, data, namefmt, ## __VA_ARGS__);
+            if (!IS_ERR(k))
+                wake_up_process(k);
+        k;
+    })
+-------------------------------------
+ int kthread_stop(struct task_struct *k)
+ </t>
+  </si>
+  <si>
+    <t>The Dilemma of the Parentless Task</t>
+  </si>
+  <si>
+    <t>- The solution is to reparent a task’s children on exit to either another process in the current thread group or, if that fails, the init process.
+- above is done using api::
+    static struct task_struct *find_new_reaper(struct task_struct *father)</t>
+  </si>
+  <si>
+    <t>Process Scheduler</t>
+  </si>
+  <si>
+    <t>- The process scheduler decides which process runs, when, and for how long
+- The idea behind the scheduler is simple.To best utilize processor time, assuming there are more runnable processes than processors in a system.
+- These processes are waiting to run. Deciding which process runs next, given a set of runnable processes, is the fundamental decision that the scheduler must make.</t>
+  </si>
+  <si>
+    <t>policy</t>
+  </si>
+  <si>
+    <t>Policy is the behavior of the scheduler that determines what runs when.</t>
+  </si>
+  <si>
+    <t>$ ps -el // list of process with nice values                                              $ ps -eo state,uid,pid,ppid,rtprio,time,comm // list with real time priority</t>
+  </si>
+  <si>
+    <t>Process Priority</t>
+  </si>
+  <si>
+    <t>- A common type of scheduling algorithm is priority-based scheduling.
+- processes with the same priority are scheduled round-robin (one after the next, repeating).
+- The Linux kernel implements two separate priority ranges.
+    - The first is the nice value, a number from –20 to +19 with a default of 0. Larger nice values correspond to a lower priority. eg $ps -el
+    - The second range is the real-time priority.The values are configurable, but by default range from 0 to 99, inclusive. Opposite from nice values, higher real-time priority values correspond to a greater priority. eg $ ps -eo state,uid,pid,ppid,rtprio,time,comm</t>
+  </si>
+  <si>
+    <t>Timeslice</t>
+  </si>
+  <si>
+    <t>- The timeslice is the numeric value that represents how long a task can run until it is pre-empted.</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1491,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -1258,7 +1657,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1415,6 +1814,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -1495,7 +1898,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="1" sqref="C11 C17"/>
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1886,7 +2289,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="1" sqref="C11 D15"/>
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2151,7 +2554,7 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D37" activeCellId="1" sqref="C11 D37"/>
+      <selection pane="topLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2667,7 +3070,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="C11 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2736,18 +3139,18 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C11 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="38" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="38" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="38" width="33.8826530612245"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="38" width="73.030612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="38" width="41.5765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="38" width="34.0204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="38" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="35" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="35" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="35" width="33.8826530612245"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="35" width="73.030612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="35" width="41.5765306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="35" width="34.0204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="35" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2786,35 +3189,35 @@
       <c r="F3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="71.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="37" t="s">
         <v>168</v>
       </c>
       <c r="C4" s="0"/>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="37" t="s">
         <v>169</v>
       </c>
       <c r="E4" s="0"/>
       <c r="F4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="71.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="37" t="s">
         <v>170</v>
       </c>
       <c r="C5" s="0"/>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="37" t="s">
         <v>171</v>
       </c>
       <c r="E5" s="0"/>
       <c r="F5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="37" t="s">
         <v>174</v>
       </c>
       <c r="E6" s="0"/>
@@ -2822,10 +3225,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0"/>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="37" t="s">
         <v>176</v>
       </c>
       <c r="E7" s="0"/>
@@ -2833,10 +3236,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0"/>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="37" t="s">
         <v>178</v>
       </c>
       <c r="E8" s="0"/>
@@ -2845,7 +3248,7 @@
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="37" t="s">
         <v>179</v>
       </c>
       <c r="E9" s="0"/>
@@ -2853,21 +3256,21 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0"/>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="37" t="s">
         <v>181</v>
       </c>
       <c r="E10" s="0"/>
       <c r="F10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="37" t="s">
         <v>182</v>
       </c>
       <c r="C11" s="0"/>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="37" t="s">
         <v>183</v>
       </c>
       <c r="E11" s="0"/>
@@ -2876,7 +3279,7 @@
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="37" t="s">
         <v>184</v>
       </c>
       <c r="E12" s="0"/>
@@ -2885,7 +3288,7 @@
     <row r="13" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="37" t="s">
         <v>185</v>
       </c>
       <c r="E13" s="0"/>
@@ -2894,7 +3297,7 @@
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="37" t="s">
         <v>186</v>
       </c>
       <c r="E14" s="0"/>
@@ -2903,7 +3306,7 @@
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="37" t="s">
         <v>187</v>
       </c>
       <c r="E15" s="0"/>
@@ -2912,7 +3315,7 @@
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="37" t="s">
         <v>188</v>
       </c>
       <c r="E16" s="0"/>
@@ -2921,7 +3324,7 @@
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="37" t="s">
         <v>189</v>
       </c>
       <c r="E17" s="0"/>
@@ -2930,7 +3333,7 @@
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
-      <c r="D18" s="38" t="s">
+      <c r="D18" s="37" t="s">
         <v>190</v>
       </c>
       <c r="E18" s="0"/>
@@ -2939,7 +3342,7 @@
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
-      <c r="D19" s="38" t="s">
+      <c r="D19" s="37" t="s">
         <v>191</v>
       </c>
       <c r="E19" s="0"/>
@@ -2948,7 +3351,7 @@
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
-      <c r="D20" s="38" t="s">
+      <c r="D20" s="37" t="s">
         <v>192</v>
       </c>
       <c r="E20" s="0"/>
@@ -2957,7 +3360,7 @@
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
-      <c r="D21" s="38" t="s">
+      <c r="D21" s="37" t="s">
         <v>193</v>
       </c>
       <c r="E21" s="0"/>
@@ -2966,7 +3369,7 @@
     <row r="22" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
-      <c r="D22" s="38" t="s">
+      <c r="D22" s="37" t="s">
         <v>194</v>
       </c>
       <c r="E22" s="0"/>
@@ -2975,7 +3378,7 @@
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
-      <c r="D23" s="38" t="s">
+      <c r="D23" s="37" t="s">
         <v>195</v>
       </c>
       <c r="E23" s="0"/>
@@ -2984,7 +3387,7 @@
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
-      <c r="D24" s="38" t="s">
+      <c r="D24" s="37" t="s">
         <v>196</v>
       </c>
       <c r="E24" s="0"/>
@@ -2993,7 +3396,7 @@
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
-      <c r="D25" s="38" t="s">
+      <c r="D25" s="37" t="s">
         <v>197</v>
       </c>
       <c r="E25" s="0"/>
@@ -3002,35 +3405,35 @@
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
-      <c r="D26" s="38" t="s">
+      <c r="D26" s="37" t="s">
         <v>198</v>
       </c>
       <c r="E26" s="0"/>
       <c r="F26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="37" t="s">
         <v>199</v>
       </c>
-      <c r="C27" s="38" t="s">
+      <c r="C27" s="37" t="s">
         <v>200</v>
       </c>
-      <c r="D27" s="38" t="s">
+      <c r="D27" s="37" t="s">
         <v>201</v>
       </c>
-      <c r="E27" s="38" t="s">
+      <c r="E27" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="F27" s="38" t="s">
+      <c r="F27" s="37" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0"/>
-      <c r="C28" s="38" t="s">
+      <c r="C28" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="D28" s="38" t="s">
+      <c r="D28" s="37" t="s">
         <v>205</v>
       </c>
       <c r="E28" s="0"/>
@@ -3038,39 +3441,39 @@
     </row>
     <row r="29" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0"/>
-      <c r="C29" s="38" t="s">
+      <c r="C29" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="D29" s="38" t="s">
+      <c r="D29" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="E29" s="38" t="s">
+      <c r="E29" s="37" t="s">
         <v>208</v>
       </c>
       <c r="F29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="82.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="38" t="s">
+      <c r="B30" s="37" t="s">
         <v>209</v>
       </c>
       <c r="C30" s="0"/>
       <c r="D30" s="0"/>
-      <c r="E30" s="38" t="s">
+      <c r="E30" s="37" t="s">
         <v>210</v>
       </c>
       <c r="F30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="38" t="s">
+      <c r="B31" s="37" t="s">
         <v>211</v>
       </c>
-      <c r="C31" s="38" t="s">
+      <c r="C31" s="37" t="s">
         <v>212</v>
       </c>
-      <c r="D31" s="38" t="s">
+      <c r="D31" s="37" t="s">
         <v>213</v>
       </c>
-      <c r="E31" s="38" t="s">
+      <c r="E31" s="37" t="s">
         <v>214</v>
       </c>
       <c r="F31" s="0"/>
@@ -3078,7 +3481,7 @@
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
-      <c r="D32" s="38" t="s">
+      <c r="D32" s="37" t="s">
         <v>215</v>
       </c>
       <c r="E32" s="0"/>
@@ -3086,24 +3489,24 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0"/>
-      <c r="C33" s="38" t="s">
+      <c r="C33" s="37" t="s">
         <v>216</v>
       </c>
       <c r="D33" s="0"/>
-      <c r="E33" s="38" t="s">
+      <c r="E33" s="37" t="s">
         <v>217</v>
       </c>
       <c r="F33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="38" t="s">
+      <c r="B34" s="37" t="s">
         <v>218</v>
       </c>
       <c r="C34" s="0"/>
-      <c r="D34" s="38" t="s">
+      <c r="D34" s="37" t="s">
         <v>219</v>
       </c>
-      <c r="E34" s="38" t="s">
+      <c r="E34" s="37" t="s">
         <v>220</v>
       </c>
       <c r="F34" s="0"/>
@@ -3111,7 +3514,7 @@
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
-      <c r="D35" s="38" t="s">
+      <c r="D35" s="37" t="s">
         <v>221</v>
       </c>
       <c r="E35" s="0"/>
@@ -3120,170 +3523,170 @@
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
-      <c r="D36" s="38" t="s">
+      <c r="D36" s="37" t="s">
         <v>222</v>
       </c>
       <c r="E36" s="0"/>
       <c r="F36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="71.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="37" t="s">
         <v>223</v>
       </c>
       <c r="C37" s="0"/>
       <c r="D37" s="0"/>
-      <c r="E37" s="38" t="s">
+      <c r="E37" s="37" t="s">
         <v>224</v>
       </c>
       <c r="F37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="117.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="38" t="s">
+      <c r="B38" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="C38" s="38" t="s">
+      <c r="C38" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="D38" s="38" t="s">
+      <c r="D38" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="E38" s="38" t="s">
+      <c r="E38" s="37" t="s">
         <v>228</v>
       </c>
       <c r="F38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="175.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0"/>
-      <c r="C39" s="38" t="s">
+      <c r="C39" s="37" t="s">
         <v>229</v>
       </c>
-      <c r="D39" s="38" t="s">
+      <c r="D39" s="37" t="s">
         <v>230</v>
       </c>
-      <c r="E39" s="38" t="s">
+      <c r="E39" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="F39" s="38" t="s">
+      <c r="F39" s="37" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="82.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0"/>
-      <c r="C40" s="38" t="s">
+      <c r="C40" s="37" t="s">
         <v>233</v>
       </c>
-      <c r="D40" s="38" t="s">
+      <c r="D40" s="37" t="s">
         <v>234</v>
       </c>
-      <c r="E40" s="38" t="s">
+      <c r="E40" s="37" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="48.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0"/>
-      <c r="C41" s="38" t="s">
+      <c r="C41" s="37" t="s">
         <v>236</v>
       </c>
-      <c r="D41" s="38" t="s">
+      <c r="D41" s="37" t="s">
         <v>237</v>
       </c>
       <c r="E41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="38" t="s">
+      <c r="B42" s="37" t="s">
         <v>238</v>
       </c>
-      <c r="D42" s="38" t="s">
+      <c r="D42" s="37" t="s">
         <v>239</v>
       </c>
       <c r="E42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0"/>
-      <c r="D43" s="38" t="s">
+      <c r="D43" s="37" t="s">
         <v>240</v>
       </c>
       <c r="E43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0"/>
-      <c r="D44" s="38" t="s">
+      <c r="D44" s="37" t="s">
         <v>241</v>
       </c>
-      <c r="E44" s="38" t="s">
+      <c r="E44" s="37" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="490" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="38" t="s">
+      <c r="B45" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="D45" s="38" t="s">
+      <c r="D45" s="37" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="38" t="s">
+      <c r="B46" s="37" t="s">
         <v>245</v>
       </c>
-      <c r="D46" s="38" t="s">
+      <c r="D46" s="37" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0"/>
-      <c r="D47" s="38" t="s">
+      <c r="D47" s="37" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0"/>
-      <c r="D48" s="38" t="s">
+      <c r="D48" s="37" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="0"/>
-      <c r="D49" s="38" t="s">
+      <c r="D49" s="37" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="0"/>
-      <c r="D50" s="38" t="s">
+      <c r="D50" s="37" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="0"/>
-      <c r="D51" s="38" t="s">
+      <c r="D51" s="37" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="0"/>
-      <c r="D52" s="38" t="s">
+      <c r="D52" s="37" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="117.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="38" t="s">
+      <c r="B53" s="37" t="s">
         <v>253</v>
       </c>
-      <c r="D53" s="38" t="s">
+      <c r="D53" s="37" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="38" t="s">
+      <c r="B54" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="D54" s="38" t="s">
+      <c r="D54" s="37" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="38" t="s">
+      <c r="B55" s="37" t="s">
         <v>257</v>
       </c>
     </row>
@@ -3303,40 +3706,40 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="36" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="38" width="23.3520408163265"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="38" width="31.5867346938776"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="38" width="66.8214285714286"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="38" width="41.4438775510204"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="38" width="28.3469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="38" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="34" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="33" width="23.3520408163265"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="33" width="31.5867346938776"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="33" width="66.8214285714286"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="33" width="41.4438775510204"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="33" width="28.3469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="33" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0"/>
-      <c r="B1" s="0"/>
-      <c r="C1" s="0"/>
-      <c r="D1" s="0"/>
-      <c r="E1" s="0"/>
-      <c r="F1" s="0"/>
+      <c r="A1" s="38"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0"/>
-      <c r="B2" s="0"/>
-      <c r="C2" s="0"/>
-      <c r="D2" s="0"/>
-      <c r="E2" s="0"/>
-      <c r="F2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="36" t="s">
         <v>71</v>
       </c>
@@ -3357,119 +3760,327 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0"/>
-      <c r="B4" s="0"/>
-      <c r="C4" s="0"/>
-      <c r="D4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="36" t="n">
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="0"/>
+      <c r="F4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="37" t="s">
         <v>258</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="37" t="s">
         <v>259</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="37" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="48.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0"/>
-      <c r="C6" s="0"/>
-      <c r="D6" s="38" t="s">
+      <c r="E5" s="0"/>
+      <c r="F5" s="37" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0"/>
-      <c r="C7" s="38" t="s">
+    <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="39"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="E6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="39"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="37" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="38" t="s">
+      <c r="D7" s="37" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0"/>
-      <c r="C9" s="0"/>
-      <c r="D9" s="38" t="s">
+      <c r="E7" s="0"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="39"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="37" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="48.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0"/>
-      <c r="C10" s="38" t="s">
+      <c r="E8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="39"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="37" t="s">
         <v>266</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="E9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="39"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="37" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="129.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0"/>
-      <c r="C11" s="38" t="s">
+      <c r="D10" s="37" t="s">
         <v>268</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="E10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="39"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="37" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="38" t="s">
+      <c r="D11" s="37" t="s">
         <v>270</v>
       </c>
-      <c r="C12" s="0"/>
-      <c r="D12" s="38" t="s">
+      <c r="E11" s="0"/>
+    </row>
+    <row r="12" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="39"/>
+      <c r="B12" s="37" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="94.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0"/>
-      <c r="C13" s="38" t="s">
+      <c r="C12" s="38"/>
+      <c r="D12" s="37" t="s">
         <v>272</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="E12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="39"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="37" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="129.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="38" t="s">
+      <c r="D13" s="37" t="s">
         <v>274</v>
       </c>
+      <c r="E13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="39"/>
+      <c r="B14" s="37" t="s">
+        <v>275</v>
+      </c>
       <c r="C14" s="37" t="s">
-        <v>275</v>
-      </c>
-      <c r="D14" s="38" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="129.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="38" t="s">
+      <c r="D14" s="37" t="s">
         <v>277</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="E14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="39"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="37" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="38" t="s">
-        <v>268</v>
-      </c>
-      <c r="D16" s="38" t="s">
+      <c r="D15" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="129.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0"/>
+      <c r="B16" s="37" t="s">
         <v>269</v>
       </c>
+      <c r="C16" s="0"/>
+      <c r="D16" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="E16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="39"/>
+      <c r="B17" s="37" t="s">
+        <v>281</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="E17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="39"/>
+      <c r="B18" s="0"/>
+      <c r="C18" s="37" t="s">
+        <v>284</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="E18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="39"/>
+      <c r="B19" s="0"/>
+      <c r="C19" s="0"/>
+      <c r="D19" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="E19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="39"/>
+      <c r="B20" s="0"/>
+      <c r="C20" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>288</v>
+      </c>
+      <c r="E20" s="0"/>
+    </row>
+    <row r="21" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="39"/>
+      <c r="B21" s="0"/>
+      <c r="C21" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>290</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="39"/>
+      <c r="B22" s="37" t="s">
+        <v>292</v>
+      </c>
+      <c r="C22" s="0"/>
+      <c r="D22" s="37" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="39"/>
+      <c r="B23" s="0"/>
+      <c r="C23" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="39"/>
+      <c r="B24" s="0"/>
+      <c r="C24" s="37" t="s">
+        <v>296</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="39"/>
+      <c r="B25" s="0"/>
+      <c r="C25" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="39"/>
+      <c r="B26" s="0"/>
+      <c r="C26" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="39"/>
+      <c r="B27" s="0"/>
+      <c r="C27" s="37" t="s">
+        <v>302</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="39"/>
+      <c r="B28" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="C28" s="0"/>
+      <c r="D28" s="37" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="39"/>
+      <c r="B29" s="0"/>
+      <c r="C29" s="37" t="s">
+        <v>306</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="39"/>
+      <c r="B30" s="0"/>
+      <c r="C30" s="37" t="s">
+        <v>308</v>
+      </c>
+      <c r="D30" s="37" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="39"/>
+      <c r="B31" s="0"/>
+      <c r="C31" s="37" t="s">
+        <v>310</v>
+      </c>
+      <c r="D31" s="37" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="D32" s="37" t="s">
+        <v>314</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A31"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3485,14 +4096,193 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C11 A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <sheetData/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="36" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="38" width="26.0918367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="38" width="26.5459183673469"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="38" width="65.6071428571429"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="38" width="55.265306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="38" width="32.7244897959184"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="38" width="8.72959183673469"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>315</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="152.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="39" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>318</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="152.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="39"/>
+      <c r="C6" s="38" t="s">
+        <v>320</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="39"/>
+      <c r="C7" s="38" t="s">
+        <v>323</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="39"/>
+      <c r="D8" s="38" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="82.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="39"/>
+      <c r="C9" s="38" t="s">
+        <v>326</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="48.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="39"/>
+      <c r="C10" s="38" t="s">
+        <v>328</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="82.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="39"/>
+      <c r="C11" s="38" t="s">
+        <v>330</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="257" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="39"/>
+      <c r="C12" s="38" t="s">
+        <v>332</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="210.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="39"/>
+      <c r="C13" s="38" t="s">
+        <v>334</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>335</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="48.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="39"/>
+      <c r="C14" s="38" t="s">
+        <v>337</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="71.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="38" t="s">
+        <v>339</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>342</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="38" t="s">
+        <v>344</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="38" t="s">
+        <v>346</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>347</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A5:A14"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3511,10 +4301,13 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C11 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.72959183673469"/>
+  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/improvement/quick_notes.xlsx
+++ b/improvement/quick_notes.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="356">
   <si>
     <t>Sr No</t>
   </si>
@@ -1324,10 +1324,9 @@
     - stack
     - cpu_no
     - priority
-    - scheduler
-    - policy
+    - scheduling policy
     - tasks list
-    - parent, child &amp; sibling process info
+    - parent, child &amp; sibling pd info
     - resources information:: open files, devices
     - singal related information
     - etc.</t>
@@ -1484,6 +1483,64 @@
   </si>
   <si>
     <t>- The timeslice is the numeric value that represents how long a task can run until it is pre-empted.</t>
+  </si>
+  <si>
+    <t>System calls</t>
+  </si>
+  <si>
+    <t>System Call Implementation</t>
+  </si>
+  <si>
+    <t>- Implementing System Calls
+    - kernel/sys.c
+        #include &lt;asm/page.h&gt;
+        /*
+        * sys_foo – everyone’s favorite system call.
+        *
+        * Returns the size of the per-process kernel stack.
+        */
+        asmlinkage long sys_foo(void) {
+            return THREAD_SIZE;
+        }
+- Verifying the Parameters
+- The kernel provides two methods for performing the requisite checks and the desired copy to and from user-space. Note kernel code must never blindly follow a pointer into user-space! One of these two methods must always be used.
+- For writing into user-space, the method copy_to_user() is provided. It takes three parameters.The first is the destination memory address in the process’s address space.The second is the source pointer in kernel-space. Finally, the third argument is the size in bytes of the data to copy.
+- For reading from user-space, the method copy_from_user() is analogous to copy_to_user() .The function reads from the second parameter into the first parameterthe number of bytes specified in the third parameter.
+- A call to capable() with a valid capabilities flag returns nonzero if the caller holds the specified  capability and zero otherwise. For example, capable(CAP_SYS_NICE) checks whether the caller has the ability to modify nice values of other processes.
+- Add an entry to the end of the system call table.This needs to be done for each architecture that supports the system call.
+    .long sys_foo
+- For each supported architecture, define the syscall number in &lt;asm/unistd.h&gt;.
+    #define __NR_foo 338
+- Compile the syscall into the kernel image (as opposed to compiling as a module).</t>
+  </si>
+  <si>
+    <t>System Call Context</t>
+  </si>
+  <si>
+    <t>- In process context, the kernel is capable of sleeping (for example, if the system call blocks on a call or explicitly calls schedule()) and is fully preemptible.
+- preemptible implies that, like user-space, the current task may be preempted by another task. Because the new task may then execute the same system call, care must be exercised to ensure that system calls are reentrant.</t>
+  </si>
+  <si>
+    <t>Accessing the System Call from User-Space</t>
+  </si>
+  <si>
+    <t>- Linux provides a set of macros for wrapping access to system calls. It sets up the register contents and issues the trap instructions.These macros are named _syscalln () , where n is between 0 and 6.The number corresponds to the number of parameters passed into the syscall because the macro needs to know how many parameters to expect and, consequently, push into registers. For example, consider the system call  open() , defined as long open(const char *filename, int flags, int mode) The syscall macro to use this system call without explicit library support would be
+</t>
+  </si>
+  <si>
+    <t>eg1:
+    #define __NR_open 5     // The __NR_open define is in &lt;asm/unistd.h&gt;
+    _syscall3(long, open, const char *, filename, int, flags, int, mode)
+    eg2
+    #define __NR_foo 283
+    __syscall0(long, foo)
+    int main ()
+    {
+        long stack_size;
+        stack_size = foo ();
+        printf (“The kernel stack size is %ld\n”, stack_size);
+        return 0;
+    }</t>
   </si>
 </sst>
 </file>
@@ -4096,10 +4153,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -4107,7 +4164,7 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="36" width="8.72959183673469"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="38" width="26.0918367346939"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="38" width="26.5459183673469"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="38" width="65.6071428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="38" width="72.5510204081633"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="38" width="55.265306122449"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="38" width="32.7244897959184"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="38" width="8.72959183673469"/>
@@ -4146,7 +4203,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="152.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="140.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="39" t="n">
         <v>2</v>
       </c>
@@ -4244,7 +4301,10 @@
         <v>338</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="71.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="36" t="n">
+        <v>3</v>
+      </c>
       <c r="B15" s="38" t="s">
         <v>339</v>
       </c>
@@ -4263,7 +4323,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="117.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="38" t="s">
         <v>344</v>
       </c>
@@ -4279,9 +4339,44 @@
         <v>347</v>
       </c>
     </row>
+    <row r="19" customFormat="false" ht="348.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="36" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>348</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>349</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="38" t="s">
+        <v>351</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="38" t="s">
+        <v>353</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>354</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>355</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A5:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A21"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/improvement/quick_notes.xlsx
+++ b/improvement/quick_notes.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="393">
   <si>
     <t>Sr No</t>
   </si>
@@ -1542,6 +1542,211 @@
         return 0;
     }</t>
   </si>
+  <si>
+    <t>Kernel Data Structures</t>
+  </si>
+  <si>
+    <t>The Linked List Structure</t>
+  </si>
+  <si>
+    <t>- The kernel provides a family of routines to manipulate linked lists.
+    - the list_add() method adds a new node to an existing linked list.These methods, however, are generic:They accept only list_head structures.
+    - Using the macro container_of() , we can easily find the parent structure containing any given member variable.
+</t>
+  </si>
+  <si>
+    <t>#define container_of(ptr, type, member) ({
+const typeof( ((type *)0)-&gt;member ) *__mptr = (ptr);
+(type *)( (char *)__mptr - offsetof(type,member) );})
+--------------------------------------------
+#define list_entry(ptr, type, member) \
+container_of(ptr, type, member)</t>
+  </si>
+  <si>
+    <t>Defining a Linked List</t>
+  </si>
+  <si>
+    <t>- As shown, a list_head by itself is worthless; it is normally embedded inside your own structure:
+struct fox {
+    unsigned long tail_length; /*length in centimeters of tail */ 
+    unsigned long weight;      /*weight in kilograms */ 
+    bool is_fantastic;         /*is this fox fantastic? */ 
+    struct list_head list;      /*list of all fox structures */ 
+};            
+The list needs to be initialized before it can be used. Because most of the elements are created dynamically (probably why you need a linked list), the most common way of initializing the linked list is at runtime:
+struct fox *red_fox;
+red_fox = kmalloc(sizeof(*red_fox), GFP_KERNEL);
+red_fox-&gt;tail_length = 40;
+red_fox-&gt;weight = 6;
+red_fox-&gt;is_fantastic = false;
+INIT_LIST_HEAD(&amp;red_fox-&gt;list);</t>
+  </si>
+  <si>
+    <t>List Heads</t>
+  </si>
+  <si>
+    <t>This defines and initializes a list_head named fox_list .</t>
+  </si>
+  <si>
+    <t>static LIST_HEAD(fox_list);</t>
+  </si>
+  <si>
+    <t>Manipulating Linked Lists</t>
+  </si>
+  <si>
+    <t>The functions are implemented as inline functions in generic C and can be found in &lt;linux/list.h&gt; .</t>
+  </si>
+  <si>
+    <t>Adding a Node to a Linked List</t>
+  </si>
+  <si>
+    <t>- To add a node to a linked list:
+    list_add(struct list_head *new, struct list_head *head)
+    This function adds the new node to the given list immediately after the head node. Because the list is circular and generally has no concept of first or last nodes, you can pass any element for head .
+- assume we had a new struct fox that we wanted to add to the fox_list list.We’d do this:
+    list_add(&amp;f-&gt;list, &amp;fox_list);
+    To add a node to the end of a linked list:
+    list_add_tail(struct list_head *new, struct list_head *head)
+    This function adds the new node to the given list immediately before the head node.As with list_add()</t>
+  </si>
+  <si>
+    <t>Deleting a Node from a Linked List</t>
+  </si>
+  <si>
+    <t>- list_del(struct list_head *entry)
+    This function removes the element entry from the list. Note that it does not free any memory belonging to entry or the data structure in which it is embedded; this function merely removes the element from the list.After calling this, you would typically destroy your data structure and the list_head inside it.
+    list_del(&amp;f-&gt;list);
+    Note the function does not receive as input fox_list.
+</t>
+  </si>
+  <si>
+    <t>static inline void __list_del(struct list_head *prev, struct list_head *next) {
+    next-&gt;prev = prev;
+    prev-&gt;next = next;
+}
+static inline void list_del(struct list_head *entry) {
+__list_del(entry-&gt;prev, entry-&gt;next);
+}</t>
+  </si>
+  <si>
+    <t>Traversing Linked Lists</t>
+  </si>
+  <si>
+    <t>    - The Basic Approach
+        The first is a pointer used to point to the current entry; it is a temporary variable that you must provide.The second is the list_head acting as the head node of the list you want to traverse (see the earlier section, “List Heads”). On each iteration of the loop, the first parameter points to the next entry in the list, until each entry has been visited.
+            struct list_head *p;
+            struct fox *f;
+            list_for_each(p, &amp;fox_list) {
+                /* f points to the structure in which the list is embedded */
+                /* p points to an entry in the list */
+                f = list_entry(p, struct fox, list);
+            }
+        We want a pointer to each fox , not a pointer to the list member in the structure.We can use the macro list_entry() , to retrieve the structure that contains a given list_head.
+    - The Usable Approach
+        Consequently, most kernel code uses the list_for_each_entry() macro to iterate over a linked list.This macro handles the workperformed by list_entry() , making list iteration simple:
+        list_for_each_entry(pos, head, member)
+        Here, pos is a pointer to the object containing the list_head nodes.Think of it as the return value from list_entry() . head is a pointer to the list_head head node from which you want to start iterating—in our previous example, fox_list . member is the vari able name of the list_head structure in pos — list in our example.
+        list_for_each_entry(f, &amp;fox_list, list) {
+            /* on each iteration, ‘f’ points to the next fox structure ... */
+        }
+</t>
+  </si>
+  <si>
+    <t>Iterating Through a List Backward</t>
+  </si>
+  <si>
+    <t>list_for_each_entry_reverse(pos, head, member)</t>
+  </si>
+  <si>
+    <t>Iterating While Removing</t>
+  </si>
+  <si>
+    <t>The standard methods rely on the fact that the list entries are not changing out from under them, and thus if the current entry is removed in the body of the loop, the subsequent iteration cannot advance to the next (or previous) pointer.
+    list_for_each_entry_safe(pos, next, head, member)</t>
+  </si>
+  <si>
+    <t>kfifo</t>
+  </si>
+  <si>
+    <t>The kfifo object maintains two off- sets into the queue: 
+    - an in offset and an out offset.The in offset is the location in the queue to which the next enqueue will occur.
+    - The out offset is the location in the queue from which the next dequeue will occur.
+    - When the out offset is equal to the in offset, the queue is empty.
+    - When the in offset is equal to the length of the queue, no more data can be enqueued until the queue is reset.</t>
+  </si>
+  <si>
+    <t>Creating Queue</t>
+  </si>
+  <si>
+    <t>- below function creates and initializes a kfifo with a queue of size bytes.The kernel uses the gfp mask gfp_mask to allocate the queue.
+- Upon success, kfifo_alloc() returns zero; on error it returns a negative error code.
+struct kfifo fifo;
+int ret;
+ret = kfifo_alloc(&amp;kifo, PAGE_SIZE, GFP_KERNEL);
+    if (ret)
+        return ret;
+/* ‘fifo’ now represents a PAGE_SIZE-sized queue ... */
+If you want to allocate the buffer yourself, you can:
+void kfifo_init(struct kfifo *fifo, void *buffer, unsigned int size);
+This function creates and initializes a kfifo that will use the size bytes of memory pointed at by buffer for its queue.With both kfifo_alloc() and kfifo_init() , size must be a power of two.
+Statically declaring a kfifo is simpler, but less common:
+DECLARE_KFIFO(name, size);
+INIT_KFIFO(name);
+This creates a static kfifo named name with a queue of size bytes.As before, sizemust be a power of 2.</t>
+  </si>
+  <si>
+    <t>Enqueuing Data</t>
+  </si>
+  <si>
+    <t>- When your kfifo is created and initialized, enqueuing data into the queue is performed via the kfifo_in() function:
+- This function copies the len bytes starting at from into the queue represented by fifo . 
+- On success it returns the number of bytes enqueued. If less than len bytes are free in the queue, the function copies only up to the amount of available bytes.Thus the return value can be less than len or even zero, if nothing was copied.
+</t>
+  </si>
+  <si>
+    <t>unsigned int kfifo_in(struct kfifo *fifo, const void *from, unsigned int len);</t>
+  </si>
+  <si>
+    <t>Dequeue data</t>
+  </si>
+  <si>
+    <t>- This function copies at most len bytes from the queue pointed at by fifo to the buffer pointed at by to . On success the function returns the number of bytes copied. If less than len bytes are in the queue, the function copies less than requested.
+    unsigned int kfifo_out(struct kfifo *fifo, void *to, unsigned int len);
+- When dequeued, data is no longer accessible from the queue.This is the normal usage of a queue, but if you want to “peek” at data within the queue without removing it, you can use kfifo_out_peek() :
+    unsigned int kfifo_out_peek(struct kfifo *fifo, void *to, unsigned int len, unsigned offset);
+    This works the same as kfifo_out() , except that the out offset is not incremented,The parameter offset specifies an index into the queue; specify zero to read from the head of the queue, as kfifo_out() does.</t>
+  </si>
+  <si>
+    <t>Obtaining the Size of a Queue</t>
+  </si>
+  <si>
+    <t>- To obtain the total size in bytes of the buffer used to store a kfifo’s queue, call kfifo_size() :
+- kfifo_len() to obtain the number of bytes enqueued in a kfifo:
+- number of bytes available to write into a kfifo, call kfifo_avail() :
+- kfifo_is_empty() and kfifo_is_full() return nonzero if the given kfifo is empty or full, respectively, and zero if not:
+</t>
+  </si>
+  <si>
+    <t>static inline unsigned int kfifo_size(struct kfifo *fifo);
+static inline unsigned int kfifo_len(struct kfifo *fifo);
+static inline unsigned int kfifo_avail(struct kfifo *fifo);
+static inline int kfifo_is_empty(struct kfifo *fifo);
+static inline int kfifo_is_full(struct kfifo *fifo);</t>
+  </si>
+  <si>
+    <t>Resetting and Destroying the Queue</t>
+  </si>
+  <si>
+    <t>- To reset a kfifo, jettisoning all the contents of the queue, call kfifo_reset() :
+- To destroy a kfifo allocated with kfifo_alloc() , call kfifo_free() :
+- If you created your kfifo with kfifo_init() , it is your responsibility to free the associated buffer.
+</t>
+  </si>
+  <si>
+    <t>static inline void kfifo_reset(struct kfifo *fifo);
+void kfifo_free(struct kfifo *fifo);
+</t>
+  </si>
 </sst>
 </file>
 
@@ -1550,7 +1755,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1646,6 +1851,11 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1714,7 +1924,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1875,6 +2085,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -4153,19 +4367,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="36" width="8.72959183673469"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="38" width="26.0918367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="38" width="26.5459183673469"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="38" width="72.5510204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="38" width="55.265306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="36" width="6.4234693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="38" width="23.7857142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="38" width="28.8520408163265"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="38" width="77.1632653061225"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="38" width="57.5714285714286"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="38" width="32.7244897959184"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="38" width="8.72959183673469"/>
   </cols>
@@ -4229,7 +4443,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="39"/>
       <c r="C7" s="38" t="s">
         <v>323</v>
@@ -4253,7 +4467,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="48.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="39"/>
       <c r="C10" s="38" t="s">
         <v>328</v>
@@ -4301,8 +4515,8 @@
         <v>338</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="36" t="n">
+    <row r="15" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="39" t="n">
         <v>3</v>
       </c>
       <c r="B15" s="38" t="s">
@@ -4312,7 +4526,8 @@
         <v>340</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="39"/>
       <c r="C16" s="38" t="s">
         <v>341</v>
       </c>
@@ -4324,6 +4539,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="117.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="39"/>
       <c r="C17" s="38" t="s">
         <v>344</v>
       </c>
@@ -4331,7 +4547,8 @@
         <v>345</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="39"/>
       <c r="C18" s="38" t="s">
         <v>346</v>
       </c>
@@ -4339,8 +4556,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="348.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="36" t="n">
+    <row r="19" customFormat="false" ht="361.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="39" t="n">
         <v>4</v>
       </c>
       <c r="B19" s="38" t="s">
@@ -4353,7 +4570,8 @@
         <v>350</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="39"/>
       <c r="C20" s="38" t="s">
         <v>351</v>
       </c>
@@ -4361,7 +4579,8 @@
         <v>352</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="175.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="39"/>
       <c r="C21" s="38" t="s">
         <v>353</v>
       </c>
@@ -4370,6 +4589,147 @@
       </c>
       <c r="E21" s="38" t="s">
         <v>355</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="71.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="38" t="s">
+        <v>356</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>357</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>358</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="199" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="38" t="s">
+        <v>360</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="38" t="s">
+        <v>362</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>363</v>
+      </c>
+      <c r="E24" s="38" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="38" t="s">
+        <v>365</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="129.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="38" t="s">
+        <v>367</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="94.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="38" t="s">
+        <v>369</v>
+      </c>
+      <c r="D27" s="38" t="s">
+        <v>370</v>
+      </c>
+      <c r="E27" s="38" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="315.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="40" t="s">
+        <v>372</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="38" t="s">
+        <v>374</v>
+      </c>
+      <c r="D29" s="38" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="48.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="38" t="s">
+        <v>376</v>
+      </c>
+      <c r="D30" s="38" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="82.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="38" t="s">
+        <v>378</v>
+      </c>
+      <c r="D31" s="38" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="38" t="s">
+        <v>380</v>
+      </c>
+      <c r="D32" s="38" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="38" t="s">
+        <v>382</v>
+      </c>
+      <c r="D33" s="38" t="s">
+        <v>383</v>
+      </c>
+      <c r="E33" s="38" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="38" t="s">
+        <v>385</v>
+      </c>
+      <c r="D34" s="38" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="71.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="38" t="s">
+        <v>387</v>
+      </c>
+      <c r="D35" s="38" t="s">
+        <v>388</v>
+      </c>
+      <c r="E35" s="38" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="38" t="s">
+        <v>390</v>
+      </c>
+      <c r="D36" s="38" t="s">
+        <v>391</v>
+      </c>
+      <c r="E36" s="38" t="s">
+        <v>392</v>
       </c>
     </row>
   </sheetData>

--- a/improvement/quick_notes.xlsx
+++ b/improvement/quick_notes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="interview preparation" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="441">
   <si>
     <t>Sr No</t>
   </si>
@@ -1318,7 +1318,8 @@
     <t>process descriptor</t>
   </si>
   <si>
-    <t>struct task_struct
+    <t>
+Struct task_struct
     - pid
     - state
     - stack
@@ -1329,7 +1330,8 @@
     - parent, child &amp; sibling pd info
     - resources information:: open files, devices
     - singal related information
-    - etc.</t>
+    - etc.
+</t>
   </si>
   <si>
     <t>process descriptor allocation</t>
@@ -1356,17 +1358,22 @@
     <t>PID</t>
   </si>
   <si>
-    <t>- The system identifies processes by a unique process identification value or PID.
-- may increase the maximum value via /proc/sys/kernel/pid_max .</t>
-  </si>
-  <si>
-    <t>current_thread_info()-&gt;task; return pointer to current executing pd</t>
+    <t>
+- The system identifies processes by a unique process identification value or PID.
+- may increase the maximum value via /proc/sys/kernel/pid_max .
+</t>
+  </si>
+  <si>
+    <t>
+Current_thread_info()-&gt;task; return pointer to current executing pd
+</t>
   </si>
   <si>
     <t>state</t>
   </si>
   <si>
-    <t>Process State
+    <t>
+Process State
 - TASK_READY:: Existing task calls fork() and creates a new process.ready but not running.
 - TASK_RUNNING:: running.
 - TASK_TERMINATE:: Task exits via do_exit.
@@ -1377,22 +1384,27 @@
     <t>manupulating current process state</t>
   </si>
   <si>
-    <t>- set_task_state(task, state); or task-&gt;state = state;
-- The method set_current_state(state) is synonymous to set_task_state(current,state) . See &lt;linux/sched.h&gt; for the implementation of these and related functions.</t>
+    <t>
+- set_task_state(task, state); or task-&gt;state = state;
+- The method set_current_state(state) is synonymous to set_task_state(current,state) . See &lt;linux/sched.h&gt; for the implementation of these and related functions.
+</t>
   </si>
   <si>
     <t>Process Context</t>
   </si>
   <si>
-    <t>- Normal program execution occurs in user-space.When a program executes a system call or triggers an exception, it enters kernel-space.
+    <t>
+- Normal program execution occurs in user-space.When a program executes a system call or triggers an exception, it enters kernel-space.
 - At this point, the kernel is said to be “executing on behalf of the process” and is in process context.When in process context, the current macro is valid. 
-- Upon exiting the kernel, the process resumes execution in user-space, unless a higher-priority process has become runnable in the interim, in which case the scheduler is invoked to select the higher priority process.</t>
+- Upon exiting the kernel, the process resumes execution in user-space, unless a higher-priority process has become runnable in the interim, in which case the scheduler is invoked to select the higher priority process.
+</t>
   </si>
   <si>
     <t>process tree</t>
   </si>
   <si>
-    <t>- Each task_struct has a pointer to the parent’s task_struct , named parent , and a list of children, named children.
+    <t>
+- Each task_struct has a pointer to the parent’s task_struct , named parent , and a list of children, named children.
 - from the current proccess descriptor, it is possible to obtain the process descriptor of its parent.
     struct task_struct *my_parent = current-&gt;parent;
 - it is possible to iterate over a process’s children with
@@ -1410,19 +1422,22 @@
     for_each_process(task) {
     /* this pointlessly prints the name and PID of each task */
     printk(“%s[%d]\n”, task-&gt;comm, task-&gt;pid);
-    }</t>
+    }
+</t>
   </si>
   <si>
     <t>Kernel Threads</t>
   </si>
   <si>
-    <t>- The significant difference between kernel threads and normal processes is that kernel threads do not have an address space. (Their mm pointer, which points at their address space, is NULL .) 
+    <t>
+- The significant difference between kernel threads and normal processes is that kernel threads do not have an address space. (Their mm pointer, which points at their address space, is NULL .) 
 - They operate only in kernel-space and do not context switch into user-space. Kernel threads, however, are schedulable and preemptable, the same as normal processes.
 - a kernel thread can be created only by another kernel thread.
 - The interface, declared in &lt;linux/kthread.h&gt; , for spawning a new kernel thread from an existing one is kthread_create()::
 - The process is created in an unrunnable state; it will not start running until explicitly woken up via wake_up_process() .A process can be created and made runnable with a single function, kthread_run() :
 - This routine, implemented as a macro, simply calls both kthread_create() and wake_up_process() :
-- a kernel thread continues to exist until it calls do_exit() or another part of the kernel calls kthread_stop() , passing in the address of the task_struct structure returned by kthread_create() :</t>
+- a kernel thread continues to exist until it calls do_exit() or another part of the kernel calls kthread_stop() , passing in the address of the task_struct structure returned by kthread_create() :
+</t>
   </si>
   <si>
     <t>$ps -ef
@@ -1447,17 +1462,21 @@
     <t>The Dilemma of the Parentless Task</t>
   </si>
   <si>
-    <t>- The solution is to reparent a task’s children on exit to either another process in the current thread group or, if that fails, the init process.
+    <t>
+- The solution is to reparent a task’s children on exit to either another process in the current thread group or, if that fails, the init process.
 - above is done using api::
-    static struct task_struct *find_new_reaper(struct task_struct *father)</t>
+    static struct task_struct *find_new_reaper(struct task_struct *father)
+</t>
   </si>
   <si>
     <t>Process Scheduler</t>
   </si>
   <si>
-    <t>- The process scheduler decides which process runs, when, and for how long
+    <t>
+- The process scheduler decides which process runs, when, and for how long
 - The idea behind the scheduler is simple.To best utilize processor time, assuming there are more runnable processes than processors in a system.
-- These processes are waiting to run. Deciding which process runs next, given a set of runnable processes, is the fundamental decision that the scheduler must make.</t>
+- These processes are waiting to run. Deciding which process runs next, given a set of runnable processes, is the fundamental decision that the scheduler must make.
+</t>
   </si>
   <si>
     <t>policy</t>
@@ -1472,17 +1491,21 @@
     <t>Process Priority</t>
   </si>
   <si>
-    <t>- A common type of scheduling algorithm is priority-based scheduling.
+    <t>
+- A common type of scheduling algorithm is priority-based scheduling.
 - processes with the same priority are scheduled round-robin (one after the next, repeating).
 - The Linux kernel implements two separate priority ranges.
     - The first is the nice value, a number from –20 to +19 with a default of 0. Larger nice values correspond to a lower priority. eg $ps -el
-    - The second range is the real-time priority.The values are configurable, but by default range from 0 to 99, inclusive. Opposite from nice values, higher real-time priority values correspond to a greater priority. eg $ ps -eo state,uid,pid,ppid,rtprio,time,comm</t>
+    - The second range is the real-time priority.The values are configurable, but by default range from 0 to 99, inclusive. Opposite from nice values, higher real-time priority values correspond to a greater priority. eg $ ps -eo state,uid,pid,ppid,rtprio,time,comm
+</t>
   </si>
   <si>
     <t>Timeslice</t>
   </si>
   <si>
-    <t>- The timeslice is the numeric value that represents how long a task can run until it is pre-empted.</t>
+    <t>
+- The timeslice is the numeric value that represents how long a task can run until it is pre-empted.
+</t>
   </si>
   <si>
     <t>System calls</t>
@@ -1491,7 +1514,8 @@
     <t>System Call Implementation</t>
   </si>
   <si>
-    <t>- Implementing System Calls
+    <t>
+- Implementing System Calls
     - kernel/sys.c
         #include &lt;asm/page.h&gt;
         /*
@@ -1511,14 +1535,17 @@
     .long sys_foo
 - For each supported architecture, define the syscall number in &lt;asm/unistd.h&gt;.
     #define __NR_foo 338
-- Compile the syscall into the kernel image (as opposed to compiling as a module).</t>
+- Compile the syscall into the kernel image (as opposed to compiling as a module).
+</t>
   </si>
   <si>
     <t>System Call Context</t>
   </si>
   <si>
-    <t>- In process context, the kernel is capable of sleeping (for example, if the system call blocks on a call or explicitly calls schedule()) and is fully preemptible.
-- preemptible implies that, like user-space, the current task may be preempted by another task. Because the new task may then execute the same system call, care must be exercised to ensure that system calls are reentrant.</t>
+    <t>
+- In process context, the kernel is capable of sleeping (for example, if the system call blocks on a call or explicitly calls schedule()) and is fully preemptible.
+- preemptible implies that, like user-space, the current task may be preempted by another task. Because the new task may then execute the same system call, care must be exercised to ensure that system calls are reentrant.
+</t>
   </si>
   <si>
     <t>Accessing the System Call from User-Space</t>
@@ -1549,7 +1576,8 @@
     <t>The Linked List Structure</t>
   </si>
   <si>
-    <t>- The kernel provides a family of routines to manipulate linked lists.
+    <t>
+- The kernel provides a family of routines to manipulate linked lists.
     - the list_add() method adds a new node to an existing linked list.These methods, however, are generic:They accept only list_head structures.
     - Using the macro container_of() , we can easily find the parent structure containing any given member variable.
 </t>
@@ -1566,7 +1594,8 @@
     <t>Defining a Linked List</t>
   </si>
   <si>
-    <t>- As shown, a list_head by itself is worthless; it is normally embedded inside your own structure:
+    <t>
+- As shown, a list_head by itself is worthless; it is normally embedded inside your own structure:
 struct fox {
     unsigned long tail_length; /*length in centimeters of tail */ 
     unsigned long weight;      /*weight in kilograms */ 
@@ -1579,13 +1608,16 @@
 red_fox-&gt;tail_length = 40;
 red_fox-&gt;weight = 6;
 red_fox-&gt;is_fantastic = false;
-INIT_LIST_HEAD(&amp;red_fox-&gt;list);</t>
+INIT_LIST_HEAD(&amp;red_fox-&gt;list);
+</t>
   </si>
   <si>
     <t>List Heads</t>
   </si>
   <si>
-    <t>This defines and initializes a list_head named fox_list .</t>
+    <t>
+This defines and initializes a list_head named fox_list .
+</t>
   </si>
   <si>
     <t>static LIST_HEAD(fox_list);</t>
@@ -1594,26 +1626,31 @@
     <t>Manipulating Linked Lists</t>
   </si>
   <si>
-    <t>The functions are implemented as inline functions in generic C and can be found in &lt;linux/list.h&gt; .</t>
+    <t>
+The functions are implemented as inline functions in generic C and can be found in &lt;linux/list.h&gt; .
+</t>
   </si>
   <si>
     <t>Adding a Node to a Linked List</t>
   </si>
   <si>
-    <t>- To add a node to a linked list:
+    <t>
+- To add a node to a linked list:
     list_add(struct list_head *new, struct list_head *head)
     This function adds the new node to the given list immediately after the head node. Because the list is circular and generally has no concept of first or last nodes, you can pass any element for head .
 - assume we had a new struct fox that we wanted to add to the fox_list list.We’d do this:
     list_add(&amp;f-&gt;list, &amp;fox_list);
     To add a node to the end of a linked list:
     list_add_tail(struct list_head *new, struct list_head *head)
-    This function adds the new node to the given list immediately before the head node.As with list_add()</t>
+    This function adds the new node to the given list immediately before the head node.As with list_add()
+</t>
   </si>
   <si>
     <t>Deleting a Node from a Linked List</t>
   </si>
   <si>
-    <t>- list_del(struct list_head *entry)
+    <t>
+- list_del(struct list_head *entry)
     This function removes the element entry from the list. Note that it does not free any memory belonging to entry or the data structure in which it is embedded; this function merely removes the element from the list.After calling this, you would typically destroy your data structure and the list_head inside it.
     list_del(&amp;f-&gt;list);
     Note the function does not receive as input fox_list.
@@ -1632,7 +1669,8 @@
     <t>Traversing Linked Lists</t>
   </si>
   <si>
-    <t>    - The Basic Approach
+    <t>
+    - The Basic Approach
         The first is a pointer used to point to the current entry; it is a temporary variable that you must provide.The second is the list_head acting as the head node of the list you want to traverse (see the earlier section, “List Heads”). On each iteration of the loop, the first parameter points to the next entry in the list, until each entry has been visited.
             struct list_head *p;
             struct fox *f;
@@ -1655,30 +1693,37 @@
     <t>Iterating Through a List Backward</t>
   </si>
   <si>
-    <t>list_for_each_entry_reverse(pos, head, member)</t>
+    <t>
+List_for_each_entry_reverse(pos, head, member)
+</t>
   </si>
   <si>
     <t>Iterating While Removing</t>
   </si>
   <si>
-    <t>The standard methods rely on the fact that the list entries are not changing out from under them, and thus if the current entry is removed in the body of the loop, the subsequent iteration cannot advance to the next (or previous) pointer.
-    list_for_each_entry_safe(pos, next, head, member)</t>
+    <t>
+The standard methods rely on the fact that the list entries are not changing out from under them, and thus if the current entry is removed in the body of the loop, the subsequent iteration cannot advance to the next (or previous) pointer.
+    list_for_each_entry_safe(pos, next, head, member)
+</t>
   </si>
   <si>
     <t>kfifo</t>
   </si>
   <si>
-    <t>The kfifo object maintains two off- sets into the queue: 
+    <t>
+The kfifo object maintains two off- sets into the queue: 
     - an in offset and an out offset.The in offset is the location in the queue to which the next enqueue will occur.
     - The out offset is the location in the queue from which the next dequeue will occur.
     - When the out offset is equal to the in offset, the queue is empty.
-    - When the in offset is equal to the length of the queue, no more data can be enqueued until the queue is reset.</t>
+    - When the in offset is equal to the length of the queue, no more data can be enqueued until the queue is reset.
+</t>
   </si>
   <si>
     <t>Creating Queue</t>
   </si>
   <si>
-    <t>- below function creates and initializes a kfifo with a queue of size bytes.The kernel uses the gfp mask gfp_mask to allocate the queue.
+    <t>
+- below function creates and initializes a kfifo with a queue of size bytes.The kernel uses the gfp mask gfp_mask to allocate the queue.
 - Upon success, kfifo_alloc() returns zero; on error it returns a negative error code.
 struct kfifo fifo;
 int ret;
@@ -1692,13 +1737,15 @@
 Statically declaring a kfifo is simpler, but less common:
 DECLARE_KFIFO(name, size);
 INIT_KFIFO(name);
-This creates a static kfifo named name with a queue of size bytes.As before, sizemust be a power of 2.</t>
+This creates a static kfifo named name with a queue of size bytes.As before, sizemust be a power of 2.
+</t>
   </si>
   <si>
     <t>Enqueuing Data</t>
   </si>
   <si>
-    <t>- When your kfifo is created and initialized, enqueuing data into the queue is performed via the kfifo_in() function:
+    <t>
+- When your kfifo is created and initialized, enqueuing data into the queue is performed via the kfifo_in() function:
 - This function copies the len bytes starting at from into the queue represented by fifo . 
 - On success it returns the number of bytes enqueued. If less than len bytes are free in the queue, the function copies only up to the amount of available bytes.Thus the return value can be less than len or even zero, if nothing was copied.
 </t>
@@ -1710,17 +1757,20 @@
     <t>Dequeue data</t>
   </si>
   <si>
-    <t>- This function copies at most len bytes from the queue pointed at by fifo to the buffer pointed at by to . On success the function returns the number of bytes copied. If less than len bytes are in the queue, the function copies less than requested.
+    <t>
+- This function copies at most len bytes from the queue pointed at by fifo to the buffer pointed at by to . On success the function returns the number of bytes copied. If less than len bytes are in the queue, the function copies less than requested.
     unsigned int kfifo_out(struct kfifo *fifo, void *to, unsigned int len);
 - When dequeued, data is no longer accessible from the queue.This is the normal usage of a queue, but if you want to “peek” at data within the queue without removing it, you can use kfifo_out_peek() :
     unsigned int kfifo_out_peek(struct kfifo *fifo, void *to, unsigned int len, unsigned offset);
-    This works the same as kfifo_out() , except that the out offset is not incremented,The parameter offset specifies an index into the queue; specify zero to read from the head of the queue, as kfifo_out() does.</t>
+    This works the same as kfifo_out() , except that the out offset is not incremented,The parameter offset specifies an index into the queue; specify zero to read from the head of the queue, as kfifo_out() does.
+</t>
   </si>
   <si>
     <t>Obtaining the Size of a Queue</t>
   </si>
   <si>
-    <t>- To obtain the total size in bytes of the buffer used to store a kfifo’s queue, call kfifo_size() :
+    <t>
+- To obtain the total size in bytes of the buffer used to store a kfifo’s queue, call kfifo_size() :
 - kfifo_len() to obtain the number of bytes enqueued in a kfifo:
 - number of bytes available to write into a kfifo, call kfifo_avail() :
 - kfifo_is_empty() and kfifo_is_full() return nonzero if the given kfifo is empty or full, respectively, and zero if not:
@@ -1737,7 +1787,8 @@
     <t>Resetting and Destroying the Queue</t>
   </si>
   <si>
-    <t>- To reset a kfifo, jettisoning all the contents of the queue, call kfifo_reset() :
+    <t>
+- To reset a kfifo, jettisoning all the contents of the queue, call kfifo_reset() :
 - To destroy a kfifo allocated with kfifo_alloc() , call kfifo_free() :
 - If you created your kfifo with kfifo_init() , it is your responsibility to free the associated buffer.
 </t>
@@ -1745,6 +1796,410 @@
   <si>
     <t>static inline void kfifo_reset(struct kfifo *fifo);
 void kfifo_free(struct kfifo *fifo);
+</t>
+  </si>
+  <si>
+    <t>Top Halves Versus Bottom Halves</t>
+  </si>
+  <si>
+    <t>
+- The top half is run immediately upon receipt of the interrupt and performs only the work that is time-critical, such as acknowledging receipt of the interrupt or resetting the hardware.
+- Work that can be performed later is deferred until the bottom half.The bottom half runs in the future, at a more convenient time, with all interrupts enabled.
+    Let’s look at an example of the top-half/bottom-half dichotomy, using the network card.
+    - The interrupt runs, acknowledges the hardware, copies the new networking packets into main memory, and readies the network card for more packets.These jobs are the important, time-critical, and hardware-specific work.
+    - The rest of the processing and handling of the packets occurs later, in the bottom half.
+</t>
+  </si>
+  <si>
+    <t>Interrupts and Interrupt Handlers</t>
+  </si>
+  <si>
+    <t>Registering an Interrupt Handler</t>
+  </si>
+  <si>
+    <t>
+- Drivers can register an interrupt handler and enable a given interrupt line for handling with the function request_irq() , which is declared in &lt;linux/interrupt.h&gt; :
+/* request_irq: allocate a given interrupt line */
+int request_irq (unsigned int irq, irq_handler_t handler, const char *name, void *dev)
+    - The first parameter, irq , specifies the interrupt number to allocate. For some devices, such as the system timer or keyboard, this value is typically hard-coded. For most other devices, it is probed or otherwise determined programmatically and dynamically.
+    - The second parameter, handler , is a function pointer to the actual interrupt handler that services this interrupt.This function is invoked whenever the operating system
+receives the interrupt.
+    typedef irqreturn_t (*irq_handler_t)(int, void *);
+    - The third parameter, flags , can be either zero or a bit mask of one or more of the flags defined in &lt;linux/interrupt.h&gt; .Among these flags, the most important are
+    IRQF_DISABLED:: When set, this flag instructs the kernel to disable all interrupts when executing this interrupt handler.When unset, interrupt handlers run with all interrupts except their own enabled.
+    IRQF_SAMPLE_RANDOM:: This flag specifies that interrupts generated by this device should contribute to the kernel entropy pool
+    IRQF_TIMER:: This flag specifies that this handler processes interrupts for the system timer.
+    IRQF_SHARED:: This flag specifies that the interrupt line can be shared among multiple interrupt handlers. Each handler registered on a given line must specify this
+flag; otherwise, only one handler can exist per line.
+    - The fourth parameter, name , is an ASCII text representation of the device associated with the interrupt. These text names are used by /proc/irq and /proc/interrupts for communication with the user.
+    - The fifth parameter, dev , is used for shared interrupt lines. Without this parameter, it would be impossible for the kernel to know which handler to remove on a given interrupt line.You can pass NULL here if the line is not shared, but you must pass a unique cookie if your interrupt line is shared.
+    - On success, request_irq() returns zero.A nonzero value indicates an error, in which case the specified interrupt handler was not registered.
+- Note that request_irq() can sleep and therefore cannot be called from interrupt context or other situations where code cannot block.
+- On registration, an entry corresponding to the interrupt is created in /proc/irq .
+</t>
+  </si>
+  <si>
+    <t>Freeing an Interrupt Handler</t>
+  </si>
+  <si>
+    <t>
+- When your driver unloads, you need to unregister your interrupt handler and potentially disable the interrupt line.To do this, call
+    void free_irq(unsigned int irq, void *dev)
+- If the specified interrupt line is not shared, this function removes the handler and disables the line. If the interrupt line is shared, the handler identified via dev is removed, but the interrupt line is disabled only when the last handler is removed.
+</t>
+  </si>
+  <si>
+    <t>Writing an Interrupt Handler</t>
+  </si>
+  <si>
+    <t>
+- The following is a declaration of an interrupt handler:
+    static irqreturn_t intr_handler(int irq, void *dev)
+    - The first parameter, irq , is the numeric value of the interrupt line the handler is servicing.
+    - The second parameter, dev , is a generic pointer to the same dev that was given to request_irq() when the interrupt handler was registered. If this value is unique (which
+is required to support sharing), it can act as a cookie to differentiate between multiple devices potentially using the same interrupt handler.
+    - The return value of an interrupt handler is the special type irqreturn_t .An interrupt handler can return two special values, IRQ_NONE or IRQ_HANDLED. f the interrupt handler was correctly invoked, and its device did indeed cause the interrupt.Alternatively, IRQ_RETVAL(val) may be used. If val is nonzero, this macro returns IRQ_HANDLED. Otherwise, the macro returns IRQ_NONE .
+</t>
+  </si>
+  <si>
+    <t>Interrupt Context</t>
+  </si>
+  <si>
+    <t>
+- When executing an interrupt handler, the kernel is in interrupt context.
+- Interrupt context, on the other hand, is not associated with a process.The current macro is not relevant (although it points to the interrupted process).Without a backing process, interrupt context cannot sleep.
+- Interrupt context is time-critical because the interrupt handler interrupts other code.
+- Interrupt handlers were given their own stack, one stack per processor, one page in size.This stack is referred to as the interrupt stack.
+- Your interrupt handler should not care what stack setup is in use or what the size of the kernel stack is.Always use an absolute minimum amount of stack space.
+</t>
+  </si>
+  <si>
+    <t>Interrupt Control</t>
+  </si>
+  <si>
+    <t>
+- Disabling and Enabling Interrupts
+    local_irq_disable() Disables local interrupt delivery
+    local_irq_enable() Enables local interrupt delivery
+    local_irq_save() Saves the current state of local interrupt delivery and then disables it
+    local_irq_restore() Restores local interrupt delivery to the given state
+- Disabling a Specific Interrupt Line
+    disable_irq() Disables the given interrupt line and ensures no handler on the line is executing before returning
+    disable_irq_nosync() Disables the given interrupt line
+    enable_irq() Enables the given interrupt line
+    irqs_disabled() Returns nonzero if local interrupt delivery is disabled; otherwise returns zero
+    synchronize_irq(unsigned int irq); waits for a specific interrupt handler to exit, if it is executing, before returning.
+- Status of the Interrupt System
+    in_interrupt() Returns nonzero if in interrupt context and zero if in process context
+    in_irq() Returns nonzero if currently executing an interrupt handler and zero otherwise
+</t>
+  </si>
+  <si>
+    <t>Bottom Halves and Deferring Work</t>
+  </si>
+  <si>
+    <t>Task Queues</t>
+  </si>
+  <si>
+    <t>
+It also was not lightweight enough for performancecritical subsystems, such as networking.
+</t>
+  </si>
+  <si>
+    <t>Softirqs and Tasklets</t>
+  </si>
+  <si>
+    <t>
+- Softirqs 
+    - Softirqs are a set of statically defined bottom halves that can run simultaneously on any processor; even two of the same type can run concurrently.
+    - Softirqs are useful when performance is critical, such as with networking.
+    - softirqs must be registered statically at compile time.
+- Tasklets
+    - Tasklets are flexible, dynamically created bottom halves built on top of softirqs.
+    - Two different tasklets can run concurrently on different processors, but two of the same type of tasklet cannot run simultaneously.Thus, tasklets are a good trade-off between performance and ease of use.
+</t>
+  </si>
+  <si>
+    <t>Softirqs</t>
+  </si>
+  <si>
+    <t>
+- Softirqs are rarely used directly; tasklets are a much more common form of bottom half.Nonetheless, because tasklets are built on softirqs.
+- A softirq never preempts another softirq.The only event that can preempt a softirq is an interrupt handler.Another softirq—even the same one—can run on another processor, however.
+</t>
+  </si>
+  <si>
+    <t>Implementing Softirqs</t>
+  </si>
+  <si>
+    <t>
+- Softirqs are statically allocated at compile time. Unlike tasklets, you cannot dynamically register and destroy softirqs. 
+- Softirqs are represented by the softirq_action structure, which is defined in &lt;linux/interrupt.h&gt; :
+    struct softirq_action {void (*action)(struct softirq_action *);};
+- A 32-entry array of this structure is declared in kernel/softirq.c :
+    static struct softirq_action softirq_vec[NR_SOFTIRQS];
+    The kernel enforces a limit of 32 registered softirqs; in the current kernel, however, only nine exist
+- Softirq Handler:: 
+    The prototype of a softirq handler, action , looks like
+    void softirq_handler(struct softirq_action *)
+- Executing Softirqs
+    - A registered softirq must be marked before it will execute.This is called raising the softirq.
+    - Usually, an interrupt handler marks its softirq for execution before returning.
+</t>
+  </si>
+  <si>
+    <t>Assigning an Index</t>
+  </si>
+  <si>
+    <t>
+    Tasklet Priority Softirq Description
+    HI_SOFTIRQ 0 High-priority tasklets
+    TIMER_SOFTIRQ 1 Timers
+    NET_TX_SOFTIRQ 2 Send network packets
+    NET_RX_SOFTIRQ 3 Receive network packets
+    BLOCK_SOFTIRQ 4 Block devices
+    TASKLET_SOFTIRQ 5 Normal priority tasklets
+    SCHED_SOFTIRQ 6 Scheduler
+    HRTIMER_SOFTIRQ 7 High-resolution timers
+    RCU_SOFTIRQ 8 RCU locking
+</t>
+  </si>
+  <si>
+    <t>Registering Your Handler</t>
+  </si>
+  <si>
+    <t>
+- The softirq handler is registered at run-time via open_softirq(),which takes two parameters: the softirq’s index and its handler function.
+- The networking subsystem, for example, registers its softirqs like this, in net/core/dev.c :
+    open_softirq(NET_TX_SOFTIRQ, net_tx_action);
+    open_softirq(NET_RX_SOFTIRQ, net_rx_action);
+- The softirq handlers run with interrupts enabled and cannot sleep.While a handler runs, softirqs on the current processor are disabled.
+- Another processor, however, can execute other softirqs. If the same softirq is raised again while it is executing, another processor can run it simultaneously.
+- This means that any shared data—even global data used only within the softirq handler—needs proper locking.
+- This is an important point, and it is the reason tasklets are usually preferred.
+</t>
+  </si>
+  <si>
+    <t>Raising Your Softirq</t>
+  </si>
+  <si>
+    <t>
+- To mark it pending, so it is run at the next invocation of do_softirq() , call raise_softirq() . 
+- For example, the networking subsystem would call,
+    raise_softirq(NET_TX_SOFTIRQ);
+- This raises the NET_TX_SOFTIRQ softirq. Its handler, net_tx_action() , runs the next time the kernel executes softirqs.
+- This function disables interrupts prior to actually raising the softirq and then restores them to their previous state. 
+- If interrupts are already off, the function raise_softirq_irqoff() can be used as a small optimization. For example
+    /*
+    * interrupts must already be off!
+    */
+    raise_softirq_irqoff(NET_TX_SOFTIRQ);
+</t>
+  </si>
+  <si>
+    <t>Tasklets</t>
+  </si>
+  <si>
+    <t>
+Tasklets are a bottom-half mechanism built on top of softirqs.As mentioned, they have nothing to do with tasks.
+</t>
+  </si>
+  <si>
+    <t>Implementing tasklets</t>
+  </si>
+  <si>
+    <t>
+- tasklets are represented by two softirqs: HI_SOFTIRQ and TASKLET_SOFTIRQ .
+- The only difference in these types is that the HI_SOFTIRQ -based tasklets run prior to the TASKLET_SOFTIRQ based tasklets.
+- The Tasklet Structure
+    - Tasklets are represented by the tasklet_struct structure. Each structure represents a unique tasklet.The structure is declared in &lt;linux/interrupt.h&gt; :
+        struct tasklet_struct {
+            struct tasklet_struct *next;
+            unsigned long state;
+            atomic_t count;
+            void (*func)(unsigned long);
+            unsigned long data;
+        };
+        - The func member is the tasklet handler (the equivalent of action to a softirq) and receives data as its sole argument.
+        - The state member is exactly zero, TASKLET_STATE_SCHED , or TASKLET_STATE_RUN .
+        - The count field is used as a reference count for the tasklet. If it is nonzero, the tasklet is disabled and cannot run; if it is zero, the tasklet is enabled and can run if marked pending
+- Scheduling Tasklets
+    - Tasklets are scheduled via the tasklet_schedule() and tasklet_hi_schedule() functions, which receive a pointer to the tasklet’s tasklet_struct as their lone argument.
+    - Each function ensures that the provided tasklet is not yet scheduled and then calls __tasklet_schedule() and __tasklet_hi_schedule() as appropriate.
+    - The two functions are similar. (The difference is that one uses TASKLET_SOFTIRQ and one uses HI_SOFTIRQ. )
+    - the steps tasklet_schedule() undertakes:
+        1. Check whether the tasklet’s state is TASKLET _ STATE_SCHED . If it is, the tasklet is already scheduled to run and the function can immediately return.
+        2. Call __tasklet_schedule() .
+        3. Save the state of the interrupt system, and then disable local interrupts.This ensures that nothing on this processor will mess with the tasklet code while tasklet_schedule() is manipulating the tasklets.
+        4. Add the tasklet to be scheduled to the head of the tasklet_vec or tasklet_hi_vec linked list, which is unique to each processor in the system.
+        5. Raise the TASKLET_SOFTIRQ or HI_SOFTIRQ softirq, so do_softirq() executes this tasklet in the near future.
+        6. Restore interrupts to their previous state and return.
+</t>
+  </si>
+  <si>
+    <t>Using Tasklets</t>
+  </si>
+  <si>
+    <t>
+- Declaring Your Tasklet
+    - statically create the tasklet, use one of two macros in &lt;linux/interrupt.h&gt; :
+        DECLARE_TASKLET(name, func, data)
+        DECLARE_TASKLET_DISABLED(name, func, data);
+        - When the tasklet is scheduled, the given function func is executed and passed the argument data.
+        - The first macro creates the tasklet with a count of zero, and the tasklet is enabled.
+        - The second macro sets count to one, and the tasklet is disabled
+    - To initialize a tasklet given an indirect reference (a pointer) to a dynamically created struct tasklet_struct , t , call tasklet_init() :
+        tasklet_init(t, tasklet_handler, dev); /* dynamically as opposed to statically */
+- Writing Your Tasklet Handler
+    - The tasklet handler must match the correct prototype:
+        void tasklet_handler(unsigned long data)
+    - As with softirqs, tasklets cannot sleep.This means you cannot use semaphores or other blocking functions in a tasklet.
+    - Tasklets also run with all interrupts enabled, so you must take precautions (for example, disable interrupts and obtain a lock) if your tasklet shares data with an interrupt handler. 
+    - If your tasklet shares data with another tasklet or softirq, you need to use proper locking.
+- Scheduling Your Tasklet
+    - To schedule a tasklet for execution, tasklet_schedule() is called and passed a pointer to the relevant tasklet_struct :
+        tasklet_schedule(&amp;my_tasklet); /* mark my_tasklet as pending */
+    - After a tasklet is scheduled, it runs once at some time in the near future. 
+    - If the same tasklet is scheduled again, before it has had a chance to run, it still runs only once. 
+    - If it is already running, for example on another processor, the tasklet is rescheduled and runs again.
+    - Also we can enable and disble takslet
+        tasklet_disable(&amp;my_tasklet);
+        /* tasklet is now disabled */
+        /* we can now do stuff knowing that the tasklet cannot run .. */
+        tasklet_enable(&amp;my_tasklet);
+        /* tasklet is now enabled */
+</t>
+  </si>
+  <si>
+    <t>Work Queues</t>
+  </si>
+  <si>
+    <t>
+- Work queues defer work into a kernel thread—this bottom half always runs in process context.
+- Thus, code deferred to a work queue has all the usual benefits of process context. 
+- Most important, work queues are schedulable and can therefore sleep.
+</t>
+  </si>
+  <si>
+    <t>Implementing Work Queues</t>
+  </si>
+  <si>
+    <t>
+- Work queues let your driver create a special worker thread to handle deferred work.
+- The work queue subsystem, however, implements and provides a default worker thread for handling work.
+- The default worker threads are called events/n where n is the processor number; there is one per processor.
+- The default worker thread handles deferred work from multiple locations. Many drivers in the kernel defer their bottom-half work to the default thread.
+- Unless a driver or subsystem has a strong requirement for creating its own thread, the default thread is preferred.
+</t>
+  </si>
+  <si>
+    <t>Data Structures Representing the Threads</t>
+  </si>
+  <si>
+    <t>
+- The worker threads are represented by the workqueue_struct structure defined in kernel/workqueue.c:
+/*
+* The externally visible workqueue abstraction is an array of
+* per-CPU workqueues:
+*/
+struct workqueue_struct {
+    struct cpu_workqueue_struct cpu_wq[NR_CPUS];
+    struct list_head list;
+    const char *name;
+    int singlethread;
+    int freezeable;
+    int rt;
+};  
+- cpu_workqueue_struct, one per possible processor on the system. Because the worker threads exist on each processor in the system, there is one of these structures per worker thread, per processor, on a given machine.
+struct cpu_workqueue_struct {
+    spinlock_t lock; /* lock protecting this structure */
+    struct list_head worklist; /* list of work */
+    wait_queue_head_t more_work;
+    struct work_struct *current_struct;
+    struct workqueue_struct *wq; /* associated workqueue_struct */
+    task_t *thread; /* associated thread */
+};
+- Note that each type of worker thread has one workqueue_struct associated to it. Inside, there is one cpu_workqueue_struct for every thread and, thus, every processor, because there is one worker thread on each processor.
+</t>
+  </si>
+  <si>
+    <t>Data Structures Representing the Work</t>
+  </si>
+  <si>
+    <t>
+- The work is represented by the work_struct structure, defined in &lt;linux/workqueue.h&gt; :
+    struct work_struct {
+        atomic_long_t data;
+        struct list_head entry;
+        work_func_t func;
+    };
+</t>
+  </si>
+  <si>
+    <t>Using Work Queues</t>
+  </si>
+  <si>
+    <t>
+We cover the default events queue first and then look at creating new worker threads.
+- Creating Work
+    - The first step is actually creating some work to defer.To create the structure statically at runtime, use DECLARE_WORK :
+        DECLARE_WORK(name, void (*func)(void *), void *data);
+        - This statically creates a work_struct structure named name with handler function func and argument data . Alternatively, you can create work at runtime via a pointer:
+        INIT_WORK(struct work_struct *work, void (*func)(void *), void *data);
+        - This dynamically initializes the work queue pointed to by work with handler function
+- Work Queue Handler
+    - The prototype for the work queue handler is 
+        void work_handler(void *data)
+    - A worker thread executes this function, and thus, the function runs in process context. By default, interrupts are enabled and no locks are held.
+    - the work handlers cannot access user-space memory because there is no associated user-space memory map for kernel threads.
+    - The kernel can access user memory only when running on behalf of a user-space process, such as when executing a system call. Only then is user memory mapped in.
+- Scheduling Work
+    - To queue a given work’s handler function with the default events worker threads, simply call 
+        schedule_work(&amp;work);
+    - The work is scheduled immediately and is run as soon as the events worker thread on the current processor wakes up.
+    - you can schedule work to execute at a given time in the future:
+        schedule_delayed_work(&amp;work, delay);
+    - To cancel delayed work, call
+        int cancel_delayed_work(struct work_struct *work);
+- Flushing Work
+    - there is a function to flush a given work queue:
+        void flush_scheduled_work(void);
+    - This function waits until all entries in the queue are executed before returning.
+    - While waiting for any pending work to execute, the function sleeps.Therefore, you can call it only from process context.
+    - Note that this function does not cancel any delayed work.That is, any work that was scheduled via schedule_delayed_work() , and whose delay is not yet up, is not flushed
+via flush_scheduled_work(), To cancel delayed work, call
+        int cancel_delayed_work(struct work_struct *work);</t>
+  </si>
+  <si>
+    <t>Creating New Work Queues</t>
+  </si>
+  <si>
+    <t>
+- If the default queue is insufficient for your needs, you can create a new work queue and corresponding worker threads.
+- Because this creates one worker thread per processor, you should create unique work queues only if your code needs the performance of a unique set of threads.
+- You create a new work queue and the associated worker threads via a simple function:
+    struct workqueue_struct *create_workqueue(const char *name);
+    - The parameter name is used to name the kernel threads. For example, the default events queue is created via
+        struct workqueue_struct *keventd_wq;
+        keventd_wq = create_workqueue(“events”);
+        - This function creates all the worker threads (one for each processor in the system) and prepares them to handle work.
+    - Creating work is handled in the same manner regardless of the queue type. 
+    - After the work is created, the following functions are analogous to schedule_work() and schedule_delayed_work(), except that they work on the given work queue and not the default events queue.
+        int queue_work(struct workqueue_struct *wq, struct work_struct *work)
+        int queue_delayed_work(struct workqueue_struct *wq, struct work_struct *work, unsigned long delay)
+    - Finally, you can flush a wait queue via a call to the function
+        flush_workqueue(struct workqueue_struct *wq)
+</t>
+  </si>
+  <si>
+    <t>Disabling Bottom Halves</t>
+  </si>
+  <si>
+    <t>
+- Disables softirq and tasklet processing on the local processor
+    void local_bh_disable() 
+- Enables softirq and tasklet processing on the local processor
+    void local_bh_enable() 
 </t>
   </si>
 </sst>
@@ -1755,7 +2210,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1851,11 +2306,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1924,7 +2374,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2085,10 +2535,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -2168,7 +2614,7 @@
   </sheetPr>
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -2559,7 +3005,7 @@
   </sheetPr>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -2824,7 +3270,7 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
     </sheetView>
   </sheetViews>
@@ -3340,7 +3786,7 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -3409,7 +3855,7 @@
   </sheetPr>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3979,7 +4425,7 @@
   </sheetPr>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
     </sheetView>
   </sheetViews>
@@ -4367,10 +4813,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C59" activeCellId="0" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -4417,7 +4863,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="140.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="39" t="n">
         <v>2</v>
       </c>
@@ -4443,7 +4889,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="39"/>
       <c r="C7" s="38" t="s">
         <v>323</v>
@@ -4452,13 +4898,13 @@
         <v>324</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="39"/>
       <c r="D8" s="38" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="82.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="39"/>
       <c r="C9" s="38" t="s">
         <v>326</v>
@@ -4467,7 +4913,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="39"/>
       <c r="C10" s="38" t="s">
         <v>328</v>
@@ -4476,7 +4922,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="82.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="39"/>
       <c r="C11" s="38" t="s">
         <v>330</v>
@@ -4485,7 +4931,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="257" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="39"/>
       <c r="C12" s="38" t="s">
         <v>332</v>
@@ -4494,7 +4940,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="210.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="39"/>
       <c r="C13" s="38" t="s">
         <v>334</v>
@@ -4506,7 +4952,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="48.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="39"/>
       <c r="C14" s="38" t="s">
         <v>337</v>
@@ -4515,7 +4961,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="39" t="n">
         <v>3</v>
       </c>
@@ -4526,7 +4972,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="35.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="39"/>
       <c r="C16" s="38" t="s">
         <v>341</v>
@@ -4538,7 +4984,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="117.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="39"/>
       <c r="C17" s="38" t="s">
         <v>344</v>
@@ -4547,7 +4993,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="39"/>
       <c r="C18" s="38" t="s">
         <v>346</v>
@@ -4556,7 +5002,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="361.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="370.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="39" t="n">
         <v>4</v>
       </c>
@@ -4570,7 +5016,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="39"/>
       <c r="C20" s="38" t="s">
         <v>351</v>
@@ -4579,7 +5025,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="175.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="164.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="39"/>
       <c r="C21" s="38" t="s">
         <v>353</v>
@@ -4591,7 +5037,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="71.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="38" t="s">
         <v>356</v>
       </c>
@@ -4605,7 +5051,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="199" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="38" t="s">
         <v>360</v>
       </c>
@@ -4613,7 +5059,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="38" t="s">
         <v>362</v>
       </c>
@@ -4624,7 +5070,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="38" t="s">
         <v>365</v>
       </c>
@@ -4632,7 +5078,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="129.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="38" t="s">
         <v>367</v>
       </c>
@@ -4640,7 +5086,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="94.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="38" t="s">
         <v>369</v>
       </c>
@@ -4651,15 +5097,15 @@
         <v>371</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="315.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="40" t="s">
+    <row r="28" customFormat="false" ht="303.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="37" t="s">
         <v>372</v>
       </c>
       <c r="D28" s="38" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="38" t="s">
         <v>374</v>
       </c>
@@ -4667,7 +5113,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="48.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="38" t="s">
         <v>376</v>
       </c>
@@ -4675,7 +5121,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="82.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="38" t="s">
         <v>378</v>
       </c>
@@ -4683,7 +5129,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="38" t="s">
         <v>380</v>
       </c>
@@ -4691,7 +5137,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="38" t="s">
         <v>382</v>
       </c>
@@ -4702,7 +5148,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="38" t="s">
         <v>385</v>
       </c>
@@ -4710,7 +5156,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="71.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="38" t="s">
         <v>387</v>
       </c>
@@ -4721,7 +5167,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="38" t="s">
         <v>390</v>
       </c>
@@ -4730,6 +5176,196 @@
       </c>
       <c r="E36" s="38" t="s">
         <v>392</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="38" t="s">
+        <v>393</v>
+      </c>
+      <c r="D37" s="38" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="415.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="38" t="s">
+        <v>395</v>
+      </c>
+      <c r="C38" s="38" t="s">
+        <v>396</v>
+      </c>
+      <c r="D38" s="38" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C39" s="38" t="s">
+        <v>398</v>
+      </c>
+      <c r="D39" s="38" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C40" s="38" t="s">
+        <v>400</v>
+      </c>
+      <c r="D40" s="38" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C41" s="38" t="s">
+        <v>402</v>
+      </c>
+      <c r="D41" s="38" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C42" s="38" t="s">
+        <v>404</v>
+      </c>
+      <c r="D42" s="38" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="38" t="s">
+        <v>406</v>
+      </c>
+      <c r="C43" s="38" t="s">
+        <v>407</v>
+      </c>
+      <c r="D43" s="38" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C44" s="38" t="s">
+        <v>409</v>
+      </c>
+      <c r="D44" s="38" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C45" s="38" t="s">
+        <v>411</v>
+      </c>
+      <c r="D45" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C46" s="38" t="s">
+        <v>413</v>
+      </c>
+      <c r="D46" s="38" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C47" s="38" t="s">
+        <v>415</v>
+      </c>
+      <c r="D47" s="38" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C48" s="38" t="s">
+        <v>417</v>
+      </c>
+      <c r="D48" s="38" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C49" s="38" t="s">
+        <v>419</v>
+      </c>
+      <c r="D49" s="38" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C50" s="38" t="s">
+        <v>421</v>
+      </c>
+      <c r="D50" s="38" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="449.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C51" s="38" t="s">
+        <v>423</v>
+      </c>
+      <c r="D51" s="38" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="404.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C52" s="38" t="s">
+        <v>425</v>
+      </c>
+      <c r="D52" s="38" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C53" s="38" t="s">
+        <v>427</v>
+      </c>
+      <c r="D53" s="38" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C54" s="38" t="s">
+        <v>429</v>
+      </c>
+      <c r="D54" s="38" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="348.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C55" s="38" t="s">
+        <v>431</v>
+      </c>
+      <c r="D55" s="38" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C56" s="38" t="s">
+        <v>433</v>
+      </c>
+      <c r="D56" s="38" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="426.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C57" s="38" t="s">
+        <v>435</v>
+      </c>
+      <c r="D57" s="38" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C58" s="38" t="s">
+        <v>437</v>
+      </c>
+      <c r="D58" s="38" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C59" s="38" t="s">
+        <v>439</v>
+      </c>
+      <c r="D59" s="38" t="s">
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -4755,7 +5391,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/improvement/quick_notes.xlsx
+++ b/improvement/quick_notes.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="443">
   <si>
     <t>Sr No</t>
   </si>
@@ -1340,19 +1340,20 @@
     <t>The task_struct structure is allocated via the slab allocator to provide object reuse</t>
   </si>
   <si>
-    <t>struct thread_info {
-struct task_struct
-struct exec_domain
-__u32
-__u32
-__u32
-int
-*task;
-*exec_domain;
-flags;
-status;
-cpu;
-preempt_count;...}</t>
+    <t>
+struct thread_info {
+struct task_struct *task;
+struct exec_domain *exec_domain;
+__u32 flags;
+__u32 status;
+__u32 cpu;
+int preempt_count;
+mm_segment_t addr_limit;
+struct restart_block restart_block;
+void *sysenter_return;
+int uaccess_err;
+}
+;</t>
   </si>
   <si>
     <t>PID</t>
@@ -1539,6 +1540,17 @@
 </t>
   </si>
   <si>
+    <t>Parameter Passing</t>
+  </si>
+  <si>
+    <r>
+      <t>
+- The parameters are stored in registers. On x86-32, the registers ebx , ecx , edx , esi , and edi contain, in order, the first five arguments. In the unlikely case of six or more arguments, a single register is used to hold a pointer to user-space where all the parametersre stored.
+- The return value is sent to user-space also via register. On x86, it is written into the eax register.
+</t>
+    </r>
+  </si>
+  <si>
     <t>System Call Context</t>
   </si>
   <si>
@@ -1712,8 +1724,10 @@
   <si>
     <t>
 The kfifo object maintains two off- sets into the queue: 
-    - an in offset and an out offset.The in offset is the location in the queue to which the next enqueue will occur.
+    - an in offset and an out offset.
+    - The in offset is the location in the queue to which the next enqueue will occur.
     - The out offset is the location in the queue from which the next dequeue will occur.
+    - The out offset is always less than or equal to the in offset.
     - When the out offset is equal to the in offset, the queue is empty.
     - When the in offset is equal to the length of the queue, no more data can be enqueued until the queue is reset.
 </t>
@@ -1758,8 +1772,8 @@
   </si>
   <si>
     <t>
+    unsigned int kfifo_out(struct kfifo *fifo, void *to, unsigned int len);
 - This function copies at most len bytes from the queue pointed at by fifo to the buffer pointed at by to . On success the function returns the number of bytes copied. If less than len bytes are in the queue, the function copies less than requested.
-    unsigned int kfifo_out(struct kfifo *fifo, void *to, unsigned int len);
 - When dequeued, data is no longer accessible from the queue.This is the normal usage of a queue, but if you want to “peek” at data within the queue without removing it, you can use kfifo_out_peek() :
     unsigned int kfifo_out_peek(struct kfifo *fifo, void *to, unsigned int len, unsigned offset);
     This works the same as kfifo_out() , except that the out offset is not incremented,The parameter offset specifies an index into the queue; specify zero to read from the head of the queue, as kfifo_out() does.
@@ -1797,6 +1811,9 @@
     <t>static inline void kfifo_reset(struct kfifo *fifo);
 void kfifo_free(struct kfifo *fifo);
 </t>
+  </si>
+  <si>
+    <t>Interrupts and Interrupt Handlers</t>
   </si>
   <si>
     <t>Top Halves Versus Bottom Halves</t>
@@ -1811,16 +1828,13 @@
 </t>
   </si>
   <si>
-    <t>Interrupts and Interrupt Handlers</t>
-  </si>
-  <si>
     <t>Registering an Interrupt Handler</t>
   </si>
   <si>
     <t>
 - Drivers can register an interrupt handler and enable a given interrupt line for handling with the function request_irq() , which is declared in &lt;linux/interrupt.h&gt; :
 /* request_irq: allocate a given interrupt line */
-int request_irq (unsigned int irq, irq_handler_t handler, const char *name, void *dev)
+int request_irq(unsigned int irq, irq_handler_t handler, unsigned long flags, const char *name, oid *dev)
     - The first parameter, irq , specifies the interrupt number to allocate. For some devices, such as the system timer or keyboard, this value is typically hard-coded. For most other devices, it is probed or otherwise determined programmatically and dynamically.
     - The second parameter, handler , is a function pointer to the actual interrupt handler that services this interrupt.This function is invoked whenever the operating system
 receives the interrupt.
@@ -2210,7 +2224,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2305,6 +2319,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -4813,21 +4832,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F59"/>
+  <dimension ref="1:60"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C59" activeCellId="0" sqref="C59"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D42" activeCellId="0" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="36" width="6.4234693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="38" width="23.7857142857143"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="38" width="28.8520408163265"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="38" width="77.1632653061225"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="38" width="57.5714285714286"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="38" width="32.7244897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="38" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="34" width="6.4234693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="35" width="23.7857142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="35" width="28.8520408163265"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="35" width="77.1632653061225"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="35" width="57.5714285714286"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="35" width="32.7244897959184"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="35" width="8.72959183673469"/>
   </cols>
   <sheetData>
     <row r="1" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4850,6 +4869,1024 @@
       <c r="F2" s="36" t="s">
         <v>6</v>
       </c>
+      <c r="G2" s="0"/>
+      <c r="H2" s="0"/>
+      <c r="I2" s="0"/>
+      <c r="J2" s="0"/>
+      <c r="K2" s="0"/>
+      <c r="L2" s="0"/>
+      <c r="M2" s="0"/>
+      <c r="N2" s="0"/>
+      <c r="O2" s="0"/>
+      <c r="P2" s="0"/>
+      <c r="Q2" s="0"/>
+      <c r="R2" s="0"/>
+      <c r="S2" s="0"/>
+      <c r="T2" s="0"/>
+      <c r="U2" s="0"/>
+      <c r="V2" s="0"/>
+      <c r="W2" s="0"/>
+      <c r="X2" s="0"/>
+      <c r="Y2" s="0"/>
+      <c r="Z2" s="0"/>
+      <c r="AA2" s="0"/>
+      <c r="AB2" s="0"/>
+      <c r="AC2" s="0"/>
+      <c r="AD2" s="0"/>
+      <c r="AE2" s="0"/>
+      <c r="AF2" s="0"/>
+      <c r="AG2" s="0"/>
+      <c r="AH2" s="0"/>
+      <c r="AI2" s="0"/>
+      <c r="AJ2" s="0"/>
+      <c r="AK2" s="0"/>
+      <c r="AL2" s="0"/>
+      <c r="AM2" s="0"/>
+      <c r="AN2" s="0"/>
+      <c r="AO2" s="0"/>
+      <c r="AP2" s="0"/>
+      <c r="AQ2" s="0"/>
+      <c r="AR2" s="0"/>
+      <c r="AS2" s="0"/>
+      <c r="AT2" s="0"/>
+      <c r="AU2" s="0"/>
+      <c r="AV2" s="0"/>
+      <c r="AW2" s="0"/>
+      <c r="AX2" s="0"/>
+      <c r="AY2" s="0"/>
+      <c r="AZ2" s="0"/>
+      <c r="BA2" s="0"/>
+      <c r="BB2" s="0"/>
+      <c r="BC2" s="0"/>
+      <c r="BD2" s="0"/>
+      <c r="BE2" s="0"/>
+      <c r="BF2" s="0"/>
+      <c r="BG2" s="0"/>
+      <c r="BH2" s="0"/>
+      <c r="BI2" s="0"/>
+      <c r="BJ2" s="0"/>
+      <c r="BK2" s="0"/>
+      <c r="BL2" s="0"/>
+      <c r="BM2" s="0"/>
+      <c r="BN2" s="0"/>
+      <c r="BO2" s="0"/>
+      <c r="BP2" s="0"/>
+      <c r="BQ2" s="0"/>
+      <c r="BR2" s="0"/>
+      <c r="BS2" s="0"/>
+      <c r="BT2" s="0"/>
+      <c r="BU2" s="0"/>
+      <c r="BV2" s="0"/>
+      <c r="BW2" s="0"/>
+      <c r="BX2" s="0"/>
+      <c r="BY2" s="0"/>
+      <c r="BZ2" s="0"/>
+      <c r="CA2" s="0"/>
+      <c r="CB2" s="0"/>
+      <c r="CC2" s="0"/>
+      <c r="CD2" s="0"/>
+      <c r="CE2" s="0"/>
+      <c r="CF2" s="0"/>
+      <c r="CG2" s="0"/>
+      <c r="CH2" s="0"/>
+      <c r="CI2" s="0"/>
+      <c r="CJ2" s="0"/>
+      <c r="CK2" s="0"/>
+      <c r="CL2" s="0"/>
+      <c r="CM2" s="0"/>
+      <c r="CN2" s="0"/>
+      <c r="CO2" s="0"/>
+      <c r="CP2" s="0"/>
+      <c r="CQ2" s="0"/>
+      <c r="CR2" s="0"/>
+      <c r="CS2" s="0"/>
+      <c r="CT2" s="0"/>
+      <c r="CU2" s="0"/>
+      <c r="CV2" s="0"/>
+      <c r="CW2" s="0"/>
+      <c r="CX2" s="0"/>
+      <c r="CY2" s="0"/>
+      <c r="CZ2" s="0"/>
+      <c r="DA2" s="0"/>
+      <c r="DB2" s="0"/>
+      <c r="DC2" s="0"/>
+      <c r="DD2" s="0"/>
+      <c r="DE2" s="0"/>
+      <c r="DF2" s="0"/>
+      <c r="DG2" s="0"/>
+      <c r="DH2" s="0"/>
+      <c r="DI2" s="0"/>
+      <c r="DJ2" s="0"/>
+      <c r="DK2" s="0"/>
+      <c r="DL2" s="0"/>
+      <c r="DM2" s="0"/>
+      <c r="DN2" s="0"/>
+      <c r="DO2" s="0"/>
+      <c r="DP2" s="0"/>
+      <c r="DQ2" s="0"/>
+      <c r="DR2" s="0"/>
+      <c r="DS2" s="0"/>
+      <c r="DT2" s="0"/>
+      <c r="DU2" s="0"/>
+      <c r="DV2" s="0"/>
+      <c r="DW2" s="0"/>
+      <c r="DX2" s="0"/>
+      <c r="DY2" s="0"/>
+      <c r="DZ2" s="0"/>
+      <c r="EA2" s="0"/>
+      <c r="EB2" s="0"/>
+      <c r="EC2" s="0"/>
+      <c r="ED2" s="0"/>
+      <c r="EE2" s="0"/>
+      <c r="EF2" s="0"/>
+      <c r="EG2" s="0"/>
+      <c r="EH2" s="0"/>
+      <c r="EI2" s="0"/>
+      <c r="EJ2" s="0"/>
+      <c r="EK2" s="0"/>
+      <c r="EL2" s="0"/>
+      <c r="EM2" s="0"/>
+      <c r="EN2" s="0"/>
+      <c r="EO2" s="0"/>
+      <c r="EP2" s="0"/>
+      <c r="EQ2" s="0"/>
+      <c r="ER2" s="0"/>
+      <c r="ES2" s="0"/>
+      <c r="ET2" s="0"/>
+      <c r="EU2" s="0"/>
+      <c r="EV2" s="0"/>
+      <c r="EW2" s="0"/>
+      <c r="EX2" s="0"/>
+      <c r="EY2" s="0"/>
+      <c r="EZ2" s="0"/>
+      <c r="FA2" s="0"/>
+      <c r="FB2" s="0"/>
+      <c r="FC2" s="0"/>
+      <c r="FD2" s="0"/>
+      <c r="FE2" s="0"/>
+      <c r="FF2" s="0"/>
+      <c r="FG2" s="0"/>
+      <c r="FH2" s="0"/>
+      <c r="FI2" s="0"/>
+      <c r="FJ2" s="0"/>
+      <c r="FK2" s="0"/>
+      <c r="FL2" s="0"/>
+      <c r="FM2" s="0"/>
+      <c r="FN2" s="0"/>
+      <c r="FO2" s="0"/>
+      <c r="FP2" s="0"/>
+      <c r="FQ2" s="0"/>
+      <c r="FR2" s="0"/>
+      <c r="FS2" s="0"/>
+      <c r="FT2" s="0"/>
+      <c r="FU2" s="0"/>
+      <c r="FV2" s="0"/>
+      <c r="FW2" s="0"/>
+      <c r="FX2" s="0"/>
+      <c r="FY2" s="0"/>
+      <c r="FZ2" s="0"/>
+      <c r="GA2" s="0"/>
+      <c r="GB2" s="0"/>
+      <c r="GC2" s="0"/>
+      <c r="GD2" s="0"/>
+      <c r="GE2" s="0"/>
+      <c r="GF2" s="0"/>
+      <c r="GG2" s="0"/>
+      <c r="GH2" s="0"/>
+      <c r="GI2" s="0"/>
+      <c r="GJ2" s="0"/>
+      <c r="GK2" s="0"/>
+      <c r="GL2" s="0"/>
+      <c r="GM2" s="0"/>
+      <c r="GN2" s="0"/>
+      <c r="GO2" s="0"/>
+      <c r="GP2" s="0"/>
+      <c r="GQ2" s="0"/>
+      <c r="GR2" s="0"/>
+      <c r="GS2" s="0"/>
+      <c r="GT2" s="0"/>
+      <c r="GU2" s="0"/>
+      <c r="GV2" s="0"/>
+      <c r="GW2" s="0"/>
+      <c r="GX2" s="0"/>
+      <c r="GY2" s="0"/>
+      <c r="GZ2" s="0"/>
+      <c r="HA2" s="0"/>
+      <c r="HB2" s="0"/>
+      <c r="HC2" s="0"/>
+      <c r="HD2" s="0"/>
+      <c r="HE2" s="0"/>
+      <c r="HF2" s="0"/>
+      <c r="HG2" s="0"/>
+      <c r="HH2" s="0"/>
+      <c r="HI2" s="0"/>
+      <c r="HJ2" s="0"/>
+      <c r="HK2" s="0"/>
+      <c r="HL2" s="0"/>
+      <c r="HM2" s="0"/>
+      <c r="HN2" s="0"/>
+      <c r="HO2" s="0"/>
+      <c r="HP2" s="0"/>
+      <c r="HQ2" s="0"/>
+      <c r="HR2" s="0"/>
+      <c r="HS2" s="0"/>
+      <c r="HT2" s="0"/>
+      <c r="HU2" s="0"/>
+      <c r="HV2" s="0"/>
+      <c r="HW2" s="0"/>
+      <c r="HX2" s="0"/>
+      <c r="HY2" s="0"/>
+      <c r="HZ2" s="0"/>
+      <c r="IA2" s="0"/>
+      <c r="IB2" s="0"/>
+      <c r="IC2" s="0"/>
+      <c r="ID2" s="0"/>
+      <c r="IE2" s="0"/>
+      <c r="IF2" s="0"/>
+      <c r="IG2" s="0"/>
+      <c r="IH2" s="0"/>
+      <c r="II2" s="0"/>
+      <c r="IJ2" s="0"/>
+      <c r="IK2" s="0"/>
+      <c r="IL2" s="0"/>
+      <c r="IM2" s="0"/>
+      <c r="IN2" s="0"/>
+      <c r="IO2" s="0"/>
+      <c r="IP2" s="0"/>
+      <c r="IQ2" s="0"/>
+      <c r="IR2" s="0"/>
+      <c r="IS2" s="0"/>
+      <c r="IT2" s="0"/>
+      <c r="IU2" s="0"/>
+      <c r="IV2" s="0"/>
+      <c r="IW2" s="0"/>
+      <c r="IX2" s="0"/>
+      <c r="IY2" s="0"/>
+      <c r="IZ2" s="0"/>
+      <c r="JA2" s="0"/>
+      <c r="JB2" s="0"/>
+      <c r="JC2" s="0"/>
+      <c r="JD2" s="0"/>
+      <c r="JE2" s="0"/>
+      <c r="JF2" s="0"/>
+      <c r="JG2" s="0"/>
+      <c r="JH2" s="0"/>
+      <c r="JI2" s="0"/>
+      <c r="JJ2" s="0"/>
+      <c r="JK2" s="0"/>
+      <c r="JL2" s="0"/>
+      <c r="JM2" s="0"/>
+      <c r="JN2" s="0"/>
+      <c r="JO2" s="0"/>
+      <c r="JP2" s="0"/>
+      <c r="JQ2" s="0"/>
+      <c r="JR2" s="0"/>
+      <c r="JS2" s="0"/>
+      <c r="JT2" s="0"/>
+      <c r="JU2" s="0"/>
+      <c r="JV2" s="0"/>
+      <c r="JW2" s="0"/>
+      <c r="JX2" s="0"/>
+      <c r="JY2" s="0"/>
+      <c r="JZ2" s="0"/>
+      <c r="KA2" s="0"/>
+      <c r="KB2" s="0"/>
+      <c r="KC2" s="0"/>
+      <c r="KD2" s="0"/>
+      <c r="KE2" s="0"/>
+      <c r="KF2" s="0"/>
+      <c r="KG2" s="0"/>
+      <c r="KH2" s="0"/>
+      <c r="KI2" s="0"/>
+      <c r="KJ2" s="0"/>
+      <c r="KK2" s="0"/>
+      <c r="KL2" s="0"/>
+      <c r="KM2" s="0"/>
+      <c r="KN2" s="0"/>
+      <c r="KO2" s="0"/>
+      <c r="KP2" s="0"/>
+      <c r="KQ2" s="0"/>
+      <c r="KR2" s="0"/>
+      <c r="KS2" s="0"/>
+      <c r="KT2" s="0"/>
+      <c r="KU2" s="0"/>
+      <c r="KV2" s="0"/>
+      <c r="KW2" s="0"/>
+      <c r="KX2" s="0"/>
+      <c r="KY2" s="0"/>
+      <c r="KZ2" s="0"/>
+      <c r="LA2" s="0"/>
+      <c r="LB2" s="0"/>
+      <c r="LC2" s="0"/>
+      <c r="LD2" s="0"/>
+      <c r="LE2" s="0"/>
+      <c r="LF2" s="0"/>
+      <c r="LG2" s="0"/>
+      <c r="LH2" s="0"/>
+      <c r="LI2" s="0"/>
+      <c r="LJ2" s="0"/>
+      <c r="LK2" s="0"/>
+      <c r="LL2" s="0"/>
+      <c r="LM2" s="0"/>
+      <c r="LN2" s="0"/>
+      <c r="LO2" s="0"/>
+      <c r="LP2" s="0"/>
+      <c r="LQ2" s="0"/>
+      <c r="LR2" s="0"/>
+      <c r="LS2" s="0"/>
+      <c r="LT2" s="0"/>
+      <c r="LU2" s="0"/>
+      <c r="LV2" s="0"/>
+      <c r="LW2" s="0"/>
+      <c r="LX2" s="0"/>
+      <c r="LY2" s="0"/>
+      <c r="LZ2" s="0"/>
+      <c r="MA2" s="0"/>
+      <c r="MB2" s="0"/>
+      <c r="MC2" s="0"/>
+      <c r="MD2" s="0"/>
+      <c r="ME2" s="0"/>
+      <c r="MF2" s="0"/>
+      <c r="MG2" s="0"/>
+      <c r="MH2" s="0"/>
+      <c r="MI2" s="0"/>
+      <c r="MJ2" s="0"/>
+      <c r="MK2" s="0"/>
+      <c r="ML2" s="0"/>
+      <c r="MM2" s="0"/>
+      <c r="MN2" s="0"/>
+      <c r="MO2" s="0"/>
+      <c r="MP2" s="0"/>
+      <c r="MQ2" s="0"/>
+      <c r="MR2" s="0"/>
+      <c r="MS2" s="0"/>
+      <c r="MT2" s="0"/>
+      <c r="MU2" s="0"/>
+      <c r="MV2" s="0"/>
+      <c r="MW2" s="0"/>
+      <c r="MX2" s="0"/>
+      <c r="MY2" s="0"/>
+      <c r="MZ2" s="0"/>
+      <c r="NA2" s="0"/>
+      <c r="NB2" s="0"/>
+      <c r="NC2" s="0"/>
+      <c r="ND2" s="0"/>
+      <c r="NE2" s="0"/>
+      <c r="NF2" s="0"/>
+      <c r="NG2" s="0"/>
+      <c r="NH2" s="0"/>
+      <c r="NI2" s="0"/>
+      <c r="NJ2" s="0"/>
+      <c r="NK2" s="0"/>
+      <c r="NL2" s="0"/>
+      <c r="NM2" s="0"/>
+      <c r="NN2" s="0"/>
+      <c r="NO2" s="0"/>
+      <c r="NP2" s="0"/>
+      <c r="NQ2" s="0"/>
+      <c r="NR2" s="0"/>
+      <c r="NS2" s="0"/>
+      <c r="NT2" s="0"/>
+      <c r="NU2" s="0"/>
+      <c r="NV2" s="0"/>
+      <c r="NW2" s="0"/>
+      <c r="NX2" s="0"/>
+      <c r="NY2" s="0"/>
+      <c r="NZ2" s="0"/>
+      <c r="OA2" s="0"/>
+      <c r="OB2" s="0"/>
+      <c r="OC2" s="0"/>
+      <c r="OD2" s="0"/>
+      <c r="OE2" s="0"/>
+      <c r="OF2" s="0"/>
+      <c r="OG2" s="0"/>
+      <c r="OH2" s="0"/>
+      <c r="OI2" s="0"/>
+      <c r="OJ2" s="0"/>
+      <c r="OK2" s="0"/>
+      <c r="OL2" s="0"/>
+      <c r="OM2" s="0"/>
+      <c r="ON2" s="0"/>
+      <c r="OO2" s="0"/>
+      <c r="OP2" s="0"/>
+      <c r="OQ2" s="0"/>
+      <c r="OR2" s="0"/>
+      <c r="OS2" s="0"/>
+      <c r="OT2" s="0"/>
+      <c r="OU2" s="0"/>
+      <c r="OV2" s="0"/>
+      <c r="OW2" s="0"/>
+      <c r="OX2" s="0"/>
+      <c r="OY2" s="0"/>
+      <c r="OZ2" s="0"/>
+      <c r="PA2" s="0"/>
+      <c r="PB2" s="0"/>
+      <c r="PC2" s="0"/>
+      <c r="PD2" s="0"/>
+      <c r="PE2" s="0"/>
+      <c r="PF2" s="0"/>
+      <c r="PG2" s="0"/>
+      <c r="PH2" s="0"/>
+      <c r="PI2" s="0"/>
+      <c r="PJ2" s="0"/>
+      <c r="PK2" s="0"/>
+      <c r="PL2" s="0"/>
+      <c r="PM2" s="0"/>
+      <c r="PN2" s="0"/>
+      <c r="PO2" s="0"/>
+      <c r="PP2" s="0"/>
+      <c r="PQ2" s="0"/>
+      <c r="PR2" s="0"/>
+      <c r="PS2" s="0"/>
+      <c r="PT2" s="0"/>
+      <c r="PU2" s="0"/>
+      <c r="PV2" s="0"/>
+      <c r="PW2" s="0"/>
+      <c r="PX2" s="0"/>
+      <c r="PY2" s="0"/>
+      <c r="PZ2" s="0"/>
+      <c r="QA2" s="0"/>
+      <c r="QB2" s="0"/>
+      <c r="QC2" s="0"/>
+      <c r="QD2" s="0"/>
+      <c r="QE2" s="0"/>
+      <c r="QF2" s="0"/>
+      <c r="QG2" s="0"/>
+      <c r="QH2" s="0"/>
+      <c r="QI2" s="0"/>
+      <c r="QJ2" s="0"/>
+      <c r="QK2" s="0"/>
+      <c r="QL2" s="0"/>
+      <c r="QM2" s="0"/>
+      <c r="QN2" s="0"/>
+      <c r="QO2" s="0"/>
+      <c r="QP2" s="0"/>
+      <c r="QQ2" s="0"/>
+      <c r="QR2" s="0"/>
+      <c r="QS2" s="0"/>
+      <c r="QT2" s="0"/>
+      <c r="QU2" s="0"/>
+      <c r="QV2" s="0"/>
+      <c r="QW2" s="0"/>
+      <c r="QX2" s="0"/>
+      <c r="QY2" s="0"/>
+      <c r="QZ2" s="0"/>
+      <c r="RA2" s="0"/>
+      <c r="RB2" s="0"/>
+      <c r="RC2" s="0"/>
+      <c r="RD2" s="0"/>
+      <c r="RE2" s="0"/>
+      <c r="RF2" s="0"/>
+      <c r="RG2" s="0"/>
+      <c r="RH2" s="0"/>
+      <c r="RI2" s="0"/>
+      <c r="RJ2" s="0"/>
+      <c r="RK2" s="0"/>
+      <c r="RL2" s="0"/>
+      <c r="RM2" s="0"/>
+      <c r="RN2" s="0"/>
+      <c r="RO2" s="0"/>
+      <c r="RP2" s="0"/>
+      <c r="RQ2" s="0"/>
+      <c r="RR2" s="0"/>
+      <c r="RS2" s="0"/>
+      <c r="RT2" s="0"/>
+      <c r="RU2" s="0"/>
+      <c r="RV2" s="0"/>
+      <c r="RW2" s="0"/>
+      <c r="RX2" s="0"/>
+      <c r="RY2" s="0"/>
+      <c r="RZ2" s="0"/>
+      <c r="SA2" s="0"/>
+      <c r="SB2" s="0"/>
+      <c r="SC2" s="0"/>
+      <c r="SD2" s="0"/>
+      <c r="SE2" s="0"/>
+      <c r="SF2" s="0"/>
+      <c r="SG2" s="0"/>
+      <c r="SH2" s="0"/>
+      <c r="SI2" s="0"/>
+      <c r="SJ2" s="0"/>
+      <c r="SK2" s="0"/>
+      <c r="SL2" s="0"/>
+      <c r="SM2" s="0"/>
+      <c r="SN2" s="0"/>
+      <c r="SO2" s="0"/>
+      <c r="SP2" s="0"/>
+      <c r="SQ2" s="0"/>
+      <c r="SR2" s="0"/>
+      <c r="SS2" s="0"/>
+      <c r="ST2" s="0"/>
+      <c r="SU2" s="0"/>
+      <c r="SV2" s="0"/>
+      <c r="SW2" s="0"/>
+      <c r="SX2" s="0"/>
+      <c r="SY2" s="0"/>
+      <c r="SZ2" s="0"/>
+      <c r="TA2" s="0"/>
+      <c r="TB2" s="0"/>
+      <c r="TC2" s="0"/>
+      <c r="TD2" s="0"/>
+      <c r="TE2" s="0"/>
+      <c r="TF2" s="0"/>
+      <c r="TG2" s="0"/>
+      <c r="TH2" s="0"/>
+      <c r="TI2" s="0"/>
+      <c r="TJ2" s="0"/>
+      <c r="TK2" s="0"/>
+      <c r="TL2" s="0"/>
+      <c r="TM2" s="0"/>
+      <c r="TN2" s="0"/>
+      <c r="TO2" s="0"/>
+      <c r="TP2" s="0"/>
+      <c r="TQ2" s="0"/>
+      <c r="TR2" s="0"/>
+      <c r="TS2" s="0"/>
+      <c r="TT2" s="0"/>
+      <c r="TU2" s="0"/>
+      <c r="TV2" s="0"/>
+      <c r="TW2" s="0"/>
+      <c r="TX2" s="0"/>
+      <c r="TY2" s="0"/>
+      <c r="TZ2" s="0"/>
+      <c r="UA2" s="0"/>
+      <c r="UB2" s="0"/>
+      <c r="UC2" s="0"/>
+      <c r="UD2" s="0"/>
+      <c r="UE2" s="0"/>
+      <c r="UF2" s="0"/>
+      <c r="UG2" s="0"/>
+      <c r="UH2" s="0"/>
+      <c r="UI2" s="0"/>
+      <c r="UJ2" s="0"/>
+      <c r="UK2" s="0"/>
+      <c r="UL2" s="0"/>
+      <c r="UM2" s="0"/>
+      <c r="UN2" s="0"/>
+      <c r="UO2" s="0"/>
+      <c r="UP2" s="0"/>
+      <c r="UQ2" s="0"/>
+      <c r="UR2" s="0"/>
+      <c r="US2" s="0"/>
+      <c r="UT2" s="0"/>
+      <c r="UU2" s="0"/>
+      <c r="UV2" s="0"/>
+      <c r="UW2" s="0"/>
+      <c r="UX2" s="0"/>
+      <c r="UY2" s="0"/>
+      <c r="UZ2" s="0"/>
+      <c r="VA2" s="0"/>
+      <c r="VB2" s="0"/>
+      <c r="VC2" s="0"/>
+      <c r="VD2" s="0"/>
+      <c r="VE2" s="0"/>
+      <c r="VF2" s="0"/>
+      <c r="VG2" s="0"/>
+      <c r="VH2" s="0"/>
+      <c r="VI2" s="0"/>
+      <c r="VJ2" s="0"/>
+      <c r="VK2" s="0"/>
+      <c r="VL2" s="0"/>
+      <c r="VM2" s="0"/>
+      <c r="VN2" s="0"/>
+      <c r="VO2" s="0"/>
+      <c r="VP2" s="0"/>
+      <c r="VQ2" s="0"/>
+      <c r="VR2" s="0"/>
+      <c r="VS2" s="0"/>
+      <c r="VT2" s="0"/>
+      <c r="VU2" s="0"/>
+      <c r="VV2" s="0"/>
+      <c r="VW2" s="0"/>
+      <c r="VX2" s="0"/>
+      <c r="VY2" s="0"/>
+      <c r="VZ2" s="0"/>
+      <c r="WA2" s="0"/>
+      <c r="WB2" s="0"/>
+      <c r="WC2" s="0"/>
+      <c r="WD2" s="0"/>
+      <c r="WE2" s="0"/>
+      <c r="WF2" s="0"/>
+      <c r="WG2" s="0"/>
+      <c r="WH2" s="0"/>
+      <c r="WI2" s="0"/>
+      <c r="WJ2" s="0"/>
+      <c r="WK2" s="0"/>
+      <c r="WL2" s="0"/>
+      <c r="WM2" s="0"/>
+      <c r="WN2" s="0"/>
+      <c r="WO2" s="0"/>
+      <c r="WP2" s="0"/>
+      <c r="WQ2" s="0"/>
+      <c r="WR2" s="0"/>
+      <c r="WS2" s="0"/>
+      <c r="WT2" s="0"/>
+      <c r="WU2" s="0"/>
+      <c r="WV2" s="0"/>
+      <c r="WW2" s="0"/>
+      <c r="WX2" s="0"/>
+      <c r="WY2" s="0"/>
+      <c r="WZ2" s="0"/>
+      <c r="XA2" s="0"/>
+      <c r="XB2" s="0"/>
+      <c r="XC2" s="0"/>
+      <c r="XD2" s="0"/>
+      <c r="XE2" s="0"/>
+      <c r="XF2" s="0"/>
+      <c r="XG2" s="0"/>
+      <c r="XH2" s="0"/>
+      <c r="XI2" s="0"/>
+      <c r="XJ2" s="0"/>
+      <c r="XK2" s="0"/>
+      <c r="XL2" s="0"/>
+      <c r="XM2" s="0"/>
+      <c r="XN2" s="0"/>
+      <c r="XO2" s="0"/>
+      <c r="XP2" s="0"/>
+      <c r="XQ2" s="0"/>
+      <c r="XR2" s="0"/>
+      <c r="XS2" s="0"/>
+      <c r="XT2" s="0"/>
+      <c r="XU2" s="0"/>
+      <c r="XV2" s="0"/>
+      <c r="XW2" s="0"/>
+      <c r="XX2" s="0"/>
+      <c r="XY2" s="0"/>
+      <c r="XZ2" s="0"/>
+      <c r="YA2" s="0"/>
+      <c r="YB2" s="0"/>
+      <c r="YC2" s="0"/>
+      <c r="YD2" s="0"/>
+      <c r="YE2" s="0"/>
+      <c r="YF2" s="0"/>
+      <c r="YG2" s="0"/>
+      <c r="YH2" s="0"/>
+      <c r="YI2" s="0"/>
+      <c r="YJ2" s="0"/>
+      <c r="YK2" s="0"/>
+      <c r="YL2" s="0"/>
+      <c r="YM2" s="0"/>
+      <c r="YN2" s="0"/>
+      <c r="YO2" s="0"/>
+      <c r="YP2" s="0"/>
+      <c r="YQ2" s="0"/>
+      <c r="YR2" s="0"/>
+      <c r="YS2" s="0"/>
+      <c r="YT2" s="0"/>
+      <c r="YU2" s="0"/>
+      <c r="YV2" s="0"/>
+      <c r="YW2" s="0"/>
+      <c r="YX2" s="0"/>
+      <c r="YY2" s="0"/>
+      <c r="YZ2" s="0"/>
+      <c r="ZA2" s="0"/>
+      <c r="ZB2" s="0"/>
+      <c r="ZC2" s="0"/>
+      <c r="ZD2" s="0"/>
+      <c r="ZE2" s="0"/>
+      <c r="ZF2" s="0"/>
+      <c r="ZG2" s="0"/>
+      <c r="ZH2" s="0"/>
+      <c r="ZI2" s="0"/>
+      <c r="ZJ2" s="0"/>
+      <c r="ZK2" s="0"/>
+      <c r="ZL2" s="0"/>
+      <c r="ZM2" s="0"/>
+      <c r="ZN2" s="0"/>
+      <c r="ZO2" s="0"/>
+      <c r="ZP2" s="0"/>
+      <c r="ZQ2" s="0"/>
+      <c r="ZR2" s="0"/>
+      <c r="ZS2" s="0"/>
+      <c r="ZT2" s="0"/>
+      <c r="ZU2" s="0"/>
+      <c r="ZV2" s="0"/>
+      <c r="ZW2" s="0"/>
+      <c r="ZX2" s="0"/>
+      <c r="ZY2" s="0"/>
+      <c r="ZZ2" s="0"/>
+      <c r="AAA2" s="0"/>
+      <c r="AAB2" s="0"/>
+      <c r="AAC2" s="0"/>
+      <c r="AAD2" s="0"/>
+      <c r="AAE2" s="0"/>
+      <c r="AAF2" s="0"/>
+      <c r="AAG2" s="0"/>
+      <c r="AAH2" s="0"/>
+      <c r="AAI2" s="0"/>
+      <c r="AAJ2" s="0"/>
+      <c r="AAK2" s="0"/>
+      <c r="AAL2" s="0"/>
+      <c r="AAM2" s="0"/>
+      <c r="AAN2" s="0"/>
+      <c r="AAO2" s="0"/>
+      <c r="AAP2" s="0"/>
+      <c r="AAQ2" s="0"/>
+      <c r="AAR2" s="0"/>
+      <c r="AAS2" s="0"/>
+      <c r="AAT2" s="0"/>
+      <c r="AAU2" s="0"/>
+      <c r="AAV2" s="0"/>
+      <c r="AAW2" s="0"/>
+      <c r="AAX2" s="0"/>
+      <c r="AAY2" s="0"/>
+      <c r="AAZ2" s="0"/>
+      <c r="ABA2" s="0"/>
+      <c r="ABB2" s="0"/>
+      <c r="ABC2" s="0"/>
+      <c r="ABD2" s="0"/>
+      <c r="ABE2" s="0"/>
+      <c r="ABF2" s="0"/>
+      <c r="ABG2" s="0"/>
+      <c r="ABH2" s="0"/>
+      <c r="ABI2" s="0"/>
+      <c r="ABJ2" s="0"/>
+      <c r="ABK2" s="0"/>
+      <c r="ABL2" s="0"/>
+      <c r="ABM2" s="0"/>
+      <c r="ABN2" s="0"/>
+      <c r="ABO2" s="0"/>
+      <c r="ABP2" s="0"/>
+      <c r="ABQ2" s="0"/>
+      <c r="ABR2" s="0"/>
+      <c r="ABS2" s="0"/>
+      <c r="ABT2" s="0"/>
+      <c r="ABU2" s="0"/>
+      <c r="ABV2" s="0"/>
+      <c r="ABW2" s="0"/>
+      <c r="ABX2" s="0"/>
+      <c r="ABY2" s="0"/>
+      <c r="ABZ2" s="0"/>
+      <c r="ACA2" s="0"/>
+      <c r="ACB2" s="0"/>
+      <c r="ACC2" s="0"/>
+      <c r="ACD2" s="0"/>
+      <c r="ACE2" s="0"/>
+      <c r="ACF2" s="0"/>
+      <c r="ACG2" s="0"/>
+      <c r="ACH2" s="0"/>
+      <c r="ACI2" s="0"/>
+      <c r="ACJ2" s="0"/>
+      <c r="ACK2" s="0"/>
+      <c r="ACL2" s="0"/>
+      <c r="ACM2" s="0"/>
+      <c r="ACN2" s="0"/>
+      <c r="ACO2" s="0"/>
+      <c r="ACP2" s="0"/>
+      <c r="ACQ2" s="0"/>
+      <c r="ACR2" s="0"/>
+      <c r="ACS2" s="0"/>
+      <c r="ACT2" s="0"/>
+      <c r="ACU2" s="0"/>
+      <c r="ACV2" s="0"/>
+      <c r="ACW2" s="0"/>
+      <c r="ACX2" s="0"/>
+      <c r="ACY2" s="0"/>
+      <c r="ACZ2" s="0"/>
+      <c r="ADA2" s="0"/>
+      <c r="ADB2" s="0"/>
+      <c r="ADC2" s="0"/>
+      <c r="ADD2" s="0"/>
+      <c r="ADE2" s="0"/>
+      <c r="ADF2" s="0"/>
+      <c r="ADG2" s="0"/>
+      <c r="ADH2" s="0"/>
+      <c r="ADI2" s="0"/>
+      <c r="ADJ2" s="0"/>
+      <c r="ADK2" s="0"/>
+      <c r="ADL2" s="0"/>
+      <c r="ADM2" s="0"/>
+      <c r="ADN2" s="0"/>
+      <c r="ADO2" s="0"/>
+      <c r="ADP2" s="0"/>
+      <c r="ADQ2" s="0"/>
+      <c r="ADR2" s="0"/>
+      <c r="ADS2" s="0"/>
+      <c r="ADT2" s="0"/>
+      <c r="ADU2" s="0"/>
+      <c r="ADV2" s="0"/>
+      <c r="ADW2" s="0"/>
+      <c r="ADX2" s="0"/>
+      <c r="ADY2" s="0"/>
+      <c r="ADZ2" s="0"/>
+      <c r="AEA2" s="0"/>
+      <c r="AEB2" s="0"/>
+      <c r="AEC2" s="0"/>
+      <c r="AED2" s="0"/>
+      <c r="AEE2" s="0"/>
+      <c r="AEF2" s="0"/>
+      <c r="AEG2" s="0"/>
+      <c r="AEH2" s="0"/>
+      <c r="AEI2" s="0"/>
+      <c r="AEJ2" s="0"/>
+      <c r="AEK2" s="0"/>
+      <c r="AEL2" s="0"/>
+      <c r="AEM2" s="0"/>
+      <c r="AEN2" s="0"/>
+      <c r="AEO2" s="0"/>
+      <c r="AEP2" s="0"/>
+      <c r="AEQ2" s="0"/>
+      <c r="AER2" s="0"/>
+      <c r="AES2" s="0"/>
+      <c r="AET2" s="0"/>
+      <c r="AEU2" s="0"/>
+      <c r="AEV2" s="0"/>
+      <c r="AEW2" s="0"/>
+      <c r="AEX2" s="0"/>
+      <c r="AEY2" s="0"/>
+      <c r="AEZ2" s="0"/>
+      <c r="AFA2" s="0"/>
+      <c r="AFB2" s="0"/>
+      <c r="AFC2" s="0"/>
+      <c r="AFD2" s="0"/>
+      <c r="AFE2" s="0"/>
+      <c r="AFF2" s="0"/>
+      <c r="AFG2" s="0"/>
+      <c r="AFH2" s="0"/>
+      <c r="AFI2" s="0"/>
+      <c r="AFJ2" s="0"/>
+      <c r="AFK2" s="0"/>
+      <c r="AFL2" s="0"/>
+      <c r="AFM2" s="0"/>
+      <c r="AFN2" s="0"/>
+      <c r="AFO2" s="0"/>
+      <c r="AFP2" s="0"/>
+      <c r="AFQ2" s="0"/>
+      <c r="AFR2" s="0"/>
+      <c r="AFS2" s="0"/>
+      <c r="AFT2" s="0"/>
+      <c r="AFU2" s="0"/>
+      <c r="AFV2" s="0"/>
+      <c r="AFW2" s="0"/>
+      <c r="AFX2" s="0"/>
+      <c r="AFY2" s="0"/>
+      <c r="AFZ2" s="0"/>
+      <c r="AGA2" s="0"/>
+      <c r="AGB2" s="0"/>
+      <c r="AGC2" s="0"/>
+      <c r="AGD2" s="0"/>
+      <c r="AGE2" s="0"/>
+      <c r="AGF2" s="0"/>
+      <c r="AGG2" s="0"/>
+      <c r="AGH2" s="0"/>
+      <c r="AGI2" s="0"/>
+      <c r="AGJ2" s="0"/>
+      <c r="AGK2" s="0"/>
+      <c r="AGL2" s="0"/>
+      <c r="AGM2" s="0"/>
+      <c r="AGN2" s="0"/>
+      <c r="AGO2" s="0"/>
+      <c r="AGP2" s="0"/>
+      <c r="AGQ2" s="0"/>
+      <c r="AGR2" s="0"/>
+      <c r="AGS2" s="0"/>
+      <c r="AGT2" s="0"/>
+      <c r="AGU2" s="0"/>
+      <c r="AGV2" s="0"/>
+      <c r="AGW2" s="0"/>
+      <c r="AGX2" s="0"/>
+      <c r="AGY2" s="0"/>
+      <c r="AGZ2" s="0"/>
+      <c r="AHA2" s="0"/>
+      <c r="AHB2" s="0"/>
+      <c r="AHC2" s="0"/>
+      <c r="AHD2" s="0"/>
+      <c r="AHE2" s="0"/>
+      <c r="AHF2" s="0"/>
+      <c r="AHG2" s="0"/>
+      <c r="AHH2" s="0"/>
+      <c r="AHI2" s="0"/>
+      <c r="AHJ2" s="0"/>
+      <c r="AHK2" s="0"/>
+      <c r="AHL2" s="0"/>
+      <c r="AHM2" s="0"/>
+      <c r="AHN2" s="0"/>
+      <c r="AHO2" s="0"/>
+      <c r="AHP2" s="0"/>
+      <c r="AHQ2" s="0"/>
+      <c r="AHR2" s="0"/>
+      <c r="AHS2" s="0"/>
+      <c r="AHT2" s="0"/>
+      <c r="AHU2" s="0"/>
+      <c r="AHV2" s="0"/>
+      <c r="AHW2" s="0"/>
+      <c r="AHX2" s="0"/>
+      <c r="AHY2" s="0"/>
+      <c r="AHZ2" s="0"/>
+      <c r="AIA2" s="0"/>
+      <c r="AIB2" s="0"/>
+      <c r="AIC2" s="0"/>
+      <c r="AID2" s="0"/>
+      <c r="AIE2" s="0"/>
+      <c r="AIF2" s="0"/>
+      <c r="AIG2" s="0"/>
+      <c r="AIH2" s="0"/>
+      <c r="AII2" s="0"/>
+      <c r="AIJ2" s="0"/>
+      <c r="AIK2" s="0"/>
+      <c r="AIL2" s="0"/>
+      <c r="AIM2" s="0"/>
+      <c r="AIN2" s="0"/>
+      <c r="AIO2" s="0"/>
+      <c r="AIP2" s="0"/>
+      <c r="AIQ2" s="0"/>
+      <c r="AIR2" s="0"/>
+      <c r="AIS2" s="0"/>
+      <c r="AIT2" s="0"/>
+      <c r="AIU2" s="0"/>
+      <c r="AIV2" s="0"/>
+      <c r="AIW2" s="0"/>
+      <c r="AIX2" s="0"/>
+      <c r="AIY2" s="0"/>
+      <c r="AIZ2" s="0"/>
+      <c r="AJA2" s="0"/>
+      <c r="AJB2" s="0"/>
+      <c r="AJC2" s="0"/>
+      <c r="AJD2" s="0"/>
+      <c r="AJE2" s="0"/>
+      <c r="AJF2" s="0"/>
+      <c r="AJG2" s="0"/>
+      <c r="AJH2" s="0"/>
+      <c r="AJI2" s="0"/>
+      <c r="AJJ2" s="0"/>
+      <c r="AJK2" s="0"/>
+      <c r="AJL2" s="0"/>
+      <c r="AJM2" s="0"/>
+      <c r="AJN2" s="0"/>
+      <c r="AJO2" s="0"/>
+      <c r="AJP2" s="0"/>
+      <c r="AJQ2" s="0"/>
+      <c r="AJR2" s="0"/>
+      <c r="AJS2" s="0"/>
+      <c r="AJT2" s="0"/>
+      <c r="AJU2" s="0"/>
+      <c r="AJV2" s="0"/>
+      <c r="AJW2" s="0"/>
+      <c r="AJX2" s="0"/>
+      <c r="AJY2" s="0"/>
+      <c r="AJZ2" s="0"/>
+      <c r="AKA2" s="0"/>
+      <c r="AKB2" s="0"/>
+      <c r="AKC2" s="0"/>
+      <c r="AKD2" s="0"/>
+      <c r="AKE2" s="0"/>
+      <c r="AKF2" s="0"/>
+      <c r="AKG2" s="0"/>
+      <c r="AKH2" s="0"/>
+      <c r="AKI2" s="0"/>
+      <c r="AKJ2" s="0"/>
+      <c r="AKK2" s="0"/>
+      <c r="AKL2" s="0"/>
+      <c r="AKM2" s="0"/>
+      <c r="AKN2" s="0"/>
+      <c r="AKO2" s="0"/>
+      <c r="AKP2" s="0"/>
+      <c r="AKQ2" s="0"/>
+      <c r="AKR2" s="0"/>
+      <c r="AKS2" s="0"/>
+      <c r="AKT2" s="0"/>
+      <c r="AKU2" s="0"/>
+      <c r="AKV2" s="0"/>
+      <c r="AKW2" s="0"/>
+      <c r="AKX2" s="0"/>
+      <c r="AKY2" s="0"/>
+      <c r="AKZ2" s="0"/>
+      <c r="ALA2" s="0"/>
+      <c r="ALB2" s="0"/>
+      <c r="ALC2" s="0"/>
+      <c r="ALD2" s="0"/>
+      <c r="ALE2" s="0"/>
+      <c r="ALF2" s="0"/>
+      <c r="ALG2" s="0"/>
+      <c r="ALH2" s="0"/>
+      <c r="ALI2" s="0"/>
+      <c r="ALJ2" s="0"/>
+      <c r="ALK2" s="0"/>
+      <c r="ALL2" s="0"/>
+      <c r="ALM2" s="0"/>
+      <c r="ALN2" s="0"/>
+      <c r="ALO2" s="0"/>
+      <c r="ALP2" s="0"/>
+      <c r="ALQ2" s="0"/>
+      <c r="ALR2" s="0"/>
+      <c r="ALS2" s="0"/>
+      <c r="ALT2" s="0"/>
+      <c r="ALU2" s="0"/>
+      <c r="ALV2" s="0"/>
+      <c r="ALW2" s="0"/>
+      <c r="ALX2" s="0"/>
+      <c r="ALY2" s="0"/>
+      <c r="ALZ2" s="0"/>
+      <c r="AMA2" s="0"/>
+      <c r="AMB2" s="0"/>
+      <c r="AMC2" s="0"/>
+      <c r="AMD2" s="0"/>
+      <c r="AME2" s="0"/>
+      <c r="AMF2" s="0"/>
+      <c r="AMG2" s="0"/>
+      <c r="AMH2" s="0"/>
+      <c r="AMI2" s="0"/>
+      <c r="AMJ2" s="0"/>
     </row>
     <row r="3" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4859,6 +5896,8 @@
       <c r="B4" s="38" t="s">
         <v>315</v>
       </c>
+      <c r="C4" s="0"/>
+      <c r="D4" s="0"/>
       <c r="E4" s="38" t="s">
         <v>316</v>
       </c>
@@ -4876,9 +5915,11 @@
       <c r="D5" s="38" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="152.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="39"/>
+      <c r="B6" s="0"/>
       <c r="C6" s="38" t="s">
         <v>320</v>
       </c>
@@ -4891,57 +5932,71 @@
     </row>
     <row r="7" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="39"/>
+      <c r="B7" s="0"/>
       <c r="C7" s="38" t="s">
         <v>323</v>
       </c>
       <c r="D7" s="38" t="s">
         <v>324</v>
       </c>
+      <c r="E7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="39"/>
+      <c r="B8" s="0"/>
+      <c r="C8" s="0"/>
       <c r="D8" s="38" t="s">
         <v>325</v>
       </c>
+      <c r="E8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="39"/>
+      <c r="B9" s="0"/>
       <c r="C9" s="38" t="s">
         <v>326</v>
       </c>
       <c r="D9" s="38" t="s">
         <v>327</v>
       </c>
+      <c r="E9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="39"/>
+      <c r="B10" s="0"/>
       <c r="C10" s="38" t="s">
         <v>328</v>
       </c>
       <c r="D10" s="38" t="s">
         <v>329</v>
       </c>
+      <c r="E10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="39"/>
+      <c r="B11" s="0"/>
       <c r="C11" s="38" t="s">
         <v>330</v>
       </c>
       <c r="D11" s="38" t="s">
         <v>331</v>
       </c>
+      <c r="E11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="39"/>
+      <c r="B12" s="0"/>
       <c r="C12" s="38" t="s">
         <v>332</v>
       </c>
       <c r="D12" s="38" t="s">
         <v>333</v>
       </c>
+      <c r="E12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="39"/>
+      <c r="B13" s="0"/>
       <c r="C13" s="38" t="s">
         <v>334</v>
       </c>
@@ -4954,12 +6009,14 @@
     </row>
     <row r="14" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="39"/>
+      <c r="B14" s="0"/>
       <c r="C14" s="38" t="s">
         <v>337</v>
       </c>
       <c r="D14" s="38" t="s">
         <v>338</v>
       </c>
+      <c r="E14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="39" t="n">
@@ -4968,12 +6025,15 @@
       <c r="B15" s="38" t="s">
         <v>339</v>
       </c>
+      <c r="C15" s="0"/>
       <c r="D15" s="38" t="s">
         <v>340</v>
       </c>
+      <c r="E15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="35.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="39"/>
+      <c r="B16" s="0"/>
       <c r="C16" s="38" t="s">
         <v>341</v>
       </c>
@@ -4986,21 +6046,25 @@
     </row>
     <row r="17" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="39"/>
+      <c r="B17" s="0"/>
       <c r="C17" s="38" t="s">
         <v>344</v>
       </c>
       <c r="D17" s="38" t="s">
         <v>345</v>
       </c>
+      <c r="E17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="39"/>
+      <c r="B18" s="0"/>
       <c r="C18" s="38" t="s">
         <v>346</v>
       </c>
       <c r="D18" s="38" t="s">
         <v>347</v>
       </c>
+      <c r="E18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="370.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="39" t="n">
@@ -5015,178 +6079,208 @@
       <c r="D19" s="38" t="s">
         <v>350</v>
       </c>
+      <c r="E19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="39"/>
+      <c r="B20" s="38"/>
       <c r="C20" s="38" t="s">
         <v>351</v>
       </c>
       <c r="D20" s="38" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="164.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E20" s="0"/>
+    </row>
+    <row r="21" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="39"/>
+      <c r="B21" s="0"/>
       <c r="C21" s="38" t="s">
         <v>353</v>
       </c>
       <c r="D21" s="38" t="s">
         <v>354</v>
       </c>
-      <c r="E21" s="38" t="s">
+      <c r="E21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="39"/>
+      <c r="B22" s="0"/>
+      <c r="C22" s="38" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="38" t="s">
+      <c r="D22" s="38" t="s">
         <v>356</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="E22" s="38" t="s">
         <v>357</v>
       </c>
-      <c r="D22" s="38" t="s">
+    </row>
+    <row r="23" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="38" t="s">
         <v>358</v>
       </c>
-      <c r="E22" s="38" t="s">
+      <c r="C23" s="38" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="38" t="s">
+      <c r="D23" s="38" t="s">
         <v>360</v>
       </c>
-      <c r="D23" s="38" t="s">
+      <c r="E23" s="38" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0"/>
       <c r="C24" s="38" t="s">
         <v>362</v>
       </c>
       <c r="D24" s="38" t="s">
         <v>363</v>
       </c>
-      <c r="E24" s="38" t="s">
+      <c r="E24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0"/>
+      <c r="C25" s="38" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="38" t="s">
+      <c r="D25" s="38" t="s">
         <v>365</v>
       </c>
-      <c r="D25" s="38" t="s">
+      <c r="E25" s="38" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0"/>
       <c r="C26" s="38" t="s">
         <v>367</v>
       </c>
       <c r="D26" s="38" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E26" s="0"/>
+    </row>
+    <row r="27" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0"/>
       <c r="C27" s="38" t="s">
         <v>369</v>
       </c>
       <c r="D27" s="38" t="s">
         <v>370</v>
       </c>
-      <c r="E27" s="38" t="s">
+      <c r="E27" s="0"/>
+    </row>
+    <row r="28" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0"/>
+      <c r="C28" s="38" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="303.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="37" t="s">
+      <c r="D28" s="38" t="s">
         <v>372</v>
       </c>
-      <c r="D28" s="38" t="s">
+      <c r="E28" s="38" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="38" t="s">
+    <row r="29" customFormat="false" ht="303.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0"/>
+      <c r="C29" s="37" t="s">
         <v>374</v>
       </c>
       <c r="D29" s="38" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E29" s="0"/>
+    </row>
+    <row r="30" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0"/>
       <c r="C30" s="38" t="s">
         <v>376</v>
       </c>
       <c r="D30" s="38" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E30" s="0"/>
+    </row>
+    <row r="31" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0"/>
       <c r="C31" s="38" t="s">
         <v>378</v>
       </c>
       <c r="D31" s="38" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E31" s="0"/>
+    </row>
+    <row r="32" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0"/>
       <c r="C32" s="38" t="s">
         <v>380</v>
       </c>
       <c r="D32" s="38" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E32" s="0"/>
+    </row>
+    <row r="33" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0"/>
       <c r="C33" s="38" t="s">
         <v>382</v>
       </c>
       <c r="D33" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="E33" s="38" t="s">
+      <c r="E33" s="0"/>
+    </row>
+    <row r="34" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="0"/>
+      <c r="C34" s="38" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="38" t="s">
+      <c r="D34" s="38" t="s">
         <v>385</v>
       </c>
-      <c r="D34" s="38" t="s">
+      <c r="E34" s="38" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0"/>
       <c r="C35" s="38" t="s">
         <v>387</v>
       </c>
       <c r="D35" s="38" t="s">
         <v>388</v>
       </c>
-      <c r="E35" s="38" t="s">
+      <c r="E35" s="0"/>
+    </row>
+    <row r="36" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0"/>
+      <c r="C36" s="38" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="38" t="s">
+      <c r="D36" s="38" t="s">
         <v>390</v>
       </c>
-      <c r="D36" s="38" t="s">
+      <c r="E36" s="38" t="s">
         <v>391</v>
       </c>
-      <c r="E36" s="38" t="s">
+    </row>
+    <row r="37" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="0"/>
+      <c r="C37" s="38" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="38" t="s">
+      <c r="D37" s="38" t="s">
         <v>393</v>
       </c>
-      <c r="D37" s="38" t="s">
+      <c r="E37" s="38" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="415.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="38" t="s">
         <v>395</v>
       </c>
@@ -5197,7 +6291,8 @@
         <v>397</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="426.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="38"/>
       <c r="C39" s="38" t="s">
         <v>398</v>
       </c>
@@ -5205,7 +6300,8 @@
         <v>399</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="0"/>
       <c r="C40" s="38" t="s">
         <v>400</v>
       </c>
@@ -5213,7 +6309,8 @@
         <v>401</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="0"/>
       <c r="C41" s="38" t="s">
         <v>402</v>
       </c>
@@ -5221,7 +6318,8 @@
         <v>403</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="0"/>
       <c r="C42" s="38" t="s">
         <v>404</v>
       </c>
@@ -5229,18 +6327,19 @@
         <v>405</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="38" t="s">
+    <row r="43" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="0"/>
+      <c r="C43" s="38" t="s">
         <v>406</v>
       </c>
-      <c r="C43" s="38" t="s">
+      <c r="D43" s="38" t="s">
         <v>407</v>
       </c>
-      <c r="D43" s="38" t="s">
+    </row>
+    <row r="44" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="38" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="38" t="s">
         <v>409</v>
       </c>
@@ -5248,7 +6347,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="38" t="s">
         <v>411</v>
       </c>
@@ -5256,7 +6355,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="38" t="s">
         <v>413</v>
       </c>
@@ -5264,7 +6363,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="38" t="s">
         <v>415</v>
       </c>
@@ -5272,7 +6371,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="38" t="s">
         <v>417</v>
       </c>
@@ -5288,7 +6387,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="38" t="s">
         <v>421</v>
       </c>
@@ -5296,7 +6395,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="449.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="38" t="s">
         <v>423</v>
       </c>
@@ -5304,7 +6403,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="404.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="449.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="38" t="s">
         <v>425</v>
       </c>
@@ -5312,7 +6411,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="404.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="38" t="s">
         <v>427</v>
       </c>
@@ -5320,7 +6419,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="38" t="s">
         <v>429</v>
       </c>
@@ -5328,7 +6427,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="348.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="38" t="s">
         <v>431</v>
       </c>
@@ -5336,7 +6435,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="348.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="38" t="s">
         <v>433</v>
       </c>
@@ -5344,7 +6443,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="426.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="38" t="s">
         <v>435</v>
       </c>
@@ -5352,7 +6451,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="426.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="38" t="s">
         <v>437</v>
       </c>
@@ -5360,19 +6459,27 @@
         <v>438</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="38" t="s">
         <v>439</v>
       </c>
       <c r="D59" s="38" t="s">
         <v>440</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C60" s="38" t="s">
+        <v>441</v>
+      </c>
+      <c r="D60" s="38" t="s">
+        <v>442</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A5:A14"/>
     <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A19:A22"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/improvement/quick_notes.xlsx
+++ b/improvement/quick_notes.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="485">
   <si>
     <t>Sr No</t>
   </si>
@@ -2214,6 +2214,387 @@
     void local_bh_disable() 
 - Enables softirq and tasklet processing on the local processor
     void local_bh_enable() 
+</t>
+  </si>
+  <si>
+    <t>Kernel Synchronization Methods</t>
+  </si>
+  <si>
+    <t>Critical Regions and Race Conditions</t>
+  </si>
+  <si>
+    <t>
+- Code paths that access and manipulate shared data are called critical regions.
+- it is possible for two threads of execution to be simultaneously executing within the same critical region.When this does occur, we call it a race condition.
+- debugging race conditions is often difficult because they are not easily reproducible. 
+- Ensuring that unsafe concurrency is prevented and that race conditions do not occur is called synchronization.
+</t>
+  </si>
+  <si>
+    <t>Deadlocks</t>
+  </si>
+  <si>
+    <r>
+      <t>
+- The threads all wait for each other, but they never make any progress toward releasing the resources that they already hold.Therefore, none of the threads can continue, which results in a deadlock.
+- The simplest example of a deadlock is the self-deadlock: 4 If a thread of execution attempts to acquire a lock it already holds.
+- A few simple rules go a long way:
+    - Implement lock ordering. Nested locks must always be obtained in the same order. This prevents the deadly embrace deadlock. Document the lock ordering so others will follow it.
+    - Do not double acquire the same lock.
+    - Design for simplicity. Complexity in your locking scheme invites deadlocks.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Spin locks</t>
+  </si>
+  <si>
+    <t>
+- A spin lock is a lock that can be held by at most one thread of execution. 
+- If a thread of execution attempts to acquire a spin lock while it is already held, which is called contended, the thread busy loops spins—waiting for the lock to become available. 
+- If the lock is not contended, the thread can immediately acquire the lock and continue.
+- The spinning prevents more than one thread of execution from entering the critical region at any one time.
+- The fact that a contended spin lock causes threads to spin (essentially wasting processor time) while waiting for the lock to become available is salient. This behavior is the pointof the spin lock. 
+- This is the nature of the spin lock: a lightweight single-holder lock that should be held for short durations.
+- An alternative behavior when the lock is contended is to put the current thread to sleep and wake it up when it becomes available.
+- most notably the two context switches required to switch out of and back into the blocking thread, which is certainly a lot more code than the handful of lines used to implement a spin lock.
+- Therefore, it is wise to hold spin locks for less than the duration of two context switches.
+- semaphores, which provide a lock that makes the waiting thread sleep, rather than spin, when contended.
+</t>
+  </si>
+  <si>
+    <t>Spin Lock Methods</t>
+  </si>
+  <si>
+    <t>
+- Spin locks are architecture-dependent and implemented in assembly.The architecture dependent code is defined in &lt;asm/spinlock.h&gt;.
+- The actual usable interfaces are defined in &lt;linux/spinlock.h&gt; .
+- The basic use of a spin lock is
+    DEFINE_SPINLOCK(mr_lock);
+    spin_lock(&amp;mr_lock);
+    /* critical region ... */
+    spin_unlock(&amp;mr_lock);
+- Spin locks can be used in interrupt handlers, whereas semaphores cannot be used because they sleep.
+- If a lock is used in an interrupt handler, you must also disable local interrupts (interrupt requests on the current processor) before obtaining the lock. Otherwise, it is possible for an interrupt handler to interrupt kernel code while the lock is held and attempt to reacquire the lock.The interrupt handler spins, waiting for the lock to become available.
+- Note that you need to disable interrupts only on the current processor. If an interrupt occurs on a different processor, and it spins on the same lock, it does not prevent the lock holder (which is on a different processor) from eventually releasing the lock.
+- The kernel provides an interface that conveniently disables interrupts and acquires the lock. Usage is
+    DEFINE_SPINLOCK(mr_lock);
+    unsigned long flags;
+    spin_lock_irqsave(&amp;mr_lock, flags);
+    /* critical region ... */
+    spin_unlock_irqrestore(&amp;mr_lock, flags);
+    - The routine spin_lock_irqsave() saves the current state of interrupts, disables them locally, and then obtains the given lock.
+- If you always know before the fact that interrupts are initially enabled, there is no need to restore their previous state.You can unconditionally enable them on unlock. In those cases, spin_lock_irq() and spin_unlock_irq() are optimal:
+    DEFINE_SPINLOCK(mr_lock);
+    spin_lock_irq(&amp;mr_lock);
+    /* critical section ... */
+    spin_unlock_irq(&amp;mr_lock);
+    - Use of spin_lock_irq() is not recommended, bcz hard to ensure that interrupts are always enabled
+-  The configure option CONFIG_DEBUG_SPINLOCK enables a handful of debugging checks in the spin lock code.
+</t>
+  </si>
+  <si>
+    <t>
+- spin_lock():: Acquires given lock
+- spin_lock_irq():: Disables local interrupts and acquires given lock
+- spin_lock_irqsave():: Saves current state of local interrupts, disables local interrupts, and acquires given lock
+- spin_unlock():: Releases given lock
+- spin_unlock_irq():: Releases given lock and enables local interrupts
+- spin_unlock_irqrestore():: Releases given lock and restores local interrupts to given previous state
+- spin_lock_init():: Dynamically initializes given spinlock_t
+- spin_trylock():: Tries to acquire given lock; if unavailable, returns nonzero
+- spin_is_locked():: Returns nonzero if the given lock is currently acquired, otherwise it returns zero
+</t>
+  </si>
+  <si>
+    <t>Spin Locks and Bottom Halves</t>
+  </si>
+  <si>
+    <r>
+      <t>
+- The function spin_lock_bh() obtains the given lock and disables all bottom halves.
+- The function spin_unlock_bh() performs the inverse.
+- Because a bottom half might preempt process context code, if data is shared between a bottom-half process context, you must protect the data in process context with both a lock and the disabling of bottom halves. 
+- Likewise, because an interrupt handler might preempt a bottom half, if data is shared between an interrupt handler and a bottom half, you must both obtain the appropriate lock and disable interrupts.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Reader-Writer Spin Locks</t>
+  </si>
+  <si>
+    <t>
+- Reader-writer spin locks provide separate reader and writer variants of the lock. 
+- One or more readers can concurrently hold the reader lock.
+- The writer lock, conversely, can be held by at most one writer with no concurrent readers. 
+- Reader/writer locks are sometimes called shared/exclusive or concurrent/exclusive locks because the lock is available in a shared (for readers) and an exclusive (for writers) form.
+    DEFINE_RWLOCK(mr_rwlock);
+    Then, in the reader code path:
+    read_lock(&amp;mr_rwlock);
+    /* critical section (read only) ... */
+    read_unlock(&amp;mr_rwlock);
+    Finally, in the writer code path:
+    write_lock(&amp;mr_rwlock);
+    /* critical section (read and write) ... */
+    write_unlock(&amp;mr_lock);
+    - Normally, the readers and writers are in entirely separate code paths, such as in this example.
+- Note that you cannot “upgrade” a read lock to a write lock. For example, consider this code snippet:
+    read_lock(&amp;mr_rwlock);
+    write_lock(&amp;mr_rwlock);
+    - Executing these two functions as shown will deadlock, as the write lock spins, waiting for all readers to release the shared lock.
+</t>
+  </si>
+  <si>
+    <r>
+      <t>
+- read_lock():: Acquires given lock for reading
+- read_lock_irq():: Disables local interrupts and acquires given lock for reading
+- read_lock_irqsave():: Saves the current state of local interrupts, disables local interrupts, and acquires the given lock for reading
+- read_unlock():: Releases given lock for reading
+- read_unlock_irq():: Releases given lock and enables local interrupts
+- read_unlock_ irqrestore():: Releases given lock and restores local interrupts to the given previous state
+- write_lock():: Acquires given lock for writing
+- write_lock_irq():: Disables local interrupts and acquires the given lock for writing
+- write_lock_irqsave():: Saves current state of local interrupts, disables local interrupts, and acquires the given lock for writing
+- write_unlock():: Releases given lock
+- write_unlock_irq():: Releases given lock and enables local interrupts.
+- write_unlock_irqrestore():: Releases given lock and restores local interrupts to given previous state
+- write_trylock():: Tries to acquire given lock for writing; if unavailable, returns nonzero
+- rwlock_init():: Initializes given rwlock_t
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Semaphores</t>
+  </si>
+  <si>
+    <t>
+- Semaphores in Linux are sleeping locks.When a task attempts to acquire a semaphore that is unavailable, the semaphore places the task onto a wait queue and puts the task to sleep.
+- The processor is then free to execute other code.
+- When the semaphore becomes available, one of the tasks on the wait queue is awakened so that it can then acquire the semaphore.
+- This provides better processor utilization than spin locks because there is no time spent busy looping, but semaphores have much greater overhead than spin locks.
+- You can draw some interesting conclusions from the sleeping behavior of semaphores:
+    - Because the contending tasks sleep while waiting for the lock to become available, semaphores are well suited to locks that are held for a long time.
+    - Conversely, semaphores are not optimal for locks that are held for short periods because the overhead of sleeping, maintaining the wait queue, and waking back up can easily outweigh the total lock hold time.
+    - Because a thread of execution sleeps on lock contention, semaphores must be obtained only in process context because interrupt context is not schedulable.
+    - You can (although you might not want to) sleep while holding a semaphore because you will not deadlock when another process acquires the same semaphore. (It will just go to sleep and eventually let you continue.)
+    - You cannot hold a spin lock while you acquire a semaphore, because you might have to sleep while waiting for the semaphore, and you cannot sleep while holding a spin lock.
+- Additionally, unlike spin locks, semaphores do not disable kernel preemption and, consequently, code holding a semaphore can be preempted.This means semaphores do not adversely affect scheduling latency.
+</t>
+  </si>
+  <si>
+    <t>Counting and Binary Semaphores</t>
+  </si>
+  <si>
+    <t>
+- The number of permissible simultaneous holders of semaphores can be set at declaration time. This value is called the usage count or simply the count.
+- the count is equal to one, and the semaphore is called either a binary semaphore or a mutex (because it enforces mutual exclusion).
+- Alternatively, the count can be initialized to a nonzero value greater than one. In this case, the semaphore is called a counting semaphore.
+- Counting semaphores are not used much in the kernel. If you use a semaphore, you almost assuredly want to use a mutex (a semaphore with a count of one).
+- The down() method is used to acquire a semaphore by decrementing the count by one. If the new count is zero or greater, the lock is acquired and the task can enter the critical region. If the count is negative, the task is placed on a wait queue, and the processor moves on to something else.
+- The up() method is used to release a semaphore upon completion of a critical region.This is called upping the semaphore.The method increments the count value; if the semaphore’s wait queue is not empty, one of the waiting tasks is awakened and allowed to acquire the semaphore.
+</t>
+  </si>
+  <si>
+    <t>Creating and Initializing Semaphores</t>
+  </si>
+  <si>
+    <t>
+- The semaphore implementation is architecture-dependent and defined in &lt;asm/semaphore.h&gt;.
+- The struct semaphore type represents semaphores. Statically declared semaphores are created via the following,
+    struct semaphore name;
+    sema_init(&amp;name, count);
+    - where name is the variable’s name and count is the usage count of the semaphore
+- As a shortcut to create the more common mutex, use the following, 
+    static DECLARE_MUTEX(name);
+    - where, name is the variable name of the binary semaphore.
+    - to initialize a dynamically created mutex, you can use
+    init_MUTEX(sem);
+</t>
+  </si>
+  <si>
+    <t>
+- sema_init(struct semaphore *, int):: Initializes the dynamically created semaphore to the given count
+- init_MUTEX(struct semaphore *):: Initializes the dynamically created semaphore with a count of one
+- init_MUTEX_LOCKED(struct semaphore *):: Initializes the dynamically created semaphore with a count of zero (so it is initially locked)
+- down_interruptible (struct semaphore *):: Tries to acquire the given semaphore and enter interruptible sleep if it is contended
+- down(struct semaphore *):: Tries to acquire the given semaphore and enter uninterruptible sleep if it is contended
+- down_trylock(struct semaphore *):: Tries to acquire the given semaphore and immediately return nonzero if it is contended
+- up(struct semaphore *):: Releases the given semaphore and wakes a waiting task, if any.
+</t>
+  </si>
+  <si>
+    <t>Reader-Writer Semaphores</t>
+  </si>
+  <si>
+    <t>
+- Reader-writer semaphores are represented by the struct rw_semaphore type, which is declared in &lt;linux/rwsem.h&gt; . 
+- Statically declared reader-writer semaphores are 
+    static DECLARE_RWSEM(name);
+    - where name is the declared name of the new semaphore:
+- Reader-writer semaphores created dynamically are initialized via
+    init_rwsem(struct rw_semaphore *sem)
+- All reader-writer semaphores are mutexes—that is, their usage count is one—although they enforce mutual exclusion only for writers, not readers.
+- Any number of readers can concurrently hold the read lock, so long as there are no writers. 
+- Conversely, only a sole writer (with no readers) can acquire the write variant of the lock.
+- All reader-writer locks use uninterruptible sleep, so there is only one version of each down().
+    static DECLARE_RWSEM(mr_rwsem);
+    /* attempt to acquire the semaphore for reading ... */
+    down_read(&amp;mr_rwsem);
+    /* critical region (read only) ... */
+    up_read(&amp;mr_rwsem); /* release the semaphore */
+    /* ... */
+    /* attempt to acquire the semaphore for writing ... */
+    down_write(&amp;mr_rwsem);
+    /* critical region (read and write) ... */
+    up_write(&amp;mr_sem); /* release the semaphore */
+- As with semaphores, implementations of down_read_trylock() and down_write_trylock() are provided. 
+- Each has one parameter: a pointer to a readerwriter semaphore.They both return nonzero if the lock is successfully acquired and zeroif it is currently contended. 
+- Be careful: For admittedly no good reason, this is the opposite of normal semaphore behavior!
+</t>
+  </si>
+  <si>
+    <t>Mutexes</t>
+  </si>
+  <si>
+    <t>
+- a simpler sleeping lock, the kernel developers introduced the mutex.
+- The mutex is represented by struct mutex . It behaves similar to a semaphore with a count of one, but it has a simpler interface, more efficient performance, and additional constraints on its use.
+- Simple usage
+    - To statically define a mutex, you do:
+    DEFINE_MUTEX(name);
+    - To dynamically initialize a mutex, you call
+    mutex_init(&amp;mutex);
+    - Locking and unlocking the mutex is easy:
+    mutex_lock(&amp;mutex);
+    /* critical region ... */
+    mutex_unlock(&amp;mutex);
+- the mutex has a stricter, narrower use case:
+    - Only one task can hold the mutex at a time.That is, the usage count on a mutex is always one.
+    - Whoever locked a mutex must unlock it.That is, you cannot lock a mutex in one context and then unlock it in another.This means that the mutex isn’t suitable for more complicated synchronizations between kernel and user-space. Most use cases, however, cleanly lock and unlock from the same context.
+    - Recursive locks and unlocks are not allowed.That is, you cannot recursively acquire the same mutex, and you cannot unlock an unlocked mutex.
+    - A process cannot exit while holding a mutex.
+    - A mutex cannot be acquired by an interrupt handler or bottom half, even with mutex_trylock() .
+    - A mutex can be managed only via the official API: It must be initialized via the methods described in this section and cannot be copied, hand initialized, or reinitialized.
+    - Perhaps the most useful aspect of the new struct mutex is that, via a special debugging mode, the kernel can programmatically check for and warn about violations of these constraints.When the kernel configuration option CONFIG_DEBUG_MUTEXES is enabled
+</t>
+  </si>
+  <si>
+    <t>
+- mutex_lock(struct mutex *):: Locks the given mutex; sleeps if the lock is unavailable
+- mutex_unlock(struct mutex *):: Unlocks the given mutex
+- mutex_trylock(struct mutex *):: Tries to acquire the given mutex; returns one if successful and the lock is acquired and zero otherwise
+- mutex_is_locked (struct mutex *):: Returns one if the lock is locked and zero otherwise
+</t>
+  </si>
+  <si>
+    <t>Semaphores Versus Mutexes</t>
+  </si>
+  <si>
+    <t>
+- Mutexes and semaphores are similar. Having both in the kernel is confusing.
+- Unless one of mutex’s additional constraints prevent you from using them, prefer the new mutex type to semaphores.
+- When writing new code, only specific, often low-level, uses need a semaphore. 
+- Start with a mutex and move to a semaphore only if you run into one of their constraints and have no other alternative.
+</t>
+  </si>
+  <si>
+    <t>Spin Locks Versus Mutexes</t>
+  </si>
+  <si>
+    <t>
+- Only a spin lock can be used in interrupt context, whereas only a mutex can be held while a task sleeps.
+- Low overhead locking:: Spin lock is preferred.
+- Short lock hold time:: Spin lock is preferred.
+- Long lock hold time:: Mutex is preferred.
+- Need to lock from interrupt context:: Spin lock is required.
+- Need to sleep while holding lock:: Mutex is required.
+</t>
+  </si>
+  <si>
+    <t>Completion Variables</t>
+  </si>
+  <si>
+    <t>
+- Using completion variables is an easy way to synchronize between two tasks in the kernel
+- when one task needs to signal to the other that an event has occurred. One task waits on the completion variable while another task performs some work.
+- When the other task has completed the work, it uses the completion variable to wake up any waiting tasks. 
+- If you think this sounds like a semaphore, you are right—the idea is much the same, completion variables merely provide a simple solution.
+- Completion variables are represented by the struct completion type, which is defined in &lt;linux/completion.h&gt;
+    - A statically created completion variable is created and initialized via
+    DECLARE_COMPLETION(mr_comp);
+</t>
+  </si>
+  <si>
+    <t>
+- init_completion(struct completion *):: Initializes the given dynamically created completion variable
+- wait_for_completion(struct completion *):: Waits for the given completion variable to be signaled
+- complete(struct completion *):: Signals any waiting tasks to wake up
+</t>
+  </si>
+  <si>
+    <t>BKL: The Big Kernel Lock</t>
+  </si>
+  <si>
+    <t>
+- The Big Kernel Lock (BKL) is a global spin lock, it has some interesting properties:
+    - You can sleep while holding the BKL.The lock is automatically dropped when the task is unscheduled and reacquired when the task is rescheduled. 
+    - Of course, this does not mean it is always safe to sleep while holding the BKL, merely that you can and you will not deadlock.
+    - The BKL is a recursive lock.A single process can acquire the lock multiple times and not deadlock, as it would with a spin lock.
+    - You can use the BKL only in process context. Unlike spin locks, you cannot acquire the BKL in interrupt context.
+    - New users of the BKL are forbidden.With every kernel release, fewer and fewer drivers and subsystems rely on the BKL.
+- A single thread of execution might acquire the lock recursively but must then call unlock_kernel() an equal number of times to release the lock.
+</t>
+  </si>
+  <si>
+    <t>
+- lock_kernel ():: Acquires the BKL.
+- unlock_ kernel():: Releases the BKL.
+- kernel_ locked():: Returns nonzero if the lock is held and zero otherwise. (UP always returns nonzero.)
+</t>
+  </si>
+  <si>
+    <t>Sequential Locks</t>
+  </si>
+  <si>
+    <t>
+- It works by maintaining a sequence counter.Whenever the data in question is written to, a lock is obtained and a sequence number is incremented.
+- Prior to and after reading the data, the sequence number is read. If the values are the same, a write did not begin in themiddle of the read. 
+- Further, if the values are even, a write is not underway. (Grabbing thewrite lock makes the value odd, whereas releasing it makes it even because the lock startsat zero.)
+- To define a seq lock:
+    seqlock_t mr_seq_lock = DEFINE_SEQLOCK(mr_seq_lock);
+    - The write path is then
+    write_seqlock(&amp;mr_seq_lock);
+    /* write lock is obtained... */
+    write_sequnlock(&amp;mr_seq_lock);
+    - This looks like normal spin lock code.The oddness comes in with the read path, which is quite a bit different:
+    unsigned long seq;
+    do {
+        seq = read_seqbegin(&amp;mr_seq_lock); /* read data here ... */
+    } while (read_seqretry(&amp;mr_seq_lock, seq));
+- Seq locks are ideal when your locking needs meet most or all these requirements:
+    - Your data has a lot of readers.
+    - Your data has few writers.
+    - Although few in number, you want to favor writers over readers and never allow readers to starve writers.
+    - Your data is simple, such as a simple structure or even a single integer that, for whatever reason, cannot be made atomic.
+</t>
+  </si>
+  <si>
+    <t>Preemption Disabling</t>
+  </si>
+  <si>
+    <t>
+- In reality, some situations do not require a spin lock, but do need kernel preemption disabled.
+- kernel preemption can be disabled via preempt_disable() .The call is nestable; you can call it any number of times. For each call, a corresponding call to preempt_enable() is required.The final corresponding call to preempt_enable() reenables preemption.
+- The preemption count stores the number of held locks and preempt_disable() calls. If the number is zero, the kernel is preemptive. If the value is one or greater, the kernel is not preemptive.
+</t>
+  </si>
+  <si>
+    <t>
+- preempt_disable():: Disables kernel preemption by incrementing the preemption counter
+- preempt_enable():: Decrements the preemption counter and checks and services any pending reschedules if the count is now zero
+- preempt_enable_no_resched():: Enables kernel preemption but does not check for any pending reschedules
+- preempt_count():: Returns the preemption count
 </t>
   </si>
 </sst>
@@ -4832,25 +5213,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:60"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D42" activeCellId="0" sqref="D42"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D77" activeCellId="0" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="34" width="6.4234693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="35" width="23.7857142857143"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="35" width="28.8520408163265"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="35" width="77.1632653061225"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="35" width="57.5714285714286"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="35" width="32.7244897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="35" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="36" width="6.4234693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="38" width="23.7857142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="38" width="28.8520408163265"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="38" width="80.1683673469388"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="38" width="65.7142857142857"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="38" width="32.7244897959184"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="38" width="8.72959183673469"/>
   </cols>
   <sheetData>
     <row r="1" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="2" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="36" t="s">
         <v>71</v>
       </c>
@@ -4869,1035 +5250,15 @@
       <c r="F2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="0"/>
-      <c r="H2" s="0"/>
-      <c r="I2" s="0"/>
-      <c r="J2" s="0"/>
-      <c r="K2" s="0"/>
-      <c r="L2" s="0"/>
-      <c r="M2" s="0"/>
-      <c r="N2" s="0"/>
-      <c r="O2" s="0"/>
-      <c r="P2" s="0"/>
-      <c r="Q2" s="0"/>
-      <c r="R2" s="0"/>
-      <c r="S2" s="0"/>
-      <c r="T2" s="0"/>
-      <c r="U2" s="0"/>
-      <c r="V2" s="0"/>
-      <c r="W2" s="0"/>
-      <c r="X2" s="0"/>
-      <c r="Y2" s="0"/>
-      <c r="Z2" s="0"/>
-      <c r="AA2" s="0"/>
-      <c r="AB2" s="0"/>
-      <c r="AC2" s="0"/>
-      <c r="AD2" s="0"/>
-      <c r="AE2" s="0"/>
-      <c r="AF2" s="0"/>
-      <c r="AG2" s="0"/>
-      <c r="AH2" s="0"/>
-      <c r="AI2" s="0"/>
-      <c r="AJ2" s="0"/>
-      <c r="AK2" s="0"/>
-      <c r="AL2" s="0"/>
-      <c r="AM2" s="0"/>
-      <c r="AN2" s="0"/>
-      <c r="AO2" s="0"/>
-      <c r="AP2" s="0"/>
-      <c r="AQ2" s="0"/>
-      <c r="AR2" s="0"/>
-      <c r="AS2" s="0"/>
-      <c r="AT2" s="0"/>
-      <c r="AU2" s="0"/>
-      <c r="AV2" s="0"/>
-      <c r="AW2" s="0"/>
-      <c r="AX2" s="0"/>
-      <c r="AY2" s="0"/>
-      <c r="AZ2" s="0"/>
-      <c r="BA2" s="0"/>
-      <c r="BB2" s="0"/>
-      <c r="BC2" s="0"/>
-      <c r="BD2" s="0"/>
-      <c r="BE2" s="0"/>
-      <c r="BF2" s="0"/>
-      <c r="BG2" s="0"/>
-      <c r="BH2" s="0"/>
-      <c r="BI2" s="0"/>
-      <c r="BJ2" s="0"/>
-      <c r="BK2" s="0"/>
-      <c r="BL2" s="0"/>
-      <c r="BM2" s="0"/>
-      <c r="BN2" s="0"/>
-      <c r="BO2" s="0"/>
-      <c r="BP2" s="0"/>
-      <c r="BQ2" s="0"/>
-      <c r="BR2" s="0"/>
-      <c r="BS2" s="0"/>
-      <c r="BT2" s="0"/>
-      <c r="BU2" s="0"/>
-      <c r="BV2" s="0"/>
-      <c r="BW2" s="0"/>
-      <c r="BX2" s="0"/>
-      <c r="BY2" s="0"/>
-      <c r="BZ2" s="0"/>
-      <c r="CA2" s="0"/>
-      <c r="CB2" s="0"/>
-      <c r="CC2" s="0"/>
-      <c r="CD2" s="0"/>
-      <c r="CE2" s="0"/>
-      <c r="CF2" s="0"/>
-      <c r="CG2" s="0"/>
-      <c r="CH2" s="0"/>
-      <c r="CI2" s="0"/>
-      <c r="CJ2" s="0"/>
-      <c r="CK2" s="0"/>
-      <c r="CL2" s="0"/>
-      <c r="CM2" s="0"/>
-      <c r="CN2" s="0"/>
-      <c r="CO2" s="0"/>
-      <c r="CP2" s="0"/>
-      <c r="CQ2" s="0"/>
-      <c r="CR2" s="0"/>
-      <c r="CS2" s="0"/>
-      <c r="CT2" s="0"/>
-      <c r="CU2" s="0"/>
-      <c r="CV2" s="0"/>
-      <c r="CW2" s="0"/>
-      <c r="CX2" s="0"/>
-      <c r="CY2" s="0"/>
-      <c r="CZ2" s="0"/>
-      <c r="DA2" s="0"/>
-      <c r="DB2" s="0"/>
-      <c r="DC2" s="0"/>
-      <c r="DD2" s="0"/>
-      <c r="DE2" s="0"/>
-      <c r="DF2" s="0"/>
-      <c r="DG2" s="0"/>
-      <c r="DH2" s="0"/>
-      <c r="DI2" s="0"/>
-      <c r="DJ2" s="0"/>
-      <c r="DK2" s="0"/>
-      <c r="DL2" s="0"/>
-      <c r="DM2" s="0"/>
-      <c r="DN2" s="0"/>
-      <c r="DO2" s="0"/>
-      <c r="DP2" s="0"/>
-      <c r="DQ2" s="0"/>
-      <c r="DR2" s="0"/>
-      <c r="DS2" s="0"/>
-      <c r="DT2" s="0"/>
-      <c r="DU2" s="0"/>
-      <c r="DV2" s="0"/>
-      <c r="DW2" s="0"/>
-      <c r="DX2" s="0"/>
-      <c r="DY2" s="0"/>
-      <c r="DZ2" s="0"/>
-      <c r="EA2" s="0"/>
-      <c r="EB2" s="0"/>
-      <c r="EC2" s="0"/>
-      <c r="ED2" s="0"/>
-      <c r="EE2" s="0"/>
-      <c r="EF2" s="0"/>
-      <c r="EG2" s="0"/>
-      <c r="EH2" s="0"/>
-      <c r="EI2" s="0"/>
-      <c r="EJ2" s="0"/>
-      <c r="EK2" s="0"/>
-      <c r="EL2" s="0"/>
-      <c r="EM2" s="0"/>
-      <c r="EN2" s="0"/>
-      <c r="EO2" s="0"/>
-      <c r="EP2" s="0"/>
-      <c r="EQ2" s="0"/>
-      <c r="ER2" s="0"/>
-      <c r="ES2" s="0"/>
-      <c r="ET2" s="0"/>
-      <c r="EU2" s="0"/>
-      <c r="EV2" s="0"/>
-      <c r="EW2" s="0"/>
-      <c r="EX2" s="0"/>
-      <c r="EY2" s="0"/>
-      <c r="EZ2" s="0"/>
-      <c r="FA2" s="0"/>
-      <c r="FB2" s="0"/>
-      <c r="FC2" s="0"/>
-      <c r="FD2" s="0"/>
-      <c r="FE2" s="0"/>
-      <c r="FF2" s="0"/>
-      <c r="FG2" s="0"/>
-      <c r="FH2" s="0"/>
-      <c r="FI2" s="0"/>
-      <c r="FJ2" s="0"/>
-      <c r="FK2" s="0"/>
-      <c r="FL2" s="0"/>
-      <c r="FM2" s="0"/>
-      <c r="FN2" s="0"/>
-      <c r="FO2" s="0"/>
-      <c r="FP2" s="0"/>
-      <c r="FQ2" s="0"/>
-      <c r="FR2" s="0"/>
-      <c r="FS2" s="0"/>
-      <c r="FT2" s="0"/>
-      <c r="FU2" s="0"/>
-      <c r="FV2" s="0"/>
-      <c r="FW2" s="0"/>
-      <c r="FX2" s="0"/>
-      <c r="FY2" s="0"/>
-      <c r="FZ2" s="0"/>
-      <c r="GA2" s="0"/>
-      <c r="GB2" s="0"/>
-      <c r="GC2" s="0"/>
-      <c r="GD2" s="0"/>
-      <c r="GE2" s="0"/>
-      <c r="GF2" s="0"/>
-      <c r="GG2" s="0"/>
-      <c r="GH2" s="0"/>
-      <c r="GI2" s="0"/>
-      <c r="GJ2" s="0"/>
-      <c r="GK2" s="0"/>
-      <c r="GL2" s="0"/>
-      <c r="GM2" s="0"/>
-      <c r="GN2" s="0"/>
-      <c r="GO2" s="0"/>
-      <c r="GP2" s="0"/>
-      <c r="GQ2" s="0"/>
-      <c r="GR2" s="0"/>
-      <c r="GS2" s="0"/>
-      <c r="GT2" s="0"/>
-      <c r="GU2" s="0"/>
-      <c r="GV2" s="0"/>
-      <c r="GW2" s="0"/>
-      <c r="GX2" s="0"/>
-      <c r="GY2" s="0"/>
-      <c r="GZ2" s="0"/>
-      <c r="HA2" s="0"/>
-      <c r="HB2" s="0"/>
-      <c r="HC2" s="0"/>
-      <c r="HD2" s="0"/>
-      <c r="HE2" s="0"/>
-      <c r="HF2" s="0"/>
-      <c r="HG2" s="0"/>
-      <c r="HH2" s="0"/>
-      <c r="HI2" s="0"/>
-      <c r="HJ2" s="0"/>
-      <c r="HK2" s="0"/>
-      <c r="HL2" s="0"/>
-      <c r="HM2" s="0"/>
-      <c r="HN2" s="0"/>
-      <c r="HO2" s="0"/>
-      <c r="HP2" s="0"/>
-      <c r="HQ2" s="0"/>
-      <c r="HR2" s="0"/>
-      <c r="HS2" s="0"/>
-      <c r="HT2" s="0"/>
-      <c r="HU2" s="0"/>
-      <c r="HV2" s="0"/>
-      <c r="HW2" s="0"/>
-      <c r="HX2" s="0"/>
-      <c r="HY2" s="0"/>
-      <c r="HZ2" s="0"/>
-      <c r="IA2" s="0"/>
-      <c r="IB2" s="0"/>
-      <c r="IC2" s="0"/>
-      <c r="ID2" s="0"/>
-      <c r="IE2" s="0"/>
-      <c r="IF2" s="0"/>
-      <c r="IG2" s="0"/>
-      <c r="IH2" s="0"/>
-      <c r="II2" s="0"/>
-      <c r="IJ2" s="0"/>
-      <c r="IK2" s="0"/>
-      <c r="IL2" s="0"/>
-      <c r="IM2" s="0"/>
-      <c r="IN2" s="0"/>
-      <c r="IO2" s="0"/>
-      <c r="IP2" s="0"/>
-      <c r="IQ2" s="0"/>
-      <c r="IR2" s="0"/>
-      <c r="IS2" s="0"/>
-      <c r="IT2" s="0"/>
-      <c r="IU2" s="0"/>
-      <c r="IV2" s="0"/>
-      <c r="IW2" s="0"/>
-      <c r="IX2" s="0"/>
-      <c r="IY2" s="0"/>
-      <c r="IZ2" s="0"/>
-      <c r="JA2" s="0"/>
-      <c r="JB2" s="0"/>
-      <c r="JC2" s="0"/>
-      <c r="JD2" s="0"/>
-      <c r="JE2" s="0"/>
-      <c r="JF2" s="0"/>
-      <c r="JG2" s="0"/>
-      <c r="JH2" s="0"/>
-      <c r="JI2" s="0"/>
-      <c r="JJ2" s="0"/>
-      <c r="JK2" s="0"/>
-      <c r="JL2" s="0"/>
-      <c r="JM2" s="0"/>
-      <c r="JN2" s="0"/>
-      <c r="JO2" s="0"/>
-      <c r="JP2" s="0"/>
-      <c r="JQ2" s="0"/>
-      <c r="JR2" s="0"/>
-      <c r="JS2" s="0"/>
-      <c r="JT2" s="0"/>
-      <c r="JU2" s="0"/>
-      <c r="JV2" s="0"/>
-      <c r="JW2" s="0"/>
-      <c r="JX2" s="0"/>
-      <c r="JY2" s="0"/>
-      <c r="JZ2" s="0"/>
-      <c r="KA2" s="0"/>
-      <c r="KB2" s="0"/>
-      <c r="KC2" s="0"/>
-      <c r="KD2" s="0"/>
-      <c r="KE2" s="0"/>
-      <c r="KF2" s="0"/>
-      <c r="KG2" s="0"/>
-      <c r="KH2" s="0"/>
-      <c r="KI2" s="0"/>
-      <c r="KJ2" s="0"/>
-      <c r="KK2" s="0"/>
-      <c r="KL2" s="0"/>
-      <c r="KM2" s="0"/>
-      <c r="KN2" s="0"/>
-      <c r="KO2" s="0"/>
-      <c r="KP2" s="0"/>
-      <c r="KQ2" s="0"/>
-      <c r="KR2" s="0"/>
-      <c r="KS2" s="0"/>
-      <c r="KT2" s="0"/>
-      <c r="KU2" s="0"/>
-      <c r="KV2" s="0"/>
-      <c r="KW2" s="0"/>
-      <c r="KX2" s="0"/>
-      <c r="KY2" s="0"/>
-      <c r="KZ2" s="0"/>
-      <c r="LA2" s="0"/>
-      <c r="LB2" s="0"/>
-      <c r="LC2" s="0"/>
-      <c r="LD2" s="0"/>
-      <c r="LE2" s="0"/>
-      <c r="LF2" s="0"/>
-      <c r="LG2" s="0"/>
-      <c r="LH2" s="0"/>
-      <c r="LI2" s="0"/>
-      <c r="LJ2" s="0"/>
-      <c r="LK2" s="0"/>
-      <c r="LL2" s="0"/>
-      <c r="LM2" s="0"/>
-      <c r="LN2" s="0"/>
-      <c r="LO2" s="0"/>
-      <c r="LP2" s="0"/>
-      <c r="LQ2" s="0"/>
-      <c r="LR2" s="0"/>
-      <c r="LS2" s="0"/>
-      <c r="LT2" s="0"/>
-      <c r="LU2" s="0"/>
-      <c r="LV2" s="0"/>
-      <c r="LW2" s="0"/>
-      <c r="LX2" s="0"/>
-      <c r="LY2" s="0"/>
-      <c r="LZ2" s="0"/>
-      <c r="MA2" s="0"/>
-      <c r="MB2" s="0"/>
-      <c r="MC2" s="0"/>
-      <c r="MD2" s="0"/>
-      <c r="ME2" s="0"/>
-      <c r="MF2" s="0"/>
-      <c r="MG2" s="0"/>
-      <c r="MH2" s="0"/>
-      <c r="MI2" s="0"/>
-      <c r="MJ2" s="0"/>
-      <c r="MK2" s="0"/>
-      <c r="ML2" s="0"/>
-      <c r="MM2" s="0"/>
-      <c r="MN2" s="0"/>
-      <c r="MO2" s="0"/>
-      <c r="MP2" s="0"/>
-      <c r="MQ2" s="0"/>
-      <c r="MR2" s="0"/>
-      <c r="MS2" s="0"/>
-      <c r="MT2" s="0"/>
-      <c r="MU2" s="0"/>
-      <c r="MV2" s="0"/>
-      <c r="MW2" s="0"/>
-      <c r="MX2" s="0"/>
-      <c r="MY2" s="0"/>
-      <c r="MZ2" s="0"/>
-      <c r="NA2" s="0"/>
-      <c r="NB2" s="0"/>
-      <c r="NC2" s="0"/>
-      <c r="ND2" s="0"/>
-      <c r="NE2" s="0"/>
-      <c r="NF2" s="0"/>
-      <c r="NG2" s="0"/>
-      <c r="NH2" s="0"/>
-      <c r="NI2" s="0"/>
-      <c r="NJ2" s="0"/>
-      <c r="NK2" s="0"/>
-      <c r="NL2" s="0"/>
-      <c r="NM2" s="0"/>
-      <c r="NN2" s="0"/>
-      <c r="NO2" s="0"/>
-      <c r="NP2" s="0"/>
-      <c r="NQ2" s="0"/>
-      <c r="NR2" s="0"/>
-      <c r="NS2" s="0"/>
-      <c r="NT2" s="0"/>
-      <c r="NU2" s="0"/>
-      <c r="NV2" s="0"/>
-      <c r="NW2" s="0"/>
-      <c r="NX2" s="0"/>
-      <c r="NY2" s="0"/>
-      <c r="NZ2" s="0"/>
-      <c r="OA2" s="0"/>
-      <c r="OB2" s="0"/>
-      <c r="OC2" s="0"/>
-      <c r="OD2" s="0"/>
-      <c r="OE2" s="0"/>
-      <c r="OF2" s="0"/>
-      <c r="OG2" s="0"/>
-      <c r="OH2" s="0"/>
-      <c r="OI2" s="0"/>
-      <c r="OJ2" s="0"/>
-      <c r="OK2" s="0"/>
-      <c r="OL2" s="0"/>
-      <c r="OM2" s="0"/>
-      <c r="ON2" s="0"/>
-      <c r="OO2" s="0"/>
-      <c r="OP2" s="0"/>
-      <c r="OQ2" s="0"/>
-      <c r="OR2" s="0"/>
-      <c r="OS2" s="0"/>
-      <c r="OT2" s="0"/>
-      <c r="OU2" s="0"/>
-      <c r="OV2" s="0"/>
-      <c r="OW2" s="0"/>
-      <c r="OX2" s="0"/>
-      <c r="OY2" s="0"/>
-      <c r="OZ2" s="0"/>
-      <c r="PA2" s="0"/>
-      <c r="PB2" s="0"/>
-      <c r="PC2" s="0"/>
-      <c r="PD2" s="0"/>
-      <c r="PE2" s="0"/>
-      <c r="PF2" s="0"/>
-      <c r="PG2" s="0"/>
-      <c r="PH2" s="0"/>
-      <c r="PI2" s="0"/>
-      <c r="PJ2" s="0"/>
-      <c r="PK2" s="0"/>
-      <c r="PL2" s="0"/>
-      <c r="PM2" s="0"/>
-      <c r="PN2" s="0"/>
-      <c r="PO2" s="0"/>
-      <c r="PP2" s="0"/>
-      <c r="PQ2" s="0"/>
-      <c r="PR2" s="0"/>
-      <c r="PS2" s="0"/>
-      <c r="PT2" s="0"/>
-      <c r="PU2" s="0"/>
-      <c r="PV2" s="0"/>
-      <c r="PW2" s="0"/>
-      <c r="PX2" s="0"/>
-      <c r="PY2" s="0"/>
-      <c r="PZ2" s="0"/>
-      <c r="QA2" s="0"/>
-      <c r="QB2" s="0"/>
-      <c r="QC2" s="0"/>
-      <c r="QD2" s="0"/>
-      <c r="QE2" s="0"/>
-      <c r="QF2" s="0"/>
-      <c r="QG2" s="0"/>
-      <c r="QH2" s="0"/>
-      <c r="QI2" s="0"/>
-      <c r="QJ2" s="0"/>
-      <c r="QK2" s="0"/>
-      <c r="QL2" s="0"/>
-      <c r="QM2" s="0"/>
-      <c r="QN2" s="0"/>
-      <c r="QO2" s="0"/>
-      <c r="QP2" s="0"/>
-      <c r="QQ2" s="0"/>
-      <c r="QR2" s="0"/>
-      <c r="QS2" s="0"/>
-      <c r="QT2" s="0"/>
-      <c r="QU2" s="0"/>
-      <c r="QV2" s="0"/>
-      <c r="QW2" s="0"/>
-      <c r="QX2" s="0"/>
-      <c r="QY2" s="0"/>
-      <c r="QZ2" s="0"/>
-      <c r="RA2" s="0"/>
-      <c r="RB2" s="0"/>
-      <c r="RC2" s="0"/>
-      <c r="RD2" s="0"/>
-      <c r="RE2" s="0"/>
-      <c r="RF2" s="0"/>
-      <c r="RG2" s="0"/>
-      <c r="RH2" s="0"/>
-      <c r="RI2" s="0"/>
-      <c r="RJ2" s="0"/>
-      <c r="RK2" s="0"/>
-      <c r="RL2" s="0"/>
-      <c r="RM2" s="0"/>
-      <c r="RN2" s="0"/>
-      <c r="RO2" s="0"/>
-      <c r="RP2" s="0"/>
-      <c r="RQ2" s="0"/>
-      <c r="RR2" s="0"/>
-      <c r="RS2" s="0"/>
-      <c r="RT2" s="0"/>
-      <c r="RU2" s="0"/>
-      <c r="RV2" s="0"/>
-      <c r="RW2" s="0"/>
-      <c r="RX2" s="0"/>
-      <c r="RY2" s="0"/>
-      <c r="RZ2" s="0"/>
-      <c r="SA2" s="0"/>
-      <c r="SB2" s="0"/>
-      <c r="SC2" s="0"/>
-      <c r="SD2" s="0"/>
-      <c r="SE2" s="0"/>
-      <c r="SF2" s="0"/>
-      <c r="SG2" s="0"/>
-      <c r="SH2" s="0"/>
-      <c r="SI2" s="0"/>
-      <c r="SJ2" s="0"/>
-      <c r="SK2" s="0"/>
-      <c r="SL2" s="0"/>
-      <c r="SM2" s="0"/>
-      <c r="SN2" s="0"/>
-      <c r="SO2" s="0"/>
-      <c r="SP2" s="0"/>
-      <c r="SQ2" s="0"/>
-      <c r="SR2" s="0"/>
-      <c r="SS2" s="0"/>
-      <c r="ST2" s="0"/>
-      <c r="SU2" s="0"/>
-      <c r="SV2" s="0"/>
-      <c r="SW2" s="0"/>
-      <c r="SX2" s="0"/>
-      <c r="SY2" s="0"/>
-      <c r="SZ2" s="0"/>
-      <c r="TA2" s="0"/>
-      <c r="TB2" s="0"/>
-      <c r="TC2" s="0"/>
-      <c r="TD2" s="0"/>
-      <c r="TE2" s="0"/>
-      <c r="TF2" s="0"/>
-      <c r="TG2" s="0"/>
-      <c r="TH2" s="0"/>
-      <c r="TI2" s="0"/>
-      <c r="TJ2" s="0"/>
-      <c r="TK2" s="0"/>
-      <c r="TL2" s="0"/>
-      <c r="TM2" s="0"/>
-      <c r="TN2" s="0"/>
-      <c r="TO2" s="0"/>
-      <c r="TP2" s="0"/>
-      <c r="TQ2" s="0"/>
-      <c r="TR2" s="0"/>
-      <c r="TS2" s="0"/>
-      <c r="TT2" s="0"/>
-      <c r="TU2" s="0"/>
-      <c r="TV2" s="0"/>
-      <c r="TW2" s="0"/>
-      <c r="TX2" s="0"/>
-      <c r="TY2" s="0"/>
-      <c r="TZ2" s="0"/>
-      <c r="UA2" s="0"/>
-      <c r="UB2" s="0"/>
-      <c r="UC2" s="0"/>
-      <c r="UD2" s="0"/>
-      <c r="UE2" s="0"/>
-      <c r="UF2" s="0"/>
-      <c r="UG2" s="0"/>
-      <c r="UH2" s="0"/>
-      <c r="UI2" s="0"/>
-      <c r="UJ2" s="0"/>
-      <c r="UK2" s="0"/>
-      <c r="UL2" s="0"/>
-      <c r="UM2" s="0"/>
-      <c r="UN2" s="0"/>
-      <c r="UO2" s="0"/>
-      <c r="UP2" s="0"/>
-      <c r="UQ2" s="0"/>
-      <c r="UR2" s="0"/>
-      <c r="US2" s="0"/>
-      <c r="UT2" s="0"/>
-      <c r="UU2" s="0"/>
-      <c r="UV2" s="0"/>
-      <c r="UW2" s="0"/>
-      <c r="UX2" s="0"/>
-      <c r="UY2" s="0"/>
-      <c r="UZ2" s="0"/>
-      <c r="VA2" s="0"/>
-      <c r="VB2" s="0"/>
-      <c r="VC2" s="0"/>
-      <c r="VD2" s="0"/>
-      <c r="VE2" s="0"/>
-      <c r="VF2" s="0"/>
-      <c r="VG2" s="0"/>
-      <c r="VH2" s="0"/>
-      <c r="VI2" s="0"/>
-      <c r="VJ2" s="0"/>
-      <c r="VK2" s="0"/>
-      <c r="VL2" s="0"/>
-      <c r="VM2" s="0"/>
-      <c r="VN2" s="0"/>
-      <c r="VO2" s="0"/>
-      <c r="VP2" s="0"/>
-      <c r="VQ2" s="0"/>
-      <c r="VR2" s="0"/>
-      <c r="VS2" s="0"/>
-      <c r="VT2" s="0"/>
-      <c r="VU2" s="0"/>
-      <c r="VV2" s="0"/>
-      <c r="VW2" s="0"/>
-      <c r="VX2" s="0"/>
-      <c r="VY2" s="0"/>
-      <c r="VZ2" s="0"/>
-      <c r="WA2" s="0"/>
-      <c r="WB2" s="0"/>
-      <c r="WC2" s="0"/>
-      <c r="WD2" s="0"/>
-      <c r="WE2" s="0"/>
-      <c r="WF2" s="0"/>
-      <c r="WG2" s="0"/>
-      <c r="WH2" s="0"/>
-      <c r="WI2" s="0"/>
-      <c r="WJ2" s="0"/>
-      <c r="WK2" s="0"/>
-      <c r="WL2" s="0"/>
-      <c r="WM2" s="0"/>
-      <c r="WN2" s="0"/>
-      <c r="WO2" s="0"/>
-      <c r="WP2" s="0"/>
-      <c r="WQ2" s="0"/>
-      <c r="WR2" s="0"/>
-      <c r="WS2" s="0"/>
-      <c r="WT2" s="0"/>
-      <c r="WU2" s="0"/>
-      <c r="WV2" s="0"/>
-      <c r="WW2" s="0"/>
-      <c r="WX2" s="0"/>
-      <c r="WY2" s="0"/>
-      <c r="WZ2" s="0"/>
-      <c r="XA2" s="0"/>
-      <c r="XB2" s="0"/>
-      <c r="XC2" s="0"/>
-      <c r="XD2" s="0"/>
-      <c r="XE2" s="0"/>
-      <c r="XF2" s="0"/>
-      <c r="XG2" s="0"/>
-      <c r="XH2" s="0"/>
-      <c r="XI2" s="0"/>
-      <c r="XJ2" s="0"/>
-      <c r="XK2" s="0"/>
-      <c r="XL2" s="0"/>
-      <c r="XM2" s="0"/>
-      <c r="XN2" s="0"/>
-      <c r="XO2" s="0"/>
-      <c r="XP2" s="0"/>
-      <c r="XQ2" s="0"/>
-      <c r="XR2" s="0"/>
-      <c r="XS2" s="0"/>
-      <c r="XT2" s="0"/>
-      <c r="XU2" s="0"/>
-      <c r="XV2" s="0"/>
-      <c r="XW2" s="0"/>
-      <c r="XX2" s="0"/>
-      <c r="XY2" s="0"/>
-      <c r="XZ2" s="0"/>
-      <c r="YA2" s="0"/>
-      <c r="YB2" s="0"/>
-      <c r="YC2" s="0"/>
-      <c r="YD2" s="0"/>
-      <c r="YE2" s="0"/>
-      <c r="YF2" s="0"/>
-      <c r="YG2" s="0"/>
-      <c r="YH2" s="0"/>
-      <c r="YI2" s="0"/>
-      <c r="YJ2" s="0"/>
-      <c r="YK2" s="0"/>
-      <c r="YL2" s="0"/>
-      <c r="YM2" s="0"/>
-      <c r="YN2" s="0"/>
-      <c r="YO2" s="0"/>
-      <c r="YP2" s="0"/>
-      <c r="YQ2" s="0"/>
-      <c r="YR2" s="0"/>
-      <c r="YS2" s="0"/>
-      <c r="YT2" s="0"/>
-      <c r="YU2" s="0"/>
-      <c r="YV2" s="0"/>
-      <c r="YW2" s="0"/>
-      <c r="YX2" s="0"/>
-      <c r="YY2" s="0"/>
-      <c r="YZ2" s="0"/>
-      <c r="ZA2" s="0"/>
-      <c r="ZB2" s="0"/>
-      <c r="ZC2" s="0"/>
-      <c r="ZD2" s="0"/>
-      <c r="ZE2" s="0"/>
-      <c r="ZF2" s="0"/>
-      <c r="ZG2" s="0"/>
-      <c r="ZH2" s="0"/>
-      <c r="ZI2" s="0"/>
-      <c r="ZJ2" s="0"/>
-      <c r="ZK2" s="0"/>
-      <c r="ZL2" s="0"/>
-      <c r="ZM2" s="0"/>
-      <c r="ZN2" s="0"/>
-      <c r="ZO2" s="0"/>
-      <c r="ZP2" s="0"/>
-      <c r="ZQ2" s="0"/>
-      <c r="ZR2" s="0"/>
-      <c r="ZS2" s="0"/>
-      <c r="ZT2" s="0"/>
-      <c r="ZU2" s="0"/>
-      <c r="ZV2" s="0"/>
-      <c r="ZW2" s="0"/>
-      <c r="ZX2" s="0"/>
-      <c r="ZY2" s="0"/>
-      <c r="ZZ2" s="0"/>
-      <c r="AAA2" s="0"/>
-      <c r="AAB2" s="0"/>
-      <c r="AAC2" s="0"/>
-      <c r="AAD2" s="0"/>
-      <c r="AAE2" s="0"/>
-      <c r="AAF2" s="0"/>
-      <c r="AAG2" s="0"/>
-      <c r="AAH2" s="0"/>
-      <c r="AAI2" s="0"/>
-      <c r="AAJ2" s="0"/>
-      <c r="AAK2" s="0"/>
-      <c r="AAL2" s="0"/>
-      <c r="AAM2" s="0"/>
-      <c r="AAN2" s="0"/>
-      <c r="AAO2" s="0"/>
-      <c r="AAP2" s="0"/>
-      <c r="AAQ2" s="0"/>
-      <c r="AAR2" s="0"/>
-      <c r="AAS2" s="0"/>
-      <c r="AAT2" s="0"/>
-      <c r="AAU2" s="0"/>
-      <c r="AAV2" s="0"/>
-      <c r="AAW2" s="0"/>
-      <c r="AAX2" s="0"/>
-      <c r="AAY2" s="0"/>
-      <c r="AAZ2" s="0"/>
-      <c r="ABA2" s="0"/>
-      <c r="ABB2" s="0"/>
-      <c r="ABC2" s="0"/>
-      <c r="ABD2" s="0"/>
-      <c r="ABE2" s="0"/>
-      <c r="ABF2" s="0"/>
-      <c r="ABG2" s="0"/>
-      <c r="ABH2" s="0"/>
-      <c r="ABI2" s="0"/>
-      <c r="ABJ2" s="0"/>
-      <c r="ABK2" s="0"/>
-      <c r="ABL2" s="0"/>
-      <c r="ABM2" s="0"/>
-      <c r="ABN2" s="0"/>
-      <c r="ABO2" s="0"/>
-      <c r="ABP2" s="0"/>
-      <c r="ABQ2" s="0"/>
-      <c r="ABR2" s="0"/>
-      <c r="ABS2" s="0"/>
-      <c r="ABT2" s="0"/>
-      <c r="ABU2" s="0"/>
-      <c r="ABV2" s="0"/>
-      <c r="ABW2" s="0"/>
-      <c r="ABX2" s="0"/>
-      <c r="ABY2" s="0"/>
-      <c r="ABZ2" s="0"/>
-      <c r="ACA2" s="0"/>
-      <c r="ACB2" s="0"/>
-      <c r="ACC2" s="0"/>
-      <c r="ACD2" s="0"/>
-      <c r="ACE2" s="0"/>
-      <c r="ACF2" s="0"/>
-      <c r="ACG2" s="0"/>
-      <c r="ACH2" s="0"/>
-      <c r="ACI2" s="0"/>
-      <c r="ACJ2" s="0"/>
-      <c r="ACK2" s="0"/>
-      <c r="ACL2" s="0"/>
-      <c r="ACM2" s="0"/>
-      <c r="ACN2" s="0"/>
-      <c r="ACO2" s="0"/>
-      <c r="ACP2" s="0"/>
-      <c r="ACQ2" s="0"/>
-      <c r="ACR2" s="0"/>
-      <c r="ACS2" s="0"/>
-      <c r="ACT2" s="0"/>
-      <c r="ACU2" s="0"/>
-      <c r="ACV2" s="0"/>
-      <c r="ACW2" s="0"/>
-      <c r="ACX2" s="0"/>
-      <c r="ACY2" s="0"/>
-      <c r="ACZ2" s="0"/>
-      <c r="ADA2" s="0"/>
-      <c r="ADB2" s="0"/>
-      <c r="ADC2" s="0"/>
-      <c r="ADD2" s="0"/>
-      <c r="ADE2" s="0"/>
-      <c r="ADF2" s="0"/>
-      <c r="ADG2" s="0"/>
-      <c r="ADH2" s="0"/>
-      <c r="ADI2" s="0"/>
-      <c r="ADJ2" s="0"/>
-      <c r="ADK2" s="0"/>
-      <c r="ADL2" s="0"/>
-      <c r="ADM2" s="0"/>
-      <c r="ADN2" s="0"/>
-      <c r="ADO2" s="0"/>
-      <c r="ADP2" s="0"/>
-      <c r="ADQ2" s="0"/>
-      <c r="ADR2" s="0"/>
-      <c r="ADS2" s="0"/>
-      <c r="ADT2" s="0"/>
-      <c r="ADU2" s="0"/>
-      <c r="ADV2" s="0"/>
-      <c r="ADW2" s="0"/>
-      <c r="ADX2" s="0"/>
-      <c r="ADY2" s="0"/>
-      <c r="ADZ2" s="0"/>
-      <c r="AEA2" s="0"/>
-      <c r="AEB2" s="0"/>
-      <c r="AEC2" s="0"/>
-      <c r="AED2" s="0"/>
-      <c r="AEE2" s="0"/>
-      <c r="AEF2" s="0"/>
-      <c r="AEG2" s="0"/>
-      <c r="AEH2" s="0"/>
-      <c r="AEI2" s="0"/>
-      <c r="AEJ2" s="0"/>
-      <c r="AEK2" s="0"/>
-      <c r="AEL2" s="0"/>
-      <c r="AEM2" s="0"/>
-      <c r="AEN2" s="0"/>
-      <c r="AEO2" s="0"/>
-      <c r="AEP2" s="0"/>
-      <c r="AEQ2" s="0"/>
-      <c r="AER2" s="0"/>
-      <c r="AES2" s="0"/>
-      <c r="AET2" s="0"/>
-      <c r="AEU2" s="0"/>
-      <c r="AEV2" s="0"/>
-      <c r="AEW2" s="0"/>
-      <c r="AEX2" s="0"/>
-      <c r="AEY2" s="0"/>
-      <c r="AEZ2" s="0"/>
-      <c r="AFA2" s="0"/>
-      <c r="AFB2" s="0"/>
-      <c r="AFC2" s="0"/>
-      <c r="AFD2" s="0"/>
-      <c r="AFE2" s="0"/>
-      <c r="AFF2" s="0"/>
-      <c r="AFG2" s="0"/>
-      <c r="AFH2" s="0"/>
-      <c r="AFI2" s="0"/>
-      <c r="AFJ2" s="0"/>
-      <c r="AFK2" s="0"/>
-      <c r="AFL2" s="0"/>
-      <c r="AFM2" s="0"/>
-      <c r="AFN2" s="0"/>
-      <c r="AFO2" s="0"/>
-      <c r="AFP2" s="0"/>
-      <c r="AFQ2" s="0"/>
-      <c r="AFR2" s="0"/>
-      <c r="AFS2" s="0"/>
-      <c r="AFT2" s="0"/>
-      <c r="AFU2" s="0"/>
-      <c r="AFV2" s="0"/>
-      <c r="AFW2" s="0"/>
-      <c r="AFX2" s="0"/>
-      <c r="AFY2" s="0"/>
-      <c r="AFZ2" s="0"/>
-      <c r="AGA2" s="0"/>
-      <c r="AGB2" s="0"/>
-      <c r="AGC2" s="0"/>
-      <c r="AGD2" s="0"/>
-      <c r="AGE2" s="0"/>
-      <c r="AGF2" s="0"/>
-      <c r="AGG2" s="0"/>
-      <c r="AGH2" s="0"/>
-      <c r="AGI2" s="0"/>
-      <c r="AGJ2" s="0"/>
-      <c r="AGK2" s="0"/>
-      <c r="AGL2" s="0"/>
-      <c r="AGM2" s="0"/>
-      <c r="AGN2" s="0"/>
-      <c r="AGO2" s="0"/>
-      <c r="AGP2" s="0"/>
-      <c r="AGQ2" s="0"/>
-      <c r="AGR2" s="0"/>
-      <c r="AGS2" s="0"/>
-      <c r="AGT2" s="0"/>
-      <c r="AGU2" s="0"/>
-      <c r="AGV2" s="0"/>
-      <c r="AGW2" s="0"/>
-      <c r="AGX2" s="0"/>
-      <c r="AGY2" s="0"/>
-      <c r="AGZ2" s="0"/>
-      <c r="AHA2" s="0"/>
-      <c r="AHB2" s="0"/>
-      <c r="AHC2" s="0"/>
-      <c r="AHD2" s="0"/>
-      <c r="AHE2" s="0"/>
-      <c r="AHF2" s="0"/>
-      <c r="AHG2" s="0"/>
-      <c r="AHH2" s="0"/>
-      <c r="AHI2" s="0"/>
-      <c r="AHJ2" s="0"/>
-      <c r="AHK2" s="0"/>
-      <c r="AHL2" s="0"/>
-      <c r="AHM2" s="0"/>
-      <c r="AHN2" s="0"/>
-      <c r="AHO2" s="0"/>
-      <c r="AHP2" s="0"/>
-      <c r="AHQ2" s="0"/>
-      <c r="AHR2" s="0"/>
-      <c r="AHS2" s="0"/>
-      <c r="AHT2" s="0"/>
-      <c r="AHU2" s="0"/>
-      <c r="AHV2" s="0"/>
-      <c r="AHW2" s="0"/>
-      <c r="AHX2" s="0"/>
-      <c r="AHY2" s="0"/>
-      <c r="AHZ2" s="0"/>
-      <c r="AIA2" s="0"/>
-      <c r="AIB2" s="0"/>
-      <c r="AIC2" s="0"/>
-      <c r="AID2" s="0"/>
-      <c r="AIE2" s="0"/>
-      <c r="AIF2" s="0"/>
-      <c r="AIG2" s="0"/>
-      <c r="AIH2" s="0"/>
-      <c r="AII2" s="0"/>
-      <c r="AIJ2" s="0"/>
-      <c r="AIK2" s="0"/>
-      <c r="AIL2" s="0"/>
-      <c r="AIM2" s="0"/>
-      <c r="AIN2" s="0"/>
-      <c r="AIO2" s="0"/>
-      <c r="AIP2" s="0"/>
-      <c r="AIQ2" s="0"/>
-      <c r="AIR2" s="0"/>
-      <c r="AIS2" s="0"/>
-      <c r="AIT2" s="0"/>
-      <c r="AIU2" s="0"/>
-      <c r="AIV2" s="0"/>
-      <c r="AIW2" s="0"/>
-      <c r="AIX2" s="0"/>
-      <c r="AIY2" s="0"/>
-      <c r="AIZ2" s="0"/>
-      <c r="AJA2" s="0"/>
-      <c r="AJB2" s="0"/>
-      <c r="AJC2" s="0"/>
-      <c r="AJD2" s="0"/>
-      <c r="AJE2" s="0"/>
-      <c r="AJF2" s="0"/>
-      <c r="AJG2" s="0"/>
-      <c r="AJH2" s="0"/>
-      <c r="AJI2" s="0"/>
-      <c r="AJJ2" s="0"/>
-      <c r="AJK2" s="0"/>
-      <c r="AJL2" s="0"/>
-      <c r="AJM2" s="0"/>
-      <c r="AJN2" s="0"/>
-      <c r="AJO2" s="0"/>
-      <c r="AJP2" s="0"/>
-      <c r="AJQ2" s="0"/>
-      <c r="AJR2" s="0"/>
-      <c r="AJS2" s="0"/>
-      <c r="AJT2" s="0"/>
-      <c r="AJU2" s="0"/>
-      <c r="AJV2" s="0"/>
-      <c r="AJW2" s="0"/>
-      <c r="AJX2" s="0"/>
-      <c r="AJY2" s="0"/>
-      <c r="AJZ2" s="0"/>
-      <c r="AKA2" s="0"/>
-      <c r="AKB2" s="0"/>
-      <c r="AKC2" s="0"/>
-      <c r="AKD2" s="0"/>
-      <c r="AKE2" s="0"/>
-      <c r="AKF2" s="0"/>
-      <c r="AKG2" s="0"/>
-      <c r="AKH2" s="0"/>
-      <c r="AKI2" s="0"/>
-      <c r="AKJ2" s="0"/>
-      <c r="AKK2" s="0"/>
-      <c r="AKL2" s="0"/>
-      <c r="AKM2" s="0"/>
-      <c r="AKN2" s="0"/>
-      <c r="AKO2" s="0"/>
-      <c r="AKP2" s="0"/>
-      <c r="AKQ2" s="0"/>
-      <c r="AKR2" s="0"/>
-      <c r="AKS2" s="0"/>
-      <c r="AKT2" s="0"/>
-      <c r="AKU2" s="0"/>
-      <c r="AKV2" s="0"/>
-      <c r="AKW2" s="0"/>
-      <c r="AKX2" s="0"/>
-      <c r="AKY2" s="0"/>
-      <c r="AKZ2" s="0"/>
-      <c r="ALA2" s="0"/>
-      <c r="ALB2" s="0"/>
-      <c r="ALC2" s="0"/>
-      <c r="ALD2" s="0"/>
-      <c r="ALE2" s="0"/>
-      <c r="ALF2" s="0"/>
-      <c r="ALG2" s="0"/>
-      <c r="ALH2" s="0"/>
-      <c r="ALI2" s="0"/>
-      <c r="ALJ2" s="0"/>
-      <c r="ALK2" s="0"/>
-      <c r="ALL2" s="0"/>
-      <c r="ALM2" s="0"/>
-      <c r="ALN2" s="0"/>
-      <c r="ALO2" s="0"/>
-      <c r="ALP2" s="0"/>
-      <c r="ALQ2" s="0"/>
-      <c r="ALR2" s="0"/>
-      <c r="ALS2" s="0"/>
-      <c r="ALT2" s="0"/>
-      <c r="ALU2" s="0"/>
-      <c r="ALV2" s="0"/>
-      <c r="ALW2" s="0"/>
-      <c r="ALX2" s="0"/>
-      <c r="ALY2" s="0"/>
-      <c r="ALZ2" s="0"/>
-      <c r="AMA2" s="0"/>
-      <c r="AMB2" s="0"/>
-      <c r="AMC2" s="0"/>
-      <c r="AMD2" s="0"/>
-      <c r="AME2" s="0"/>
-      <c r="AMF2" s="0"/>
-      <c r="AMG2" s="0"/>
-      <c r="AMH2" s="0"/>
-      <c r="AMI2" s="0"/>
-      <c r="AMJ2" s="0"/>
     </row>
     <row r="3" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="36" t="n">
         <v>1</v>
       </c>
       <c r="B4" s="38" t="s">
         <v>315</v>
       </c>
-      <c r="C4" s="0"/>
-      <c r="D4" s="0"/>
       <c r="E4" s="38" t="s">
         <v>316</v>
       </c>
@@ -5915,11 +5276,9 @@
       <c r="D5" s="38" t="s">
         <v>319</v>
       </c>
-      <c r="E5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="39"/>
-      <c r="B6" s="0"/>
       <c r="C6" s="38" t="s">
         <v>320</v>
       </c>
@@ -5932,71 +5291,57 @@
     </row>
     <row r="7" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="39"/>
-      <c r="B7" s="0"/>
       <c r="C7" s="38" t="s">
         <v>323</v>
       </c>
       <c r="D7" s="38" t="s">
         <v>324</v>
       </c>
-      <c r="E7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="39"/>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
       <c r="D8" s="38" t="s">
         <v>325</v>
       </c>
-      <c r="E8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="39"/>
-      <c r="B9" s="0"/>
       <c r="C9" s="38" t="s">
         <v>326</v>
       </c>
       <c r="D9" s="38" t="s">
         <v>327</v>
       </c>
-      <c r="E9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="39"/>
-      <c r="B10" s="0"/>
       <c r="C10" s="38" t="s">
         <v>328</v>
       </c>
       <c r="D10" s="38" t="s">
         <v>329</v>
       </c>
-      <c r="E10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="39"/>
-      <c r="B11" s="0"/>
       <c r="C11" s="38" t="s">
         <v>330</v>
       </c>
       <c r="D11" s="38" t="s">
         <v>331</v>
       </c>
-      <c r="E11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="39"/>
-      <c r="B12" s="0"/>
       <c r="C12" s="38" t="s">
         <v>332</v>
       </c>
       <c r="D12" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="39"/>
-      <c r="B13" s="0"/>
       <c r="C13" s="38" t="s">
         <v>334</v>
       </c>
@@ -6009,14 +5354,12 @@
     </row>
     <row r="14" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="39"/>
-      <c r="B14" s="0"/>
       <c r="C14" s="38" t="s">
         <v>337</v>
       </c>
       <c r="D14" s="38" t="s">
         <v>338</v>
       </c>
-      <c r="E14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="39" t="n">
@@ -6025,15 +5368,12 @@
       <c r="B15" s="38" t="s">
         <v>339</v>
       </c>
-      <c r="C15" s="0"/>
       <c r="D15" s="38" t="s">
         <v>340</v>
       </c>
-      <c r="E15" s="0"/>
-    </row>
-    <row r="16" customFormat="false" ht="35.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="16" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="39"/>
-      <c r="B16" s="0"/>
       <c r="C16" s="38" t="s">
         <v>341</v>
       </c>
@@ -6046,25 +5386,21 @@
     </row>
     <row r="17" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="39"/>
-      <c r="B17" s="0"/>
       <c r="C17" s="38" t="s">
         <v>344</v>
       </c>
       <c r="D17" s="38" t="s">
         <v>345</v>
       </c>
-      <c r="E17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="39"/>
-      <c r="B18" s="0"/>
       <c r="C18" s="38" t="s">
         <v>346</v>
       </c>
       <c r="D18" s="38" t="s">
         <v>347</v>
       </c>
-      <c r="E18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="370.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="39" t="n">
@@ -6079,33 +5415,27 @@
       <c r="D19" s="38" t="s">
         <v>350</v>
       </c>
-      <c r="E19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="39"/>
-      <c r="B20" s="38"/>
       <c r="C20" s="38" t="s">
         <v>351</v>
       </c>
       <c r="D20" s="38" t="s">
         <v>352</v>
       </c>
-      <c r="E20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="39"/>
-      <c r="B21" s="0"/>
       <c r="C21" s="38" t="s">
         <v>353</v>
       </c>
       <c r="D21" s="38" t="s">
         <v>354</v>
       </c>
-      <c r="E21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="39"/>
-      <c r="B22" s="0"/>
       <c r="C22" s="38" t="s">
         <v>355</v>
       </c>
@@ -6131,17 +5461,14 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0"/>
       <c r="C24" s="38" t="s">
         <v>362</v>
       </c>
       <c r="D24" s="38" t="s">
         <v>363</v>
       </c>
-      <c r="E24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0"/>
       <c r="C25" s="38" t="s">
         <v>364</v>
       </c>
@@ -6153,27 +5480,22 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0"/>
       <c r="C26" s="38" t="s">
         <v>367</v>
       </c>
       <c r="D26" s="38" t="s">
         <v>368</v>
       </c>
-      <c r="E26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0"/>
       <c r="C27" s="38" t="s">
         <v>369</v>
       </c>
       <c r="D27" s="38" t="s">
         <v>370</v>
       </c>
-      <c r="E27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0"/>
       <c r="C28" s="38" t="s">
         <v>371</v>
       </c>
@@ -6185,57 +5507,46 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="303.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="0"/>
       <c r="C29" s="37" t="s">
         <v>374</v>
       </c>
       <c r="D29" s="38" t="s">
         <v>375</v>
       </c>
-      <c r="E29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0"/>
       <c r="C30" s="38" t="s">
         <v>376</v>
       </c>
       <c r="D30" s="38" t="s">
         <v>377</v>
       </c>
-      <c r="E30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="0"/>
       <c r="C31" s="38" t="s">
         <v>378</v>
       </c>
       <c r="D31" s="38" t="s">
         <v>379</v>
       </c>
-      <c r="E31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0"/>
       <c r="C32" s="38" t="s">
         <v>380</v>
       </c>
       <c r="D32" s="38" t="s">
         <v>381</v>
       </c>
-      <c r="E32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0"/>
       <c r="C33" s="38" t="s">
         <v>382</v>
       </c>
       <c r="D33" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="E33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="0"/>
       <c r="C34" s="38" t="s">
         <v>384</v>
       </c>
@@ -6247,17 +5558,14 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0"/>
       <c r="C35" s="38" t="s">
         <v>387</v>
       </c>
       <c r="D35" s="38" t="s">
         <v>388</v>
       </c>
-      <c r="E35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="0"/>
       <c r="C36" s="38" t="s">
         <v>389</v>
       </c>
@@ -6269,7 +5577,6 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="0"/>
       <c r="C37" s="38" t="s">
         <v>392</v>
       </c>
@@ -6292,7 +5599,6 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="426.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="38"/>
       <c r="C39" s="38" t="s">
         <v>398</v>
       </c>
@@ -6301,7 +5607,6 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="0"/>
       <c r="C40" s="38" t="s">
         <v>400</v>
       </c>
@@ -6310,7 +5615,6 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="0"/>
       <c r="C41" s="38" t="s">
         <v>402</v>
       </c>
@@ -6319,7 +5623,6 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="0"/>
       <c r="C42" s="38" t="s">
         <v>404</v>
       </c>
@@ -6328,7 +5631,6 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0"/>
       <c r="C43" s="38" t="s">
         <v>406</v>
       </c>
@@ -6473,6 +5775,166 @@
       </c>
       <c r="D60" s="38" t="s">
         <v>442</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="C61" s="38" t="s">
+        <v>444</v>
+      </c>
+      <c r="D61" s="38" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C62" s="38" t="s">
+        <v>446</v>
+      </c>
+      <c r="D62" s="38" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C63" s="38" t="s">
+        <v>448</v>
+      </c>
+      <c r="D63" s="38" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="438.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C64" s="38" t="s">
+        <v>450</v>
+      </c>
+      <c r="D64" s="38" t="s">
+        <v>451</v>
+      </c>
+      <c r="E64" s="38" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C65" s="38" t="s">
+        <v>453</v>
+      </c>
+      <c r="D65" s="38" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C66" s="38" t="s">
+        <v>455</v>
+      </c>
+      <c r="D66" s="38" t="s">
+        <v>456</v>
+      </c>
+      <c r="E66" s="38" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="281.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C67" s="38" t="s">
+        <v>458</v>
+      </c>
+      <c r="D67" s="38" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C68" s="38" t="s">
+        <v>460</v>
+      </c>
+      <c r="D68" s="38" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C69" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="D69" s="38" t="s">
+        <v>463</v>
+      </c>
+      <c r="E69" s="38" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C70" s="38" t="s">
+        <v>465</v>
+      </c>
+      <c r="D70" s="38" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="348.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C71" s="38" t="s">
+        <v>467</v>
+      </c>
+      <c r="D71" s="38" t="s">
+        <v>468</v>
+      </c>
+      <c r="E71" s="38" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C72" s="38" t="s">
+        <v>470</v>
+      </c>
+      <c r="D72" s="38" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C73" s="38" t="s">
+        <v>472</v>
+      </c>
+      <c r="D73" s="38" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C74" s="38" t="s">
+        <v>474</v>
+      </c>
+      <c r="D74" s="38" t="s">
+        <v>475</v>
+      </c>
+      <c r="E74" s="38" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C75" s="38" t="s">
+        <v>477</v>
+      </c>
+      <c r="D75" s="38" t="s">
+        <v>478</v>
+      </c>
+      <c r="E75" s="38" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="303.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C76" s="38" t="s">
+        <v>480</v>
+      </c>
+      <c r="D76" s="38" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C77" s="38" t="s">
+        <v>482</v>
+      </c>
+      <c r="D77" s="38" t="s">
+        <v>483</v>
+      </c>
+      <c r="E77" s="38" t="s">
+        <v>484</v>
       </c>
     </row>
   </sheetData>

--- a/improvement/quick_notes.xlsx
+++ b/improvement/quick_notes.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="526">
   <si>
     <t>Sr No</t>
   </si>
@@ -1543,12 +1543,10 @@
     <t>Parameter Passing</t>
   </si>
   <si>
-    <r>
-      <t>
+    <t>
 - The parameters are stored in registers. On x86-32, the registers ebx , ecx , edx , esi , and edi contain, in order, the first five arguments. In the unlikely case of six or more arguments, a single register is used to hold a pointer to user-space where all the parametersre stored.
 - The return value is sent to user-space also via register. On x86, it is written into the eax register.
 </t>
-    </r>
   </si>
   <si>
     <t>System Call Context</t>
@@ -2234,8 +2232,7 @@
     <t>Deadlocks</t>
   </si>
   <si>
-    <r>
-      <t>
+    <t>
 - The threads all wait for each other, but they never make any progress toward releasing the resources that they already hold.Therefore, none of the threads can continue, which results in a deadlock.
 - The simplest example of a deadlock is the self-deadlock: 4 If a thread of execution attempts to acquire a lock it already holds.
 - A few simple rules go a long way:
@@ -2243,7 +2240,6 @@
     - Do not double acquire the same lock.
     - Design for simplicity. Complexity in your locking scheme invites deadlocks.
 </t>
-    </r>
   </si>
   <si>
     <t>Spin locks</t>
@@ -2310,14 +2306,12 @@
     <t>Spin Locks and Bottom Halves</t>
   </si>
   <si>
-    <r>
-      <t>
+    <t>
 - The function spin_lock_bh() obtains the given lock and disables all bottom halves.
 - The function spin_unlock_bh() performs the inverse.
 - Because a bottom half might preempt process context code, if data is shared between a bottom-half process context, you must protect the data in process context with both a lock and the disabling of bottom halves. 
 - Likewise, because an interrupt handler might preempt a bottom half, if data is shared between an interrupt handler and a bottom half, you must both obtain the appropriate lock and disable interrupts.
 </t>
-    </r>
   </si>
   <si>
     <t>Reader-Writer Spin Locks</t>
@@ -2345,8 +2339,7 @@
 </t>
   </si>
   <si>
-    <r>
-      <t>
+    <t>
 - read_lock():: Acquires given lock for reading
 - read_lock_irq():: Disables local interrupts and acquires given lock for reading
 - read_lock_irqsave():: Saves the current state of local interrupts, disables local interrupts, and acquires the given lock for reading
@@ -2362,7 +2355,6 @@
 - write_trylock():: Tries to acquire given lock for writing; if unavailable, returns nonzero
 - rwlock_init():: Initializes given rwlock_t
 </t>
-    </r>
   </si>
   <si>
     <t>Semaphores</t>
@@ -2595,6 +2587,345 @@
 - preempt_enable():: Decrements the preemption counter and checks and services any pending reschedules if the count is now zero
 - preempt_enable_no_resched():: Enables kernel preemption but does not check for any pending reschedules
 - preempt_count():: Returns the preemption count
+</t>
+  </si>
+  <si>
+    <t>Timers and Time Management</t>
+  </si>
+  <si>
+    <t>The Tick Rate: HZ</t>
+  </si>
+  <si>
+    <t>
+- Events that occur periodically—say, every 10 milliseconds—are driven by the system timer.
+- The interrupt handler for this timer—called the timer interrupt.
+- The frequency of the system timer (the tick rate) is programmed on system boot based on a static preprocessor define, HZ .
+- The kernel defines the value in &lt;asm/param.h&gt; .The tick rate has a frequency of HZ hertz and a period of 1/HZ seconds.
+- Some of the work executed periodically by the timer interrupt includes
+    - Updating the system uptime
+    - Updating the time of day
+    - On an SMP system, ensuring that the scheduler runqueues are balanced and, if not, balancing them.
+    - Running any dynamic timers that have expired
+    - Updating resource usage and processor time statistics
+</t>
+  </si>
+  <si>
+    <t>The Ideal HZ Value</t>
+  </si>
+  <si>
+    <t>
+- with HZ=100 , the average event occurs +/– 5 milliseconds off from the desired time.Thus, error is 5 milliseconds on average.With HZ=1000 , the average error drops to 0.5 milliseconds—a tenfold improvement.
+</t>
+  </si>
+  <si>
+    <t>Advantages with a Larger HZ</t>
+  </si>
+  <si>
+    <r>
+      <t>
+- This higher resolution and greater accuracy provides multiple advantages:
+    - Kernel timers execute with finer resolution and increased accuracy. (This provides a large number of improvements, one of which is the following.)
+    - System calls such as poll() and select() that optionally employ a timeout value execute with improved precision.
+    - Measurements, such as resource usage or the system uptime, are recorded with a finer resolution.
+    - Process preemption occurs more accurately.
+- Another benefit of a higher tick rate is the greater accuracy in process preemption, which results in decreased scheduling latency.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>
+- Ex:: A given process is running and has 2 milliseconds of its timeslice remaining. In 2 milliseconds, the scheduler should preempt the running process and begin executing a new process. Unfortunately, this event does not occur until the next timer interrupt, which might not be in 2 milliseconds.At worst the next timer interrupt might be 1/HZ of a second away! With HZ=100 , a process can get nearly 10 extra milliseconds to run. The problem stems from the latency created by the delayed preemption. If the to-be-scheduled task had somethingtime-sensitive to do, such as refill an audio buffer, the delay might not be acceptable.
+</t>
+  </si>
+  <si>
+    <t>Disadvantages with a Larger HZ</t>
+  </si>
+  <si>
+    <t>
+- A higher tick rate implies more frequent timer interrupts, which implies higher overhead, because the proces sor must spend more time executing the timer interrupt handler.
+- The higher the tick rate, the more time the processor spends executing the timer interrupt.This adds up to not just less processor time available for other work, but also a more frequent thrashing of the processor’s cache and increase in power consumption.The issue of the overhead’s impact is debatable
+</t>
+  </si>
+  <si>
+    <t>
+- A move from HZ=100 to HZ=1000 clearly brings with it ten times greater overhead. However, how substantial is the overhead to begin with? The final agreement is that, at least on modern systems, HZ=1000 does not create unacceptable overhead and the move to a 1000Hz timer has not hurt performance too much. Nevertheless, it is possible in 2.6 to compile the kernel with a different value for HZ
+</t>
+  </si>
+  <si>
+    <t>A Tickless OS</t>
+  </si>
+  <si>
+    <t>
+- The Linux kernel supports an option known as a tickless operation. 
+- When a kernel is built with the CONFIG_HZ configuration option set, the system dynamically schedules the timer interrupt in accordance with pending timers. 
+- Instead of firing the timer interrupt every, say, 1ms, the interrupt is dynamically scheduled and rescheduled as needed.
+- The reduction in overhead is welcome, but the real gain is in power savings, particular on an idle system. 
+- On a standard tick-based system, the kernel needs to service timer interrupts, even during idle periods. 
+- With a tickless system, moments of idleness are not interrupted by unnecessary time interrupts, reducing system power consumption.
+</t>
+  </si>
+  <si>
+    <t>Jiffies</t>
+  </si>
+  <si>
+    <t>
+- The global variable jiffies holds the number of ticks that have occurred since the system booted. On boot, the kernel initializes the variable to zero, and it is incremented by one during each timer interrupt.
+- The system uptime is therefore jiffies/HZ seconds.
+- The jiffies variable is declared in &lt;linux/jiffies.h&gt; as
+    extern unsigned long volatile jiffies;
+- The following expression converts from seconds to a unit of jiffies :
+    (seconds * HZ)
+- expression converts from jiffies to seconds:
+    (jiffies / HZ)
+</t>
+  </si>
+  <si>
+    <t>
+- For example, code often needs to set a value for some time in the future, for example:
+    unsigned long time_stamp = jiffies; /* now */
+    unsigned long next_tick = jiffies + 1; /* one tick from now */
+    unsigned long later = jiffies + 5*HZ; /* five seconds from now */
+    unsigned long fraction = jiffies + HZ / 10; /* a tenth of a second from now */
+</t>
+  </si>
+  <si>
+    <t>Internal Representation of Jiffies</t>
+  </si>
+  <si>
+    <t>
+- The jiffies variable has always been an unsigned long , and therefore 32 bits in size on 32-bit architectures and 64-bits on 64-bit architectures.
+- With a tick rate of 100, a 32-bit jiffies variable would overflow in about 497 days.
+- With HZ increased to 1000, however, that overflow now occurs in just 49.7 days!.
+- For performance and historical reasons—mainly compatibility with existing kernel code—the kernel developers wanted to keep jiffies an unsigned long .
+- jiffies is the lower 32 bits of the full 64-bit jiffies_64 variable.
+</t>
+  </si>
+  <si>
+    <r>
+      <t>
+- As you previously saw, jiffies is defined as an unsigned long :
+    extern unsigned long volatile jiffies;
+- A second variable is also defined in &lt;linux/jiffies.h&gt; :
+    extern u64 jiffies_64;
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Jiffies Wraparound</t>
+  </si>
+  <si>
+    <t>
+- When the tick count is equal to this maximum and it is incremented, it wraps around to zero.
+- Ref to example, Consider what happens if jiffies wrapped back to zero after setting timeout.
+- Then the first conditional would fail because the jiffies value would be smaller than timeout despite logically being larger. 
+- Conceptually, the jiffies value should be a large number—larger than timeout . Because it overflowed its maximum value, however, it is now a small value perhaps only a handful of ticks over zero. Because of the wraparound, the results of the if statement are switched.
+- the kernel provides four macros for comparing tick counts that correctly handle wraparound in the tick count.
+- They are in &lt;linux/jiffies.h&gt; . Listed here are simplified versions of the macros:
+    - #define time_after(unknown, known) ((long)(known) - (long)(unknown) &lt; 0)
+    - #define time_before(unknown, known) ((long)(unknown) - (long)(known) &lt; 0)
+    - #define time_after_eq(unknown, known) ((long)(unknown) - (long)(known) &gt;= 0)
+    - #define time_before_eq(unknown, known) ((long)(known) - (long)(unknown) &gt;= 0)
+- The unknown parameter is typically jiffies and the known parameter is the value against which you want to compare. 
+- The time_after(unknown, known) macro returns true if time unknown is after time known ; otherwise, it returns false.
+- The time_before(unknown, known) macro returns true if time unknown is before time known ; otherwise, it returns false.
+- The final two macros perform identically to the first two, except they also return true if the parameters are equal.
+</t>
+  </si>
+  <si>
+    <t>
+- Look at an example of a wraparound:
+    unsigned long timeout = jiffies + HZ/2; /* timeout in 0.5s */
+    /* do some work ... */
+    /* then see whether we took too long */
+    if (timeout &gt; jiffies) {
+        /* we did not time out, good ... */
+    } else {
+        /* we timed out, error ... */
+    }
+</t>
+  </si>
+  <si>
+    <t>User-Space and HZ</t>
+  </si>
+  <si>
+    <t>
+- the kernel needs to scale all exported jiffies values. It does this by defining USER_HZ , which is the HZ value that user-space expects. 
+- On x86, because HZ was historically 100, USER_HZ is 100 .The function jiffies_to_clock_t() , defined in kernel/time.c , is then used to scale a tick count in terms of HZ to a tick count in terms of USER_HZ.
+- The expression used depends on whether USER_HZ and HZ are integer multiples of themselves and whether USER_HZ is less than or equal to HZ.
+- the function jiffies_64_to_clock_t() is provided to convert a 64-bit jiffies value from HZ to USER_HZ units.
+- Following is an example:
+    unsigned long start;
+    unsigned long total_time;
+    start = jiffies;
+    /* do some work ... */
+    total_time = jiffies - start;
+    printk(“That took %lu ticks\n”, jiffies_to_clock_t(total_time));
+</t>
+  </si>
+  <si>
+    <t>Hardware Clocks and Timers</t>
+  </si>
+  <si>
+    <t>
+- the system timer, which we have been discussing, and the real-time clock.
+- Real-Time Clock
+    - On boot, the kernel reads the RTC and uses it to initialize the wall time, which is stored in the xtime variable.
+    - The kernel does not typically read the value again; however,some supported architectures, such as x86, periodically save the current wall time back tothe RTC. 
+    - Nonetheless, the real time clock’s primary importance is only during boot, when the xtime variable is initialized.
+- System Timer
+    - The system timer serves a much more important (and frequent) role in the kernel’s time keeping.The idea behind the system timer, regardless of architecture, is the same—to provide a mechanism for driving an interrupt at a periodic rate. 
+    - Some architectures implement this via an electronic clock that oscillates at a programmable frequency. Othersystems provide a decrementer, A counter is set to some initial value and decrements at a fixed rate until the counter reaches zero. When the counter reaches zero, an interrupt is triggered. In any case, the effect is the same.
+    - On x86, the primary system timer is the programmable interrupt timer (PIT).
+</t>
+  </si>
+  <si>
+    <t>The Timer Interrupt Handler</t>
+  </si>
+  <si>
+    <t>
+- The timer interrupt is broken into two pieces: an architecture-dependent and an architecture-independent routine.
+- The architecture-dependent routine is registered as the interrupt handler for the system timer and, thus, runs when the timer interrupt hits.
+    - most handlers perform at least the following work:
+    - Obtain the xtime_lock lock, which protects access to jiffies_64 and the wall time value, xtime .
+    - Acknowledge or reset the system timer as required.
+    - Periodically save the updated wall time to the real time clock.
+    - Call the architecture-independent timer routine, tick_periodic().
+- The architecture-independent routine, tick_periodic() , performs much more work:
+    - Increment the jiffies_64 count by one. (This is safe, even on 32-bit architectures, because the xtime_lock lock was previously obtained.)
+    - Update resource usages, such as consumed system and user time, for the currently running process.
+    - Run any dynamic timers that have expired.
+    - Execute scheduler_tick().
+    - Update the wall time, which is stored in xtime .
+    - Calculate the infamous load average
+</t>
+  </si>
+  <si>
+    <t>Using Timers</t>
+  </si>
+  <si>
+    <t>
+- Timers are represented by struct timer_list , which is defined in &lt;linux/timer.h&gt; :
+    struct timer_list {
+        struct list_head entry;         /* entry in linked list of timers */
+        unsigned long expires;          /* expiration value, in jiffies */
+        void (*function)(unsigned long);/* the timer handler function */
+        unsigned long data;             /* lone argument to the handler */
+        struct tvec_t_base_s *base;     /* internal timer field, do not touch */
+    };
+- The first step in creating a timer is defining it:
+    struct timer_list my_timer;
+- Next, the timer’s internal values must be initialized.This is done via a helper function:
+    init_timer(&amp;my_timer);
+- Now you fill out the remaining values as required:
+    my_timer.expires = jiffies + delay;    /* timer expires in delay ticks */
+    my_timer.data = 0;                     /* zero is passed to the timer handler */
+    my_timer.function = my_function;       /* function to run when timer expires */
+    - the handler function my_timer.function is run with the lone argument of my_timer.data .
+- Finally, you activate the timer:
+    add_timer(&amp;my_timer);
+- Sometimes you might need to modify the expiration of an already active timer.The kernel implements a function, mod_timer() , which changes the expiration of a given timer:
+    mod_timer(&amp;my_timer, jiffies + new_delay); /* new expiration */
+    - The mod_timer() function can operate on timers that are initialized but not active, too. If the timer is inactive, mod_timer() activates it.
+- If you need to deactivate a timer prior to its expiration, use the del_timer() function:
+    del_timer(&amp;my_timer);
+    - The function works on both active and inactive timers. If the timer is already inactive,the function returns zero; otherwise, the function returns one. 
+    - Note that you do not need to call this for timers that have expired because they are automatically deactivated.
+- On a multiprocessing machine, however, the timer handler might already be executing on another processor. To deactivate the timerand wait until a potentially executing handler for the timer exits, use del_timer_sync() :
+    del_timer_sync(&amp;my_timer);
+- Unlike del_timer() , del_timer_sync() cannot be used from interrupt context.
+</t>
+  </si>
+  <si>
+    <t>
+- First, never do the following as a substitute for a mere mod_timer() , because this is unsafe on multiprocessing machines:
+    del_timer(my_timer)
+    my_timer-&gt;expires = jiffies + new_delay;
+    add_timer(my_timer);
+- Second, in almost all cases, you should use del_timer_sync() over del_timer() .
+- Finally, you must make sure to protect any shared data used in the timer handler function.
+</t>
+  </si>
+  <si>
+    <t>Timer Implementation</t>
+  </si>
+  <si>
+    <r>
+      <t>
+- The kernel executes timers in bottom-half context, as softirqs, after the timer interrupt completes.
+- The timer interrupt handler runs update_process_times() , which calls run_local_timers() :
+    void run_local_timers(void)
+    {
+        hrtimer_run_queues();
+        raise_softirq(TIMER_SOFTIRQ); /* raise the timer softirq */
+        softlockup_tick();
+    }
+- The TIMER_SOFTIRQ softirq is handled by run_timer_softirq() .This function runs all the expired timers (if any) on the current processor.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Delaying Execution</t>
+  </si>
+  <si>
+    <t>- kernel code (especially drivers) needs a way to delay execution for some time without using timers or a bottom-half mechanism.This is usually to enable hardware time to complete a given task.The time is typically quite short.</t>
+  </si>
+  <si>
+    <t>Busy Looping</t>
+  </si>
+  <si>
+    <t>
+- The simplest solution to implement (although rarely the optimal solution) is busy waiting or busy looping.
+- This technique works only when the time you want to delay is some integer multiple of the tick rate or precision is not important.
+- The idea is simple: Spin in a loop until the desired number of clock ticks pass. 
+- For example
+    unsigned long timeout = jiffies + 10;
+    /* ten ticks */
+    while (time_before(jiffies, timeout));
+    - This approach is not nice to the rest of the system.
+- A better solution would be to reschedule your process to allow the processor to accomplish other work while your code waits:
+    unsigned long delay = jiffies + 5*HZ;
+    while (time_before(jiffies, delay))
+        cond_resched(); 
+    - The call to cond_resched() schedules a new process, but only if need_resched is set.
+    - In other words, this solution conditionally invokes the scheduler only if there is some more important task to run.
+    - Note that because this approach invokes the scheduler, you cannot make use of it from an interrupt handler—only from process context.
+    - All these approaches are best used from process context, because interrupt handlers should execute as quickly as possible.
+</t>
+  </si>
+  <si>
+    <t>Small delays</t>
+  </si>
+  <si>
+    <t>        
+- Sometimes, kernel code (again, usually drivers) requires short (smaller than a clock tick) and rather precise delays. This is often to synchronize with hardware, which again usuallylists some minimum time for an activity to complete—often less than a millisecond. It would be impossible to use jiffies -based delays,
+- the kernel provides three functions for microsecond, nanosecond, and millisecond delays, defined in &lt;linux/delay.h&gt; and &lt;asm/delay.h &gt;, which do not use jiffies :
+    void udelay(unsigned long usecs)
+    void ndelay(unsigned long nsecs)
+    void mdelay(unsigned long msecs)
+- The udelay() function is implemented as a loop that knows how many iterations can be executed in a given period of time.
+- The mdelay() function is then implemented in terms of udelay(). 
+- Because the kernel knows how many loops the processor can complete in a second (see the sidebar on BogoMIPS), the udelay() function simply scales that value to the correct number of loop iterations for the given delay.
+- Typical uses of these busy waiting functions delay for a small amount of time, usually in the microsecond range.
+- it is rude to busy loop with locks held or interrupts disabled because system response and performance will be adversely affected.
+</t>
+  </si>
+  <si>
+    <t>schedule_timeout()</t>
+  </si>
+  <si>
+    <t>
+- A more optimal method of delaying execution is to use schedule_timeout() .
+- This call puts your task to sleep until at least the specified time has elapsed.There is no guarantee that the sleep duration will be exactly the specified time—only that the duration is at least as long as specified.
+- When the specified time has elapsed, the kernel wakes the task up and places it back on the runqueue. 
+- Usage is easy:
+    /* set task’s state to interruptible sleep */
+    set_current_state(TASK_INTERRUPTIBLE);
+    /* take a nap and wake up in “s” seconds */
+    schedule_timeout(s * HZ);
+- The lone parameter is the desired relative timeout, in jiffies.
+- This example puts the task in interruptible sleep for s seconds. 
+- Because the task is marked TASK_INTERRUPTIBLE , it wakes up prematurely if it receives a signal. If the code does not want to process signals, you can use TASK_UNINTERRUPTIBLE instead. The task must be in one of these two states before schedule_timeout() is called or else the task will not go to sleep.
+- Note that because schedule_timeout() invokes the scheduler, code that calls it must be capable of sleeping. you must be in process context and must not hold a lock.
 </t>
   </si>
 </sst>
@@ -2774,7 +3105,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2935,6 +3266,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -5213,10 +5548,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D77" activeCellId="0" sqref="D77"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A93" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C95" activeCellId="0" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -5331,7 +5666,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="247.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="39"/>
       <c r="C12" s="38" t="s">
         <v>332</v>
@@ -5340,7 +5675,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="39"/>
       <c r="C13" s="38" t="s">
         <v>334</v>
@@ -5372,7 +5707,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="39"/>
       <c r="C16" s="38" t="s">
         <v>341</v>
@@ -5393,7 +5728,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="39"/>
       <c r="C18" s="38" t="s">
         <v>346</v>
@@ -5402,7 +5737,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="370.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="39" t="n">
         <v>4</v>
       </c>
@@ -5416,7 +5751,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="39"/>
       <c r="C20" s="38" t="s">
         <v>351</v>
@@ -5434,7 +5769,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="39"/>
       <c r="C22" s="38" t="s">
         <v>355</v>
@@ -5460,7 +5795,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="38" t="s">
         <v>362</v>
       </c>
@@ -5479,7 +5814,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="38" t="s">
         <v>367</v>
       </c>
@@ -5598,7 +5933,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="426.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="415.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="38" t="s">
         <v>398</v>
       </c>
@@ -5665,7 +6000,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="38" t="s">
         <v>415</v>
       </c>
@@ -5721,7 +6056,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="38" t="s">
         <v>429</v>
       </c>
@@ -5796,7 +6131,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="38" t="s">
         <v>448</v>
       </c>
@@ -5823,7 +6158,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C66" s="38" t="s">
         <v>455</v>
       </c>
@@ -5935,6 +6270,163 @@
       </c>
       <c r="E77" s="38" t="s">
         <v>484</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="38" t="s">
+        <v>485</v>
+      </c>
+      <c r="C78" s="38" t="s">
+        <v>486</v>
+      </c>
+      <c r="D78" s="38" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C79" s="38" t="s">
+        <v>488</v>
+      </c>
+      <c r="D79" s="40" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C80" s="38" t="s">
+        <v>490</v>
+      </c>
+      <c r="D80" s="38" t="s">
+        <v>491</v>
+      </c>
+      <c r="E80" s="40" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C81" s="38" t="s">
+        <v>493</v>
+      </c>
+      <c r="D81" s="38" t="s">
+        <v>494</v>
+      </c>
+      <c r="E81" s="38" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C82" s="38" t="s">
+        <v>496</v>
+      </c>
+      <c r="D82" s="38" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C83" s="38" t="s">
+        <v>498</v>
+      </c>
+      <c r="D83" s="38" t="s">
+        <v>499</v>
+      </c>
+      <c r="E83" s="38" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C84" s="38" t="s">
+        <v>501</v>
+      </c>
+      <c r="D84" s="38" t="s">
+        <v>502</v>
+      </c>
+      <c r="E84" s="38" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C85" s="38" t="s">
+        <v>504</v>
+      </c>
+      <c r="D85" s="38" t="s">
+        <v>505</v>
+      </c>
+      <c r="E85" s="38" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C86" s="38" t="s">
+        <v>507</v>
+      </c>
+      <c r="D86" s="38" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C87" s="38" t="s">
+        <v>509</v>
+      </c>
+      <c r="D87" s="38" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C88" s="38" t="s">
+        <v>511</v>
+      </c>
+      <c r="D88" s="38" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="438.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C89" s="38" t="s">
+        <v>513</v>
+      </c>
+      <c r="D89" s="38" t="s">
+        <v>514</v>
+      </c>
+      <c r="E89" s="38" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C90" s="38" t="s">
+        <v>516</v>
+      </c>
+      <c r="D90" s="38" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C91" s="38" t="s">
+        <v>518</v>
+      </c>
+      <c r="D91" s="38" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C92" s="38" t="s">
+        <v>520</v>
+      </c>
+      <c r="D92" s="38" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C93" s="38" t="s">
+        <v>522</v>
+      </c>
+      <c r="D93" s="38" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C94" s="38" t="s">
+        <v>524</v>
+      </c>
+      <c r="D94" s="38" t="s">
+        <v>525</v>
       </c>
     </row>
   </sheetData>

--- a/improvement/quick_notes.xlsx
+++ b/improvement/quick_notes.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="563">
   <si>
     <t>Sr No</t>
   </si>
@@ -2621,8 +2621,7 @@
     <t>Advantages with a Larger HZ</t>
   </si>
   <si>
-    <r>
-      <t>
+    <t>
 - This higher resolution and greater accuracy provides multiple advantages:
     - Kernel timers execute with finer resolution and increased accuracy. (This provides a large number of improvements, one of which is the following.)
     - System calls such as poll() and select() that optionally employ a timeout value execute with improved precision.
@@ -2630,7 +2629,6 @@
     - Process preemption occurs more accurately.
 - Another benefit of a higher tick rate is the greater accuracy in process preemption, which results in decreased scheduling latency.
 </t>
-    </r>
   </si>
   <si>
     <t>
@@ -2701,14 +2699,12 @@
 </t>
   </si>
   <si>
-    <r>
-      <t>
+    <t>
 - As you previously saw, jiffies is defined as an unsigned long :
     extern unsigned long volatile jiffies;
 - A second variable is also defined in &lt;linux/jiffies.h&gt; :
     extern u64 jiffies_64;
 </t>
-    </r>
   </si>
   <si>
     <t>Jiffies Wraparound</t>
@@ -2849,8 +2845,7 @@
     <t>Timer Implementation</t>
   </si>
   <si>
-    <r>
-      <t>
+    <t>
 - The kernel executes timers in bottom-half context, as softirqs, after the timer interrupt completes.
 - The timer interrupt handler runs update_process_times() , which calls run_local_timers() :
     void run_local_timers(void)
@@ -2861,7 +2856,6 @@
     }
 - The TIMER_SOFTIRQ softirq is handled by run_timer_softirq() .This function runs all the expired timers (if any) on the current processor.
 </t>
-    </r>
   </si>
   <si>
     <t>Delaying Execution</t>
@@ -2926,6 +2920,335 @@
 - This example puts the task in interruptible sleep for s seconds. 
 - Because the task is marked TASK_INTERRUPTIBLE , it wakes up prematurely if it receives a signal. If the code does not want to process signals, you can use TASK_UNINTERRUPTIBLE instead. The task must be in one of these two states before schedule_timeout() is called or else the task will not go to sleep.
 - Note that because schedule_timeout() invokes the scheduler, code that calls it must be capable of sleeping. you must be in process context and must not hold a lock.
+</t>
+  </si>
+  <si>
+    <t>Memory Management</t>
+  </si>
+  <si>
+    <t>Pages</t>
+  </si>
+  <si>
+    <t>
+- The kernel represents every physical page on the system with a struct page structure.
+- This structure is defined in &lt;linux/mm_types.h&gt;.
+    struct page {
+        unsigned long flags;
+        atomic_t _count;
+        atomic_t _mapcount;
+        unsigned long private;
+        struct address_space *mapping;
+        pgoff_t index;
+        struct list_head lru;
+        void *virtual;
+    };
+    - Lets look into important fields.
+    - The flags field stores the status of the page. Such flags include whether the page is dirty or whether it is locked in memory.
+    - The _count field stores the usage count of the page—that is, how many references there are to this page. When this count reaches negative one, no one is using the page, and it becomes available for use in a new allocation. Kernel code should not check this field directly but instead use the function page_count() , page_count() returns zero to indicate free and a positive nonzero integer when the page is in use.
+    - The virtual field is the page’s virtual address. Normally, this is simply the address of the page in virtual memory. Some memory (called high memory) is not permanently mapped in the kernel’s address space. In that case, this field is NULL , and the page must be dynamically mapped if needed.
+- The important point to understand is that the page structure is associated with physical pages, not virtual pages.
+- The kernel uses this data structure to describe the associated physical page.The data structure’s goal is to describe physical memory, not the data contained therein.
+- The kernel uses this structure to keep track of all the pages in the system, because the kernel needs to know whether a page is free.
+</t>
+  </si>
+  <si>
+    <t>Zones</t>
+  </si>
+  <si>
+    <t>
+- The kernel divides pages into different zones.The kernel uses the zones to group pages of similar properties.
+- The kernel uses the zones to group pages of similar properties. In particular, Linux has to deal with two shortcomings of hardware with respect to memory addressing
+    - Some hardware devices can perform DMA (direct memory access) to only certain memory addresses.
+    - Some architectures can physically addressing larger amounts of memory than they can virtually address. Consequently, some memory is not permanently mapped into the kernel address space.
+- Linux has four primary memory zones:
+    - ZONE_DMA —This zone contains pages that can undergo DMA (DMA-able pages &lt; 16MB).
+    - ZONE_DMA32 —Like ZOME_DMA , this zone contains pages that can undergo DMA. Unlike ZONE_DMA , these pages are accessible only by 32-bit devices. On some architectures, this zone is a larger subset of memory.
+    - ZONE_NORMAL —This zone contains normal, regularly mapped, pages (Normally addressable pages 16–896MB).
+    - ZONE_HIGHMEM —This zone contains “high memory,” which are pages not permanently mapped into the kernel’s address space (Dynamically mapped pages &gt; 896MB.
+- Some architectures have no problem performing DMA into any memory address. In those architectures, ZONE_DMA is empty and ZONE_NORMAL is used for allocations regardless of their use.
+- On 32-bit x86 systems, ZONE_HIGHMEM is all memory above the physical 896MB mark. On other architectures, ZONE_HIGHMEM is empty because all memory is directly mapped.
+- The memory contained in ZONE_HIGHMEM is called high memory &amp; The rest of the system’s memory is called low memory.
+- ZONE_NORMAL tends to be whatever is left over after the previous two zones claim their requisite shares.
+</t>
+  </si>
+  <si>
+    <t>Getting &amp; Freeing Pages</t>
+  </si>
+  <si>
+    <t>
+- Getting Pages
+    - All these interfaces allocate memory with page-sized granularity and are declared in &lt;linux/gfp.h&gt; .
+    alloc_page(gfp_mask):: Allocates a single page and returns a pointer to its 
+    alloc_pages(gfp_mask, order):: Allocates 2 order pages and returns a pointer to the first page’s page structure
+    __get_free_page(gfp_mask):: Allocates a single page and returns a pointer to its logical address
+    __get_free_pages(gfp_mask, order):: Allocates 2 order pages and returns a pointer to the first page’s logical address
+    get_zeroed_page(gfp_mask):: Allocates a single page, zero its contents and returns a pointer to its logical address
+- Freeing Pages
+    void __free_pages(struct page *page, unsigned int order)
+    void free_pages(unsigned long addr, unsigned int order)
+    void free_page(unsigned long addr)
+    </t>
+  </si>
+  <si>
+    <t>kmalloc</t>
+  </si>
+  <si>
+    <t>
+- If you need whole pages, the previously discussed interfaces might be a better choice. For most kernel allocations, however, kmalloc() is the preferred interface.
+- The function is declared in &lt;linux/slab.h&gt; :
+    void * kmalloc(size_t size, gfp_t flags)
+    - The function returns a pointer to a region of memory that is at least size bytes in length.
+    - The region of memory allocated is physically contiguous. On error, it returns NULL.
+</t>
+  </si>
+  <si>
+    <t>gfp_mask Flags</t>
+  </si>
+  <si>
+    <r>
+      <t>
+- Flags are represented by the gfp_t type, which is defined in &lt;linux/types.h&gt; as an unsigned int . gfp stands for __get_free_pages().
+- The flags are broken up into three categories: action modifiers, zone modifiers, and types.
+- Action modifiers specify how the kernel is supposed to allocate the requested memory. In certain situations, only certain methods can be employed to allocate memory. 
+    - For example, interrupt handlers must instruct the kernel not to sleep (because interrupt handlers cannot reschedule) in the course of allocating memory.
+- Zone modifiers specify from where to allocate memory.
+- Type flags specify a combination of action and zone modifiers as needed by a certain type of memory allocation.Type flags simplify the specification of multiple modifiers
+    - instead of providing a combination of action and zone modifiers, you can specify just one type flag.The GFP_KERNEL is a type flag, which is used for code in process context inside the kernel.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>
+- Which Flag to Use When
+    Process context, can sleep:: Use GFP_KERNEL .
+    Process context, cannot sleep:: Use GFP_ATOMIC , or perform your allocations with GFP_KERNEL at an earlier or later point when you can sleep.
+    Interrupt handler:: Use GFP_ATOMIC .
+    Softirq:: Use GFP_ATOMIC .
+    Tasklet:: Use GFP_ATOMIC .
+    Need DMA-able memory, can sleep:: Use (GFP_DMA | GFP_KERNEL) .
+    Need DMA-able memory, cannot sleep:: Use (GFP_DMA | GFP_ATOMIC) , or perform your allocation at an earlier point when you can sleep.
+</t>
+  </si>
+  <si>
+    <t>kfree</t>
+  </si>
+  <si>
+    <t>
+- The counterpart to kmalloc() is kfree() , which is declared in &lt;linux/slab.h&gt; :
+    void kfree(const void *ptr)
+    - The kfree() method frees a block of memory previously allocated with kmalloc().
+    - Do not call this function on memory not previously allocated with kmalloc(), or on memory that has already been freed. may be freeing memory belonging to another part of the kernel.
+</t>
+  </si>
+  <si>
+    <t>vmalloc</t>
+  </si>
+  <si>
+    <t>
+- it allocates memory that is only virtually contiguous and not necessarily physically contiguous.
+- The kmalloc() function guarantees that the pages are physically contiguous (and virtually contiguous).
+- The vmalloc() function ensures only that the pages are contiguous within the virtual address space.
+- It does this by allocating potentially noncontiguous chunks of physical memory and “fixing up” the page tables to map the memory into a contiguous chunk of the logical address space
+- For the most part, only hardware devices require physically contiguous memory allocations, any regions of memory that hardware devices work with must exist as a physically contiguous block and not merely a virtually contiguous one.
+- Primarily, this is for performance, The vmalloc() function, to make nonphysically contiguous pages contiguous in the virtual address space, must specifically set up the page table entries.
+- The vmalloc() function is declared in &lt;linux/vmalloc.h&gt;
+    void * vmalloc(unsigned long size)
+    void vfree(const void *addr)
+    </t>
+  </si>
+  <si>
+    <t>Slab Layer</t>
+  </si>
+  <si>
+    <t>
+- Allocating and freeing data structures is one of the most common operations inside any kernel.
+- To facilitate frequent allocations and deallocations of data, programmers oftenintroduce free lists.
+- A free list contains a block of available, already allocated, data structures.
+- When code requires a new instance of a data structure, it can grab one of the structures off the free list rather than allocate the sufficient amount of memory and set it up for the data structure. 
+- Later, when the data structure is no longer needed, it is returned to the free list instead of deallocated. 
+- In this sense, the free list acts as an object cache, caching a frequently used type of object.
+- One of the main problems with free lists in the kernel is that there exists no global control.When available memory is low, there is no way for the kernel to communicate to every free list that it should shrink the sizes of its cache to free up memory.
+- To remedy this, and to consolidate code, the Linux kernel provides the slab layer (also called the slab allocator).
+- The slab layer attempts to leverage several basic tenets:
+    - Frequently used data structures tend to be allocated and freed often, so cache them.
+    - the cached free lists are arranged contiguously. Because freed data structures return to the free list, there is no resulting fragmentation.
+    - The free list provides improved performance during frequent allocation and deallo cation because a freed object can be immediately returned to the next allocation.
+    - If the allocator is aware of concepts such as object size, page size, and total cache size, it can make more intelligent decisions.
+    - If part of the cache is made per-processor (separate and unique to each processor on the system), allocations and frees can be performed without an SMP lock.
+    - If the allocator is NUMA-aware, it can fulfill allocations from the same memory node as the requestor.
+    - Stored objects can be colored to prevent multiple objects from mapping to the same cache lines.
+</t>
+  </si>
+  <si>
+    <t>Design of the Slab Layer</t>
+  </si>
+  <si>
+    <t>
+- The slab layer divides different objects into groups called caches, each of which stores a different type of object.
+- There is one cache per object type. For example, one cache is for process descriptors (a free list of task_struct structures), whereas another cache is forinode objects ( struct inode).
+- Interestingly, the kmalloc() interface is built on top ofthe slab layer, using a family of general purpose caches.
+- The caches are then divided into slabs (hence the name of this subsystem).
+- The slabs are composed of one or more physically contiguous pages.Typically, slabs are composed of only a single page.
+- Each cache may consist of multiple slabs.
+- Each slab contains some number of objects, which are the data structures being cached.
+- Each slab is in one of three states: full, partial, or empty.
+    - A full slab has no free objects. (All objects in the slab are allocated.) 
+    - An empty slab has no allocated objects. (All objects in the slab are free.) 
+    - A partial slab has some allocated objects and some free objects.
+- When some part of the kernel requests a new object, the request is satisfied from a partial slab, if one exists. Otherwise, the request is satisfied from an empty slab.
+- If there exists no empty slab, one is created. Obviously, a full slab can never satisfy a request because it does not have any free objects.This strategy reduces fragmentation.
+- Each cache is represented by a kmem_cache structure.This structure contains three lists— slabs_full , slabs_partial , and slabs_empty —stored inside a kmem_list.
+- The descriptor is stored inside the slab if the total size of the slab is sufficiently small, or if internal slack space is sufficient to hold the descriptor. The slab allocator creates new slabs by interfacing with the low-level kernel page allocator via __get_free_pages()
+</t>
+  </si>
+  <si>
+    <t>
+- A slab descriptor, struct slab , represents each slab:
+    struct slab {
+        struct list_head list;  /* full, partial, or empty list */
+        unsigned long colouroff;/* offset for the slab coloring */
+        void *s_mem             /* first object in the slab */
+        unsigned int inuse;     /* allocated objects in the slab */
+        kmem_bufctl_t free;     /*first free object, if any */
+    };
+</t>
+  </si>
+  <si>
+    <t>Slab Allocator Interface</t>
+  </si>
+  <si>
+    <t>
+- A new cache is created via
+    struct kmem_cache * kmem_cache_create(const char *name,
+    size_t size,
+    size_t align,
+    unsigned long flags,
+    void (*ctor)(void *));
+    - The first parameter is a string storing the name of the cache.
+    - The second parameter is the size of each element in the cache.
+    - The third parameter is the offset of the first objectwithin a slab. This is done to ensure a particular alignment within the page. Normally, zero is sufficient, which results in the standard alignment.
+    - The flags parameter specifies optional settings controlling the cache’s behavior.
+    - The final parameter, ctor , is a constructor for the cache.The constructor is called whenever new pages are added to the cache.
+    - On success, kmem_cache_create() returns a pointer to the created cache. Otherwise, it returns NULL.
+    - This function must not be called from interrupt context because it can sleep.
+- To destroy a cache, call
+    int kmem_cache_destroy(struct kmem_cache *cachep)
+    - It is generally invoked from module shutdown code in modules that create their own caches. 
+    - It must not becalled from interrupt context because it may sleep.
+    - The caller of this function must ensure two conditions are true prior to invoking this function:
+        - All slabs in the cache are empty. Indeed, if an object in one of the slabs were still allocated and in use, how could the cache be destroyed?
+        - No one accesses the cache during (and obviously after) a call to kmem_cache_destroy(). The caller must ensure this synchronization.
+    - On success, the function returns zero; it returns nonzero otherwise.
+- Allocating from the Cache
+- After a cache is created, an object is obtained from the cache via
+    void * kmem_cache_alloc(struct kmem_cache *cachep, gfp_t flags)
+    - This function returns a pointer to an object from the given cache cachep . 
+    - If no free objects are in any slabs in the cache, and the slab layer must obtain new pages via kmem_getpages()
+- To later free an object and return it to its originating slab, use the function
+    void kmem_cache_free(struct kmem_cache *cachep, void *objp)
+    This marks the object objp in cachep as free.
+    </t>
+  </si>
+  <si>
+    <t>Statically Allocating on the Stack</t>
+  </si>
+  <si>
+    <t>
+- the kernel’s stack is small and fixed.When each process is given a small, fixed stack, memory consumption is minimized, and the kernel need not burden itself with stack management code.
+- The size of the per-process kernel stacks depends on both the architecture and a compile-time option. Historically, the kernel stack has been two pages per process.This is usually 8KB for 32-bit architectures
+ </t>
+  </si>
+  <si>
+    <t>Single-Page Kernel Stacks</t>
+  </si>
+  <si>
+    <t>
+- an option was introduced to move to single-page kernel stacks.When enabled, each process is given only a single page—4KB on 32-bit architectures.
+- This was done for two reasons. 
+    - First, it results in a page with less memory consumption per process. 
+    - Second and most important is that as uptime increases, it becomes increasingly hard to find two physically contiguous unallocated pages.
+- Historically, however, interrupt handlers also used the kernel stack of the process they interrupted, thus they too had to fit.
+- To rectify this problem, the kernel developers implemented a new feature: interrupt stacks. Interrupt stacks provide a single per-processor stack used for interrupt handlers.
+- To summarize, kernel stacks are either one or two pages, depending on compiletime configuration options.
+</t>
+  </si>
+  <si>
+    <t>High Memory Mappings</t>
+  </si>
+  <si>
+    <t>
+- By definition, pages in high memory might not be permanently mapped into the kernel’s address space.
+- Thus, pages obtained via alloc_pages() with the __GFP_HIGHMEM flag might not have a logical address.
+- After they are allocated, these pages must be mapped into the kernel’s logical address space.
+</t>
+  </si>
+  <si>
+    <t>Permanent Mappings</t>
+  </si>
+  <si>
+    <t>
+- To map a given page structure into the kernel’s address space, use this function, declared in &lt;linux/highmem.h&gt; :
+    void *kmap(struct page *page)
+- This function works on either high or low memory. 
+- If the page structure belongs to a page in low memory, the page’s virtual address is simply returned. 
+- If the page resides in high memory, a permanent mapping is created and the address is returned.
+- The function may sleep, so kmap() works only in process context.
+- Because the number of permanent mappings are limited, high memory should be unmapped when no longer needed.
+- This is done via the following function, which unmaps the given page :
+    void kunmap(struct page *page)
+</t>
+  </si>
+  <si>
+    <t>Temporary Mappings</t>
+  </si>
+  <si>
+    <t>
+- For times when a mapping must be created but the current context cannot sleep, the kernel provides temporary mappings (which are also called atomic mappings).
+- The kernel can atomically map a high memory page into one of these reserved mappings. 
+- Consequently, a temporary mapping can be used in places that cannot sleep, such as interrupt handlers, because obtaining the mapping never blocks.
+- Setting up a temporary mapping is done via
+    void *kmap_atomic(struct page *page, enum km_type type)
+    - The type parameter is one of the following enumerations, which describe the purpose of the temporary mapping.They are defined in &lt;asm-generic/kmap_types.h&gt;:
+- This function does not block and thus can be used in interrupt context and other places that cannot reschedule. 
+- It also disables kernel preemption, which is needed because the mappings are unique to each processor.
+- The mapping is undone via 
+    void kunmap_atomic(void *kvaddr, enum km_type type)
+    - This function also does not block. In many architectures it does not do anything at all except enable kernel preemption
+</t>
+  </si>
+  <si>
+    <t>Per-CPU Allocations</t>
+  </si>
+  <si>
+    <t>
+    unsigned long my_percpu[NR_CPUS];
+    /*Then you access it as*/
+    int cpu;
+    cpu = get_cpu(); /* get current processor and disable kernel preemption */
+    my_percpu[cpu]++; /* ... or whatever */
+    printk(“my_percpu on cpu=%d is %lu\n”, cpu, my_percpu[cpu]);
+    put_cpu(); /* enable kernel preemption */
+- Note that no lock is required because this data is unique to the current processor.
+- If no processor touches this data except the current, no concurrency concerns exist, and the current processor can safely access the data without lock.
+</t>
+  </si>
+  <si>
+    <t>Per-CPU Data at Compile-Time</t>
+  </si>
+  <si>
+    <t>    - Defining a per-CPU variable at compile time is quite easy:
+    DEFINE_PER_CPU(type, name);
+    - This creates an instance of a variable of type type , named name , for each processor on the system. 
+    - If you need a declaration of the variable elsewhere, to avoid compile warnings, the following macro is your friend:
+    DECLARE_PER_CPU(type, name);
+- You can manipulate the variables with the get_cpu_var() and put_cpu_var() routines.
+- A call to get_cpu_var() returns an lvalue for the given variable on the current processor.
+- It also disables preemption, which put_cpu_var() correspondingly enables.
+    get_cpu_var(name)++; /* increment name on this processor */
+    put_cpu_var(name); /* done; enable kernel preemption */
+-You can obtain the value of another processor’s per-CPU data, too:
+    per_cpu(name, cpu)++; /* increment name on the given processor */
+- You need to be careful with this approach because per_cpu() neither disables kernel preemption nor provides any sort of locking mechanism.
 </t>
   </si>
 </sst>
@@ -5548,10 +5871,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F94"/>
+  <dimension ref="A1:F111"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A93" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C95" activeCellId="0" sqref="C95"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A110" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C112" activeCellId="0" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -6287,7 +6610,7 @@
       <c r="C79" s="38" t="s">
         <v>488</v>
       </c>
-      <c r="D79" s="40" t="s">
+      <c r="D79" s="37" t="s">
         <v>489</v>
       </c>
     </row>
@@ -6298,7 +6621,7 @@
       <c r="D80" s="38" t="s">
         <v>491</v>
       </c>
-      <c r="E80" s="40" t="s">
+      <c r="E80" s="37" t="s">
         <v>492</v>
       </c>
     </row>
@@ -6427,6 +6750,151 @@
       </c>
       <c r="D94" s="38" t="s">
         <v>525</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="38" t="s">
+        <v>526</v>
+      </c>
+      <c r="C95" s="38" t="s">
+        <v>527</v>
+      </c>
+      <c r="D95" s="38" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C96" s="38" t="s">
+        <v>529</v>
+      </c>
+      <c r="D96" s="38" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C97" s="38" t="s">
+        <v>531</v>
+      </c>
+      <c r="D97" s="38" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C98" s="38" t="s">
+        <v>533</v>
+      </c>
+      <c r="D98" s="38" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C99" s="38" t="s">
+        <v>535</v>
+      </c>
+      <c r="D99" s="38" t="s">
+        <v>536</v>
+      </c>
+      <c r="E99" s="40" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C100" s="38" t="s">
+        <v>538</v>
+      </c>
+      <c r="D100" s="38" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C101" s="38" t="s">
+        <v>540</v>
+      </c>
+      <c r="D101" s="38" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C102" s="38" t="s">
+        <v>542</v>
+      </c>
+      <c r="D102" s="38" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="292.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C103" s="38" t="s">
+        <v>544</v>
+      </c>
+      <c r="D103" s="38" t="s">
+        <v>545</v>
+      </c>
+      <c r="E103" s="38" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="438.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C104" s="38" t="s">
+        <v>547</v>
+      </c>
+      <c r="D104" s="38" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C105" s="38" t="s">
+        <v>549</v>
+      </c>
+      <c r="D105" s="38" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C106" s="38" t="s">
+        <v>551</v>
+      </c>
+      <c r="D106" s="38" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C107" s="38" t="s">
+        <v>553</v>
+      </c>
+      <c r="D107" s="38" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C108" s="38" t="s">
+        <v>555</v>
+      </c>
+      <c r="D108" s="38" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C109" s="38" t="s">
+        <v>557</v>
+      </c>
+      <c r="D109" s="38" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C110" s="38" t="s">
+        <v>559</v>
+      </c>
+      <c r="D110" s="40" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C111" s="38" t="s">
+        <v>561</v>
+      </c>
+      <c r="D111" s="40" t="s">
+        <v>562</v>
       </c>
     </row>
   </sheetData>

--- a/improvement/quick_notes.xlsx
+++ b/improvement/quick_notes.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="566">
   <si>
     <t>Sr No</t>
   </si>
@@ -3005,8 +3005,7 @@
     <t>gfp_mask Flags</t>
   </si>
   <si>
-    <r>
-      <t>
+    <t>
 - Flags are represented by the gfp_t type, which is defined in &lt;linux/types.h&gt; as an unsigned int . gfp stands for __get_free_pages().
 - The flags are broken up into three categories: action modifiers, zone modifiers, and types.
 - Action modifiers specify how the kernel is supposed to allocate the requested memory. In certain situations, only certain methods can be employed to allocate memory. 
@@ -3015,7 +3014,6 @@
 - Type flags specify a combination of action and zone modifiers as needed by a certain type of memory allocation.Type flags simplify the specification of multiple modifiers
     - instead of providing a combination of action and zone modifiers, you can specify just one type flag.The GFP_KERNEL is a type flag, which is used for code in process context inside the kernel.
 </t>
-    </r>
   </si>
   <si>
     <t>
@@ -3251,6 +3249,37 @@
 - You need to be careful with this approach because per_cpu() neither disables kernel preemption nor provides any sort of locking mechanism.
 </t>
   </si>
+  <si>
+    <t>Per-CPU Data at Runtime</t>
+  </si>
+  <si>
+    <t>
+- This routine creates an instance of the requested memory for each processor on the systems.The prototypes are in &lt;linux/percpu.h&gt; :
+    void *alloc_percpu(type); /* a macro */
+    void *__alloc_percpu(size_t size, size_t align);
+    void free_percpu(const void *);
+- The alloc_percpu() macro allocates one instance of an object of the given type for every processor on the system. 
+- It is a wrapper around __alloc_percpu() , which takes the actual number of bytes to allocate as a parameter and the number of bytes on which to align the allocation.
+    - For example,
+    struct rabid_cheetah = alloc_percpu(struct rabid_cheetah);
+    is the same as
+    struct rabid_cheetah = __alloc_percpu(sizeof (struct rabid_cheetah), __alignof__ (struct rabid_cheetah));
+    - The __alignof__ construct is a gcc feature that returns the required (or recom-ended, in the case of weird architectures with no alignment requirements) alignment in bytes for a given type or lvalue.
+    - Its syntax is just like that of sizeof.
+</t>
+  </si>
+  <si>
+    <t>
+void *percpu_ptr;
+unsigned long *foo;
+percpu_ptr = alloc_percpu(unsigned long);
+if (!ptr)
+    /* error allocating memory .. */
+foo = get_cpu_var(percpu_ptr); /* disable kernel preemption and return a void pointer to this processor’s copy of ptr */
+/* manipulate foo .. */
+put_cpu_var(percpu_ptr); /* done; enable kernel preemption */
+</t>
+  </si>
 </sst>
 </file>
 
@@ -3259,7 +3288,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3355,11 +3384,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -3428,7 +3452,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3589,10 +3613,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -5871,10 +5891,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F111"/>
+  <dimension ref="A1:F112"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A110" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C112" activeCellId="0" sqref="C112"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C113" activeCellId="0" sqref="C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -6794,7 +6814,7 @@
       <c r="D99" s="38" t="s">
         <v>536</v>
       </c>
-      <c r="E99" s="40" t="s">
+      <c r="E99" s="37" t="s">
         <v>537</v>
       </c>
     </row>
@@ -6885,7 +6905,7 @@
       <c r="C110" s="38" t="s">
         <v>559</v>
       </c>
-      <c r="D110" s="40" t="s">
+      <c r="D110" s="37" t="s">
         <v>560</v>
       </c>
     </row>
@@ -6893,8 +6913,19 @@
       <c r="C111" s="38" t="s">
         <v>561</v>
       </c>
-      <c r="D111" s="40" t="s">
+      <c r="D111" s="37" t="s">
         <v>562</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C112" s="38" t="s">
+        <v>563</v>
+      </c>
+      <c r="D112" s="38" t="s">
+        <v>564</v>
+      </c>
+      <c r="E112" s="38" t="s">
+        <v>565</v>
       </c>
     </row>
   </sheetData>

--- a/improvement/quick_notes.xlsx
+++ b/improvement/quick_notes.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="593">
   <si>
     <t>Sr No</t>
   </si>
@@ -3280,6 +3280,299 @@
 put_cpu_var(percpu_ptr); /* done; enable kernel preemption */
 </t>
   </si>
+  <si>
+    <t>Virtual Filesystem</t>
+  </si>
+  <si>
+    <t>Unix Filesystems</t>
+  </si>
+  <si>
+    <t>
+- Unix has provided four basic filesystem-related abstractions: files, directory entries, inodes, and mount points.
+- Unix systems separate the concept of a file from any associated information about it, such as access permissions, size, owner, creation time, and so on.
+- Inode
+    - This information is sometimes called file metadata (that is, data about the file’s data) and is stored in a separate data structure from the file, called the inode.This name is short for index node,
+- Superblock
+    - All this information is tied together with the filesystem’s own control information, which is stored in the superblock.
+    - The superblock is a data structure containing informationabout the filesystem as a whole. 
+    - Sometimes the collective data is referred to as filesystem metadata. 
+    - Filesystem metadata includes information about both the individual files and the filesystem as a whole.
+</t>
+  </si>
+  <si>
+    <t>VFS Objects and Their Data Structures</t>
+  </si>
+  <si>
+    <t>
+- The four primary object types of the VFS are
+    - The superblock object, which represents a specific mounted filesystem.
+    - The inode object, which represents a specific file.
+    - The dentry object, which represents a directory entry, which is a single component of a path.
+    - The file object, which represents an open file as associated with a process.
+- An operations object is contained within each of these primary objects.These objects describe the methods that the kernel invokes against the primary objects:
+    - The super_operations object, which contains the methods that the kernel can invoke on a specific filesystem, such as write_inode() and sync_fs()
+    - The inode_operations object, which contains the methods that the kernel can invoke on a specific file, such as create() and link()
+    - The dentry_operations object, which contains the methods that the kernel can invoke on a specific directory entry, such as d_compare() and d_delete() 
+    - The file_operations object, which contains the methods that a process can invoke on an open file, such as read() and write().
+- The operations objects are implemented as a structure of pointers to functions that operate on the parent object. For many methods, the objects can inherit a generic function if basic functionality is sufficient. Otherwise, the specific instance of the particular filesystem fills in the pointers with its own filesystem-specific methods.
+- Each registered filesystem is represented by a file_system_type structure.
+- This object describes the filesystem and its capabilities. Furthermore, each mount point is represented by the vfsmount structure.This structure contains information about the mount point, such as its location and mount flags.
+- Finally, two per-process structures describe the filesystem and files associated with a process.They are, respectively, the fs_struct structure and the file structure.
+</t>
+  </si>
+  <si>
+    <t>The Superblock Object</t>
+  </si>
+  <si>
+    <t>
+- The superblock object is implemented by each filesystem and is used to store information describing that specific filesystem.
+- This object usually corresponds to the filesystem superblock or the filesystem control block, which is stored in a special sector on disk (hence the object’s name). 
+- Filesystems that are not disk-based (a virtual memory–based filesystem, such as sysfs, for example) generate the superblock on-the-fly and store it in memory.
+- The superblock object is represented by struct super_block and defined in &lt;linux/fs.h&gt; .
+- A superblock object is created and initialized via the alloc_super() function. When mounted, a filesystem invokes this function, reads its superblock off of the disk, and fills in its superblock object.
+</t>
+  </si>
+  <si>
+    <t>Superblock Operations</t>
+  </si>
+  <si>
+    <t>
+- The most important item in the superblock object is s_op , which is a pointer to the superblock operations table.
+- The superblock operations table is represented by struct super_operations and is defined in &lt;linux/fs.h&gt; . 
+- Each item in this structure is a pointer to a function that operates on a superblock object.
+- The superblock operations perform low-level operations on the filesystem and its inodes.
+- When a filesystem needs to perform an operation on its superblock, it follows the pointers from its superblock object to the desired method.
+- For example, if a filesystem wanted to write to its superblock, it would invoke
+    sb-&gt;s_op-&gt;write_super(sb);
+    In this call, sb is a pointer to the filesystem’s superblock.
+- Let’s take a look at some of the superblock operations that are specified by super_operations :
+    - struct inode * alloc_inode(struct super_block *sb):: Creates and initializes a new inode object under the given superblock.
+    - void destroy_inode(struct inode *inode):: Deallocates the given inode.
+    - void dirty_inode(struct inode *inode):: Invoked by the VFS when an inode is dirtied (modified). Journaling filesystems such as ext3 and ext4 use this function to perform journal updates.
+    - void write_inode(struct inode *inode, int wait):: Writes the given inode to disk.The wait parameter specifies whether the operation should be synchronous.
+    - void drop_inode(struct inode *inode):: Called by the VFS when the last reference to an inode is dropped. Normal Unix filesystems do not define this function, in which case the VFS simply deletes the inode.
+    - void delete_inode(struct inode *inode):: Deletes the given inode from the disk.
+    - and so on...
+- All these functions are invoked by the VFS, in process context.All except dirty_inode() may all block if needed.
+- Some of these functions are optional; a specific filesystem can then set its value in the superblock operations structure to NULL . 
+- If the associated pointer is NULL , the VFS either calls a generic function or does nothing, depending on the operation.
+</t>
+  </si>
+  <si>
+    <t>
+- It looks like this:
+    struct super_operations {
+        struct inode *(*alloc_inode)(struct super_block *sb);
+        void (*destroy_inode)(struct inode *);
+        void (*dirty_inode) (struct inode *);
+        int (*write_inode) (struct inode *, int);
+        void (*drop_inode) (struct inode *);
+        void (*delete_inode) (struct inode *);
+        void (*put_super) (struct super_block *);
+        void (*write_super) (struct super_block *);
+        int (*sync_fs)(struct super_block *sb, int wait);
+        int (*freeze_fs) (struct super_block *);
+        int (*unfreeze_fs) (struct super_block *);
+        int (*statfs) (struct dentry *, struct kstatfs *);
+        int (*remount_fs) (struct super_block *, int *, char *);
+        void (*clear_inode) (struct inode *);
+        void (*umount_begin) (struct super_block *);
+        int (*show_options)(struct seq_file *, struct vfsmount *);
+        int (*show_stats)(struct seq_file *, struct vfsmount *);
+        ssize_t (*quota_read)(struct super_block *, int, char *, size_t, loff_t);
+        ssize_t (*quota_write)(struct super_block *, int, const char *, size_t, loff_t);
+        int (*bdev_try_to_free_page)(struct super_block*, struct page*, gfp_t);
+    };
+</t>
+  </si>
+  <si>
+    <t>Inode Object</t>
+  </si>
+  <si>
+    <t>
+- The inode object represents all the information needed by the kernel to manipulate a file or directory. 
+- For Unix-style filesystems, this information is simply read from the on-disk inode. 
+- If a filesystem does not have inodes, however, the filesystem must obtain the information from wherever it is stored on the disk. Filesystems without inodes generally store file-specific information as part of the file;
+- The inode object is represented by struct inode and is defined in &lt;linux/fs.h&gt; .
+- An inode represents each file on a filesystem, but the inode object is constructed in memory only as files are accessed.
+- This includes special files, such as device files or pipes. Consequently, some of the entries in struct inode are related to these special files. 
+- For example, the i_pipe entry points to a named pipe data structure, i_bdev points to a block device structure, and i_cdev points to a character device structure.
+</t>
+  </si>
+  <si>
+    <t>Inode Operations</t>
+  </si>
+  <si>
+    <t>
+- As with the superblock operations, the inode_operations member is important. It describes the filesystem’s implemented functions that the VFS can invoke on an inode.
+- As with the superblock, inode operations are invoked via
+    i-&gt;i_op-&gt;truncate(i)
+    - In this call, i is a reference to a particular inode. In this case, the truncate() operation defined by the filesystem on which i exists is called on the given inode.
+- The inode_operations structure is defined in &lt;linux/fs.h&gt; :
+</t>
+  </si>
+  <si>
+    <r>
+      <t>
+- its operations:
+    struct inode_operations {
+        int (*create) (struct inode *,struct dentry *,int, struct nameidata *);
+        struct dentry * (*lookup) (struct inode *,struct dentry *, struct nameidata *);
+        int (*link) (struct dentry *,struct inode *,struct dentry *);
+        int (*unlink) (struct inode *,struct dentry *);
+        int (*symlink) (struct inode *,struct dentry *,const char *);
+        int (*mkdir) (struct inode *,struct dentry *,int);
+        int (*rmdir) (struct inode *,struct dentry *);
+        int (*mknod) (struct inode *,struct dentry *,int,dev_t);
+        int (*rename) (struct inode *, struct dentry *,
+        struct inode *, struct dentry *);
+        int (*readlink) (struct dentry *, char __user *,int);
+        void * (*follow_link) (struct dentry *, struct nameidata *);
+        void (*put_link) (struct dentry *, struct nameidata *, void *);
+        void (*truncate) (struct inode *);
+        int (*permission) (struct inode *, int);
+        int (*setattr) (struct dentry *, struct iattr *);
+        int (*getattr) (struct vfsmount *mnt, struct dentry *, struct kstat *);
+        int (*setxattr) (struct dentry *, const char *,const void *,size_t,int);
+        ssize_t (*getxattr) (struct dentry *, const char *, void *, size_t);
+        ssize_t (*listxattr) (struct dentry *, char *, size_t);
+        int (*removexattr) (struct dentry *, const char *);
+        void (*truncate_range)(struct inode *, loff_t, loff_t);
+        long (*fallocate)(struct inode *inode, int mode, loff_t offset, loff_t len);
+        int (*fiemap)(struct inode *, struct fiemap_extent_info *, u64 start, u64 len);
+    };
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Dentry Object</t>
+  </si>
+  <si>
+    <t>
+- A dentry is a specific component in a path. using path /bin/vi, / , bin , and vi are all dentry objects.
+- The first two are directories and the last is a regular file. This is an important point: Dentry objects are all components in a path, including files.
+- Dentries might also include mount points. In the path /mnt/cdrom/foo , the components / , mnt , cdrom , and foo are all dentry objects.
+- The VFS constructs dentry objects on the-fly, as needed, when performing directory operations.
+- Dentry objects are represented by struct dentry and defined in &lt;linux/dcache.h&gt;
+- Unlike the previous two objects, the dentry object does not correspond to any sort of on-disk data structure.
+- The VFS creates it on-the-fly from a string representation of a path name. 
+- Because the dentry object is not physically stored on the disk, no flag in struct dentry specifies whether the object is modified (that is, whether it is dirty and needs to be written back to disk).
+</t>
+  </si>
+  <si>
+    <t>Dentry Operations</t>
+  </si>
+  <si>
+    <t>
+- The dentry_operations structure specifies the methods that the VFS invokes on directory entries on a given filesystem.
+- The dentry_operations structure is defined in &lt;linux/dcache.h&gt; :
+    struct dentry_operations {
+        int (*d_revalidate) (struct dentry *, struct nameidata *);
+        int (*d_hash) (struct dentry *, struct qstr *);
+        int (*d_compare) (struct dentry *, struct qstr *, struct qstr *);
+        int (*d_delete) (struct dentry *);
+        void (*d_release) (struct dentry *);
+        void (*d_iput) (struct dentry *, struct inode *);
+        char *(*d_dname) (struct dentry *, char *, int);
+    };
+  </t>
+  </si>
+  <si>
+    <t>File Object</t>
+  </si>
+  <si>
+    <t>
+- he file object is used to represent a file opened by a process.
+- Processes deal directly with files, not superblocks, inodes, or dentries. It is not surprising that the information in the file object is the most familiar (data such as access mode and current offset) or that the file operations are familiar system calls such as read() and write() .
+- All these file-related calls are actually methods defined in the file operations table. Because multiple processes can open and manipulate a file at the same time, there can be multiple file objects in existence for the same file.
+- The file object merely represents a process’s view of an open file.The object points back to the dentry (which in turn points back to the inode) that actually represents the open file. The inode and dentry objects, of course, are unique.
+- The file object is represented by struct file and is defined in &lt;linux/fs.h&gt;
+- Similar to the dentry object, the file object does not actually correspond to any on disk data.
+- Therefore, no flag in the object represents whether the object is dirty and needs to be written back to disk.The file object does point to its associated dentry object via the f_dentry pointer.The dentry in turn points to the associated inode, which reflects whether the file itself is dirty.
+</t>
+  </si>
+  <si>
+    <t>File operations</t>
+  </si>
+  <si>
+    <r>
+      <t>
+- The operations associated with struct file are the familiar system calls that form the basis of the standard Unix system calls.
+- The file object methods are specified in file_operations and defined in &lt;linux/fs.h&gt; :
+    struct file_operations {
+        struct module *owner;
+        loff_t (*llseek) (struct file *, loff_t, int);
+        ssize_t (*read) (struct file *, char __user *, size_t, loff_t *);
+        ssize_t (*write) (struct file *, const char __user *, size_t, loff_t *);
+        so on....
+    };
+</t>
+    </r>
+  </si>
+  <si>
+    <t>
+- the fundamental VFS objects, the kernel uses other standard data structures to manage data related to filesystems.
+- The first object is used to describe a specific variant of a filesystem, such as ext3, ext4, or UDF.
+- The second data structure describes a mounted instance of a filesystem.
+- Because Linux supports so many different filesystems, the kernel must have a special structure for describing the capabilities and behavior of each filesystem.
+- The file_system_type structure, defined in &lt;linux/fs.h&gt;
+</t>
+  </si>
+  <si>
+    <t>Data Structures Associated with a Process</t>
+  </si>
+  <si>
+    <t>
+- Each process on the system has its own list of open files, root filesystem, current working directory, mount points, and so on.
+- Three data structures tie together the VFS layer and the processes on the system: files_struct , fs_struct , and namespace .
+- The files_struct is defined in &lt;linux/fdtable.h&gt; This table’s address is pointed to by the files entry in the processor descriptor.
+- All per-process information about open files and file descriptors is contained therein. Here it is, with comments:.
+- The array fd_array points to the list of open file objects. Because NR_OPEN_DEFAULT is equal to BITS_PER_LONG , which is 64 on a 64-bit architecture; this includes room for 64 file objects. 
+- If a process opens more than 64 file objects, the kernel allocates a new array and points the fdt pointer at it.
+- The second process-related structure is fs_struct , which contains filesystem informa-
+tion related to a process and is pointed at by the fs field in the process descriptor.The
+structure is defined in &lt;linux/fs_struct.h&gt; . Here it is, with comments:
+- This structure holds the current working directory ( pwd ) and root directory of the current process.
+- The third and final structure is the namespace structure, which is defined in &lt;linux/mnt_namespace.h &gt; and pointed at by the mnt_namespace field in the process descriptor.
+- They enable each process to have a unique view of the mounted filesystems on the system—not just a unique root directory, but an entirely unique filesystem hierarchy.
+- The list member specifies a doubly linked list of the mounted filesystems that make up the namespace.
+- For most processes, the process descriptor points to unique files_struct and fs_struct structures. 
+- For processes created with the clone flag CLONE_FILES or CLONE_FS, however, these structures are shared. Consequently, multiple process descriptors might point to the same files_struct or fs_struct structure.
+- The count member of each structure provides a reference count to prevent destruction while a process is still using the structure.
+- The namespace structure works the other way around. By default, all processes share the same namespace. (That is, they all see the same filesystem hierarchy from the same mount table.) Only when the CLONE_NEWNS flag is specified during clone() is the process given a unique copy of the namespace structure.
+</t>
+  </si>
+  <si>
+    <t>
+struct files_struct {
+    atomic_t count; /* usage count */
+    struct fdtable *fdt;  /* pointer to other fd table */
+    struct fdtable fdtab; /* base fd table */
+    spinlock_t file_lock; /* per-file lock */
+    int next_fd; /* cache of next available fd */
+    struct embedded_fd_set close_on_exec_init; /* list of close-on-exec fds */
+    struct embedded_fd_set open_fds_init /* list of open fds */
+    struct file *fd_array[NR_OPEN_DEFAULT]; /* base files array */
+};
+----------------------------------------
+struct fs_struct {
+    int          users;   /* user count */
+    rwlock_t     lock;    /* per-structure lock */
+    int          umask;   /* umask */
+    int          in_exec; /* currently executing a file */
+    struct path  root;    /* root directory */
+    struct path  pwd;     /* current working directory */
+};                    
+----------------------------------------
+struct mnt_namespace {
+    atomic_t count; /* usage count */
+    struct vfsmount *root; /* root directory */
+    struct list_head list; /* list of mount points */
+    wait_queue_head_t poll; /* polling waitqueue */
+    int event; /* event count */
+}; 
+</t>
+  </si>
 </sst>
 </file>
 
@@ -3288,7 +3581,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3383,6 +3676,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -4933,8 +5231,8 @@
   </sheetPr>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B55" activeCellId="0" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -5891,10 +6189,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F112"/>
+  <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C113" activeCellId="0" sqref="C113"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B124" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D124" activeCellId="0" sqref="D124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -6926,6 +7224,114 @@
       </c>
       <c r="E112" s="38" t="s">
         <v>565</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B113" s="38" t="s">
+        <v>566</v>
+      </c>
+      <c r="C113" s="38" t="s">
+        <v>567</v>
+      </c>
+      <c r="D113" s="38" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="303.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C114" s="38" t="s">
+        <v>569</v>
+      </c>
+      <c r="D114" s="38" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C115" s="38" t="s">
+        <v>571</v>
+      </c>
+      <c r="D115" s="38" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C116" s="38" t="s">
+        <v>573</v>
+      </c>
+      <c r="D116" s="38" t="s">
+        <v>574</v>
+      </c>
+      <c r="E116" s="38" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C117" s="38" t="s">
+        <v>576</v>
+      </c>
+      <c r="D117" s="38" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C118" s="38" t="s">
+        <v>578</v>
+      </c>
+      <c r="D118" s="38" t="s">
+        <v>579</v>
+      </c>
+      <c r="E118" s="38" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C119" s="38" t="s">
+        <v>581</v>
+      </c>
+      <c r="D119" s="38" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C120" s="38" t="s">
+        <v>583</v>
+      </c>
+      <c r="D120" s="38" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C121" s="38" t="s">
+        <v>585</v>
+      </c>
+      <c r="D121" s="38" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C122" s="38" t="s">
+        <v>587</v>
+      </c>
+      <c r="D122" s="38" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C123" s="38" t="s">
+        <v>569</v>
+      </c>
+      <c r="D123" s="38" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="426.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C124" s="38" t="s">
+        <v>590</v>
+      </c>
+      <c r="D124" s="38" t="s">
+        <v>591</v>
+      </c>
+      <c r="E124" s="38" t="s">
+        <v>592</v>
       </c>
     </row>
   </sheetData>
@@ -6952,7 +7358,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="L25" activeCellId="0" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/improvement/quick_notes.xlsx
+++ b/improvement/quick_notes.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="594">
   <si>
     <t>Sr No</t>
   </si>
@@ -1891,20 +1891,42 @@
   <si>
     <t>
 - Disabling and Enabling Interrupts
+    - To disable interrupts locally for the current processor (and only the current processor) and then later reenable them, do the following:
     local_irq_disable() Disables local interrupt delivery
     local_irq_enable() Enables local interrupt delivery
+    - , it is much safer to save the state of the interrupt system before disabling it.Then, when you are ready to reenable interrupts, you simply restore them to their original state
     local_irq_save() Saves the current state of local interrupt delivery and then disables it
     local_irq_restore() Restores local interrupt delivery to the given state
+    - All the previous functions can be called from both interrupt and process context.
 - Disabling a Specific Interrupt Line
+    - In some cases, it is useful to disable only a specific interrupt line for the entire system.This is called masking out an interrupt line.
     disable_irq() Disables the given interrupt line and ensures no handler on the line is executing before returning
     disable_irq_nosync() Disables the given interrupt line
     enable_irq() Enables the given interrupt line
     irqs_disabled() Returns nonzero if local interrupt delivery is disabled; otherwise returns zero
     synchronize_irq(unsigned int irq); waits for a specific interrupt handler to exit, if it is executing, before returning.
 - Status of the Interrupt System
+- It is often useful to know the state of the interrupt system (for example, whether inter rupts are enabled or disabled) or whether you are currently executing in interrupt context.
+    The macro irqs_disabled() , defined in &lt;asm/system.h&gt; , returns nonzero if the interrupt system on the local processor is disabled. Otherwise, it returns zero.
     in_interrupt() Returns nonzero if in interrupt context and zero if in process context
     in_irq() Returns nonzero if currently executing an interrupt handler and zero otherwise
 </t>
+  </si>
+  <si>
+    <r>
+      <t>
+Local_irq_disable():: Disables local interrupt delivery
+local_irq_enable():: Enables local interrupt delivery
+local_irq_save():: Saves the current state of local interrupt delivery and then disables it
+local_irq_restore():: Restores local interrupt delivery to the given state
+disable_irq():: Disables the given interrupt line and ensures no handler on the line is executing before returning
+disable_irq_nosync():: Disables the given interrupt line
+enable_irq():: Enables the given interrupt line
+irqs_disabled():: Returns nonzero if local interrupt delivery is disabled; otherwise returns zero
+in_interrupt():: Returns nonzero if in interrupt context and zero if in process context
+in_irq():: Returns nonzero if currently executing an interrupt handler and zero otherwise
+</t>
+    </r>
   </si>
   <si>
     <t>Bottom Halves and Deferring Work</t>
@@ -1995,7 +2017,8 @@
     <t>Raising Your Softirq</t>
   </si>
   <si>
-    <t>
+    <r>
+      <t>
 - To mark it pending, so it is run at the next invocation of do_softirq() , call raise_softirq() . 
 - For example, the networking subsystem would call,
     raise_softirq(NET_TX_SOFTIRQ);
@@ -2006,7 +2029,9 @@
     * interrupts must already be off!
     */
     raise_softirq_irqoff(NET_TX_SOFTIRQ);
-</t>
+- Softirqs are most often raised from within interrupt handlers. In the case of interrupt handlers, the interrupt handler performs the basic hardware-related work, raises the softirq, and then exits.
+</t>
+    </r>
   </si>
   <si>
     <t>Tasklets</t>
@@ -2052,7 +2077,8 @@
     <t>Using Tasklets</t>
   </si>
   <si>
-    <t>
+    <r>
+      <t>
 - Declaring Your Tasklet
     - statically create the tasklet, use one of two macros in &lt;linux/interrupt.h&gt; :
         DECLARE_TASKLET(name, func, data)
@@ -2080,7 +2106,9 @@
         /* we can now do stuff knowing that the tasklet cannot run .. */
         tasklet_enable(&amp;my_tasklet);
         /* tasklet is now enabled */
-</t>
+- You can remove a tasklet from the pending queue via tasklet_kill() .
+</t>
+    </r>
   </si>
   <si>
     <t>Work Queues</t>
@@ -2640,7 +2668,7 @@
   </si>
   <si>
     <t>
-- A higher tick rate implies more frequent timer interrupts, which implies higher overhead, because the proces sor must spend more time executing the timer interrupt handler.
+- A higher tick rate implies more frequent timer interrupts, which implies higher overhead, because the processor must spend more time executing the timer interrupt handler.
 - The higher the tick rate, the more time the processor spends executing the timer interrupt.This adds up to not just less processor time available for other work, but also a more frequent thrashing of the processor’s cache and increase in power consumption.The issue of the overhead’s impact is debatable
 </t>
   </si>
@@ -2980,6 +3008,7 @@
     - All these interfaces allocate memory with page-sized granularity and are declared in &lt;linux/gfp.h&gt; .
     alloc_page(gfp_mask):: Allocates a single page and returns a pointer to its 
     alloc_pages(gfp_mask, order):: Allocates 2 order pages and returns a pointer to the first page’s page structure
+    void * page_address(struct page *page):: convert a given page to its logical address with the function
     __get_free_page(gfp_mask):: Allocates a single page and returns a pointer to its logical address
     __get_free_pages(gfp_mask, order):: Allocates 2 order pages and returns a pointer to the first page’s logical address
     get_zeroed_page(gfp_mask):: Allocates a single page, zero its contents and returns a pointer to its logical address
@@ -3412,8 +3441,7 @@
 </t>
   </si>
   <si>
-    <r>
-      <t>
+    <t>
 - its operations:
     struct inode_operations {
         int (*create) (struct inode *,struct dentry *,int, struct nameidata *);
@@ -3442,7 +3470,6 @@
         int (*fiemap)(struct inode *, struct fiemap_extent_info *, u64 start, u64 len);
     };
 </t>
-    </r>
   </si>
   <si>
     <t>Dentry Object</t>
@@ -3495,8 +3522,7 @@
     <t>File operations</t>
   </si>
   <si>
-    <r>
-      <t>
+    <t>
 - The operations associated with struct file are the familiar system calls that form the basis of the standard Unix system calls.
 - The file object methods are specified in file_operations and defined in &lt;linux/fs.h&gt; :
     struct file_operations {
@@ -3507,7 +3533,6 @@
         so on....
     };
 </t>
-    </r>
   </si>
   <si>
     <t>
@@ -4554,7 +4579,7 @@
       </c>
       <c r="E14" s="32"/>
     </row>
-    <row r="15" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="29"/>
       <c r="B15" s="30"/>
       <c r="C15" s="33" t="s">
@@ -5231,7 +5256,7 @@
   </sheetPr>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B55" activeCellId="0" sqref="B55"/>
     </sheetView>
   </sheetViews>
@@ -5801,7 +5826,7 @@
   </sheetPr>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
     </sheetView>
   </sheetViews>
@@ -6191,8 +6216,8 @@
   </sheetPr>
   <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B124" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D124" activeCellId="0" sqref="D124"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E99" activeCellId="0" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -6606,732 +6631,735 @@
         <v>405</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="38" t="s">
         <v>406</v>
       </c>
       <c r="D43" s="38" t="s">
         <v>407</v>
       </c>
+      <c r="E43" s="38" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="38" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C44" s="38" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D44" s="38" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="38" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D45" s="38" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="38" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D46" s="38" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="38" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D47" s="38" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="38" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D48" s="38" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="38" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D49" s="38" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="38" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D50" s="38" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="38" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D51" s="38" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="449.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="38" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D52" s="38" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="404.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="415.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="38" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D53" s="38" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="38" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D54" s="38" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="38" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D55" s="38" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="348.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="38" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D56" s="38" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="38" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D57" s="38" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="426.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="38" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D58" s="38" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="38" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D59" s="38" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="38" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D60" s="38" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="38" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C61" s="38" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D61" s="38" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="38" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D62" s="38" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="38" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D63" s="38" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="438.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="38" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D64" s="38" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E64" s="38" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="38" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D65" s="38" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C66" s="38" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D66" s="38" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E66" s="38" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="281.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="38" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D67" s="38" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="38" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D68" s="38" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="38" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D69" s="38" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E69" s="38" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="38" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D70" s="38" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="348.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C71" s="38" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D71" s="38" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E71" s="38" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C72" s="38" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D72" s="38" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="38" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D73" s="38" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C74" s="38" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D74" s="38" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E74" s="38" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C75" s="38" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D75" s="38" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E75" s="38" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="303.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C76" s="38" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D76" s="38" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C77" s="38" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D77" s="38" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E77" s="38" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="38" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C78" s="38" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D78" s="38" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C79" s="38" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D79" s="37" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C80" s="38" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D80" s="38" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E80" s="37" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C81" s="38" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D81" s="38" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E81" s="38" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C82" s="38" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D82" s="38" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C83" s="38" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D83" s="38" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E83" s="38" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C84" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D84" s="38" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E84" s="38" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C85" s="38" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D85" s="38" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E85" s="38" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C86" s="38" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D86" s="38" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C87" s="38" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D87" s="38" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C88" s="38" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D88" s="38" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="438.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C89" s="38" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D89" s="38" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E89" s="38" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C90" s="38" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D90" s="38" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C91" s="38" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D91" s="38" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C92" s="38" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D92" s="38" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C93" s="38" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D93" s="38" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C94" s="38" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D94" s="38" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="38" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C95" s="38" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D95" s="38" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C96" s="38" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D96" s="38" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C97" s="38" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D97" s="38" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C98" s="38" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D98" s="38" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C99" s="38" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D99" s="38" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E99" s="37" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C100" s="38" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D100" s="38" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C101" s="38" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D101" s="38" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C102" s="38" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D102" s="38" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="292.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C103" s="38" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D103" s="38" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E103" s="38" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="438.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C104" s="38" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D104" s="38" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C105" s="38" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D105" s="38" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C106" s="38" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D106" s="38" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C107" s="38" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D107" s="38" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C108" s="38" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D108" s="38" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C109" s="38" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D109" s="38" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C110" s="38" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D110" s="37" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C111" s="38" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D111" s="37" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C112" s="38" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D112" s="38" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E112" s="38" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="38" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C113" s="38" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D113" s="38" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="303.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C114" s="38" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D114" s="38" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C115" s="38" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D115" s="38" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C116" s="38" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D116" s="38" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E116" s="38" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C117" s="38" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D117" s="38" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C118" s="38" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D118" s="38" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E118" s="38" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C119" s="38" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D119" s="38" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C120" s="38" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D120" s="38" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C121" s="38" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D121" s="38" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C122" s="38" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D122" s="38" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C123" s="38" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D123" s="38" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="426.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C124" s="38" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D124" s="38" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E124" s="38" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
   </sheetData>

--- a/improvement/quick_notes.xlsx
+++ b/improvement/quick_notes.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="633">
   <si>
     <t>Sr No</t>
   </si>
@@ -1913,8 +1913,7 @@
 </t>
   </si>
   <si>
-    <r>
-      <t>
+    <t>
 Local_irq_disable():: Disables local interrupt delivery
 local_irq_enable():: Enables local interrupt delivery
 local_irq_save():: Saves the current state of local interrupt delivery and then disables it
@@ -1926,7 +1925,6 @@
 in_interrupt():: Returns nonzero if in interrupt context and zero if in process context
 in_irq():: Returns nonzero if currently executing an interrupt handler and zero otherwise
 </t>
-    </r>
   </si>
   <si>
     <t>Bottom Halves and Deferring Work</t>
@@ -2017,8 +2015,7 @@
     <t>Raising Your Softirq</t>
   </si>
   <si>
-    <r>
-      <t>
+    <t>
 - To mark it pending, so it is run at the next invocation of do_softirq() , call raise_softirq() . 
 - For example, the networking subsystem would call,
     raise_softirq(NET_TX_SOFTIRQ);
@@ -2031,7 +2028,6 @@
     raise_softirq_irqoff(NET_TX_SOFTIRQ);
 - Softirqs are most often raised from within interrupt handlers. In the case of interrupt handlers, the interrupt handler performs the basic hardware-related work, raises the softirq, and then exits.
 </t>
-    </r>
   </si>
   <si>
     <t>Tasklets</t>
@@ -2077,8 +2073,7 @@
     <t>Using Tasklets</t>
   </si>
   <si>
-    <r>
-      <t>
+    <t>
 - Declaring Your Tasklet
     - statically create the tasklet, use one of two macros in &lt;linux/interrupt.h&gt; :
         DECLARE_TASKLET(name, func, data)
@@ -2108,7 +2103,6 @@
         /* tasklet is now enabled */
 - You can remove a tasklet from the pending queue via tasklet_kill() .
 </t>
-    </r>
   </si>
   <si>
     <t>Work Queues</t>
@@ -3596,6 +3590,395 @@
     wait_queue_head_t poll; /* polling waitqueue */
     int event; /* event count */
 }; 
+</t>
+  </si>
+  <si>
+    <t>Block I/O Layer</t>
+  </si>
+  <si>
+    <t>Anatomy of a Block Device</t>
+  </si>
+  <si>
+    <t>
+- The smallest addressable unit on a block device is a sector. Sectors come in various powers of two, but 512 bytes is the most common size.
+- Software has different goals and therefore imposes its own smallest logically addressable unit, which is the block.
+- The block is an abstraction of the filesystem—filesystems can be accessed only in multiples of a block.Although the physical device is addressable at the sector level, the kernel performs all disk operations in terms of blocks.
+- Because the device’s smallest addressable unit is the sector, the block size can be no smaller than the sector and must be a multiple of a sector.
+- The kernel also requires that a block be no larger than the page size. Therefore, block sizes are a power-of-two multiple of the sector size and are not greater than the page size. Common block sizes are 512 bytes, 1 kilobyte, and 4 kilobytes.
+- Somewhat confusingly, some people refer to sectors and blocks with different names.
+    - Sectors, the smallest addressable unit to the device, are sometimes called “hard sectors” or “device blocks.” 
+    - Meanwhile, blocks, the smallest addressable unit to the filesystem, are sometimes referred to as “filesystem blocks” or “I/O blocks.”
+</t>
+  </si>
+  <si>
+    <t>Buffers and Buffer Heads</t>
+  </si>
+  <si>
+    <t>
+- When a block is stored in memory—say, after a read or pending a write—it is stored in a buffer. Each buffer is associated with exactly one block.
+- a single page can hold one or more blocks in memory. Because the kernel requires some associated control information to accompany the data (such as from which block device and which specific block the buffer is), each buffer is associated with a descriptor.The descriptor is called a buffer head and is of type struct buffer_head .
+- The buffer_head structure holds all the information that the kernel needs to manipulate buffers and is defined in &lt;linux/buffer_head.h&gt; .
+</t>
+  </si>
+  <si>
+    <t>
+- Take a look at this structure, with comments describing each field:
+    struct buffer_head {
+        unsigned long b_state; /* buffer state flags */
+        struct buffer_head *b_this_page; /* list of page’s buffers */
+        struct page *b_page; /* associated page */
+        sector_t b_blocknr; /* starting block number */
+        size_t b_size; /* size of mapping */
+        char *b_data; /* pointer to data within the page */
+        struct block_device *b_bdev; /* associated block device */
+        bh_end_io_t *b_end_io; /* I/O completion */
+        void *b_private; /* reserved for b_end_io */
+        struct list_head b_assoc_buffers; /* associated mappings */
+        struct address_space *b_assoc_map; /* associated address space */
+        atomic_t b_count; /* use count */
+    };
+</t>
+  </si>
+  <si>
+    <t>other are skipped</t>
+  </si>
+  <si>
+    <t>Devices and Modules</t>
+  </si>
+  <si>
+    <t>Device Types</t>
+  </si>
+  <si>
+    <t>
+- Block devices
+- Often abbreviated blkdevs, block devices are addressable in device-specified chunks called blocks and generally support seeking, the random access of data. 
+- Example block devices include hard drives, Blu-ray discs, and memory devices such as flash. 
+- Block devices are accessed via a special file called a block device node and generally mounted as a filesystem.
+- Character devices
+- Often abbreviated cdevs, character devices are generally not addressable, providing access to data only as a stream, generally of characters (bytes). 
+- Example character devices include keyboards, mice, printers, and most pseudo-devices. 
+- Character devices are accessed via a special file called a character device node. Unlike with block devices, applications interact with character devices directly through their device node.
+- Network devices
+- Sometimes called Ethernet devices after the most common type of network devices, network devices provide access to a network (such as the Internet) via a physical adapter (such as your laptop’s 802.11 card) and a specific protocol (such as IP). 
+- Breaking Unix’s “everything is a file” design principle, network devices are not accessed via a device node but with a special interface called the socket API.
+- Miscellaneous devices
+- Linux provides a handful of other device types, but they are specialized to a single task and not common.
+- One exception is miscellaneous devices, often abbreviated miscdevs, which are actually a simplified form of character devices. 
+- Miscellaneous devices enable a device driver author to represent simple devices easily, trading functionality for common infrastructure.
+- Pseudo devices
+- Not all device drivers represent physical devices. Some device drivers are virtual, providing access to kernel functionality.We call these pseudo devices; 
+- some of the most common are the kernel random number generator (accessible at /dev/random and /dev/urandom ), the null device (accessible at /dev/null ), the zero device (accessible at /dev/zero ), the full device (accessible at /dev/full ), and the memory device (accessible at /dev/mem ). Most device drivers, however, represent physical hardware.
+</t>
+  </si>
+  <si>
+    <t>Managing Configuration Options</t>
+  </si>
+  <si>
+    <t>
+- All you have to do is add an entry to the Kconfig file responsible for the applicable branch of the kernel source tree.
+    - For drivers, this is usually the directory in which the source lives. If the fishing pole driver lives in drivers/char/ , you use drivers/char/Kconfig.
+- If you created a new subdirectory and want a new Kconfig file to live there, you need to source it from an existing Kconfig.
+    - You do this by adding a line such as the following to an existing Kconfig file:
+    source “drivers/char/fishing/Kconfig”
+    - In this example, you would add this line to drivers/char/Kconfig. Entries in Kconfig are easy to add. Our fishing pole module would look like this:
+    config FISHING_POLE
+        tristate “Fish Master 3000 support”
+        default n
+        help
+        If you say Y here, support for the Fish Master 3000 with computer
+        interface will be compiled into the kernel and accessible via a
+        device node. You can also say M here and the driver will be built as a
+        module named fishing.ko.
+        If unsure, say N.    
+    - The first line defines what configuration option this entry represents. Note that the CONFIG_prefix is assumed and not written.
+    - The second line states that this option is a tristate, meaning that it can be built into the kernel (Y), built as a module (M), or not built at all (N).we can use the directive bool instead of tristate. The quoted text following the directive provides the name of this option in the various configuration utilities.
+    - The third line specifies the default for this option, which is not built ( n ).You can also specify the default as built into the kernel ( y ) or built as a module ( m ). For device drivers, the default is usually to not build it ( n ).
+    - The help directive signifies that the rest of the test, indented as it is, is the help text for this entry.
+</t>
+  </si>
+  <si>
+    <t>
+    - There are other options, too.The depends directive specifies options that must be set before this option can be set. If the dependencies are not met, the option is disabled.
+        - For example, if you added the following directive to the Kconfig entry, the device driver could not be enabled ( y or m ) until the CONFIG_FISH_TANK option is enabled:
+        depends on FISH_TANK
+    - The select directive is like depends , except that it forces the given option if our option is selected.The select directive should not be used as frequently as depends because it automatically enables other configuration options.
+        - The following line enables CONFIG_BAIT whenever CONFIG_FISHING_POLE is enabled:
+        select BAIT
+    - For both select and depends , you can request multiple options via &amp;&amp; .With depends , you can also specify that an option not be enabled by prefixing the option with an exclamation mark. 
+        - For example
+        depends on EXAMPLE_DRIVERS &amp;&amp; !NO_FISHING_ALLOWED
+        This line specifies that the driver depends on CONFIG_EXAMPLE_DRIVERS being set and CONFIG_NO_FISHING_ALLOWED being unset.
+    - The tristate and bool options can be followed by the directive if , which makes the entire option conditional on another configuration option. If the condition is not met, the configuration option is not only disabled but also does not appear in the configuration utilities. 
+        - For example, this directive instructs the configuration system to display an option only if CONFIG_OCEAN is set. Here, deep sea mode is available only if CONFIG_OCEAN is enabled:
+        bool “Deep Sea Mode” if OCEAN
+        The if directive can also follow the default directive, enforcing the default only if the conditional is met.
+    - The option CONFIG_DEBUG_KERNEL enables the selection of debugging-related options. Finally, the CONFIG_EXPERIMENTAL option is used to flag options that are experimental or otherwise of beta quality.
+</t>
+  </si>
+  <si>
+    <t>Module Parameters</t>
+  </si>
+  <si>
+    <t>
+- The macro does not declare the variable for you.You must do that before using the macro.Therefore, typical use might resemble.
+- module_param( name , type , perm );
+    - name is the name of both the parameter exposed to the user and the variable holding the parameter inside your module.
+    - The type argument holds the parameter’s data type; 
+    - it is one of byte , short , ushort , int , uint , long , ulong , charp , bool , or invbool. These types are, respectively, a byte, a short integer, an unsigned short integer, an integer, an unsigned integer, a long integer, an unsigned long integer, a pointer to a char , a Boolean, and a Boolean whose value is inverted from what the user specifies.The byte type is stored in a single char and the Boolean types are stored in variables of type int .
+    - The perm argument specifies the permissions of the corresponding file in sysfs.The permissions can be specified in the usual octal format, for example 0644 (owner can read and write, group can read, everyone else can read), or by ORing together the usual S_Ifoo defines.
+    - This would be in the outermost scope of your module’s source file. In other words, allow_live_bait is global to the file.
+- module_param_named( name , variable , type , perm );
+    - It is possible to have the internal variable named differently than the external parameter.This is accomplished via module_param_named() :
+    - Here, name is the externally viewable parameter name, and variable is the name of the internal global variable. For example
+- module_param_string( name , string , len , perm );
+    - it is also possible to have the kernel copy the string directly into a character array that you supply.This is done via module_param_string() :
+    - len is the size of the buffer named by string (or some smaller size, but that does not makemuch sense),
+    - perm is the sysfs permissions (or zero to disable a sysfs entry altogether).
+- module_param_array(name, type, nump, perm);
+- module_param_array_named( name , array , type , nump , perm );
+- MODULE_PARM_DESC(name, “Description”);  
+</t>
+  </si>
+  <si>
+    <t>
+    -   static int allow_live_bait = 1; /* default to on */
+        module_param(allow_live_bait, bool, 0644); /* a Boolean type */
+    -   static unsigned int max_test = DEFAULT_MAX_LINE_TEST;
+        module_param_named(maximum_line_test, max_test, int, 0);
+    -   static char species[BUF_LEN];
+        module_param_string(specifies, species, BUF_LEN, 0);
+    -   static int fish[MAX_FISH];
+        static int nr_fish;
+        module_param_array(fish, int, &amp;nr_fish, 0444);
+</t>
+  </si>
+  <si>
+    <t>Kobjects</t>
+  </si>
+  <si>
+    <t>
+- At the heart of the device model is the kobject, short for kernel object, which is represented by struct kobject and defined in &lt;linux/kobject.h&gt; .
+- It provides basic facilities, such as reference counting, a name, and a parent pointer, enabling the creation of a hierarchy of objects.
+- The sd pointer points to a sysfs_dirent structure that represents this kobject in sysfs. Inside this structure is an inode structure representing the kobject in the sysfs filesystem.
+- The kref structure provides reference counting.
+- The ktype and kset structures describe and group kobjects.
+- Kobjects are usually embedded in other structures and are generally not interesting on their own. Instead, a more important structure, such as struct cdev , defined in  &lt;linux/cdev.h&gt; , has a kobj member:
+- When kobjects are embedded inside other structures, the structures receive the stan dardized functions that a kobject provides. Most important, the structure’s embedded kobject now enables the structure to become part of an object hierarchy.
+</t>
+  </si>
+  <si>
+    <t>
+Struct kobject {
+    const char *name;
+    struct list_head entry;
+    struct kobject *parent;
+    struct kset *kset;
+    struct kobj_type *ktype;
+    struct sysfs_dirent *sd;
+    struct kref kref;
+    unsigned int state_initialized:1;
+    unsigned int state_in_sysfs:1;
+    unsigned int state_add_uevent_sent:1;
+    unsigned int state_remove_uevent_sent:1;
+    unsigned int uevent_suppress:1;
+};
+/* cdev structure - object representing a character device */
+struct cdev {
+    struct kobject kobj;
+    struct module *owner;
+    const struct file_operations *ops;
+    struct list_head list;
+    dev_t dev;
+    unsigned int count;
+};
+</t>
+  </si>
+  <si>
+    <t>ktype</t>
+  </si>
+  <si>
+    <r>
+      <t>
+- Kobjects are associated with a specific type, called a ktype.
+- Ktypes are represented by struct kobj_type and defined in &lt;linux/kobject.h&gt; :
+- Ktypes have the simple job of describing default behavior for a family of kobjects.
+- Instead of each kobject defining its own behavior, the behavior is stored in a ktype, and kobjects of the same “type” point at the same ktype structure, thus sharing the same behavior.
+- The release pointer points to the deconstructor called when a kobject’s reference count reaches zero.This function is responsible for freeing any memory associated with this kobject and otherwise cleaning up.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>
+Struct kobj_type {
+    void (*release)(struct kobject *);
+    const struct sysfs_ops *sysfs_ops;
+    struct attribute
+    **default_attrs;
+};
+</t>
+  </si>
+  <si>
+    <t>kset</t>
+  </si>
+  <si>
+    <t>
+- Ksets, short for kernel object sets, are aggregate collections of kobjects. Ksets work as the base container class for a set of kernel objects, collecting related kobjects, such as “all block devices,” together in a single place. 
+- Ksets might sound similar to ktypes and prompt the question,“Why have both?” Ksets group related kernel objects together, whereas ktypes enable kernel objects (functionally related or not) to share common operations.
+- The distinction is kept to allow kobjects of identical ktypes to be grouped into different ksets.That is, there are only a handful of ktypes, but many ksets, in the Linux kernel.
+- The kset pointer points at a kobject’s associated kset. ksets are represented by the kset structure, which is declared in &lt;linux/kobject.h&gt; :
+- In this structure, list is a linked list of all kobjects in this kset, list_lock is a spinlockprotecting this entry in the list, kobj is a kobject representing the base class for this set, and uevent_ops points to a structure that describes the hotplug behavior of kobjects in this kset.
+- Uevent, short for user events, is a mechanism for communicating with user-space information about the hotplugging and hot removal of devices from a system.
+</t>
+  </si>
+  <si>
+    <t>
+struct kset {
+    struct list_head list;
+    spinlock_t list_lock;
+    struct kobject kobj;
+    struct kset_uevent_ops *uevent_ops;
+};
+</t>
+  </si>
+  <si>
+    <t>Interrelation of Kobjects, Ktypes, and Ksets</t>
+  </si>
+  <si>
+    <t>
+- The important key object is the kobject, represented by struct kobject .The kobject introduces basic object properties—such as reference counting, parent-child relationship, and naming—to kernel data structures.The kobject structure provides these features in a standard unified way. Kobjects, in and of themselves, are not particularly useful. Instead, kobjects are typically embedded in other data structures, giving those containing structures the features of the kobject.
+- Kobjects are associated with a specific ktype, which is represented by struct kobj_type and pointed at by the ktype variable inside of the kobject. ktypes define some default properties of related kobjects: destruction behavior, sysfs behavior, and default attributes.The ktype structure is not well named; think of ktypes not as a grouping but as a set of shared operations.
+- Kobjects are then grouped into sets, called ksets, which are represented by struct kset . Ksets provide two functions. First, their embedded kobject acts as a base class for a group of kobjects. Second, ksets aggregate together related kobjects. In sysfs, kobjects are the individual directories in the filesystem. Related directories—say, perhaps all subdirectories of a given directory—might be in the same kset.
+</t>
+  </si>
+  <si>
+    <t>Managing and Manipulating Kobjects</t>
+  </si>
+  <si>
+    <r>
+      <t>
+- The first step in using a kobject is declaring and initializing it. this is done using following which is declared in &lt;linux/kobject.h&gt; :
+    struct kobject * kobject_create(void);
+- After initialization, the kobject’s reference count is set to one. So long as the reference count is nonzero, the object continues to exist in memory and is said to be pinned.
+    - When the code is finished with the object, the reference count is decremented. 
+    - When the reference count reaches zero, the object can be destroyed and any associated memory freed.
+    struct kobject * kobject_get(struct kobject *kobj); // increment reference count (getting)
+    void kobject_put(struct kobject *kobj); // decrement reference count (putting)
+</t>
+    </r>
+  </si>
+  <si>
+    <t>sysfs</t>
+  </si>
+  <si>
+    <t>
+- The magic behind sysfs is simply tying kobjects to directory entries via the dentry member inside each kobject.
+- The root of the sysfs contains at least 10 directories: block , bus , class , dev , devices , firmware , fs , kernel , module , and power .
+- The block directory contains one directory for each of the registered block devices on the system. Each of those directories, in turn, contains any partitions on the block device.
+- The bus directory provides a view of the system buses.
+- The class directory contains a view of the devices on the system organized by high-level function.
+- The dev directory is a view of registered device nodes.
+- The devices directory is a view of the device topology of the system. It maps directly to the hierarchy of device structures inside the kernel.
+- The firmware directory contains a system-specific tree of low-level subsystems such as ACPI, EDD, EFI, and so on.
+- The fs directory contains a view of registered filesystems.
+- The kernel directory contains kernel configuration options and status information.
+- the modules directory contains a view of the system’s loaded modules.
+- The power directory contains systemwide power management data.
+- Not all systems have all directories and yet other systems have directories not mentioned here.
+- The most important directory is devices , which exports the device model to the world.The directory structure is the actual device topology of the system. 
+- Much of the data in other directories is simply alternative organizations of the data in the devices directory. For example, /sys/class/net/ organizes devices by the high-level concept of registered network interfaces. Inside this directory might be the subdirectory eth0 , which contains the symlink device back to the actual device directory in devices .
+</t>
+  </si>
+  <si>
+    <t>Adding and Removing kobjects from sysfs</t>
+  </si>
+  <si>
+    <t>
+- Initialized kobjects are not automatically exported to sysfs.To represent a kobject to sysfs, you use kobject_add() :
+    int kobject_add(struct kobject *kobj, struct kobject *parent, const char *fmt, ...);
+- A given kobject’s location in sysfs depends on the kobject’s location in the object hierarchy. 
+- If the kobject’s parent pointer is set, the kobject maps to a subdirectory in sysfs inside its parent. 
+- If the parent pointer is not set, the kobject maps to a subdirectory inside kset-&gt;kobj.
+- If neither the parent nor the kset fields are set in the given kobject, the kobject is assumed to have no parent and maps to a root-level directory in sysfs. 
+- In most use cases, one or both of parent and kset should be set appropriately before kobject_add() is called.
+- Note that kobject_create_and_add() receives the name of the kobject’s directory as a direct pointer, name , while kobject_add() uses printf() -style formatting.
+- Removing a kobject’s sysfs representation is done via kobject_del() :
+    void kobject_del(struct kobject *kobj);
+- All of these functions are defined in lib/kobject.c and declared in &lt;linux/kobject.h&gt; .
+</t>
+  </si>
+  <si>
+    <t>
+- The helper function kobject_create_and_add() combines the work of kobject_create() and kobject_add() into one function:
+    struct kobject * kobject_create_and_add(const char *name, struct kobject *parent);
+</t>
+  </si>
+  <si>
+    <t>Adding Files to sysfs</t>
+  </si>
+  <si>
+    <t>
+- Default attributes
+- A default set of files is provided via the ktype field in kobjects and ksets. 
+- Consequently, all kobjects of the same type have the same default set of files populating their sysfs directories.
+- The kobj_type structure contains a member, default_attrs , that is an array of attribute structures. Attributes map kernel data to files in sysfs.
+- The name member provides the name of this attribute.This will be the filename of the resulting file in sysfs.
+- The owner member points to a module structure representing the owning module, if any. If a module does not own this attribute, this field is NULL .
+- The mode member is a mode_t type that specifies the permissions for the file in sysfs.
+- Although default_attrs lists the default attributes, sysfs_ops describes how to use them.
+- The show() method is invoked when the sysfs entry is read from user-space. It must copy the value of the attribute given by attr into the buffer provided by buffer .The buffer is PAGE_SIZE bytes in length; on x86, PAGE_SIZE is 4096 bytes.
+- The function should return the size in bytes of data actually written into buffer on success or a negative error code on failure.
+- The store() method is invoked on write. It must read the size bytes from buffer into the variable represented by the attribute attr .The size of the buffer is always PAGE_SIZE or smaller.
+- The function should return the size in bytes of data read from buffer on success or a negative error code on failure.
+- Creating New Attributes
+- some specific instance of a kobject is somehow special. It wants or even needs its own attributes—perhaps to provide data or functionality not shared by the more general ktype.To this end, the kernel provides the sysfs_create_file() interface
+- for adding new attributes on top of the default set:
+    int sysfs_create_file(struct kobject *kobj, const struct attribute *attr);
+- In addition to creating actual files, it is possible to create symbolic links. Creating a symlink in sysfs is easy:
+    int sysfs_create_link(struct kobject *kobj, struct kobject *target, char *name);    
+- Note that the sysfs_ops specified in the kobject’s ktype is invoked to handle this new attribute.The existing default show() and store() methods must be capable of handling the newly created attribute.
+- Destroying Attributes
+- Removing an attribute is handled via sysfs_remove_file() :
+    void sysfs_remove_file(struct kobject *kobj, const struct attribute *attr);
+- Upon call return, the given attribute no longer appears in the given kobject’s directory.
+- Symbolic links created with sysfs_create_link() can be removed with sysfs_remove_link() :
+    void sysfs_remove_link(struct kobject *kobj, char *name);
+</t>
+  </si>
+  <si>
+    <r>
+      <t>
+- default attributes
+    The attribute structure is defined in &lt;linux/sysfs.h&gt; :
+    /* attribute structure - attributes map kernel data to a sysfs file */
+    struct attribute {
+        const char *name; /* attribute’s name */
+        struct module *owner; /* owning module, if any */
+        mode_t mode; /* permissions */
+    };
+    - The sysfs_ops member is a pointer to a structure of the same name, which is defined in &lt;linux/sysfs.h&gt; :
+    struct sysfs_ops {
+        /* method invoked on read of a sysfs file */
+        ssize_t (*show) (struct kobject *kobj, struct attribute *attr, char *buffer);
+        /* method invoked on write of a sysfs file */
+        ssize_t (*store) (struct kobject *kobj, struct attribute *attr, const char *buffer, size_t size);
+    };
+</t>
+    </r>
+  </si>
+  <si>
+    <t>The Kernel Events Layer</t>
+  </si>
+  <si>
+    <t>
+- The Kernel Event Layer implements a kernel-to-user notification system on top of kobjects.
+- The Kernel Event Layer models events as signals emitting from objects—specifically, kobjects. Because kobjects map to sysfs paths, the source of each event is a sysfs path. If the event in question has to do with your first hard drive, /sys/block/hda is the source address. Internally, inside the kernel, we model the event as originating from the backing kobject.
+- Each event is given a verb or action string representing the signal.The strings are terms such as modified or unmounted that describe what happened. Finally, each event has an optional payload. Rather than pass an arbitrary string to user-space that provides the payload, the kernel event layer represents payloads as sysfs attributes.
+- Internally, the kernel events go from kernel-space out to user-space via netlink. Netlink is a high-speed multicast socket that transmits networking information. Using netlink means that obtaining kernel events from user-space is as simple as blocking on a socket.The intention is for user-space to implement a system daemon that listens on the socket, processes any read events, and transmits the events up the system stack.
+- To send events out to user-space from your kernel code, use kobject_uevent() :
+    int kobject_uevent(struct kobject *kobj, enum kobject_action action);
+    - The first parameter specifies the kobject emitting this signal.
+    - The second parameter specifies the action or verb describing this signal.The actual kernel event contains a string that maps to the provided enum kobject_action value.
+- This and related functions are defined in lib/kobject_uevent.c and declared in &lt;linux/kobject.h&gt; .
 </t>
   </si>
 </sst>
@@ -3708,7 +4091,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3731,6 +4114,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFEEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3333"/>
+        <bgColor rgb="FFFF6600"/>
       </patternFill>
     </fill>
   </fills>
@@ -3775,7 +4164,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3936,6 +4325,14 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -3949,7 +4346,7 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFFF3333"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -6214,10 +6611,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F124"/>
+  <dimension ref="A1:F141"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E99" activeCellId="0" sqref="E99"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A141" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C141" activeCellId="0" sqref="C141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -7360,6 +7757,158 @@
       </c>
       <c r="E124" s="38" t="s">
         <v>593</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B125" s="38" t="s">
+        <v>594</v>
+      </c>
+      <c r="C125" s="38" t="s">
+        <v>595</v>
+      </c>
+      <c r="D125" s="38" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C126" s="38" t="s">
+        <v>597</v>
+      </c>
+      <c r="D126" s="38" t="s">
+        <v>598</v>
+      </c>
+      <c r="E126" s="38" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C127" s="40" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D128" s="37"/>
+    </row>
+    <row r="129" customFormat="false" ht="438.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B129" s="38" t="s">
+        <v>601</v>
+      </c>
+      <c r="C129" s="38" t="s">
+        <v>602</v>
+      </c>
+      <c r="D129" s="37" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C130" s="38" t="s">
+        <v>604</v>
+      </c>
+      <c r="D130" s="37" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D131" s="38" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C132" s="38" t="s">
+        <v>607</v>
+      </c>
+      <c r="D132" s="38" t="s">
+        <v>608</v>
+      </c>
+      <c r="E132" s="38" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="281.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C133" s="38" t="s">
+        <v>610</v>
+      </c>
+      <c r="D133" s="38" t="s">
+        <v>611</v>
+      </c>
+      <c r="E133" s="38" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C134" s="38" t="s">
+        <v>613</v>
+      </c>
+      <c r="D134" s="38" t="s">
+        <v>614</v>
+      </c>
+      <c r="E134" s="38" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C135" s="38" t="s">
+        <v>616</v>
+      </c>
+      <c r="D135" s="38" t="s">
+        <v>617</v>
+      </c>
+      <c r="E135" s="41" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C136" s="38" t="s">
+        <v>619</v>
+      </c>
+      <c r="D136" s="38" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C137" s="38" t="s">
+        <v>621</v>
+      </c>
+      <c r="D137" s="38" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="314.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C138" s="38" t="s">
+        <v>623</v>
+      </c>
+      <c r="D138" s="38" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C139" s="38" t="s">
+        <v>625</v>
+      </c>
+      <c r="D139" s="38" t="s">
+        <v>626</v>
+      </c>
+      <c r="E139" s="38" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="471.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C140" s="38" t="s">
+        <v>628</v>
+      </c>
+      <c r="D140" s="38" t="s">
+        <v>629</v>
+      </c>
+      <c r="E140" s="38" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="247.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C141" s="38" t="s">
+        <v>631</v>
+      </c>
+      <c r="D141" s="38" t="s">
+        <v>632</v>
       </c>
     </row>
   </sheetData>
